--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A43AAD6-54A5-CA41-9F00-B8E43DDCA23D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5368C-6828-C34C-BFB0-ED5885B77CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -11939,7 +11939,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E19" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
@@ -16483,7 +16483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="91" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -29099,10 +29099,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29401,6 +29401,21 @@
         <v>778</v>
       </c>
       <c r="E19" s="139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="300">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="303"/>
+      <c r="C20" s="367" t="s">
+        <v>883</v>
+      </c>
+      <c r="D20" s="385" t="s">
+        <v>778</v>
+      </c>
+      <c r="E20" s="308" t="s">
         <v>339</v>
       </c>
     </row>
@@ -34030,8 +34045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5368C-6828-C34C-BFB0-ED5885B77CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E3F5E-4617-CD4E-BB06-FB3EB01BF774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29102,7 +29102,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E3F5E-4617-CD4E-BB06-FB3EB01BF774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36F5D5-881A-0741-8136-F05A5819886D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,6 +2971,9 @@
   </si>
   <si>
     <t>Update a case</t>
+  </si>
+  <si>
+    <t>caseworker-befta_master-solicitor</t>
   </si>
 </sst>
 </file>
@@ -11939,7 +11942,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
@@ -13323,7 +13326,7 @@
   <dimension ref="A1:CR65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29099,10 +29102,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29110,7 +29113,7 @@
     <col min="1" max="1" width="30.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="28" style="13" customWidth="1"/>
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
@@ -29416,6 +29419,21 @@
         <v>778</v>
       </c>
       <c r="E20" s="308" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="300">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="303"/>
+      <c r="C21" s="367" t="s">
+        <v>884</v>
+      </c>
+      <c r="D21" s="385" t="s">
+        <v>945</v>
+      </c>
+      <c r="E21" s="308" t="s">
         <v>339</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E3F5E-4617-CD4E-BB06-FB3EB01BF774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB58C9-A6C3-8B4C-A28D-B13BF82A9D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,6 +2971,9 @@
   </si>
   <si>
     <t>Update a case</t>
+  </si>
+  <si>
+    <t>http://localhost:5555/.*/mid_event_dynamic_list</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2985,7 @@
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3380,6 +3383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -3651,7 +3660,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="439">
+  <cellXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4777,6 +4786,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -16483,8 +16493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16498,7 +16508,7 @@
     <col min="7" max="7" width="13.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="51" style="6" customWidth="1"/>
     <col min="11" max="11" width="29.83203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="33.83203125" style="6" customWidth="1"/>
     <col min="13" max="13" width="34.83203125" style="6" customWidth="1"/>
@@ -16666,7 +16676,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74">
         <v>42736</v>
       </c>
@@ -16690,8 +16700,8 @@
       <c r="I4" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="J4" s="127" t="s">
-        <v>532</v>
+      <c r="J4" s="439" t="s">
+        <v>945</v>
       </c>
       <c r="K4" s="128"/>
       <c r="L4" s="128"/>
@@ -18261,7 +18271,6 @@
   <hyperlinks>
     <hyperlink ref="J34" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J35" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{B1AF49E4-49FA-C84C-94E6-3BBDD6902A47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18269,7 +18278,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -29101,7 +29110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB58C9-A6C3-8B4C-A28D-B13BF82A9D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD943EB-1BD2-FE4A-8CEB-48F0F1F092B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2973,7 +2973,7 @@
     <t>Update a case</t>
   </si>
   <si>
-    <t>http://localhost:5555/.*/mid_event_dynamic_list</t>
+    <t>http://docker.for.mac.local:5555/.*/mid_event_dynamic_list</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +2985,7 @@
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3381,12 +3381,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF505050"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4786,7 +4780,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -16494,7 +16488,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16676,7 +16670,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74">
         <v>42736</v>
       </c>
@@ -18271,6 +18265,7 @@
   <hyperlinks>
     <hyperlink ref="J34" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J35" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{743EFEFD-EBD5-E24A-BC78-73EA12580CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18278,7 +18273,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD943EB-1BD2-FE4A-8CEB-48F0F1F092B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0E023-E4FB-6646-A866-9A1E7D3446E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2973,7 +2973,7 @@
     <t>Update a case</t>
   </si>
   <si>
-    <t>http://docker.for.mac.local:5555/.*/mid_event_dynamic_list</t>
+    <t>https://run.mocky.io/v3/8f97e310-a289-487c-b2cf-be9616d8780a</t>
   </si>
 </sst>
 </file>
@@ -16488,7 +16488,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18265,7 +18265,7 @@
   <hyperlinks>
     <hyperlink ref="J34" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J35" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{743EFEFD-EBD5-E24A-BC78-73EA12580CB1}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{F0F3D6CA-C316-0743-B6E4-55B16FB90A56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60358F5-9BA8-E04D-80E2-13CFD9E36321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AD97-5B7B-3943-ADB5-C96E8882FC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,15 +2971,6 @@
   </si>
   <si>
     <t>Update a case</t>
-  </si>
-  <si>
-    <t>FT_SearchInputByRole</t>
-  </si>
-  <si>
-    <t>FT_Search Input By Role</t>
-  </si>
-  <si>
-    <t>CaseType for testing Search and Workbasket Input Filters by role</t>
   </si>
 </sst>
 </file>
@@ -4809,527 +4800,6 @@
   </cellStyles>
   <dxfs count="303">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0432FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -6206,6 +5676,205 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0432FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -11375,6 +11044,328 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -11968,174 +11959,174 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="184" dataDxfId="182" headerRowBorderDxfId="183" tableBorderDxfId="181" totalsRowBorderDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="161"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="160"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="159"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T39" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T39" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="165"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="164"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="163"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="162"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="161"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="160"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="159"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="158"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="157" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="156"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="155"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="154"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="153"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="152"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="151"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="150"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="149"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="148"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="143" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="141"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="140"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="138"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="137"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="136"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="135"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="134"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q156" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q156" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="131"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="130"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="127"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="120"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="118"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="117"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="116"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E20" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F130" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F130" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12154,174 +12145,175 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F47" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F47" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F35" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="283" dataDxfId="281" headerRowBorderDxfId="282" tableBorderDxfId="280" totalsRowBorderDxfId="279">
+  <autoFilter ref="A3:I17" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="278"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="277"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="276"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="275"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="274"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="273"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="272"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M128" totalsRowShown="0" headerRowDxfId="283" dataDxfId="281" headerRowBorderDxfId="282" tableBorderDxfId="280" totalsRowBorderDxfId="279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M128" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266" totalsRowBorderDxfId="265">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="278"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="277"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="276"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="273"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="272"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="271"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="270"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="269"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="268"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="267"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="266"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="263"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="261"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="258"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="257"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="255"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="254"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="253"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:R76" totalsRowShown="0" headerRowDxfId="265" dataDxfId="263" headerRowBorderDxfId="264" tableBorderDxfId="262" totalsRowBorderDxfId="261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:R76" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248" totalsRowBorderDxfId="247">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="260"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="259"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="258"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="257"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="256"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="255"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="254"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="253"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="252"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="251"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="250"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="249"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="248"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="247"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="246"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="245"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="244"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="243"/>
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="246"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="245"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="243"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="242"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="241"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="240"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="239"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="238"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="237"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="236"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="235"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="234"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="233"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="232"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="231"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="230"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="229"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="242" dataDxfId="240" headerRowBorderDxfId="241" tableBorderDxfId="239" totalsRowBorderDxfId="238" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="236"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="235"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="234"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="232"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="231"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="220"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="218"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="217"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="230" dataDxfId="228" headerRowBorderDxfId="229" tableBorderDxfId="227" totalsRowBorderDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="220"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="219"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="218"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="217"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="216"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="215"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="214"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="208"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="207"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="205"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="204"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="203"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="202"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="201"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="213" dataDxfId="211" headerRowBorderDxfId="212" tableBorderDxfId="210" totalsRowBorderDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="206"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="205"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="191"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="190"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="189"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L65" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198" totalsRowBorderDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L65" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="195"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="191"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="189"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="188"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="187"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="186"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="185"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -34219,10 +34211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34642,30 +34634,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="422">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="420"/>
-      <c r="C18" s="130" t="s">
-        <v>945</v>
-      </c>
-      <c r="D18" s="130" t="s">
-        <v>946</v>
-      </c>
-      <c r="E18" s="420" t="s">
-        <v>947</v>
-      </c>
-      <c r="F18" s="420" t="s">
-        <v>775</v>
-      </c>
-      <c r="G18" s="420"/>
-      <c r="H18" s="420"/>
-      <c r="I18" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
@@ -34688,7 +34668,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -34698,17 +34678,6 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="64" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AD97-5B7B-3943-ADB5-C96E8882FC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00532A-535D-094E-92EB-63ABCC323FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,6 +2971,9 @@
   </si>
   <si>
     <t>Update a case</t>
+  </si>
+  <si>
+    <t>https://run.mocky.io/v3/8f97e310-a289-487c-b2cf-be9616d8780a</t>
   </si>
 </sst>
 </file>
@@ -16651,8 +16654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16859,7 +16862,7 @@
         <v>489</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>532</v>
+        <v>945</v>
       </c>
       <c r="K4" s="114"/>
       <c r="L4" s="114"/>
@@ -18429,7 +18432,7 @@
   <hyperlinks>
     <hyperlink ref="J34" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J35" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{B1AF49E4-49FA-C84C-94E6-3BBDD6902A47}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{7A935D76-EA43-7642-A3D0-D3F6903BBD83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -34213,7 +34216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AD97-5B7B-3943-ADB5-C96E8882FC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4F992-642F-3E49-952F-DF0A0D526CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="946">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2971,6 +2971,9 @@
   </si>
   <si>
     <t>Update a case</t>
+  </si>
+  <si>
+    <t>caseworker-befta_master-solicitor</t>
   </si>
 </sst>
 </file>
@@ -3661,7 +3664,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4781,6 +4784,12 @@
     <xf numFmtId="49" fontId="42" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -12106,7 +12115,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
@@ -12119,7 +12128,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F130" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
@@ -12157,7 +12166,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F47" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
@@ -12171,7 +12180,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
@@ -29267,10 +29276,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29278,7 +29287,7 @@
     <col min="1" max="1" width="30.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="13" customWidth="1"/>
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
@@ -29584,6 +29593,21 @@
         <v>778</v>
       </c>
       <c r="E20" s="294" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="265" t="s">
+        <v>884</v>
+      </c>
+      <c r="D21" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="E21" s="125" t="s">
         <v>339</v>
       </c>
     </row>
@@ -29721,10 +29745,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29733,7 +29757,7 @@
     <col min="2" max="2" width="15.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="14" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="19"/>
   </cols>
@@ -29975,38 +29999,38 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="292" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="287"/>
-      <c r="C14" s="288" t="s">
+      <c r="A14" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="D14" s="293" t="s">
+      <c r="D14" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="E14" s="289" t="s">
+      <c r="E14" s="81" t="s">
         <v>778</v>
       </c>
-      <c r="F14" s="294" t="s">
+      <c r="F14" s="115" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="292" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="287"/>
-      <c r="C15" s="288" t="s">
+      <c r="A15" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="D15" s="293" t="s">
+      <c r="D15" s="65" t="s">
         <v>763</v>
       </c>
-      <c r="E15" s="289" t="s">
+      <c r="E15" s="81" t="s">
         <v>778</v>
       </c>
-      <c r="F15" s="294" t="s">
+      <c r="F15" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -30137,38 +30161,38 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="405">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="406"/>
+      <c r="A23" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="81"/>
       <c r="C23" s="65" t="s">
         <v>884</v>
       </c>
-      <c r="D23" s="407" t="s">
+      <c r="D23" s="65" t="s">
         <v>939</v>
       </c>
-      <c r="E23" s="406" t="s">
+      <c r="E23" s="81" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="408" t="s">
+      <c r="F23" s="115" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="405">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="406"/>
+      <c r="A24" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="81"/>
       <c r="C24" s="65" t="s">
         <v>884</v>
       </c>
-      <c r="D24" s="407" t="s">
+      <c r="D24" s="65" t="s">
         <v>940</v>
       </c>
-      <c r="E24" s="406" t="s">
+      <c r="E24" s="81" t="s">
         <v>778</v>
       </c>
-      <c r="F24" s="408" t="s">
+      <c r="F24" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32080,8 +32104,365 @@
         <v>339</v>
       </c>
     </row>
+    <row r="131" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="61"/>
+      <c r="C131" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D131" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F131" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
     <row r="132" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="19"/>
+      <c r="A132" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="61"/>
+      <c r="C132" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F132" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="61"/>
+      <c r="C133" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F133" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="61"/>
+      <c r="C134" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F134" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B135" s="61"/>
+      <c r="C135" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F135" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B136" s="61"/>
+      <c r="C136" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F136" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B137" s="61"/>
+      <c r="C137" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F137" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B138" s="61"/>
+      <c r="C138" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F138" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="61"/>
+      <c r="C139" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F139" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B140" s="61"/>
+      <c r="C140" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="E140" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F140" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B141" s="61"/>
+      <c r="C141" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="E141" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F141" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B142" s="61"/>
+      <c r="C142" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D142" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E142" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F142" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="143">
+        <v>42737</v>
+      </c>
+      <c r="B143" s="128"/>
+      <c r="C143" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F143" s="199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B144" s="61"/>
+      <c r="C144" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D144" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F144" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B145" s="61"/>
+      <c r="C145" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F145" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B146" s="61"/>
+      <c r="C146" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D146" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F146" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B147" s="61"/>
+      <c r="C147" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D147" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F147" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B148" s="67"/>
+      <c r="C148" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F148" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B149" s="61"/>
+      <c r="C149" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>939</v>
+      </c>
+      <c r="E149" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F149" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B150" s="324"/>
+      <c r="C150" s="73" t="s">
+        <v>884</v>
+      </c>
+      <c r="D150" s="73" t="s">
+        <v>940</v>
+      </c>
+      <c r="E150" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="F150" s="266" t="s">
+        <v>339</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
@@ -32245,10 +32626,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK47"/>
+  <dimension ref="A1:EK49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33379,6 +33760,42 @@
         <v>339</v>
       </c>
     </row>
+    <row r="48" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="430"/>
+      <c r="C48" s="73" t="s">
+        <v>884</v>
+      </c>
+      <c r="D48" s="265" t="s">
+        <v>392</v>
+      </c>
+      <c r="E48" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="F48" s="266" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="62" t="s">
+        <v>884</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="E49" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -33393,10 +33810,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:CF35"/>
+  <dimension ref="A1:CF36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34197,6 +34614,24 @@
         <v>339</v>
       </c>
     </row>
+    <row r="36" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="430"/>
+      <c r="C36" s="265" t="s">
+        <v>884</v>
+      </c>
+      <c r="D36" s="265" t="s">
+        <v>489</v>
+      </c>
+      <c r="E36" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="F36" s="266" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -34213,7 +34648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -43581,7 +44016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/HMCTS/DEVLAB/WS/STS_HMCTS/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4F992-642F-3E49-952F-DF0A0D526CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C5746-D1C4-C44C-BFD2-C6A8D6E63370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$21:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$115</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="948">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2974,6 +2968,12 @@
   </si>
   <si>
     <t>caseworker-befta_master-solicitor</t>
+  </si>
+  <si>
+    <t>retainHiddenValue</t>
+  </si>
+  <si>
+    <t>TextField=""</t>
   </si>
 </sst>
 </file>
@@ -3664,7 +3664,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="431">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4790,6 +4790,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4807,7 +4810,32 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
   </cellStyles>
-  <dxfs count="303">
+  <dxfs count="304">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -11955,374 +11983,376 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="302" dataDxfId="300" headerRowBorderDxfId="301" tableBorderDxfId="299" totalsRowBorderDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="303" dataDxfId="301" headerRowBorderDxfId="302" tableBorderDxfId="300" totalsRowBorderDxfId="299">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="297"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="296"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="294"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="293"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="298"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="297"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="296"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="295"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="294"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="163"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="162"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="161"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="160"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T39" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T39" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="143" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="140"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="138"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="136"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="135"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="134"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="144" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="141"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="139"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="137"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="136"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="135"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q156" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="117"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="116"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R156" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
+    <tableColumn id="18" xr3:uid="{22D2BD03-F5C9-1342-90B0-EF990C0C1749}" name="retainHiddenValue" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="292" dataDxfId="290" headerRowBorderDxfId="291" tableBorderDxfId="289" totalsRowBorderDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290" totalsRowBorderDxfId="289">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="284" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="287"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="286"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="285" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="283" dataDxfId="281" headerRowBorderDxfId="282" tableBorderDxfId="280" totalsRowBorderDxfId="279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="284" dataDxfId="282" headerRowBorderDxfId="283" tableBorderDxfId="281" totalsRowBorderDxfId="280">
   <autoFilter ref="A3:I17" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="278"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="277"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="276"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="273"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="272"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="279"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="278"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="277"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="276"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="275"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="274"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="273"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="272"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="271"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M128" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266" totalsRowBorderDxfId="265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M128" totalsRowShown="0" headerRowDxfId="270" dataDxfId="268" headerRowBorderDxfId="269" tableBorderDxfId="267" totalsRowBorderDxfId="266">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="263"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="262"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="261"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="260"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="259"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="258"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="257"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="256"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="255"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="254"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="253"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="252"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="264"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="263"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="262"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="261"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="259"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="258"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="257"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="256"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="255"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="254"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="253"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:R76" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248" totalsRowBorderDxfId="247">
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="242"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="241"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="240"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="239"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="238"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="237"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="236"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="235"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="234"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="233"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="232"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="231"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="230"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:S76" totalsRowShown="0" headerRowDxfId="252" dataDxfId="250" headerRowBorderDxfId="251" tableBorderDxfId="249" totalsRowBorderDxfId="248">
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="243"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="240"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="239"/>
+    <tableColumn id="19" xr3:uid="{CC708665-6CBC-F34D-B9D8-CAD2850BA184}" name="retainHiddenValue"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="238"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="237"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="236"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="235"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="234"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="233"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="232"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="231"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="229" dataDxfId="227" headerRowBorderDxfId="228" tableBorderDxfId="226" totalsRowBorderDxfId="225" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="220"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="217"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="219"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="206"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="203"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="202"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="201"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="205"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="203"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="202"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="201"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="200" dataDxfId="198" headerRowBorderDxfId="199" tableBorderDxfId="197" totalsRowBorderDxfId="196">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="189"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="188"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L65" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L65" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="173"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="172"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18453,10 +18483,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18472,15 +18502,17 @@
     <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="7" customWidth="1"/>
-    <col min="12" max="13" width="22" style="7" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.5" style="7" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="54" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="19"/>
+    <col min="12" max="12" width="22" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22" style="16" customWidth="1"/>
+    <col min="14" max="14" width="22" style="7" customWidth="1"/>
+    <col min="15" max="15" width="36.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="54" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="93" t="s">
         <v>575</v>
       </c>
@@ -18502,12 +18534,13 @@
       <c r="K1" s="97"/>
       <c r="L1" s="97"/>
       <c r="M1" s="97"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="81"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="101"/>
-    </row>
-    <row r="2" spans="1:17" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="101"/>
+    </row>
+    <row r="2" spans="1:18" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="99" t="s">
         <v>4</v>
       </c>
@@ -18544,21 +18577,22 @@
       <c r="L2" s="98" t="s">
         <v>584</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="98"/>
+      <c r="N2" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="98" t="s">
-        <v>586</v>
-      </c>
+      <c r="O2" s="62"/>
       <c r="P2" s="98" t="s">
         <v>586</v>
       </c>
-      <c r="Q2" s="126" t="s">
+      <c r="Q2" s="98" t="s">
+        <v>586</v>
+      </c>
+      <c r="R2" s="126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -18596,22 +18630,25 @@
         <v>227</v>
       </c>
       <c r="M3" s="58" t="s">
+        <v>946</v>
+      </c>
+      <c r="N3" s="58" t="s">
         <v>592</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="O3" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="P3" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="Q3" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="Q3" s="146" t="s">
+      <c r="R3" s="146" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -18644,13 +18681,14 @@
       <c r="L4" s="81"/>
       <c r="M4" s="81"/>
       <c r="N4" s="81"/>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="64"/>
-    </row>
-    <row r="5" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="64"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -18680,16 +18718,21 @@
         <v>2</v>
       </c>
       <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="L5" s="62" t="s">
+        <v>947</v>
+      </c>
+      <c r="M5" s="81" t="b">
+        <v>1</v>
+      </c>
       <c r="N5" s="81"/>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="81"/>
+      <c r="P5" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="64"/>
-    </row>
-    <row r="6" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -18720,15 +18763,18 @@
       </c>
       <c r="K6" s="81"/>
       <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="M6" s="81" t="b">
+        <v>0</v>
+      </c>
       <c r="N6" s="81"/>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="81"/>
+      <c r="P6" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="64"/>
-    </row>
-    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="81"/>
+      <c r="R6" s="64"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -18761,13 +18807,14 @@
       <c r="L7" s="81"/>
       <c r="M7" s="81"/>
       <c r="N7" s="81"/>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="64"/>
-    </row>
-    <row r="8" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -18800,13 +18847,14 @@
       <c r="L8" s="81"/>
       <c r="M8" s="81"/>
       <c r="N8" s="81"/>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="64"/>
-    </row>
-    <row r="9" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="81"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -18839,13 +18887,14 @@
       <c r="L9" s="81"/>
       <c r="M9" s="81"/>
       <c r="N9" s="81"/>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="81"/>
+      <c r="P9" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="64"/>
-    </row>
-    <row r="10" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="81"/>
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -18878,13 +18927,14 @@
       <c r="L10" s="81"/>
       <c r="M10" s="81"/>
       <c r="N10" s="81"/>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="81"/>
+      <c r="P10" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="64"/>
-    </row>
-    <row r="11" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="81"/>
+      <c r="R10" s="64"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>42736</v>
       </c>
@@ -18917,13 +18967,14 @@
       <c r="L11" s="81"/>
       <c r="M11" s="81"/>
       <c r="N11" s="81"/>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="81"/>
+      <c r="P11" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="64"/>
-    </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="81"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66">
         <v>42736</v>
       </c>
@@ -18956,13 +19007,14 @@
       <c r="L12" s="84"/>
       <c r="M12" s="84"/>
       <c r="N12" s="84"/>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="84"/>
+      <c r="P12" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="63"/>
-    </row>
-    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" s="84"/>
+      <c r="R12" s="63"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="143">
         <v>42737</v>
       </c>
@@ -18995,13 +19047,14 @@
       <c r="L13" s="129"/>
       <c r="M13" s="129"/>
       <c r="N13" s="129"/>
-      <c r="O13" s="129" t="s">
+      <c r="O13" s="129"/>
+      <c r="P13" s="129" t="s">
         <v>533</v>
       </c>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="64"/>
-    </row>
-    <row r="14" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="129"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -19034,13 +19087,14 @@
       <c r="L14" s="81"/>
       <c r="M14" s="81"/>
       <c r="N14" s="81"/>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="81"/>
+      <c r="P14" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="64"/>
-    </row>
-    <row r="15" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" s="81"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -19073,13 +19127,14 @@
       <c r="L15" s="81"/>
       <c r="M15" s="81"/>
       <c r="N15" s="81"/>
-      <c r="O15" s="62" t="s">
+      <c r="O15" s="81"/>
+      <c r="P15" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="64"/>
-    </row>
-    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="81"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -19112,13 +19167,14 @@
       <c r="L16" s="81"/>
       <c r="M16" s="81"/>
       <c r="N16" s="81"/>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="81"/>
+      <c r="P16" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="64"/>
-    </row>
-    <row r="17" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="81"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60">
         <v>42736</v>
       </c>
@@ -19151,13 +19207,14 @@
       <c r="L17" s="81"/>
       <c r="M17" s="81"/>
       <c r="N17" s="81"/>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="81"/>
+      <c r="P17" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="64"/>
-    </row>
-    <row r="18" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="81"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
@@ -19190,13 +19247,14 @@
       <c r="L18" s="81"/>
       <c r="M18" s="81"/>
       <c r="N18" s="81"/>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="81"/>
+      <c r="P18" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="64"/>
-    </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18" s="81"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66">
         <v>42736</v>
       </c>
@@ -19229,13 +19287,14 @@
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84"/>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="84"/>
+      <c r="P19" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19" s="84"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="413">
         <v>42736</v>
       </c>
@@ -19268,13 +19327,14 @@
       <c r="L20" s="417"/>
       <c r="M20" s="417"/>
       <c r="N20" s="417"/>
-      <c r="O20" s="418" t="s">
+      <c r="O20" s="417"/>
+      <c r="P20" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P20" s="417"/>
-      <c r="Q20" s="419"/>
-    </row>
-    <row r="21" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="417"/>
+      <c r="R20" s="419"/>
+    </row>
+    <row r="21" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="413">
         <v>42736</v>
       </c>
@@ -19307,13 +19367,14 @@
       <c r="L21" s="417"/>
       <c r="M21" s="417"/>
       <c r="N21" s="417"/>
-      <c r="O21" s="418" t="s">
+      <c r="O21" s="417"/>
+      <c r="P21" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P21" s="417"/>
-      <c r="Q21" s="419"/>
-    </row>
-    <row r="22" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="417"/>
+      <c r="R21" s="419"/>
+    </row>
+    <row r="22" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="413">
         <v>42736</v>
       </c>
@@ -19346,13 +19407,14 @@
       <c r="L22" s="417"/>
       <c r="M22" s="417"/>
       <c r="N22" s="417"/>
-      <c r="O22" s="418" t="s">
+      <c r="O22" s="417"/>
+      <c r="P22" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="419"/>
-    </row>
-    <row r="23" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="417"/>
+      <c r="R22" s="419"/>
+    </row>
+    <row r="23" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="413">
         <v>42736</v>
       </c>
@@ -19385,13 +19447,14 @@
       <c r="L23" s="417"/>
       <c r="M23" s="417"/>
       <c r="N23" s="417"/>
-      <c r="O23" s="418" t="s">
+      <c r="O23" s="417"/>
+      <c r="P23" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P23" s="417"/>
-      <c r="Q23" s="419"/>
-    </row>
-    <row r="24" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="417"/>
+      <c r="R23" s="419"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
@@ -19423,16 +19486,17 @@
       <c r="K24" s="81"/>
       <c r="L24" s="81"/>
       <c r="M24" s="81"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="62" t="s">
+      <c r="N24" s="81"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="144" t="s">
+      <c r="Q24" s="81"/>
+      <c r="R24" s="144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60">
         <v>42736</v>
       </c>
@@ -19465,13 +19529,14 @@
       <c r="L25" s="81"/>
       <c r="M25" s="81"/>
       <c r="N25" s="81"/>
-      <c r="O25" s="62" t="s">
+      <c r="O25" s="81"/>
+      <c r="P25" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="64"/>
-    </row>
-    <row r="26" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="81"/>
+      <c r="R25" s="64"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
         <v>42736</v>
       </c>
@@ -19504,13 +19569,14 @@
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
       <c r="N26" s="81"/>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="81"/>
+      <c r="P26" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="64"/>
-    </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" s="81"/>
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60">
         <v>42736</v>
       </c>
@@ -19543,13 +19609,14 @@
       <c r="L27" s="81"/>
       <c r="M27" s="81"/>
       <c r="N27" s="81"/>
-      <c r="O27" s="62" t="s">
+      <c r="O27" s="81"/>
+      <c r="P27" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="64"/>
-    </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="81"/>
+      <c r="R27" s="64"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60">
         <v>42736</v>
       </c>
@@ -19582,13 +19649,14 @@
       <c r="L28" s="81"/>
       <c r="M28" s="81"/>
       <c r="N28" s="81"/>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="81"/>
+      <c r="P28" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="64"/>
-    </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="81"/>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60">
         <v>42736</v>
       </c>
@@ -19621,13 +19689,14 @@
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="62" t="s">
+      <c r="O29" s="81"/>
+      <c r="P29" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="64"/>
-    </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="81"/>
+      <c r="R29" s="64"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>42736</v>
       </c>
@@ -19660,13 +19729,14 @@
       <c r="L30" s="81"/>
       <c r="M30" s="81"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="81"/>
+      <c r="P30" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="64"/>
-    </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="81"/>
+      <c r="R30" s="64"/>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>42736</v>
       </c>
@@ -19699,13 +19769,14 @@
       <c r="L31" s="81"/>
       <c r="M31" s="81"/>
       <c r="N31" s="81"/>
-      <c r="O31" s="65" t="s">
+      <c r="O31" s="81"/>
+      <c r="P31" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="64"/>
-    </row>
-    <row r="32" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="81"/>
+      <c r="R31" s="64"/>
+    </row>
+    <row r="32" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66">
         <v>42736</v>
       </c>
@@ -19738,13 +19809,14 @@
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
       <c r="N32" s="84"/>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="84"/>
+      <c r="P32" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="63"/>
-    </row>
-    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="84"/>
+      <c r="R32" s="63"/>
+    </row>
+    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60">
         <v>42736</v>
       </c>
@@ -19777,13 +19849,14 @@
       <c r="L33" s="81"/>
       <c r="M33" s="81"/>
       <c r="N33" s="81"/>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="81"/>
+      <c r="P33" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="64"/>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="81"/>
+      <c r="R33" s="64"/>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>42736</v>
       </c>
@@ -19815,14 +19888,15 @@
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="62" t="s">
+      <c r="N34" s="81"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="64"/>
-    </row>
-    <row r="35" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="81"/>
+      <c r="R34" s="64"/>
+    </row>
+    <row r="35" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="344">
         <v>42736</v>
       </c>
@@ -19855,13 +19929,14 @@
       <c r="L35" s="337"/>
       <c r="M35" s="337"/>
       <c r="N35" s="337"/>
-      <c r="O35" s="346" t="s">
+      <c r="O35" s="337"/>
+      <c r="P35" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P35" s="337"/>
-      <c r="Q35" s="350"/>
-    </row>
-    <row r="36" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="337"/>
+      <c r="R35" s="350"/>
+    </row>
+    <row r="36" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="344">
         <v>42736</v>
       </c>
@@ -19894,13 +19969,14 @@
       <c r="L36" s="337"/>
       <c r="M36" s="337"/>
       <c r="N36" s="337"/>
-      <c r="O36" s="346" t="s">
+      <c r="O36" s="337"/>
+      <c r="P36" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P36" s="337"/>
-      <c r="Q36" s="350"/>
-    </row>
-    <row r="37" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="337"/>
+      <c r="R36" s="350"/>
+    </row>
+    <row r="37" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="344">
         <v>42736</v>
       </c>
@@ -19933,13 +20009,14 @@
       <c r="L37" s="337"/>
       <c r="M37" s="337"/>
       <c r="N37" s="337"/>
-      <c r="O37" s="346" t="s">
+      <c r="O37" s="337"/>
+      <c r="P37" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P37" s="337"/>
-      <c r="Q37" s="350"/>
-    </row>
-    <row r="38" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="337"/>
+      <c r="R37" s="350"/>
+    </row>
+    <row r="38" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="344">
         <v>42736</v>
       </c>
@@ -19972,13 +20049,14 @@
       <c r="L38" s="337"/>
       <c r="M38" s="337"/>
       <c r="N38" s="337"/>
-      <c r="O38" s="346" t="s">
+      <c r="O38" s="337"/>
+      <c r="P38" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P38" s="337"/>
-      <c r="Q38" s="350"/>
-    </row>
-    <row r="39" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="337"/>
+      <c r="R38" s="350"/>
+    </row>
+    <row r="39" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="60">
         <v>42736</v>
       </c>
@@ -20011,13 +20089,14 @@
       <c r="L39" s="81"/>
       <c r="M39" s="81"/>
       <c r="N39" s="81"/>
-      <c r="O39" s="62" t="s">
+      <c r="O39" s="81"/>
+      <c r="P39" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="64"/>
-    </row>
-    <row r="40" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="81"/>
+      <c r="R39" s="64"/>
+    </row>
+    <row r="40" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="60">
         <v>42736</v>
       </c>
@@ -20050,13 +20129,14 @@
       <c r="L40" s="81"/>
       <c r="M40" s="81"/>
       <c r="N40" s="81"/>
-      <c r="O40" s="62" t="s">
+      <c r="O40" s="81"/>
+      <c r="P40" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="64"/>
-    </row>
-    <row r="41" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="81"/>
+      <c r="R40" s="64"/>
+    </row>
+    <row r="41" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="60">
         <v>42736</v>
       </c>
@@ -20089,13 +20169,14 @@
       <c r="L41" s="81"/>
       <c r="M41" s="81"/>
       <c r="N41" s="81"/>
-      <c r="O41" s="62" t="s">
+      <c r="O41" s="81"/>
+      <c r="P41" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="64"/>
-    </row>
-    <row r="42" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q41" s="81"/>
+      <c r="R41" s="64"/>
+    </row>
+    <row r="42" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="60">
         <v>42736</v>
       </c>
@@ -20128,13 +20209,14 @@
       <c r="L42" s="81"/>
       <c r="M42" s="81"/>
       <c r="N42" s="81"/>
-      <c r="O42" s="62" t="s">
+      <c r="O42" s="81"/>
+      <c r="P42" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="64"/>
-    </row>
-    <row r="43" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="81"/>
+      <c r="R42" s="64"/>
+    </row>
+    <row r="43" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="60">
         <v>42736</v>
       </c>
@@ -20167,13 +20249,14 @@
       <c r="L43" s="81"/>
       <c r="M43" s="81"/>
       <c r="N43" s="81"/>
-      <c r="O43" s="62" t="s">
+      <c r="O43" s="81"/>
+      <c r="P43" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="64"/>
-    </row>
-    <row r="44" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="81"/>
+      <c r="R43" s="64"/>
+    </row>
+    <row r="44" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="60">
         <v>42736</v>
       </c>
@@ -20206,13 +20289,14 @@
       <c r="L44" s="81"/>
       <c r="M44" s="81"/>
       <c r="N44" s="81"/>
-      <c r="O44" s="62" t="s">
+      <c r="O44" s="81"/>
+      <c r="P44" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="64"/>
-    </row>
-    <row r="45" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="81"/>
+      <c r="R44" s="64"/>
+    </row>
+    <row r="45" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="60">
         <v>42736</v>
       </c>
@@ -20245,13 +20329,14 @@
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
       <c r="N45" s="81"/>
-      <c r="O45" s="62" t="s">
+      <c r="O45" s="81"/>
+      <c r="P45" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="64"/>
-    </row>
-    <row r="46" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="81"/>
+      <c r="R45" s="64"/>
+    </row>
+    <row r="46" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="60">
         <v>42736</v>
       </c>
@@ -20284,13 +20369,14 @@
       <c r="L46" s="81"/>
       <c r="M46" s="81"/>
       <c r="N46" s="81"/>
-      <c r="O46" s="62" t="s">
+      <c r="O46" s="81"/>
+      <c r="P46" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="64"/>
-    </row>
-    <row r="47" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="81"/>
+      <c r="R46" s="64"/>
+    </row>
+    <row r="47" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60">
         <v>42736</v>
       </c>
@@ -20323,13 +20409,14 @@
       <c r="L47" s="81"/>
       <c r="M47" s="81"/>
       <c r="N47" s="81"/>
-      <c r="O47" s="62" t="s">
+      <c r="O47" s="81"/>
+      <c r="P47" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="64"/>
-    </row>
-    <row r="48" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="81"/>
+      <c r="R47" s="64"/>
+    </row>
+    <row r="48" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="60">
         <v>42736</v>
       </c>
@@ -20362,13 +20449,14 @@
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
       <c r="N48" s="81"/>
-      <c r="O48" s="62" t="s">
+      <c r="O48" s="81"/>
+      <c r="P48" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="64"/>
-    </row>
-    <row r="49" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="81"/>
+      <c r="R48" s="64"/>
+    </row>
+    <row r="49" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="60">
         <v>42736</v>
       </c>
@@ -20401,13 +20489,14 @@
       <c r="L49" s="81"/>
       <c r="M49" s="81"/>
       <c r="N49" s="81"/>
-      <c r="O49" s="62" t="s">
+      <c r="O49" s="81"/>
+      <c r="P49" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="64"/>
-    </row>
-    <row r="50" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="81"/>
+      <c r="R49" s="64"/>
+    </row>
+    <row r="50" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="60">
         <v>42736</v>
       </c>
@@ -20440,13 +20529,14 @@
       <c r="L50" s="81"/>
       <c r="M50" s="81"/>
       <c r="N50" s="81"/>
-      <c r="O50" s="62" t="s">
+      <c r="O50" s="81"/>
+      <c r="P50" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="64"/>
-    </row>
-    <row r="51" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q50" s="81"/>
+      <c r="R50" s="64"/>
+    </row>
+    <row r="51" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="60">
         <v>42736</v>
       </c>
@@ -20479,13 +20569,14 @@
       <c r="L51" s="81"/>
       <c r="M51" s="81"/>
       <c r="N51" s="81"/>
-      <c r="O51" s="62" t="s">
+      <c r="O51" s="81"/>
+      <c r="P51" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="64"/>
-    </row>
-    <row r="52" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="81"/>
+      <c r="R51" s="64"/>
+    </row>
+    <row r="52" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60">
         <v>42736</v>
       </c>
@@ -20518,13 +20609,14 @@
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
       <c r="N52" s="81"/>
-      <c r="O52" s="62" t="s">
+      <c r="O52" s="81"/>
+      <c r="P52" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="64"/>
-    </row>
-    <row r="53" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="81"/>
+      <c r="R52" s="64"/>
+    </row>
+    <row r="53" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="60">
         <v>42736</v>
       </c>
@@ -20557,13 +20649,14 @@
       <c r="L53" s="81"/>
       <c r="M53" s="81"/>
       <c r="N53" s="81"/>
-      <c r="O53" s="62" t="s">
+      <c r="O53" s="81"/>
+      <c r="P53" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="64"/>
-    </row>
-    <row r="54" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q53" s="81"/>
+      <c r="R53" s="64"/>
+    </row>
+    <row r="54" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="60">
         <v>42736</v>
       </c>
@@ -20596,13 +20689,14 @@
       <c r="L54" s="81"/>
       <c r="M54" s="81"/>
       <c r="N54" s="81"/>
-      <c r="O54" s="62" t="s">
+      <c r="O54" s="81"/>
+      <c r="P54" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="64"/>
-    </row>
-    <row r="55" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q54" s="81"/>
+      <c r="R54" s="64"/>
+    </row>
+    <row r="55" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="60">
         <v>42737</v>
       </c>
@@ -20635,13 +20729,14 @@
       <c r="L55" s="134"/>
       <c r="M55" s="134"/>
       <c r="N55" s="134"/>
-      <c r="O55" s="82" t="s">
+      <c r="O55" s="134"/>
+      <c r="P55" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P55" s="134"/>
-      <c r="Q55" s="64"/>
-    </row>
-    <row r="56" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q55" s="134"/>
+      <c r="R55" s="64"/>
+    </row>
+    <row r="56" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="60">
         <v>42738</v>
       </c>
@@ -20674,13 +20769,14 @@
       <c r="L56" s="134"/>
       <c r="M56" s="134"/>
       <c r="N56" s="134"/>
-      <c r="O56" s="82" t="s">
+      <c r="O56" s="134"/>
+      <c r="P56" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="64"/>
-    </row>
-    <row r="57" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q56" s="134"/>
+      <c r="R56" s="64"/>
+    </row>
+    <row r="57" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="60">
         <v>42739</v>
       </c>
@@ -20713,13 +20809,14 @@
       <c r="L57" s="134"/>
       <c r="M57" s="134"/>
       <c r="N57" s="134"/>
-      <c r="O57" s="82" t="s">
+      <c r="O57" s="134"/>
+      <c r="P57" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="64"/>
-    </row>
-    <row r="58" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q57" s="134"/>
+      <c r="R57" s="64"/>
+    </row>
+    <row r="58" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="60">
         <v>42740</v>
       </c>
@@ -20752,13 +20849,14 @@
       <c r="L58" s="134"/>
       <c r="M58" s="134"/>
       <c r="N58" s="134"/>
-      <c r="O58" s="82" t="s">
+      <c r="O58" s="134"/>
+      <c r="P58" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="63"/>
-    </row>
-    <row r="59" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q58" s="134"/>
+      <c r="R58" s="63"/>
+    </row>
+    <row r="59" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="60">
         <v>42741</v>
       </c>
@@ -20791,13 +20889,14 @@
       <c r="L59" s="134"/>
       <c r="M59" s="134"/>
       <c r="N59" s="134"/>
-      <c r="O59" s="82" t="s">
+      <c r="O59" s="134"/>
+      <c r="P59" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="63"/>
-    </row>
-    <row r="60" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q59" s="134"/>
+      <c r="R59" s="63"/>
+    </row>
+    <row r="60" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="60">
         <v>42742</v>
       </c>
@@ -20830,13 +20929,14 @@
       <c r="L60" s="134"/>
       <c r="M60" s="134"/>
       <c r="N60" s="134"/>
-      <c r="O60" s="82" t="s">
+      <c r="O60" s="134"/>
+      <c r="P60" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="63"/>
-    </row>
-    <row r="61" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q60" s="134"/>
+      <c r="R60" s="63"/>
+    </row>
+    <row r="61" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="60">
         <v>42743</v>
       </c>
@@ -20869,13 +20969,14 @@
       <c r="L61" s="134"/>
       <c r="M61" s="134"/>
       <c r="N61" s="134"/>
-      <c r="O61" s="82" t="s">
+      <c r="O61" s="134"/>
+      <c r="P61" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P61" s="134"/>
-      <c r="Q61" s="63"/>
-    </row>
-    <row r="62" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q61" s="134"/>
+      <c r="R61" s="63"/>
+    </row>
+    <row r="62" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="60">
         <v>42744</v>
       </c>
@@ -20908,13 +21009,14 @@
       <c r="L62" s="134"/>
       <c r="M62" s="134"/>
       <c r="N62" s="134"/>
-      <c r="O62" s="82" t="s">
+      <c r="O62" s="134"/>
+      <c r="P62" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="63"/>
-    </row>
-    <row r="63" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q62" s="134"/>
+      <c r="R62" s="63"/>
+    </row>
+    <row r="63" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="60">
         <v>42745</v>
       </c>
@@ -20947,13 +21049,14 @@
       <c r="L63" s="134"/>
       <c r="M63" s="134"/>
       <c r="N63" s="134"/>
-      <c r="O63" s="82" t="s">
+      <c r="O63" s="134"/>
+      <c r="P63" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="63"/>
-    </row>
-    <row r="64" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q63" s="134"/>
+      <c r="R63" s="63"/>
+    </row>
+    <row r="64" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="60">
         <v>42746</v>
       </c>
@@ -20986,13 +21089,14 @@
       <c r="L64" s="134"/>
       <c r="M64" s="134"/>
       <c r="N64" s="134"/>
-      <c r="O64" s="82" t="s">
+      <c r="O64" s="134"/>
+      <c r="P64" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="63"/>
-    </row>
-    <row r="65" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q64" s="134"/>
+      <c r="R64" s="63"/>
+    </row>
+    <row r="65" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="60">
         <v>42747</v>
       </c>
@@ -21025,13 +21129,14 @@
       <c r="L65" s="134"/>
       <c r="M65" s="134"/>
       <c r="N65" s="134"/>
-      <c r="O65" s="82" t="s">
+      <c r="O65" s="134"/>
+      <c r="P65" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P65" s="134"/>
-      <c r="Q65" s="63"/>
-    </row>
-    <row r="66" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q65" s="134"/>
+      <c r="R65" s="63"/>
+    </row>
+    <row r="66" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="60">
         <v>42748</v>
       </c>
@@ -21063,14 +21168,15 @@
       <c r="K66" s="134"/>
       <c r="L66" s="134"/>
       <c r="M66" s="134"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82" t="s">
+      <c r="N66" s="134"/>
+      <c r="O66" s="82"/>
+      <c r="P66" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P66" s="134"/>
-      <c r="Q66" s="70"/>
-    </row>
-    <row r="67" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q66" s="134"/>
+      <c r="R66" s="70"/>
+    </row>
+    <row r="67" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="60">
         <v>42749</v>
       </c>
@@ -21105,13 +21211,14 @@
       </c>
       <c r="M67" s="134"/>
       <c r="N67" s="134"/>
-      <c r="O67" s="82" t="s">
+      <c r="O67" s="134"/>
+      <c r="P67" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P67" s="134"/>
-      <c r="Q67" s="70"/>
-    </row>
-    <row r="68" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q67" s="134"/>
+      <c r="R67" s="70"/>
+    </row>
+    <row r="68" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="60">
         <v>42750</v>
       </c>
@@ -21146,13 +21253,14 @@
       </c>
       <c r="M68" s="134"/>
       <c r="N68" s="134"/>
-      <c r="O68" s="82" t="s">
+      <c r="O68" s="134"/>
+      <c r="P68" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="70"/>
-    </row>
-    <row r="69" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q68" s="134"/>
+      <c r="R68" s="70"/>
+    </row>
+    <row r="69" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="60">
         <v>42751</v>
       </c>
@@ -21187,13 +21295,14 @@
       </c>
       <c r="M69" s="134"/>
       <c r="N69" s="134"/>
-      <c r="O69" s="82" t="s">
+      <c r="O69" s="134"/>
+      <c r="P69" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P69" s="134"/>
-      <c r="Q69" s="70"/>
-    </row>
-    <row r="70" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q69" s="134"/>
+      <c r="R69" s="70"/>
+    </row>
+    <row r="70" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="60">
         <v>42752</v>
       </c>
@@ -21228,13 +21337,14 @@
       </c>
       <c r="M70" s="134"/>
       <c r="N70" s="134"/>
-      <c r="O70" s="82" t="s">
+      <c r="O70" s="134"/>
+      <c r="P70" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="70"/>
-    </row>
-    <row r="71" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q70" s="134"/>
+      <c r="R70" s="70"/>
+    </row>
+    <row r="71" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="60">
         <v>42753</v>
       </c>
@@ -21269,13 +21379,14 @@
       </c>
       <c r="M71" s="134"/>
       <c r="N71" s="134"/>
-      <c r="O71" s="82" t="s">
+      <c r="O71" s="134"/>
+      <c r="P71" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P71" s="134"/>
-      <c r="Q71" s="70"/>
-    </row>
-    <row r="72" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q71" s="134"/>
+      <c r="R71" s="70"/>
+    </row>
+    <row r="72" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="60">
         <v>42754</v>
       </c>
@@ -21310,13 +21421,14 @@
       </c>
       <c r="M72" s="134"/>
       <c r="N72" s="134"/>
-      <c r="O72" s="82" t="s">
+      <c r="O72" s="134"/>
+      <c r="P72" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="70"/>
-    </row>
-    <row r="73" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q72" s="134"/>
+      <c r="R72" s="70"/>
+    </row>
+    <row r="73" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="60">
         <v>42755</v>
       </c>
@@ -21351,13 +21463,14 @@
       </c>
       <c r="M73" s="134"/>
       <c r="N73" s="134"/>
-      <c r="O73" s="82" t="s">
+      <c r="O73" s="134"/>
+      <c r="P73" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="70"/>
-    </row>
-    <row r="74" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q73" s="134"/>
+      <c r="R73" s="70"/>
+    </row>
+    <row r="74" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="60">
         <v>42756</v>
       </c>
@@ -21392,13 +21505,14 @@
       </c>
       <c r="M74" s="134"/>
       <c r="N74" s="134"/>
-      <c r="O74" s="82" t="s">
+      <c r="O74" s="134"/>
+      <c r="P74" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="70"/>
-    </row>
-    <row r="75" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q74" s="134"/>
+      <c r="R74" s="70"/>
+    </row>
+    <row r="75" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="60">
         <v>42757</v>
       </c>
@@ -21431,15 +21545,16 @@
       <c r="L75" s="82" t="s">
         <v>628</v>
       </c>
-      <c r="M75" s="134"/>
+      <c r="M75" s="82"/>
       <c r="N75" s="134"/>
-      <c r="O75" s="82" t="s">
+      <c r="O75" s="134"/>
+      <c r="P75" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="70"/>
-    </row>
-    <row r="76" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q75" s="134"/>
+      <c r="R75" s="70"/>
+    </row>
+    <row r="76" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="60">
         <v>42758</v>
       </c>
@@ -21472,15 +21587,16 @@
       <c r="L76" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="M76" s="134"/>
+      <c r="M76" s="82"/>
       <c r="N76" s="134"/>
-      <c r="O76" s="82" t="s">
+      <c r="O76" s="134"/>
+      <c r="P76" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="70"/>
-    </row>
-    <row r="77" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q76" s="134"/>
+      <c r="R76" s="70"/>
+    </row>
+    <row r="77" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="60">
         <v>42759</v>
       </c>
@@ -21514,14 +21630,15 @@
         <v>630</v>
       </c>
       <c r="M77" s="82"/>
-      <c r="N77" s="134"/>
-      <c r="O77" s="82" t="s">
+      <c r="N77" s="82"/>
+      <c r="O77" s="134"/>
+      <c r="P77" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P77" s="134"/>
-      <c r="Q77" s="70"/>
-    </row>
-    <row r="78" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q77" s="134"/>
+      <c r="R77" s="70"/>
+    </row>
+    <row r="78" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="60">
         <v>42760</v>
       </c>
@@ -21555,12 +21672,13 @@
         <v>631</v>
       </c>
       <c r="M78" s="82"/>
-      <c r="N78" s="134"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="134"/>
-      <c r="Q78" s="70"/>
-    </row>
-    <row r="79" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N78" s="82"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="82"/>
+      <c r="Q78" s="134"/>
+      <c r="R78" s="70"/>
+    </row>
+    <row r="79" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="60">
         <v>42761</v>
       </c>
@@ -21591,17 +21709,18 @@
       </c>
       <c r="K79" s="134"/>
       <c r="L79" s="134"/>
-      <c r="M79" s="134" t="s">
+      <c r="M79" s="134"/>
+      <c r="N79" s="134" t="s">
         <v>478</v>
       </c>
-      <c r="N79" s="134"/>
-      <c r="O79" s="82" t="s">
+      <c r="O79" s="134"/>
+      <c r="P79" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P79" s="134"/>
-      <c r="Q79" s="70"/>
-    </row>
-    <row r="80" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q79" s="134"/>
+      <c r="R79" s="70"/>
+    </row>
+    <row r="80" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="60">
         <v>42762</v>
       </c>
@@ -21632,17 +21751,18 @@
       </c>
       <c r="K80" s="134"/>
       <c r="L80" s="134"/>
-      <c r="M80" s="134" t="s">
+      <c r="M80" s="134"/>
+      <c r="N80" s="134" t="s">
         <v>636</v>
       </c>
-      <c r="N80" s="134"/>
-      <c r="O80" s="82" t="s">
+      <c r="O80" s="134"/>
+      <c r="P80" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P80" s="134"/>
-      <c r="Q80" s="70"/>
-    </row>
-    <row r="81" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q80" s="134"/>
+      <c r="R80" s="70"/>
+    </row>
+    <row r="81" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="60">
         <v>42763</v>
       </c>
@@ -21673,17 +21793,18 @@
       </c>
       <c r="K81" s="134"/>
       <c r="L81" s="134"/>
-      <c r="M81" s="134" t="s">
+      <c r="M81" s="134"/>
+      <c r="N81" s="134" t="s">
         <v>639</v>
       </c>
-      <c r="N81" s="134"/>
-      <c r="O81" s="82" t="s">
+      <c r="O81" s="134"/>
+      <c r="P81" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P81" s="134"/>
-      <c r="Q81" s="70"/>
-    </row>
-    <row r="82" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q81" s="134"/>
+      <c r="R81" s="70"/>
+    </row>
+    <row r="82" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="60">
         <v>42764</v>
       </c>
@@ -21714,17 +21835,18 @@
       </c>
       <c r="K82" s="134"/>
       <c r="L82" s="134"/>
-      <c r="M82" s="134" t="s">
+      <c r="M82" s="134"/>
+      <c r="N82" s="134" t="s">
         <v>642</v>
       </c>
-      <c r="N82" s="134"/>
-      <c r="O82" s="82" t="s">
+      <c r="O82" s="134"/>
+      <c r="P82" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P82" s="134"/>
-      <c r="Q82" s="70"/>
-    </row>
-    <row r="83" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q82" s="134"/>
+      <c r="R82" s="70"/>
+    </row>
+    <row r="83" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="66">
         <v>42737</v>
       </c>
@@ -21757,13 +21879,14 @@
       <c r="L83" s="134"/>
       <c r="M83" s="134"/>
       <c r="N83" s="134"/>
-      <c r="O83" s="82" t="s">
+      <c r="O83" s="134"/>
+      <c r="P83" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="63"/>
-    </row>
-    <row r="84" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q83" s="134"/>
+      <c r="R83" s="63"/>
+    </row>
+    <row r="84" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="66">
         <v>42737</v>
       </c>
@@ -21798,13 +21921,14 @@
       </c>
       <c r="M84" s="134"/>
       <c r="N84" s="134"/>
-      <c r="O84" s="82" t="s">
+      <c r="O84" s="134"/>
+      <c r="P84" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="63"/>
-    </row>
-    <row r="85" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q84" s="134"/>
+      <c r="R84" s="63"/>
+    </row>
+    <row r="85" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="60">
         <v>42765</v>
       </c>
@@ -21836,14 +21960,15 @@
       <c r="K85" s="134"/>
       <c r="L85" s="134"/>
       <c r="M85" s="134"/>
-      <c r="N85" s="82"/>
-      <c r="O85" s="82" t="s">
+      <c r="N85" s="134"/>
+      <c r="O85" s="82"/>
+      <c r="P85" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="70"/>
-    </row>
-    <row r="86" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q85" s="134"/>
+      <c r="R85" s="70"/>
+    </row>
+    <row r="86" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="60">
         <v>42766</v>
       </c>
@@ -21875,14 +22000,15 @@
       <c r="K86" s="134"/>
       <c r="L86" s="134"/>
       <c r="M86" s="134"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82" t="s">
+      <c r="N86" s="134"/>
+      <c r="O86" s="82"/>
+      <c r="P86" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P86" s="134"/>
-      <c r="Q86" s="70"/>
-    </row>
-    <row r="87" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q86" s="134"/>
+      <c r="R86" s="70"/>
+    </row>
+    <row r="87" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="60">
         <v>42767</v>
       </c>
@@ -21917,13 +22043,14 @@
       </c>
       <c r="M87" s="82"/>
       <c r="N87" s="82"/>
-      <c r="O87" s="82" t="s">
+      <c r="O87" s="82"/>
+      <c r="P87" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P87" s="134"/>
-      <c r="Q87" s="70"/>
-    </row>
-    <row r="88" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q87" s="134"/>
+      <c r="R87" s="70"/>
+    </row>
+    <row r="88" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="60">
         <v>42768</v>
       </c>
@@ -21958,13 +22085,14 @@
       </c>
       <c r="M88" s="82"/>
       <c r="N88" s="82"/>
-      <c r="O88" s="82" t="s">
+      <c r="O88" s="82"/>
+      <c r="P88" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P88" s="134"/>
-      <c r="Q88" s="70"/>
-    </row>
-    <row r="89" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q88" s="134"/>
+      <c r="R88" s="70"/>
+    </row>
+    <row r="89" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="60">
         <v>42769</v>
       </c>
@@ -21999,13 +22127,14 @@
       </c>
       <c r="M89" s="82"/>
       <c r="N89" s="82"/>
-      <c r="O89" s="82" t="s">
+      <c r="O89" s="82"/>
+      <c r="P89" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P89" s="134"/>
-      <c r="Q89" s="70"/>
-    </row>
-    <row r="90" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q89" s="134"/>
+      <c r="R89" s="70"/>
+    </row>
+    <row r="90" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="60">
         <v>42770</v>
       </c>
@@ -22037,14 +22166,15 @@
       <c r="K90" s="134"/>
       <c r="L90" s="134"/>
       <c r="M90" s="134"/>
-      <c r="N90" s="82"/>
-      <c r="O90" s="82" t="s">
+      <c r="N90" s="134"/>
+      <c r="O90" s="82"/>
+      <c r="P90" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P90" s="134"/>
-      <c r="Q90" s="70"/>
-    </row>
-    <row r="91" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q90" s="134"/>
+      <c r="R90" s="70"/>
+    </row>
+    <row r="91" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="60">
         <v>42771</v>
       </c>
@@ -22077,13 +22207,14 @@
       <c r="L91" s="134"/>
       <c r="M91" s="134"/>
       <c r="N91" s="134"/>
-      <c r="O91" s="82" t="s">
+      <c r="O91" s="134"/>
+      <c r="P91" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P91" s="134"/>
-      <c r="Q91" s="70"/>
-    </row>
-    <row r="92" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q91" s="134"/>
+      <c r="R91" s="70"/>
+    </row>
+    <row r="92" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="60">
         <v>42772</v>
       </c>
@@ -22114,17 +22245,18 @@
       </c>
       <c r="K92" s="134"/>
       <c r="L92" s="134"/>
-      <c r="M92" s="82" t="s">
+      <c r="M92" s="134"/>
+      <c r="N92" s="82" t="s">
         <v>646</v>
       </c>
-      <c r="N92" s="82"/>
-      <c r="O92" s="82" t="s">
+      <c r="O92" s="82"/>
+      <c r="P92" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P92" s="134"/>
-      <c r="Q92" s="70"/>
-    </row>
-    <row r="93" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q92" s="134"/>
+      <c r="R92" s="70"/>
+    </row>
+    <row r="93" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="60">
         <v>42773</v>
       </c>
@@ -22156,14 +22288,15 @@
       <c r="K93" s="134"/>
       <c r="L93" s="134"/>
       <c r="M93" s="134"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="82" t="s">
+      <c r="N93" s="134"/>
+      <c r="O93" s="82"/>
+      <c r="P93" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P93" s="134"/>
-      <c r="Q93" s="70"/>
-    </row>
-    <row r="94" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q93" s="134"/>
+      <c r="R93" s="70"/>
+    </row>
+    <row r="94" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="66">
         <v>42774</v>
       </c>
@@ -22196,15 +22329,16 @@
       <c r="L94" s="82" t="s">
         <v>646</v>
       </c>
-      <c r="M94" s="134"/>
+      <c r="M94" s="82"/>
       <c r="N94" s="134"/>
-      <c r="O94" s="82" t="s">
+      <c r="O94" s="134"/>
+      <c r="P94" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P94" s="134"/>
-      <c r="Q94" s="63"/>
-    </row>
-    <row r="95" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q94" s="134"/>
+      <c r="R94" s="63"/>
+    </row>
+    <row r="95" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="60">
         <v>42774</v>
       </c>
@@ -22235,17 +22369,18 @@
       </c>
       <c r="K95" s="134"/>
       <c r="L95" s="134"/>
-      <c r="M95" s="134" t="s">
+      <c r="M95" s="134"/>
+      <c r="N95" s="134" t="s">
         <v>642</v>
       </c>
-      <c r="N95" s="134"/>
-      <c r="O95" s="82" t="s">
+      <c r="O95" s="134"/>
+      <c r="P95" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P95" s="134"/>
-      <c r="Q95" s="70"/>
-    </row>
-    <row r="96" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q95" s="134"/>
+      <c r="R95" s="70"/>
+    </row>
+    <row r="96" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="60">
         <v>42775</v>
       </c>
@@ -22278,13 +22413,14 @@
       <c r="L96" s="134"/>
       <c r="M96" s="134"/>
       <c r="N96" s="134"/>
-      <c r="O96" s="82" t="s">
+      <c r="O96" s="134"/>
+      <c r="P96" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P96" s="134"/>
-      <c r="Q96" s="70"/>
-    </row>
-    <row r="97" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q96" s="134"/>
+      <c r="R96" s="70"/>
+    </row>
+    <row r="97" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="60">
         <v>42776</v>
       </c>
@@ -22315,17 +22451,18 @@
       </c>
       <c r="K97" s="134"/>
       <c r="L97" s="134"/>
-      <c r="M97" s="134" t="s">
+      <c r="M97" s="134"/>
+      <c r="N97" s="134" t="s">
         <v>647</v>
       </c>
-      <c r="N97" s="134"/>
-      <c r="O97" s="82" t="s">
+      <c r="O97" s="134"/>
+      <c r="P97" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P97" s="134"/>
-      <c r="Q97" s="70"/>
-    </row>
-    <row r="98" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q97" s="134"/>
+      <c r="R97" s="70"/>
+    </row>
+    <row r="98" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="60">
         <v>42777</v>
       </c>
@@ -22360,13 +22497,14 @@
       </c>
       <c r="M98" s="134"/>
       <c r="N98" s="134"/>
-      <c r="O98" s="82" t="s">
+      <c r="O98" s="134"/>
+      <c r="P98" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P98" s="134"/>
-      <c r="Q98" s="70"/>
-    </row>
-    <row r="99" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q98" s="134"/>
+      <c r="R98" s="70"/>
+    </row>
+    <row r="99" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="60">
         <v>42778</v>
       </c>
@@ -22399,13 +22537,14 @@
       <c r="L99" s="134"/>
       <c r="M99" s="134"/>
       <c r="N99" s="134"/>
-      <c r="O99" s="82" t="s">
+      <c r="O99" s="134"/>
+      <c r="P99" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P99" s="134"/>
-      <c r="Q99" s="70"/>
-    </row>
-    <row r="100" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q99" s="134"/>
+      <c r="R99" s="70"/>
+    </row>
+    <row r="100" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="60">
         <v>42779</v>
       </c>
@@ -22436,17 +22575,18 @@
       </c>
       <c r="K100" s="134"/>
       <c r="L100" s="134"/>
-      <c r="M100" s="134" t="s">
+      <c r="M100" s="134"/>
+      <c r="N100" s="134" t="s">
         <v>649</v>
       </c>
-      <c r="N100" s="134"/>
-      <c r="O100" s="82" t="s">
+      <c r="O100" s="134"/>
+      <c r="P100" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P100" s="134"/>
-      <c r="Q100" s="70"/>
-    </row>
-    <row r="101" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q100" s="134"/>
+      <c r="R100" s="70"/>
+    </row>
+    <row r="101" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="60">
         <v>42780</v>
       </c>
@@ -22481,13 +22621,14 @@
       </c>
       <c r="M101" s="134"/>
       <c r="N101" s="134"/>
-      <c r="O101" s="82" t="s">
+      <c r="O101" s="134"/>
+      <c r="P101" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P101" s="134"/>
-      <c r="Q101" s="70"/>
-    </row>
-    <row r="102" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q101" s="134"/>
+      <c r="R101" s="70"/>
+    </row>
+    <row r="102" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="60">
         <v>42781</v>
       </c>
@@ -22520,13 +22661,14 @@
       <c r="L102" s="134"/>
       <c r="M102" s="134"/>
       <c r="N102" s="134"/>
-      <c r="O102" s="82" t="s">
+      <c r="O102" s="134"/>
+      <c r="P102" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P102" s="134"/>
-      <c r="Q102" s="70"/>
-    </row>
-    <row r="103" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q102" s="134"/>
+      <c r="R102" s="70"/>
+    </row>
+    <row r="103" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="60">
         <v>42782</v>
       </c>
@@ -22559,13 +22701,14 @@
       <c r="L103" s="134"/>
       <c r="M103" s="134"/>
       <c r="N103" s="134"/>
-      <c r="O103" s="82" t="s">
+      <c r="O103" s="134"/>
+      <c r="P103" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P103" s="134"/>
-      <c r="Q103" s="70"/>
-    </row>
-    <row r="104" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q103" s="134"/>
+      <c r="R103" s="70"/>
+    </row>
+    <row r="104" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="60">
         <v>42783</v>
       </c>
@@ -22596,17 +22739,18 @@
       </c>
       <c r="K104" s="134"/>
       <c r="L104" s="134"/>
-      <c r="M104" s="134" t="s">
+      <c r="M104" s="134"/>
+      <c r="N104" s="134" t="s">
         <v>651</v>
       </c>
-      <c r="N104" s="134"/>
-      <c r="O104" s="82" t="s">
+      <c r="O104" s="134"/>
+      <c r="P104" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P104" s="134"/>
-      <c r="Q104" s="70"/>
-    </row>
-    <row r="105" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q104" s="134"/>
+      <c r="R104" s="70"/>
+    </row>
+    <row r="105" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="60">
         <v>42784</v>
       </c>
@@ -22641,13 +22785,14 @@
       </c>
       <c r="M105" s="134"/>
       <c r="N105" s="134"/>
-      <c r="O105" s="82" t="s">
+      <c r="O105" s="134"/>
+      <c r="P105" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P105" s="134"/>
-      <c r="Q105" s="70"/>
-    </row>
-    <row r="106" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q105" s="134"/>
+      <c r="R105" s="70"/>
+    </row>
+    <row r="106" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="60">
         <v>42785</v>
       </c>
@@ -22680,13 +22825,14 @@
       <c r="L106" s="134"/>
       <c r="M106" s="134"/>
       <c r="N106" s="134"/>
-      <c r="O106" s="82" t="s">
+      <c r="O106" s="134"/>
+      <c r="P106" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P106" s="134"/>
-      <c r="Q106" s="70"/>
-    </row>
-    <row r="107" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q106" s="134"/>
+      <c r="R106" s="70"/>
+    </row>
+    <row r="107" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="60">
         <v>42786</v>
       </c>
@@ -22719,13 +22865,14 @@
       <c r="L107" s="134"/>
       <c r="M107" s="134"/>
       <c r="N107" s="134"/>
-      <c r="O107" s="82" t="s">
+      <c r="O107" s="134"/>
+      <c r="P107" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P107" s="134"/>
-      <c r="Q107" s="70"/>
-    </row>
-    <row r="108" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q107" s="134"/>
+      <c r="R107" s="70"/>
+    </row>
+    <row r="108" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="60">
         <v>42787</v>
       </c>
@@ -22758,13 +22905,14 @@
       <c r="L108" s="134"/>
       <c r="M108" s="134"/>
       <c r="N108" s="134"/>
-      <c r="O108" s="82" t="s">
+      <c r="O108" s="134"/>
+      <c r="P108" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P108" s="134"/>
-      <c r="Q108" s="70"/>
-    </row>
-    <row r="109" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q108" s="134"/>
+      <c r="R108" s="70"/>
+    </row>
+    <row r="109" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="60">
         <v>42788</v>
       </c>
@@ -22797,13 +22945,14 @@
       <c r="L109" s="134"/>
       <c r="M109" s="134"/>
       <c r="N109" s="134"/>
-      <c r="O109" s="82" t="s">
+      <c r="O109" s="134"/>
+      <c r="P109" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P109" s="134"/>
-      <c r="Q109" s="70"/>
-    </row>
-    <row r="110" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q109" s="134"/>
+      <c r="R109" s="70"/>
+    </row>
+    <row r="110" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="60">
         <v>42789</v>
       </c>
@@ -22836,13 +22985,14 @@
       <c r="L110" s="134"/>
       <c r="M110" s="134"/>
       <c r="N110" s="134"/>
-      <c r="O110" s="82" t="s">
+      <c r="O110" s="134"/>
+      <c r="P110" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P110" s="134"/>
-      <c r="Q110" s="70"/>
-    </row>
-    <row r="111" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q110" s="134"/>
+      <c r="R110" s="70"/>
+    </row>
+    <row r="111" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="60">
         <v>42790</v>
       </c>
@@ -22874,14 +23024,15 @@
       <c r="K111" s="142"/>
       <c r="L111" s="142"/>
       <c r="M111" s="142"/>
-      <c r="N111" s="136"/>
-      <c r="O111" s="141" t="s">
+      <c r="N111" s="142"/>
+      <c r="O111" s="136"/>
+      <c r="P111" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="P111" s="142"/>
-      <c r="Q111" s="70"/>
-    </row>
-    <row r="112" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q111" s="142"/>
+      <c r="R111" s="70"/>
+    </row>
+    <row r="112" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="60">
         <v>42791</v>
       </c>
@@ -22914,13 +23065,14 @@
       <c r="L112" s="134"/>
       <c r="M112" s="134"/>
       <c r="N112" s="134"/>
-      <c r="O112" s="82" t="s">
+      <c r="O112" s="134"/>
+      <c r="P112" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P112" s="134"/>
-      <c r="Q112" s="70"/>
-    </row>
-    <row r="113" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q112" s="134"/>
+      <c r="R112" s="70"/>
+    </row>
+    <row r="113" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="60">
         <v>42792</v>
       </c>
@@ -22953,13 +23105,14 @@
       <c r="L113" s="134"/>
       <c r="M113" s="134"/>
       <c r="N113" s="134"/>
-      <c r="O113" s="82" t="s">
+      <c r="O113" s="134"/>
+      <c r="P113" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P113" s="134"/>
-      <c r="Q113" s="70"/>
-    </row>
-    <row r="114" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q113" s="134"/>
+      <c r="R113" s="70"/>
+    </row>
+    <row r="114" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="60">
         <v>42793</v>
       </c>
@@ -22992,13 +23145,14 @@
       <c r="L114" s="134"/>
       <c r="M114" s="134"/>
       <c r="N114" s="134"/>
-      <c r="O114" s="82" t="s">
+      <c r="O114" s="134"/>
+      <c r="P114" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P114" s="134"/>
-      <c r="Q114" s="70"/>
-    </row>
-    <row r="115" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q114" s="134"/>
+      <c r="R114" s="70"/>
+    </row>
+    <row r="115" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="60">
         <v>42794</v>
       </c>
@@ -23031,13 +23185,14 @@
       <c r="L115" s="134"/>
       <c r="M115" s="134"/>
       <c r="N115" s="134"/>
-      <c r="O115" s="82" t="s">
+      <c r="O115" s="134"/>
+      <c r="P115" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P115" s="134"/>
-      <c r="Q115" s="70"/>
-    </row>
-    <row r="116" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q115" s="134"/>
+      <c r="R115" s="70"/>
+    </row>
+    <row r="116" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="60">
         <v>42795</v>
       </c>
@@ -23070,13 +23225,14 @@
       <c r="L116" s="134"/>
       <c r="M116" s="134"/>
       <c r="N116" s="134"/>
-      <c r="O116" s="82" t="s">
+      <c r="O116" s="134"/>
+      <c r="P116" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P116" s="134"/>
-      <c r="Q116" s="70"/>
-    </row>
-    <row r="117" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q116" s="134"/>
+      <c r="R116" s="70"/>
+    </row>
+    <row r="117" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="60">
         <v>42796</v>
       </c>
@@ -23108,14 +23264,15 @@
       <c r="K117" s="142"/>
       <c r="L117" s="142"/>
       <c r="M117" s="142"/>
-      <c r="N117" s="136"/>
-      <c r="O117" s="141" t="s">
+      <c r="N117" s="142"/>
+      <c r="O117" s="136"/>
+      <c r="P117" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="P117" s="142"/>
-      <c r="Q117" s="70"/>
-    </row>
-    <row r="118" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q117" s="142"/>
+      <c r="R117" s="70"/>
+    </row>
+    <row r="118" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="66">
         <v>42736</v>
       </c>
@@ -23148,13 +23305,14 @@
       <c r="L118" s="84"/>
       <c r="M118" s="84"/>
       <c r="N118" s="84"/>
-      <c r="O118" s="68" t="s">
+      <c r="O118" s="84"/>
+      <c r="P118" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P118" s="84"/>
-      <c r="Q118" s="63"/>
-    </row>
-    <row r="119" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q118" s="84"/>
+      <c r="R118" s="63"/>
+    </row>
+    <row r="119" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="66">
         <v>42736</v>
       </c>
@@ -23187,13 +23345,14 @@
       <c r="L119" s="84"/>
       <c r="M119" s="84"/>
       <c r="N119" s="84"/>
-      <c r="O119" s="68" t="s">
+      <c r="O119" s="84"/>
+      <c r="P119" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P119" s="84"/>
-      <c r="Q119" s="63"/>
-    </row>
-    <row r="120" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q119" s="84"/>
+      <c r="R119" s="63"/>
+    </row>
+    <row r="120" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="66">
         <v>42736</v>
       </c>
@@ -23226,13 +23385,14 @@
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
       <c r="N120" s="84"/>
-      <c r="O120" s="68" t="s">
+      <c r="O120" s="84"/>
+      <c r="P120" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P120" s="84"/>
-      <c r="Q120" s="63"/>
-    </row>
-    <row r="121" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q120" s="84"/>
+      <c r="R120" s="63"/>
+    </row>
+    <row r="121" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="66">
         <v>42736</v>
       </c>
@@ -23265,13 +23425,14 @@
       <c r="L121" s="84"/>
       <c r="M121" s="84"/>
       <c r="N121" s="84"/>
-      <c r="O121" s="68" t="s">
+      <c r="O121" s="84"/>
+      <c r="P121" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P121" s="84"/>
-      <c r="Q121" s="63"/>
-    </row>
-    <row r="122" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q121" s="84"/>
+      <c r="R121" s="63"/>
+    </row>
+    <row r="122" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="66">
         <v>42736</v>
       </c>
@@ -23304,13 +23465,14 @@
       <c r="L122" s="84"/>
       <c r="M122" s="84"/>
       <c r="N122" s="84"/>
-      <c r="O122" s="68" t="s">
+      <c r="O122" s="84"/>
+      <c r="P122" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P122" s="84"/>
-      <c r="Q122" s="63"/>
-    </row>
-    <row r="123" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q122" s="84"/>
+      <c r="R122" s="63"/>
+    </row>
+    <row r="123" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="66">
         <v>42736</v>
       </c>
@@ -23343,13 +23505,14 @@
       <c r="L123" s="84"/>
       <c r="M123" s="84"/>
       <c r="N123" s="84"/>
-      <c r="O123" s="68" t="s">
+      <c r="O123" s="84"/>
+      <c r="P123" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P123" s="84"/>
-      <c r="Q123" s="63"/>
-    </row>
-    <row r="124" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q123" s="84"/>
+      <c r="R123" s="63"/>
+    </row>
+    <row r="124" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="66">
         <v>42736</v>
       </c>
@@ -23382,13 +23545,14 @@
       <c r="L124" s="84"/>
       <c r="M124" s="84"/>
       <c r="N124" s="84"/>
-      <c r="O124" s="68" t="s">
+      <c r="O124" s="84"/>
+      <c r="P124" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P124" s="84"/>
-      <c r="Q124" s="63"/>
-    </row>
-    <row r="125" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q124" s="84"/>
+      <c r="R124" s="63"/>
+    </row>
+    <row r="125" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="66">
         <v>42736</v>
       </c>
@@ -23421,13 +23585,14 @@
       <c r="L125" s="84"/>
       <c r="M125" s="84"/>
       <c r="N125" s="84"/>
-      <c r="O125" s="68" t="s">
+      <c r="O125" s="84"/>
+      <c r="P125" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P125" s="84"/>
-      <c r="Q125" s="63"/>
-    </row>
-    <row r="126" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q125" s="84"/>
+      <c r="R125" s="63"/>
+    </row>
+    <row r="126" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="66">
         <v>42736</v>
       </c>
@@ -23460,13 +23625,14 @@
       <c r="L126" s="84"/>
       <c r="M126" s="84"/>
       <c r="N126" s="84"/>
-      <c r="O126" s="68" t="s">
+      <c r="O126" s="84"/>
+      <c r="P126" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P126" s="84"/>
-      <c r="Q126" s="63"/>
-    </row>
-    <row r="127" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q126" s="84"/>
+      <c r="R126" s="63"/>
+    </row>
+    <row r="127" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="71">
         <v>42736</v>
       </c>
@@ -23499,13 +23665,14 @@
       <c r="L127" s="90"/>
       <c r="M127" s="90"/>
       <c r="N127" s="90"/>
-      <c r="O127" s="86" t="s">
+      <c r="O127" s="90"/>
+      <c r="P127" s="86" t="s">
         <v>533</v>
       </c>
-      <c r="P127" s="90"/>
-      <c r="Q127" s="91"/>
-    </row>
-    <row r="128" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q127" s="90"/>
+      <c r="R127" s="91"/>
+    </row>
+    <row r="128" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="71">
         <v>42741</v>
       </c>
@@ -23536,15 +23703,16 @@
       </c>
       <c r="K128" s="69"/>
       <c r="L128" s="69"/>
-      <c r="M128" s="17"/>
+      <c r="M128" s="431"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="297" t="s">
+      <c r="O128" s="17"/>
+      <c r="P128" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P128" s="69"/>
-      <c r="Q128" s="17"/>
-    </row>
-    <row r="129" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q128" s="69"/>
+      <c r="R128" s="17"/>
+    </row>
+    <row r="129" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="71">
         <v>42741</v>
       </c>
@@ -23575,17 +23743,18 @@
       </c>
       <c r="K129" s="69"/>
       <c r="L129" s="69"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17" t="s">
+      <c r="M129" s="431"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="O129" s="297" t="s">
+      <c r="P129" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="17"/>
-    </row>
-    <row r="130" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q129" s="69"/>
+      <c r="R129" s="17"/>
+    </row>
+    <row r="130" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="71">
         <v>42742</v>
       </c>
@@ -23616,17 +23785,18 @@
       </c>
       <c r="K130" s="69"/>
       <c r="L130" s="69"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17" t="s">
+      <c r="M130" s="431"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="O130" s="297" t="s">
+      <c r="P130" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P130" s="69"/>
-      <c r="Q130" s="17"/>
-    </row>
-    <row r="131" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q130" s="69"/>
+      <c r="R130" s="17"/>
+    </row>
+    <row r="131" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="71">
         <v>42743</v>
       </c>
@@ -23657,15 +23827,16 @@
       </c>
       <c r="K131" s="69"/>
       <c r="L131" s="69"/>
-      <c r="M131" s="17"/>
+      <c r="M131" s="431"/>
       <c r="N131" s="17"/>
-      <c r="O131" s="297" t="s">
+      <c r="O131" s="17"/>
+      <c r="P131" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P131" s="69"/>
-      <c r="Q131" s="17"/>
-    </row>
-    <row r="132" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q131" s="69"/>
+      <c r="R131" s="17"/>
+    </row>
+    <row r="132" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
         <v>42744</v>
       </c>
@@ -23696,15 +23867,16 @@
       </c>
       <c r="K132" s="69"/>
       <c r="L132" s="69"/>
-      <c r="M132" s="17"/>
+      <c r="M132" s="431"/>
       <c r="N132" s="17"/>
-      <c r="O132" s="297" t="s">
+      <c r="O132" s="17"/>
+      <c r="P132" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P132" s="69"/>
-      <c r="Q132" s="17"/>
-    </row>
-    <row r="133" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q132" s="69"/>
+      <c r="R132" s="17"/>
+    </row>
+    <row r="133" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
         <v>42745</v>
       </c>
@@ -23735,17 +23907,18 @@
       </c>
       <c r="K133" s="69"/>
       <c r="L133" s="69"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17" t="s">
+      <c r="M133" s="431"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="O133" s="297" t="s">
+      <c r="P133" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P133" s="69"/>
-      <c r="Q133" s="17"/>
-    </row>
-    <row r="134" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q133" s="69"/>
+      <c r="R133" s="17"/>
+    </row>
+    <row r="134" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>42746</v>
       </c>
@@ -23776,17 +23949,18 @@
       </c>
       <c r="K134" s="69"/>
       <c r="L134" s="69"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17" t="s">
+      <c r="M134" s="431"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="O134" s="297" t="s">
+      <c r="P134" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P134" s="69"/>
-      <c r="Q134" s="17"/>
-    </row>
-    <row r="135" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q134" s="69"/>
+      <c r="R134" s="17"/>
+    </row>
+    <row r="135" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
         <v>42747</v>
       </c>
@@ -23817,15 +23991,16 @@
       </c>
       <c r="K135" s="69"/>
       <c r="L135" s="69"/>
-      <c r="M135" s="17"/>
+      <c r="M135" s="431"/>
       <c r="N135" s="17"/>
-      <c r="O135" s="297" t="s">
+      <c r="O135" s="17"/>
+      <c r="P135" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P135" s="69"/>
-      <c r="Q135" s="17"/>
-    </row>
-    <row r="136" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q135" s="69"/>
+      <c r="R135" s="17"/>
+    </row>
+    <row r="136" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
         <v>42748</v>
       </c>
@@ -23856,15 +24031,16 @@
       </c>
       <c r="K136" s="69"/>
       <c r="L136" s="69"/>
-      <c r="M136" s="17"/>
+      <c r="M136" s="431"/>
       <c r="N136" s="17"/>
-      <c r="O136" s="297" t="s">
+      <c r="O136" s="17"/>
+      <c r="P136" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P136" s="69"/>
-      <c r="Q136" s="17"/>
-    </row>
-    <row r="137" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q136" s="69"/>
+      <c r="R136" s="17"/>
+    </row>
+    <row r="137" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
         <v>42741</v>
       </c>
@@ -23895,15 +24071,16 @@
       </c>
       <c r="K137" s="69"/>
       <c r="L137" s="69"/>
-      <c r="M137" s="17"/>
+      <c r="M137" s="431"/>
       <c r="N137" s="17"/>
-      <c r="O137" s="297" t="s">
+      <c r="O137" s="17"/>
+      <c r="P137" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P137" s="69"/>
-      <c r="Q137" s="17"/>
-    </row>
-    <row r="138" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q137" s="69"/>
+      <c r="R137" s="17"/>
+    </row>
+    <row r="138" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
         <v>42754</v>
       </c>
@@ -23934,17 +24111,18 @@
       </c>
       <c r="K138" s="69"/>
       <c r="L138" s="69"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17" t="s">
+      <c r="M138" s="431"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="O138" s="297" t="s">
+      <c r="P138" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P138" s="69"/>
-      <c r="Q138" s="17"/>
-    </row>
-    <row r="139" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q138" s="69"/>
+      <c r="R138" s="17"/>
+    </row>
+    <row r="139" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="71">
         <v>42755</v>
       </c>
@@ -23975,17 +24153,18 @@
       </c>
       <c r="K139" s="69"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17" t="s">
+      <c r="M139" s="431"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="O139" s="297" t="s">
+      <c r="P139" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P139" s="69"/>
-      <c r="Q139" s="17"/>
-    </row>
-    <row r="140" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q139" s="69"/>
+      <c r="R139" s="17"/>
+    </row>
+    <row r="140" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="71">
         <v>42756</v>
       </c>
@@ -24016,15 +24195,16 @@
       </c>
       <c r="K140" s="69"/>
       <c r="L140" s="69"/>
-      <c r="M140" s="17"/>
+      <c r="M140" s="431"/>
       <c r="N140" s="17"/>
-      <c r="O140" s="297" t="s">
+      <c r="O140" s="17"/>
+      <c r="P140" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P140" s="69"/>
-      <c r="Q140" s="17"/>
-    </row>
-    <row r="141" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q140" s="69"/>
+      <c r="R140" s="17"/>
+    </row>
+    <row r="141" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="71">
         <v>42757</v>
       </c>
@@ -24055,15 +24235,16 @@
       </c>
       <c r="K141" s="69"/>
       <c r="L141" s="69"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="431"/>
       <c r="N141" s="17"/>
-      <c r="O141" s="297" t="s">
+      <c r="O141" s="17"/>
+      <c r="P141" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P141" s="69"/>
-      <c r="Q141" s="17"/>
-    </row>
-    <row r="142" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q141" s="69"/>
+      <c r="R141" s="17"/>
+    </row>
+    <row r="142" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="71">
         <v>42758</v>
       </c>
@@ -24094,17 +24275,18 @@
       </c>
       <c r="K142" s="69"/>
       <c r="L142" s="69"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17" t="s">
+      <c r="M142" s="431"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="O142" s="297" t="s">
+      <c r="P142" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P142" s="69"/>
-      <c r="Q142" s="17"/>
-    </row>
-    <row r="143" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q142" s="69"/>
+      <c r="R142" s="17"/>
+    </row>
+    <row r="143" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="71">
         <v>42759</v>
       </c>
@@ -24135,17 +24317,18 @@
       </c>
       <c r="K143" s="69"/>
       <c r="L143" s="69"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17" t="s">
+      <c r="M143" s="431"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="O143" s="297" t="s">
+      <c r="P143" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P143" s="69"/>
-      <c r="Q143" s="17"/>
-    </row>
-    <row r="144" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q143" s="69"/>
+      <c r="R143" s="17"/>
+    </row>
+    <row r="144" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="71">
         <v>42760</v>
       </c>
@@ -24176,15 +24359,16 @@
       </c>
       <c r="K144" s="69"/>
       <c r="L144" s="69"/>
-      <c r="M144" s="17"/>
+      <c r="M144" s="431"/>
       <c r="N144" s="17"/>
-      <c r="O144" s="297" t="s">
+      <c r="O144" s="17"/>
+      <c r="P144" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P144" s="69"/>
-      <c r="Q144" s="17"/>
-    </row>
-    <row r="145" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q144" s="69"/>
+      <c r="R144" s="17"/>
+    </row>
+    <row r="145" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
         <v>42761</v>
       </c>
@@ -24215,15 +24399,16 @@
       </c>
       <c r="K145" s="69"/>
       <c r="L145" s="69"/>
-      <c r="M145" s="17"/>
+      <c r="M145" s="431"/>
       <c r="N145" s="17"/>
-      <c r="O145" s="297" t="s">
+      <c r="O145" s="17"/>
+      <c r="P145" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P145" s="69"/>
-      <c r="Q145" s="17"/>
-    </row>
-    <row r="146" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q145" s="69"/>
+      <c r="R145" s="17"/>
+    </row>
+    <row r="146" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
         <v>42741</v>
       </c>
@@ -24254,15 +24439,16 @@
       </c>
       <c r="K146" s="69"/>
       <c r="L146" s="69"/>
-      <c r="M146" s="17"/>
+      <c r="M146" s="431"/>
       <c r="N146" s="17"/>
-      <c r="O146" s="297" t="s">
+      <c r="O146" s="17"/>
+      <c r="P146" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P146" s="69"/>
-      <c r="Q146" s="17"/>
-    </row>
-    <row r="147" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q146" s="69"/>
+      <c r="R146" s="17"/>
+    </row>
+    <row r="147" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="71">
         <v>42766</v>
       </c>
@@ -24293,17 +24479,18 @@
       </c>
       <c r="K147" s="69"/>
       <c r="L147" s="69"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17" t="s">
+      <c r="M147" s="431"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="O147" s="297" t="s">
+      <c r="P147" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P147" s="69"/>
-      <c r="Q147" s="17"/>
-    </row>
-    <row r="148" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q147" s="69"/>
+      <c r="R147" s="17"/>
+    </row>
+    <row r="148" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="71">
         <v>42767</v>
       </c>
@@ -24334,17 +24521,18 @@
       </c>
       <c r="K148" s="69"/>
       <c r="L148" s="69"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17" t="s">
+      <c r="M148" s="431"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="O148" s="297" t="s">
+      <c r="P148" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P148" s="69"/>
-      <c r="Q148" s="17"/>
-    </row>
-    <row r="149" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q148" s="69"/>
+      <c r="R148" s="17"/>
+    </row>
+    <row r="149" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="71">
         <v>42768</v>
       </c>
@@ -24375,15 +24563,16 @@
       </c>
       <c r="K149" s="69"/>
       <c r="L149" s="69"/>
-      <c r="M149" s="17"/>
+      <c r="M149" s="431"/>
       <c r="N149" s="17"/>
-      <c r="O149" s="297" t="s">
+      <c r="O149" s="17"/>
+      <c r="P149" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P149" s="69"/>
-      <c r="Q149" s="17"/>
-    </row>
-    <row r="150" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q149" s="69"/>
+      <c r="R149" s="17"/>
+    </row>
+    <row r="150" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="71">
         <v>42769</v>
       </c>
@@ -24414,15 +24603,16 @@
       </c>
       <c r="K150" s="69"/>
       <c r="L150" s="69"/>
-      <c r="M150" s="17"/>
+      <c r="M150" s="431"/>
       <c r="N150" s="17"/>
-      <c r="O150" s="297" t="s">
+      <c r="O150" s="17"/>
+      <c r="P150" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P150" s="69"/>
-      <c r="Q150" s="17"/>
-    </row>
-    <row r="151" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q150" s="69"/>
+      <c r="R150" s="17"/>
+    </row>
+    <row r="151" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="71">
         <v>42770</v>
       </c>
@@ -24453,17 +24643,18 @@
       </c>
       <c r="K151" s="69"/>
       <c r="L151" s="69"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17" t="s">
+      <c r="M151" s="431"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="O151" s="297" t="s">
+      <c r="P151" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P151" s="69"/>
-      <c r="Q151" s="17"/>
-    </row>
-    <row r="152" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q151" s="69"/>
+      <c r="R151" s="17"/>
+    </row>
+    <row r="152" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="71">
         <v>42771</v>
       </c>
@@ -24494,17 +24685,18 @@
       </c>
       <c r="K152" s="69"/>
       <c r="L152" s="69"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17" t="s">
+      <c r="M152" s="431"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="O152" s="297" t="s">
+      <c r="P152" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P152" s="69"/>
-      <c r="Q152" s="17"/>
-    </row>
-    <row r="153" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q152" s="69"/>
+      <c r="R152" s="17"/>
+    </row>
+    <row r="153" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="71">
         <v>42772</v>
       </c>
@@ -24535,15 +24727,16 @@
       </c>
       <c r="K153" s="69"/>
       <c r="L153" s="69"/>
-      <c r="M153" s="17"/>
+      <c r="M153" s="431"/>
       <c r="N153" s="17"/>
-      <c r="O153" s="297" t="s">
+      <c r="O153" s="17"/>
+      <c r="P153" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P153" s="69"/>
-      <c r="Q153" s="17"/>
-    </row>
-    <row r="154" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q153" s="69"/>
+      <c r="R153" s="17"/>
+    </row>
+    <row r="154" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="71">
         <v>42773</v>
       </c>
@@ -24574,15 +24767,16 @@
       </c>
       <c r="K154" s="69"/>
       <c r="L154" s="69"/>
-      <c r="M154" s="17"/>
+      <c r="M154" s="431"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="297" t="s">
+      <c r="O154" s="17"/>
+      <c r="P154" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P154" s="69"/>
-      <c r="Q154" s="17"/>
-    </row>
-    <row r="155" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q154" s="69"/>
+      <c r="R154" s="17"/>
+    </row>
+    <row r="155" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="71">
         <v>42778</v>
       </c>
@@ -24613,15 +24807,16 @@
       </c>
       <c r="K155" s="69"/>
       <c r="L155" s="69"/>
-      <c r="M155" s="17"/>
+      <c r="M155" s="431"/>
       <c r="N155" s="17"/>
-      <c r="O155" s="297" t="s">
+      <c r="O155" s="17"/>
+      <c r="P155" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P155" s="17"/>
       <c r="Q155" s="17"/>
-    </row>
-    <row r="156" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R155" s="17"/>
+    </row>
+    <row r="156" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="71">
         <v>42779</v>
       </c>
@@ -24652,20 +24847,21 @@
       </c>
       <c r="K156" s="72"/>
       <c r="L156" s="72"/>
-      <c r="M156" s="17"/>
+      <c r="M156" s="431"/>
       <c r="N156" s="17"/>
-      <c r="O156" s="297" t="s">
+      <c r="O156" s="17"/>
+      <c r="P156" s="297" t="s">
         <v>838</v>
       </c>
-      <c r="P156" s="17"/>
       <c r="Q156" s="17"/>
+      <c r="R156" s="17"/>
     </row>
     <row r="166" spans="6:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F166" s="326"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q24" r:id="rId1" xr:uid="{AB0A03AB-2F01-3F4D-AD0F-1694A8F186DE}"/>
+    <hyperlink ref="R24" r:id="rId1" xr:uid="{AB0A03AB-2F01-3F4D-AD0F-1694A8F186DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -32482,7 +32678,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -33812,7 +34008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -35387,7 +35583,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41465,10 +41661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41480,18 +41676,18 @@
     <col min="5" max="6" width="20.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" style="20" customWidth="1"/>
     <col min="8" max="8" width="28" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="64.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="249" width="8.83203125" style="19" customWidth="1"/>
-    <col min="250" max="16384" width="8.83203125" style="19"/>
+    <col min="9" max="10" width="21.5" style="20" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="64.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="250" width="8.83203125" style="19" customWidth="1"/>
+    <col min="251" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>219</v>
       </c>
@@ -41514,8 +41710,9 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
@@ -41541,23 +41738,24 @@
       <c r="I2" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="M2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -41586,34 +41784,37 @@
         <v>227</v>
       </c>
       <c r="J3" s="58" t="s">
+        <v>946</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="L3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="M3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="N3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="O3" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="302" t="s">
+      <c r="P3" s="302" t="s">
         <v>454</v>
       </c>
-      <c r="P3" s="301" t="s">
+      <c r="Q3" s="301" t="s">
         <v>817</v>
       </c>
-      <c r="Q3" s="301" t="s">
+      <c r="R3" s="301" t="s">
         <v>818</v>
       </c>
-      <c r="R3" s="301" t="s">
+      <c r="S3" s="301" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -41633,19 +41834,20 @@
         <v>229</v>
       </c>
       <c r="I4" s="62"/>
-      <c r="J4" s="81"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="81"/>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="103"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="103"/>
       <c r="Q4" s="103"/>
       <c r="R4" s="103"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="103"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -41665,19 +41867,20 @@
         <v>231</v>
       </c>
       <c r="I5" s="62"/>
-      <c r="J5" s="81"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="81"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="81"/>
+      <c r="M5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="62"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -41697,19 +41900,20 @@
         <v>233</v>
       </c>
       <c r="I6" s="62"/>
-      <c r="J6" s="81"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="81"/>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="81"/>
+      <c r="M6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="62"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="62"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -41729,19 +41933,20 @@
         <v>234</v>
       </c>
       <c r="I7" s="62"/>
-      <c r="J7" s="81"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="81"/>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="81"/>
+      <c r="M7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="62"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
-    </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -41761,19 +41966,20 @@
         <v>229</v>
       </c>
       <c r="I8" s="62"/>
-      <c r="J8" s="81"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="62"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -41793,19 +41999,20 @@
         <v>231</v>
       </c>
       <c r="I9" s="62"/>
-      <c r="J9" s="81"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="81"/>
+      <c r="M9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="62"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="64"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
-    </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -41825,19 +42032,20 @@
         <v>233</v>
       </c>
       <c r="I10" s="62"/>
-      <c r="J10" s="81"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="81"/>
+      <c r="M10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="62"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
-    </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>42736</v>
       </c>
@@ -41857,19 +42065,20 @@
         <v>234</v>
       </c>
       <c r="I11" s="62"/>
-      <c r="J11" s="81"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="81"/>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="81"/>
+      <c r="M11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="62"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
-    </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="62"/>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66">
         <v>42736</v>
       </c>
@@ -41891,19 +42100,20 @@
       <c r="I12" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="84"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="84"/>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="68"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="68"/>
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66">
         <v>42736</v>
       </c>
@@ -41925,19 +42135,20 @@
       <c r="I13" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="84"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="84"/>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="68"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -41957,19 +42168,20 @@
         <v>242</v>
       </c>
       <c r="I14" s="62"/>
-      <c r="J14" s="81"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="81"/>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="81"/>
+      <c r="M14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="62"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -41989,19 +42201,20 @@
         <v>108</v>
       </c>
       <c r="I15" s="62"/>
-      <c r="J15" s="81"/>
+      <c r="J15" s="62"/>
       <c r="K15" s="81"/>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="81"/>
+      <c r="M15" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="62"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
-    </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="62"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -42021,19 +42234,20 @@
         <v>110</v>
       </c>
       <c r="I16" s="62"/>
-      <c r="J16" s="81"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="81"/>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="81"/>
+      <c r="M16" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M16" s="81"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="62"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
-    </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60">
         <v>42736</v>
       </c>
@@ -42053,19 +42267,20 @@
         <v>112</v>
       </c>
       <c r="I17" s="62"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="81"/>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="81"/>
+      <c r="M17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="62"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
-    </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
@@ -42085,19 +42300,20 @@
         <v>249</v>
       </c>
       <c r="I18" s="62"/>
-      <c r="J18" s="81"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="81"/>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="81"/>
+      <c r="M18" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="62"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
-    </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60">
         <v>42736</v>
       </c>
@@ -42117,19 +42333,20 @@
         <v>251</v>
       </c>
       <c r="I19" s="62"/>
-      <c r="J19" s="81"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="81"/>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="81"/>
+      <c r="M19" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M19" s="81"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="62"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
-    </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60">
         <v>42736</v>
       </c>
@@ -42149,19 +42366,20 @@
         <v>12</v>
       </c>
       <c r="I20" s="62"/>
-      <c r="J20" s="81"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="81"/>
+      <c r="M20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="62"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="62"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60">
         <v>42736</v>
       </c>
@@ -42181,19 +42399,20 @@
         <v>253</v>
       </c>
       <c r="I21" s="62"/>
-      <c r="J21" s="81"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="81"/>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="81"/>
+      <c r="M21" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="62"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
-    </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S21" s="62"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60">
         <v>42736</v>
       </c>
@@ -42213,19 +42432,20 @@
         <v>12</v>
       </c>
       <c r="I22" s="62"/>
-      <c r="J22" s="81"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="81"/>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="81"/>
+      <c r="M22" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="81"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="62"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
-    </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="62"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60">
         <v>42736</v>
       </c>
@@ -42245,19 +42465,20 @@
         <v>253</v>
       </c>
       <c r="I23" s="62"/>
-      <c r="J23" s="81"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="81"/>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="81"/>
+      <c r="M23" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M23" s="81"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="62"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
-    </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="62"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
@@ -42277,19 +42498,20 @@
         <v>256</v>
       </c>
       <c r="I24" s="62"/>
-      <c r="J24" s="81"/>
+      <c r="J24" s="62"/>
       <c r="K24" s="81"/>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="81"/>
+      <c r="M24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M24" s="81"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="62"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="64"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
-    </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S24" s="62"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60">
         <v>42736</v>
       </c>
@@ -42309,19 +42531,20 @@
         <v>258</v>
       </c>
       <c r="I25" s="62"/>
-      <c r="J25" s="81"/>
+      <c r="J25" s="62"/>
       <c r="K25" s="81"/>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="81"/>
+      <c r="M25" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="81"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="62"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="64"/>
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
-    </row>
-    <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S25" s="62"/>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
         <v>42736</v>
       </c>
@@ -42343,19 +42566,20 @@
         <v>261</v>
       </c>
       <c r="I26" s="62"/>
-      <c r="J26" s="81"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="81"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="81"/>
+      <c r="M26" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="62"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="64"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
-    </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S26" s="62"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60">
         <v>42736</v>
       </c>
@@ -42375,19 +42599,20 @@
         <v>263</v>
       </c>
       <c r="I27" s="62"/>
-      <c r="J27" s="81"/>
+      <c r="J27" s="62"/>
       <c r="K27" s="81"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="81"/>
+      <c r="M27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="62"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
-    </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S27" s="62"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60">
         <v>42736</v>
       </c>
@@ -42409,19 +42634,20 @@
         <v>771</v>
       </c>
       <c r="I28" s="62"/>
-      <c r="J28" s="81"/>
+      <c r="J28" s="62"/>
       <c r="K28" s="81"/>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="81"/>
+      <c r="M28" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="81"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="62"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
-    </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S28" s="62"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60">
         <v>42736</v>
       </c>
@@ -42441,19 +42667,20 @@
         <v>265</v>
       </c>
       <c r="I29" s="62"/>
-      <c r="J29" s="81"/>
+      <c r="J29" s="62"/>
       <c r="K29" s="81"/>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="81"/>
+      <c r="M29" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="81"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="62"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
-    </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S29" s="62"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>42736</v>
       </c>
@@ -42473,19 +42700,20 @@
         <v>267</v>
       </c>
       <c r="I30" s="62"/>
-      <c r="J30" s="81"/>
+      <c r="J30" s="62"/>
       <c r="K30" s="81"/>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="81"/>
+      <c r="M30" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="81"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="62"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
-    </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S30" s="62"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>42736</v>
       </c>
@@ -42505,19 +42733,20 @@
         <v>269</v>
       </c>
       <c r="I31" s="62"/>
-      <c r="J31" s="81"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="81"/>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="81"/>
+      <c r="M31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="62"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="64"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
-    </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S31" s="62"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60">
         <v>42736</v>
       </c>
@@ -42537,19 +42766,20 @@
         <v>272</v>
       </c>
       <c r="I32" s="62"/>
-      <c r="J32" s="81"/>
+      <c r="J32" s="62"/>
       <c r="K32" s="81"/>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="81"/>
+      <c r="M32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="62"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="64"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
-    </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S32" s="62"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60">
         <v>42736</v>
       </c>
@@ -42569,19 +42799,20 @@
         <v>881</v>
       </c>
       <c r="I33" s="62"/>
-      <c r="J33" s="81"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="81"/>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="81"/>
+      <c r="M33" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="62"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="64"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S33" s="62"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>42736</v>
       </c>
@@ -42601,19 +42832,20 @@
         <v>274</v>
       </c>
       <c r="I34" s="62"/>
-      <c r="J34" s="81"/>
+      <c r="J34" s="62"/>
       <c r="K34" s="81"/>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="81"/>
+      <c r="M34" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="62"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="64"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
-    </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S34" s="62"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
         <v>42736</v>
       </c>
@@ -42633,19 +42865,20 @@
         <v>276</v>
       </c>
       <c r="I35" s="62"/>
-      <c r="J35" s="81"/>
+      <c r="J35" s="62"/>
       <c r="K35" s="81"/>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="81"/>
+      <c r="M35" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="62"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="64"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S35" s="62"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60">
         <v>42736</v>
       </c>
@@ -42665,19 +42898,20 @@
         <v>278</v>
       </c>
       <c r="I36" s="62"/>
-      <c r="J36" s="81"/>
+      <c r="J36" s="62"/>
       <c r="K36" s="81"/>
-      <c r="L36" s="62" t="s">
+      <c r="L36" s="81"/>
+      <c r="M36" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="62"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="64"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S36" s="62"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="60">
         <v>42736</v>
       </c>
@@ -42697,19 +42931,20 @@
         <v>280</v>
       </c>
       <c r="I37" s="62"/>
-      <c r="J37" s="81"/>
+      <c r="J37" s="62"/>
       <c r="K37" s="81"/>
-      <c r="L37" s="62" t="s">
+      <c r="L37" s="81"/>
+      <c r="M37" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="62"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="64"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
-    </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S37" s="62"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="60">
         <v>42736</v>
       </c>
@@ -42731,19 +42966,20 @@
         <v>281</v>
       </c>
       <c r="I38" s="62"/>
-      <c r="J38" s="81"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="81"/>
-      <c r="L38" s="62" t="s">
+      <c r="L38" s="81"/>
+      <c r="M38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="81"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="62"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
-    </row>
-    <row r="39" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S38" s="62"/>
+    </row>
+    <row r="39" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66">
         <v>42736</v>
       </c>
@@ -42763,19 +42999,20 @@
         <v>283</v>
       </c>
       <c r="I39" s="68"/>
-      <c r="J39" s="84"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="84"/>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="84"/>
+      <c r="M39" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="68"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="63"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="68"/>
       <c r="R39" s="68"/>
-    </row>
-    <row r="40" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S39" s="68"/>
+    </row>
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66">
         <v>42736</v>
       </c>
@@ -42797,19 +43034,20 @@
         <v>285</v>
       </c>
       <c r="I40" s="68"/>
-      <c r="J40" s="84"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="84"/>
+      <c r="M40" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="84"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="68"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
       <c r="R40" s="68"/>
-    </row>
-    <row r="41" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S40" s="68"/>
+    </row>
+    <row r="41" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66">
         <v>42736</v>
       </c>
@@ -42829,19 +43067,20 @@
         <v>287</v>
       </c>
       <c r="I41" s="68"/>
-      <c r="J41" s="84"/>
+      <c r="J41" s="68"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="84"/>
+      <c r="M41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="84"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="68"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="63"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="68"/>
       <c r="R41" s="68"/>
-    </row>
-    <row r="42" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S41" s="68"/>
+    </row>
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66">
         <v>42736</v>
       </c>
@@ -42861,19 +43100,20 @@
         <v>289</v>
       </c>
       <c r="I42" s="68"/>
-      <c r="J42" s="84"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="84"/>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="84"/>
+      <c r="M42" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="84"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="68"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="63"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="68"/>
       <c r="R42" s="68"/>
-    </row>
-    <row r="43" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S42" s="68"/>
+    </row>
+    <row r="43" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66">
         <v>42736</v>
       </c>
@@ -42893,19 +43133,20 @@
         <v>292</v>
       </c>
       <c r="I43" s="68"/>
-      <c r="J43" s="84"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="84"/>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="84"/>
+      <c r="M43" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="68"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="63"/>
       <c r="P43" s="68"/>
       <c r="Q43" s="68"/>
       <c r="R43" s="68"/>
-    </row>
-    <row r="44" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S43" s="68"/>
+    </row>
+    <row r="44" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66">
         <v>42736</v>
       </c>
@@ -42925,19 +43166,20 @@
         <v>294</v>
       </c>
       <c r="I44" s="68"/>
-      <c r="J44" s="84"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="84"/>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="84"/>
+      <c r="M44" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="84"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="68"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="63"/>
       <c r="P44" s="68"/>
       <c r="Q44" s="68"/>
       <c r="R44" s="68"/>
-    </row>
-    <row r="45" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S44" s="68"/>
+    </row>
+    <row r="45" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66">
         <v>42736</v>
       </c>
@@ -42957,19 +43199,20 @@
         <v>296</v>
       </c>
       <c r="I45" s="68"/>
-      <c r="J45" s="84"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="84"/>
-      <c r="L45" s="68" t="s">
+      <c r="L45" s="84"/>
+      <c r="M45" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="84"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="68"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="63"/>
       <c r="P45" s="68"/>
       <c r="Q45" s="68"/>
       <c r="R45" s="68"/>
-    </row>
-    <row r="46" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S45" s="68"/>
+    </row>
+    <row r="46" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="60">
         <v>42736</v>
       </c>
@@ -42989,19 +43232,20 @@
         <v>299</v>
       </c>
       <c r="I46" s="62"/>
-      <c r="J46" s="81"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="81"/>
-      <c r="L46" s="62" t="s">
+      <c r="L46" s="81"/>
+      <c r="M46" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="84"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="68"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
       <c r="R46" s="68"/>
-    </row>
-    <row r="47" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S46" s="68"/>
+    </row>
+    <row r="47" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60">
         <v>42736</v>
       </c>
@@ -43021,19 +43265,20 @@
         <v>301</v>
       </c>
       <c r="I47" s="62"/>
-      <c r="J47" s="81"/>
+      <c r="J47" s="62"/>
       <c r="K47" s="81"/>
-      <c r="L47" s="62" t="s">
+      <c r="L47" s="81"/>
+      <c r="M47" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="81"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="68"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="64"/>
       <c r="P47" s="68"/>
       <c r="Q47" s="68"/>
       <c r="R47" s="68"/>
-    </row>
-    <row r="48" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S47" s="68"/>
+    </row>
+    <row r="48" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="60">
         <v>42736</v>
       </c>
@@ -43055,19 +43300,20 @@
         <v>303</v>
       </c>
       <c r="I48" s="62"/>
-      <c r="J48" s="81"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="81"/>
-      <c r="L48" s="62" t="s">
+      <c r="L48" s="81"/>
+      <c r="M48" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="68"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
-    </row>
-    <row r="49" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S48" s="68"/>
+    </row>
+    <row r="49" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66">
         <v>42736</v>
       </c>
@@ -43089,19 +43335,20 @@
         <v>306</v>
       </c>
       <c r="I49" s="82"/>
-      <c r="J49" s="134"/>
+      <c r="J49" s="82"/>
       <c r="K49" s="134"/>
-      <c r="L49" s="82" t="s">
+      <c r="L49" s="134"/>
+      <c r="M49" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="84"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="68"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="63"/>
       <c r="P49" s="68"/>
       <c r="Q49" s="68"/>
       <c r="R49" s="68"/>
-    </row>
-    <row r="50" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S49" s="68"/>
+    </row>
+    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="60">
         <v>42736</v>
       </c>
@@ -43121,19 +43368,20 @@
         <v>308</v>
       </c>
       <c r="I50" s="62"/>
-      <c r="J50" s="81"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="81"/>
-      <c r="L50" s="62" t="s">
+      <c r="L50" s="81"/>
+      <c r="M50" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="81"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="62"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="64"/>
       <c r="P50" s="62"/>
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
-    </row>
-    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S50" s="62"/>
+    </row>
+    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="66">
         <v>42736</v>
       </c>
@@ -43155,17 +43403,18 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="67"/>
-      <c r="L51" s="68" t="s">
+      <c r="L51" s="67"/>
+      <c r="M51" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="81"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="62"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="64"/>
       <c r="P51" s="62"/>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
-    </row>
-    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S51" s="62"/>
+    </row>
+    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60">
         <v>42736</v>
       </c>
@@ -43187,17 +43436,18 @@
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
       <c r="K52" s="61"/>
-      <c r="L52" s="62" t="s">
+      <c r="L52" s="61"/>
+      <c r="M52" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M52" s="81"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="62"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="64"/>
       <c r="P52" s="62"/>
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
-    </row>
-    <row r="53" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S52" s="62"/>
+    </row>
+    <row r="53" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="60">
         <v>42736</v>
       </c>
@@ -43219,17 +43469,18 @@
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
       <c r="K53" s="61"/>
-      <c r="L53" s="197" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M53" s="67"/>
-      <c r="N53" s="253"/>
-      <c r="O53" s="68"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="253"/>
       <c r="P53" s="68"/>
       <c r="Q53" s="68"/>
       <c r="R53" s="68"/>
-    </row>
-    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S53" s="68"/>
+    </row>
+    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="60">
         <v>42736</v>
       </c>
@@ -43253,17 +43504,18 @@
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
       <c r="K54" s="61"/>
-      <c r="L54" s="197" t="s">
+      <c r="L54" s="61"/>
+      <c r="M54" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M54" s="61"/>
-      <c r="N54" s="254"/>
-      <c r="O54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="254"/>
       <c r="P54" s="62"/>
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
-    </row>
-    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S54" s="62"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="66">
         <v>42736</v>
       </c>
@@ -43287,17 +43539,18 @@
       <c r="I55" s="67"/>
       <c r="J55" s="67"/>
       <c r="K55" s="67"/>
-      <c r="L55" s="197" t="s">
+      <c r="L55" s="67"/>
+      <c r="M55" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M55" s="84"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="62"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="70"/>
       <c r="P55" s="62"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
-    </row>
-    <row r="56" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S55" s="62"/>
+    </row>
+    <row r="56" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="66">
         <v>42736</v>
       </c>
@@ -43317,19 +43570,20 @@
         <v>320</v>
       </c>
       <c r="I56" s="68"/>
-      <c r="J56" s="84"/>
+      <c r="J56" s="68"/>
       <c r="K56" s="84"/>
-      <c r="L56" s="68" t="s">
+      <c r="L56" s="84"/>
+      <c r="M56" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M56" s="84"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="68"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="63"/>
       <c r="P56" s="68"/>
       <c r="Q56" s="68"/>
       <c r="R56" s="68"/>
-    </row>
-    <row r="57" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S56" s="68"/>
+    </row>
+    <row r="57" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="66">
         <v>42736</v>
       </c>
@@ -43351,19 +43605,20 @@
       <c r="I57" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="J57" s="84"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="84"/>
-      <c r="L57" s="68" t="s">
+      <c r="L57" s="84"/>
+      <c r="M57" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="84"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="68"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="63"/>
       <c r="P57" s="68"/>
       <c r="Q57" s="68"/>
       <c r="R57" s="68"/>
-    </row>
-    <row r="58" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S57" s="68"/>
+    </row>
+    <row r="58" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="66">
         <v>42736</v>
       </c>
@@ -43383,19 +43638,20 @@
         <v>229</v>
       </c>
       <c r="I58" s="68"/>
-      <c r="J58" s="84"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="84"/>
-      <c r="L58" s="68" t="s">
+      <c r="L58" s="84"/>
+      <c r="M58" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="84"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="68"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="63"/>
       <c r="P58" s="68"/>
       <c r="Q58" s="68"/>
       <c r="R58" s="68"/>
-    </row>
-    <row r="59" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S58" s="68"/>
+    </row>
+    <row r="59" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="66">
         <v>42736</v>
       </c>
@@ -43415,19 +43671,20 @@
         <v>231</v>
       </c>
       <c r="I59" s="68"/>
-      <c r="J59" s="84"/>
+      <c r="J59" s="68"/>
       <c r="K59" s="84"/>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="84"/>
+      <c r="M59" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M59" s="84"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="68"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="63"/>
       <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
       <c r="R59" s="68"/>
-    </row>
-    <row r="60" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S59" s="68"/>
+    </row>
+    <row r="60" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="66">
         <v>42736</v>
       </c>
@@ -43447,19 +43704,20 @@
         <v>233</v>
       </c>
       <c r="I60" s="68"/>
-      <c r="J60" s="84"/>
+      <c r="J60" s="68"/>
       <c r="K60" s="84"/>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="84"/>
+      <c r="M60" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="84"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="68"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="63"/>
       <c r="P60" s="68"/>
       <c r="Q60" s="68"/>
       <c r="R60" s="68"/>
-    </row>
-    <row r="61" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S60" s="68"/>
+    </row>
+    <row r="61" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="66">
         <v>42736</v>
       </c>
@@ -43479,19 +43737,20 @@
         <v>234</v>
       </c>
       <c r="I61" s="68"/>
-      <c r="J61" s="84"/>
+      <c r="J61" s="68"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="68" t="s">
+      <c r="L61" s="84"/>
+      <c r="M61" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M61" s="84"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="68"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="63"/>
       <c r="P61" s="68"/>
       <c r="Q61" s="68"/>
       <c r="R61" s="68"/>
-    </row>
-    <row r="62" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S61" s="68"/>
+    </row>
+    <row r="62" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="66">
         <v>42736</v>
       </c>
@@ -43513,19 +43772,20 @@
       <c r="I62" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="J62" s="84"/>
+      <c r="J62" s="68"/>
       <c r="K62" s="84"/>
-      <c r="L62" s="68" t="s">
+      <c r="L62" s="84"/>
+      <c r="M62" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="84"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="68"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="63"/>
       <c r="P62" s="68"/>
       <c r="Q62" s="68"/>
       <c r="R62" s="68"/>
-    </row>
-    <row r="63" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S62" s="68"/>
+    </row>
+    <row r="63" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="66">
         <v>42736</v>
       </c>
@@ -43545,19 +43805,20 @@
         <v>318</v>
       </c>
       <c r="I63" s="68"/>
-      <c r="J63" s="84"/>
+      <c r="J63" s="68"/>
       <c r="K63" s="84"/>
-      <c r="L63" s="68" t="s">
+      <c r="L63" s="84"/>
+      <c r="M63" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="84"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="68"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="63"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="68"/>
       <c r="R63" s="68"/>
-    </row>
-    <row r="64" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S63" s="68"/>
+    </row>
+    <row r="64" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="66">
         <v>42736</v>
       </c>
@@ -43577,19 +43838,20 @@
         <v>327</v>
       </c>
       <c r="I64" s="68"/>
-      <c r="J64" s="84"/>
+      <c r="J64" s="68"/>
       <c r="K64" s="84"/>
-      <c r="L64" s="68" t="s">
+      <c r="L64" s="84"/>
+      <c r="M64" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="84"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="68"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="63"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="68"/>
       <c r="R64" s="68"/>
-    </row>
-    <row r="65" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S64" s="68"/>
+    </row>
+    <row r="65" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="66">
         <v>42736</v>
       </c>
@@ -43609,19 +43871,20 @@
         <v>329</v>
       </c>
       <c r="I65" s="68"/>
-      <c r="J65" s="84"/>
+      <c r="J65" s="68"/>
       <c r="K65" s="84"/>
-      <c r="L65" s="68" t="s">
+      <c r="L65" s="84"/>
+      <c r="M65" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M65" s="84"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="68"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="63"/>
       <c r="P65" s="68"/>
       <c r="Q65" s="68"/>
       <c r="R65" s="68"/>
-    </row>
-    <row r="66" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S65" s="68"/>
+    </row>
+    <row r="66" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
         <v>42736</v>
       </c>
@@ -43641,19 +43904,20 @@
         <v>331</v>
       </c>
       <c r="I66" s="86"/>
-      <c r="J66" s="90"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="90"/>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="90"/>
+      <c r="M66" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M66" s="90"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="68"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="91"/>
       <c r="P66" s="68"/>
       <c r="Q66" s="68"/>
       <c r="R66" s="68"/>
-    </row>
-    <row r="67" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S66" s="68"/>
+    </row>
+    <row r="67" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
         <v>42737</v>
       </c>
@@ -43674,22 +43938,23 @@
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="297" t="s">
+      <c r="K67" s="17"/>
+      <c r="L67" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L67" s="297" t="s">
+      <c r="M67" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M67" s="17"/>
       <c r="N67" s="17"/>
-      <c r="O67" s="68" t="s">
+      <c r="O67" s="17"/>
+      <c r="P67" s="68" t="s">
         <v>810</v>
       </c>
-      <c r="P67" s="68"/>
       <c r="Q67" s="68"/>
       <c r="R67" s="68"/>
-    </row>
-    <row r="68" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S67" s="68"/>
+    </row>
+    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
         <v>42738</v>
       </c>
@@ -43710,22 +43975,23 @@
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="297" t="s">
+      <c r="K68" s="17"/>
+      <c r="L68" s="297" t="s">
         <v>789</v>
       </c>
-      <c r="L68" s="297" t="s">
+      <c r="M68" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M68" s="17"/>
       <c r="N68" s="17"/>
-      <c r="O68" s="68" t="s">
+      <c r="O68" s="17"/>
+      <c r="P68" s="68" t="s">
         <v>812</v>
       </c>
-      <c r="P68" s="68"/>
       <c r="Q68" s="68"/>
       <c r="R68" s="68"/>
-    </row>
-    <row r="69" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S68" s="68"/>
+    </row>
+    <row r="69" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
         <v>42739</v>
       </c>
@@ -43746,20 +44012,21 @@
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="297" t="s">
+      <c r="K69" s="17"/>
+      <c r="L69" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L69" s="297" t="s">
+      <c r="M69" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M69" s="17"/>
       <c r="N69" s="17"/>
-      <c r="O69" s="68"/>
+      <c r="O69" s="17"/>
       <c r="P69" s="68"/>
       <c r="Q69" s="68"/>
       <c r="R69" s="68"/>
-    </row>
-    <row r="70" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S69" s="68"/>
+    </row>
+    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
         <v>42740</v>
       </c>
@@ -43780,20 +44047,21 @@
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="297" t="s">
+      <c r="K70" s="17"/>
+      <c r="L70" s="297" t="s">
         <v>789</v>
       </c>
-      <c r="L70" s="297" t="s">
+      <c r="M70" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M70" s="17"/>
       <c r="N70" s="17"/>
-      <c r="O70" s="68"/>
+      <c r="O70" s="17"/>
       <c r="P70" s="68"/>
       <c r="Q70" s="68"/>
       <c r="R70" s="68"/>
-    </row>
-    <row r="71" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S70" s="68"/>
+    </row>
+    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
         <v>42741</v>
       </c>
@@ -43814,20 +44082,21 @@
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="297" t="s">
+      <c r="K71" s="17"/>
+      <c r="L71" s="297" t="s">
         <v>878</v>
       </c>
-      <c r="L71" s="297" t="s">
+      <c r="M71" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M71" s="17"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="68"/>
+      <c r="O71" s="17"/>
       <c r="P71" s="68"/>
       <c r="Q71" s="68"/>
       <c r="R71" s="68"/>
-    </row>
-    <row r="72" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S71" s="68"/>
+    </row>
+    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
         <v>42741</v>
       </c>
@@ -43848,22 +44117,23 @@
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="297" t="s">
+      <c r="K72" s="17"/>
+      <c r="L72" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L72" s="297" t="s">
+      <c r="M72" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M72" s="17"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="68" t="s">
+      <c r="O72" s="17"/>
+      <c r="P72" s="68" t="s">
         <v>813</v>
       </c>
-      <c r="P72" s="68"/>
       <c r="Q72" s="68"/>
       <c r="R72" s="68"/>
-    </row>
-    <row r="73" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S72" s="68"/>
+    </row>
+    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
         <v>42742</v>
       </c>
@@ -43884,22 +44154,23 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="297" t="s">
+      <c r="K73" s="17"/>
+      <c r="L73" s="297" t="s">
         <v>789</v>
       </c>
-      <c r="L73" s="297" t="s">
+      <c r="M73" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M73" s="17"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="82" t="s">
+      <c r="O73" s="17"/>
+      <c r="P73" s="82" t="s">
         <v>814</v>
       </c>
-      <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
-    </row>
-    <row r="74" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S73" s="68"/>
+    </row>
+    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
         <v>42743</v>
       </c>
@@ -43920,20 +44191,21 @@
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="297" t="s">
+      <c r="K74" s="17"/>
+      <c r="L74" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L74" s="297" t="s">
+      <c r="M74" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M74" s="17"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="68"/>
+      <c r="O74" s="17"/>
       <c r="P74" s="68"/>
       <c r="Q74" s="68"/>
       <c r="R74" s="68"/>
-    </row>
-    <row r="75" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S74" s="68"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>42744</v>
       </c>
@@ -43954,20 +44226,21 @@
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="297" t="s">
+      <c r="K75" s="17"/>
+      <c r="L75" s="297" t="s">
         <v>789</v>
       </c>
-      <c r="L75" s="297" t="s">
+      <c r="M75" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M75" s="17"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="68"/>
+      <c r="O75" s="17"/>
       <c r="P75" s="68"/>
       <c r="Q75" s="68"/>
       <c r="R75" s="68"/>
-    </row>
-    <row r="76" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S75" s="68"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
         <v>42745</v>
       </c>
@@ -43988,16 +44261,17 @@
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="297"/>
-      <c r="L76" s="297" t="s">
+      <c r="K76" s="17"/>
+      <c r="L76" s="297"/>
+      <c r="M76" s="297" t="s">
         <v>785</v>
       </c>
-      <c r="M76" s="17"/>
       <c r="N76" s="17"/>
-      <c r="O76" s="86"/>
+      <c r="O76" s="17"/>
       <c r="P76" s="86"/>
       <c r="Q76" s="86"/>
       <c r="R76" s="86"/>
+      <c r="S76" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skynet/Desktop/mis_cosas/work/MoJ/repositories/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47D9BB-96FF-4842-BE9B-A405B35790D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC470F67-B011-454A-9AAF-A0FB12110DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19940" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="962">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3019,6 +3019,9 @@
   </si>
   <si>
     <t>Create Collection of Complex Case Links</t>
+  </si>
+  <si>
+    <t>https://run.mocky.io/v3/8f97e310-a289-487c-b2cf-be9616d8780a</t>
   </si>
 </sst>
 </file>
@@ -4907,442 +4910,6 @@
   </cellStyles>
   <dxfs count="303">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0432FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -6724,6 +6291,442 @@
         <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0432FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -12182,58 +12185,58 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F153" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F153" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12252,40 +12255,40 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16788,8 +16791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16996,7 +16999,7 @@
         <v>489</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>532</v>
+        <v>961</v>
       </c>
       <c r="K4" s="114"/>
       <c r="L4" s="114"/>
@@ -32988,7 +32991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skynet/Desktop/mis_cosas/work/MoJ/repositories/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC470F67-B011-454A-9AAF-A0FB12110DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802C10B-7446-B94F-BE41-F68B932BC91A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="963">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3022,6 +3022,9 @@
   </si>
   <si>
     <t>https://run.mocky.io/v3/8f97e310-a289-487c-b2cf-be9616d8780a</t>
+  </si>
+  <si>
+    <t>Searchable</t>
   </si>
 </sst>
 </file>
@@ -3033,7 +3036,7 @@
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3435,6 +3438,11 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -3718,7 +3726,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -4891,6 +4899,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="65" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4908,7 +4919,31 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
   </cellStyles>
-  <dxfs count="303">
+  <dxfs count="304">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -12056,374 +12091,375 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="302" dataDxfId="300" headerRowBorderDxfId="301" tableBorderDxfId="299" totalsRowBorderDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="303" dataDxfId="301" headerRowBorderDxfId="302" tableBorderDxfId="300" totalsRowBorderDxfId="299">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="297"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="296"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="294"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="293"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="298"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="297"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="296"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="295"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="294"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="163"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="162"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="161"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="160"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T40" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T40" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="143" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="140"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="138"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="136"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="135"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="134"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="144" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="141"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="139"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="137"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="136"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="135"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q159" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q159" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="117"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="116"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F153" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F153" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="292" dataDxfId="290" headerRowBorderDxfId="291" tableBorderDxfId="289" totalsRowBorderDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290" totalsRowBorderDxfId="289">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="284" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="287"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="286"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="285" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="283" dataDxfId="281" headerRowBorderDxfId="282" tableBorderDxfId="280" totalsRowBorderDxfId="279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="284" dataDxfId="282" headerRowBorderDxfId="283" tableBorderDxfId="281" totalsRowBorderDxfId="280">
   <autoFilter ref="A3:I17" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="278"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="277"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="276"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="273"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="272"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="279"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="278"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="277"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="276"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="275"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="274"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="273"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="272"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="271"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M131" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266" totalsRowBorderDxfId="265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M131" totalsRowShown="0" headerRowDxfId="270" dataDxfId="268" headerRowBorderDxfId="269" tableBorderDxfId="267" totalsRowBorderDxfId="266">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="263"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="262"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="261"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="260"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="259"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="258"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="257"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="256"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="255"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="254"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="253"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="252"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="264"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="263"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="262"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="261"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="259"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="258"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="257"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="256"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="255"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="254"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="253"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:R76" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248" totalsRowBorderDxfId="247">
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="242"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="241"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="240"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="239"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="238"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="237"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="236"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="235"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="234"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="233"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="232"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="231"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="230"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:S76" totalsRowShown="0" headerRowDxfId="252" dataDxfId="250" headerRowBorderDxfId="251" tableBorderDxfId="249" totalsRowBorderDxfId="248">
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="243"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="240"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="239"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="238"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="237"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="236"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="235"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="234"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="233"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="232"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="231"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="230"/>
+    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="229" dataDxfId="227" headerRowBorderDxfId="228" tableBorderDxfId="226" totalsRowBorderDxfId="225" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="220"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="217"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="219"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L58" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="206"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="203"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="202"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="201"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="205"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="203"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="202"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="201"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="200" dataDxfId="198" headerRowBorderDxfId="199" tableBorderDxfId="197" totalsRowBorderDxfId="196">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="189"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="188"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L66" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L66" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="173"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="172"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16791,7 +16827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="109" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="109" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -35766,9 +35802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35791,7 +35827,7 @@
     <col min="250" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
@@ -35814,7 +35850,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -35856,7 +35892,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="106" t="s">
         <v>9</v>
       </c>
@@ -35899,8 +35935,11 @@
       <c r="N3" s="300" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="20" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -35930,7 +35969,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -35960,7 +35999,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -35990,7 +36029,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -36020,7 +36059,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -36050,7 +36089,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -36080,7 +36119,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -36110,7 +36149,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="66">
         <v>42736</v>
       </c>
@@ -36142,7 +36181,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60">
         <v>42736</v>
       </c>
@@ -36174,7 +36213,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66">
         <v>42737</v>
       </c>
@@ -36204,7 +36243,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -36236,7 +36275,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -36266,7 +36305,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -37313,6 +37352,9 @@
       <c r="N34" s="17" t="s">
         <v>784</v>
       </c>
+      <c r="O34" s="20" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="35" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
@@ -37344,6 +37386,9 @@
       <c r="M35" s="64"/>
       <c r="N35" s="17" t="s">
         <v>784</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -42643,10 +42688,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="J34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42665,11 +42710,13 @@
     <col min="13" max="13" width="18.83203125" style="20" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" style="20" customWidth="1"/>
     <col min="15" max="15" width="64.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="249" width="8.83203125" style="19" customWidth="1"/>
+    <col min="16" max="18" width="8.83203125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="19" customWidth="1"/>
+    <col min="20" max="249" width="8.83203125" style="19" customWidth="1"/>
     <col min="250" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>219</v>
       </c>
@@ -42693,7 +42740,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
     </row>
-    <row r="2" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
@@ -42735,7 +42782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -42790,8 +42837,11 @@
       <c r="R3" s="301" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="450" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -42822,8 +42872,9 @@
       <c r="P4" s="103"/>
       <c r="Q4" s="103"/>
       <c r="R4" s="103"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="103"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -42854,8 +42905,9 @@
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -42886,8 +42938,9 @@
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="62"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -42918,8 +42971,9 @@
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
-    </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -42950,8 +43004,9 @@
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -42982,8 +43037,9 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
-    </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -43014,8 +43070,9 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
-    </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>42736</v>
       </c>
@@ -43046,8 +43103,9 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
-    </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="62"/>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66">
         <v>42736</v>
       </c>
@@ -43080,8 +43138,9 @@
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="68"/>
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66">
         <v>42736</v>
       </c>
@@ -43114,8 +43173,9 @@
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -43146,8 +43206,9 @@
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -43178,8 +43239,9 @@
       <c r="P15" s="62"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
-    </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="62"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -43210,8 +43272,9 @@
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
-    </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60">
         <v>42736</v>
       </c>
@@ -43242,8 +43305,9 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
-    </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
@@ -43274,8 +43338,9 @@
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
-    </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60">
         <v>42736</v>
       </c>
@@ -43306,8 +43371,9 @@
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
-    </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60">
         <v>42736</v>
       </c>
@@ -43338,8 +43404,9 @@
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="62"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60">
         <v>42736</v>
       </c>
@@ -43370,8 +43437,9 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
-    </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S21" s="62"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60">
         <v>42736</v>
       </c>
@@ -43402,8 +43470,9 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
-    </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="62"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60">
         <v>42736</v>
       </c>
@@ -43434,8 +43503,9 @@
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
-    </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="62"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
@@ -43466,8 +43536,9 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
-    </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S24" s="62"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60">
         <v>42736</v>
       </c>
@@ -43498,8 +43569,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
-    </row>
-    <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S25" s="62" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
         <v>42736</v>
       </c>
@@ -43532,8 +43606,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
-    </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S26" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60">
         <v>42736</v>
       </c>
@@ -43564,8 +43641,9 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
-    </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S27" s="62"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60">
         <v>42736</v>
       </c>
@@ -43598,8 +43676,9 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
-    </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S28" s="62"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60">
         <v>42736</v>
       </c>
@@ -43630,8 +43709,9 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
-    </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S29" s="62"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>42736</v>
       </c>
@@ -43662,8 +43742,9 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
-    </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S30" s="62"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>42736</v>
       </c>
@@ -43694,8 +43775,9 @@
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
-    </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S31" s="62"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60">
         <v>42736</v>
       </c>
@@ -43726,8 +43808,9 @@
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
-    </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S32" s="62"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60">
         <v>42736</v>
       </c>
@@ -43758,8 +43841,11 @@
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S33" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>42736</v>
       </c>
@@ -43790,8 +43876,11 @@
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
-    </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S34" s="62" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
         <v>42736</v>
       </c>
@@ -43822,8 +43911,11 @@
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S35" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60">
         <v>42736</v>
       </c>
@@ -43854,8 +43946,11 @@
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S36" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="60">
         <v>42736</v>
       </c>
@@ -43886,8 +43981,11 @@
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
-    </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S37" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="60">
         <v>42736</v>
       </c>
@@ -43920,8 +44018,9 @@
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
-    </row>
-    <row r="39" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S38" s="62"/>
+    </row>
+    <row r="39" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66">
         <v>42736</v>
       </c>
@@ -43952,8 +44051,9 @@
       <c r="P39" s="68"/>
       <c r="Q39" s="68"/>
       <c r="R39" s="68"/>
-    </row>
-    <row r="40" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S39" s="68"/>
+    </row>
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66">
         <v>42736</v>
       </c>
@@ -43986,8 +44086,9 @@
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
       <c r="R40" s="68"/>
-    </row>
-    <row r="41" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S40" s="68"/>
+    </row>
+    <row r="41" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66">
         <v>42736</v>
       </c>
@@ -44018,8 +44119,9 @@
       <c r="P41" s="68"/>
       <c r="Q41" s="68"/>
       <c r="R41" s="68"/>
-    </row>
-    <row r="42" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S41" s="68"/>
+    </row>
+    <row r="42" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66">
         <v>42736</v>
       </c>
@@ -44050,8 +44152,9 @@
       <c r="P42" s="68"/>
       <c r="Q42" s="68"/>
       <c r="R42" s="68"/>
-    </row>
-    <row r="43" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S42" s="68"/>
+    </row>
+    <row r="43" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66">
         <v>42736</v>
       </c>
@@ -44082,8 +44185,9 @@
       <c r="P43" s="68"/>
       <c r="Q43" s="68"/>
       <c r="R43" s="68"/>
-    </row>
-    <row r="44" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S43" s="68"/>
+    </row>
+    <row r="44" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66">
         <v>42736</v>
       </c>
@@ -44114,8 +44218,9 @@
       <c r="P44" s="68"/>
       <c r="Q44" s="68"/>
       <c r="R44" s="68"/>
-    </row>
-    <row r="45" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S44" s="68"/>
+    </row>
+    <row r="45" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66">
         <v>42736</v>
       </c>
@@ -44146,8 +44251,9 @@
       <c r="P45" s="68"/>
       <c r="Q45" s="68"/>
       <c r="R45" s="68"/>
-    </row>
-    <row r="46" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S45" s="68"/>
+    </row>
+    <row r="46" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="60">
         <v>42736</v>
       </c>
@@ -44178,8 +44284,9 @@
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
       <c r="R46" s="68"/>
-    </row>
-    <row r="47" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S46" s="68"/>
+    </row>
+    <row r="47" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60">
         <v>42736</v>
       </c>
@@ -44210,8 +44317,9 @@
       <c r="P47" s="68"/>
       <c r="Q47" s="68"/>
       <c r="R47" s="68"/>
-    </row>
-    <row r="48" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S47" s="68"/>
+    </row>
+    <row r="48" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="60">
         <v>42736</v>
       </c>
@@ -44244,8 +44352,9 @@
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
-    </row>
-    <row r="49" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S48" s="68"/>
+    </row>
+    <row r="49" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66">
         <v>42736</v>
       </c>
@@ -44278,8 +44387,9 @@
       <c r="P49" s="68"/>
       <c r="Q49" s="68"/>
       <c r="R49" s="68"/>
-    </row>
-    <row r="50" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S49" s="68"/>
+    </row>
+    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="60">
         <v>42736</v>
       </c>
@@ -44310,8 +44420,9 @@
       <c r="P50" s="62"/>
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
-    </row>
-    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S50" s="62"/>
+    </row>
+    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="66">
         <v>42736</v>
       </c>
@@ -44342,8 +44453,9 @@
       <c r="P51" s="62"/>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
-    </row>
-    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S51" s="62"/>
+    </row>
+    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60">
         <v>42736</v>
       </c>
@@ -44374,8 +44486,9 @@
       <c r="P52" s="62"/>
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
-    </row>
-    <row r="53" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S52" s="62"/>
+    </row>
+    <row r="53" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="60">
         <v>42736</v>
       </c>
@@ -44406,8 +44519,9 @@
       <c r="P53" s="68"/>
       <c r="Q53" s="68"/>
       <c r="R53" s="68"/>
-    </row>
-    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S53" s="68"/>
+    </row>
+    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="60">
         <v>42736</v>
       </c>
@@ -44440,8 +44554,9 @@
       <c r="P54" s="62"/>
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
-    </row>
-    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S54" s="62"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="66">
         <v>42736</v>
       </c>
@@ -44474,8 +44589,9 @@
       <c r="P55" s="62"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
-    </row>
-    <row r="56" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S55" s="62"/>
+    </row>
+    <row r="56" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="66">
         <v>42736</v>
       </c>
@@ -44506,8 +44622,9 @@
       <c r="P56" s="68"/>
       <c r="Q56" s="68"/>
       <c r="R56" s="68"/>
-    </row>
-    <row r="57" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S56" s="68"/>
+    </row>
+    <row r="57" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="66">
         <v>42736</v>
       </c>
@@ -44540,8 +44657,9 @@
       <c r="P57" s="68"/>
       <c r="Q57" s="68"/>
       <c r="R57" s="68"/>
-    </row>
-    <row r="58" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S57" s="68"/>
+    </row>
+    <row r="58" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="66">
         <v>42736</v>
       </c>
@@ -44572,8 +44690,9 @@
       <c r="P58" s="68"/>
       <c r="Q58" s="68"/>
       <c r="R58" s="68"/>
-    </row>
-    <row r="59" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S58" s="68"/>
+    </row>
+    <row r="59" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="66">
         <v>42736</v>
       </c>
@@ -44604,8 +44723,9 @@
       <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
       <c r="R59" s="68"/>
-    </row>
-    <row r="60" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S59" s="68"/>
+    </row>
+    <row r="60" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="66">
         <v>42736</v>
       </c>
@@ -44636,8 +44756,9 @@
       <c r="P60" s="68"/>
       <c r="Q60" s="68"/>
       <c r="R60" s="68"/>
-    </row>
-    <row r="61" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S60" s="68"/>
+    </row>
+    <row r="61" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="66">
         <v>42736</v>
       </c>
@@ -44668,8 +44789,9 @@
       <c r="P61" s="68"/>
       <c r="Q61" s="68"/>
       <c r="R61" s="68"/>
-    </row>
-    <row r="62" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S61" s="68"/>
+    </row>
+    <row r="62" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="66">
         <v>42736</v>
       </c>
@@ -44702,8 +44824,9 @@
       <c r="P62" s="68"/>
       <c r="Q62" s="68"/>
       <c r="R62" s="68"/>
-    </row>
-    <row r="63" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S62" s="68"/>
+    </row>
+    <row r="63" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="66">
         <v>42736</v>
       </c>
@@ -44734,8 +44857,9 @@
       <c r="P63" s="68"/>
       <c r="Q63" s="68"/>
       <c r="R63" s="68"/>
-    </row>
-    <row r="64" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S63" s="68"/>
+    </row>
+    <row r="64" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="66">
         <v>42736</v>
       </c>
@@ -44766,8 +44890,9 @@
       <c r="P64" s="68"/>
       <c r="Q64" s="68"/>
       <c r="R64" s="68"/>
-    </row>
-    <row r="65" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S64" s="68"/>
+    </row>
+    <row r="65" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="66">
         <v>42736</v>
       </c>
@@ -44798,8 +44923,9 @@
       <c r="P65" s="68"/>
       <c r="Q65" s="68"/>
       <c r="R65" s="68"/>
-    </row>
-    <row r="66" spans="1:18" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S65" s="68"/>
+    </row>
+    <row r="66" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
         <v>42736</v>
       </c>
@@ -44830,8 +44956,9 @@
       <c r="P66" s="68"/>
       <c r="Q66" s="68"/>
       <c r="R66" s="68"/>
-    </row>
-    <row r="67" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S66" s="68"/>
+    </row>
+    <row r="67" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
         <v>42737</v>
       </c>
@@ -44866,8 +44993,9 @@
       <c r="P67" s="68"/>
       <c r="Q67" s="68"/>
       <c r="R67" s="68"/>
-    </row>
-    <row r="68" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S67" s="62"/>
+    </row>
+    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
         <v>42738</v>
       </c>
@@ -44902,8 +45030,9 @@
       <c r="P68" s="68"/>
       <c r="Q68" s="68"/>
       <c r="R68" s="68"/>
-    </row>
-    <row r="69" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S68" s="62"/>
+    </row>
+    <row r="69" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
         <v>42739</v>
       </c>
@@ -44936,8 +45065,9 @@
       <c r="P69" s="68"/>
       <c r="Q69" s="68"/>
       <c r="R69" s="68"/>
-    </row>
-    <row r="70" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S69" s="62"/>
+    </row>
+    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
         <v>42740</v>
       </c>
@@ -44970,8 +45100,9 @@
       <c r="P70" s="68"/>
       <c r="Q70" s="68"/>
       <c r="R70" s="68"/>
-    </row>
-    <row r="71" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S70" s="62"/>
+    </row>
+    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
         <v>42741</v>
       </c>
@@ -45004,8 +45135,9 @@
       <c r="P71" s="68"/>
       <c r="Q71" s="68"/>
       <c r="R71" s="68"/>
-    </row>
-    <row r="72" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S71" s="62"/>
+    </row>
+    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
         <v>42741</v>
       </c>
@@ -45040,8 +45172,9 @@
       <c r="P72" s="68"/>
       <c r="Q72" s="68"/>
       <c r="R72" s="68"/>
-    </row>
-    <row r="73" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S72" s="62"/>
+    </row>
+    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
         <v>42742</v>
       </c>
@@ -45076,8 +45209,9 @@
       <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
-    </row>
-    <row r="74" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S73" s="62"/>
+    </row>
+    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
         <v>42743</v>
       </c>
@@ -45110,8 +45244,9 @@
       <c r="P74" s="68"/>
       <c r="Q74" s="68"/>
       <c r="R74" s="68"/>
-    </row>
-    <row r="75" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S74" s="62"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>42744</v>
       </c>
@@ -45144,8 +45279,9 @@
       <c r="P75" s="68"/>
       <c r="Q75" s="68"/>
       <c r="R75" s="68"/>
-    </row>
-    <row r="76" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S75" s="62"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
         <v>42745</v>
       </c>
@@ -45176,8 +45312,9 @@
       <c r="P76" s="86"/>
       <c r="Q76" s="86"/>
       <c r="R76" s="86"/>
-    </row>
-    <row r="77" spans="1:18" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S76" s="265"/>
+    </row>
+    <row r="77" spans="1:19" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="436">
         <v>42745</v>
       </c>
@@ -45204,7 +45341,7 @@
       <c r="Q77" s="439"/>
       <c r="R77" s="439"/>
     </row>
-    <row r="78" spans="1:18" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="436">
         <v>42745</v>
       </c>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1DEC7E-748D-4B42-84FB-87FF4A5BDEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5EEA19-02DA-C047-82D4-F1C7C79883C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="974">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -12515,7 +12515,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L68" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L78" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
     <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
@@ -30156,7 +30156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -46611,10 +46611,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -48131,21 +48131,19 @@
         <v>935</v>
       </c>
       <c r="D53" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E53" s="397" t="s">
         <v>937</v>
       </c>
       <c r="F53" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G53" s="398" t="s">
-        <v>693</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G53" s="398"/>
       <c r="H53" s="398"/>
       <c r="I53" s="395"/>
       <c r="J53" s="395">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" s="398" t="s">
         <v>375</v>
@@ -48161,19 +48159,19 @@
         <v>935</v>
       </c>
       <c r="D54" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E54" s="397" t="s">
         <v>937</v>
       </c>
       <c r="F54" s="398" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G54" s="398"/>
       <c r="H54" s="398"/>
       <c r="I54" s="395"/>
       <c r="J54" s="395">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K54" s="398" t="s">
         <v>375</v>
@@ -48189,19 +48187,21 @@
         <v>935</v>
       </c>
       <c r="D55" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E55" s="397" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F55" s="398" t="s">
-        <v>915</v>
-      </c>
-      <c r="G55" s="398"/>
+        <v>913</v>
+      </c>
+      <c r="G55" s="398" t="s">
+        <v>685</v>
+      </c>
       <c r="H55" s="398"/>
       <c r="I55" s="395"/>
       <c r="J55" s="395">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K55" s="398" t="s">
         <v>375</v>
@@ -48217,19 +48217,19 @@
         <v>935</v>
       </c>
       <c r="D56" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E56" s="397" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F56" s="398" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G56" s="398"/>
       <c r="H56" s="398"/>
       <c r="I56" s="395"/>
       <c r="J56" s="395">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K56" s="398" t="s">
         <v>375</v>
@@ -48245,21 +48245,19 @@
         <v>935</v>
       </c>
       <c r="D57" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E57" s="397" t="s">
         <v>938</v>
       </c>
       <c r="F57" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G57" s="398" t="s">
-        <v>685</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G57" s="398"/>
       <c r="H57" s="398"/>
       <c r="I57" s="395"/>
       <c r="J57" s="395">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K57" s="398" t="s">
         <v>375</v>
@@ -48275,308 +48273,594 @@
         <v>935</v>
       </c>
       <c r="D58" s="396" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="E58" s="397" t="s">
         <v>938</v>
       </c>
       <c r="F58" s="398" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G58" s="398"/>
       <c r="H58" s="398"/>
       <c r="I58" s="395"/>
       <c r="J58" s="395">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K58" s="398" t="s">
         <v>375</v>
       </c>
       <c r="L58" s="399"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="237">
+    <row r="59" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B59" s="395"/>
+      <c r="C59" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D59" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E59" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F59" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G59" s="398" t="s">
+        <v>693</v>
+      </c>
+      <c r="H59" s="398"/>
+      <c r="I59" s="395"/>
+      <c r="J59" s="395">
+        <v>9</v>
+      </c>
+      <c r="K59" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" s="399"/>
+    </row>
+    <row r="60" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B60" s="395"/>
+      <c r="C60" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D60" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F60" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G60" s="398"/>
+      <c r="H60" s="398"/>
+      <c r="I60" s="395"/>
+      <c r="J60" s="395">
+        <v>10</v>
+      </c>
+      <c r="K60" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L60" s="399"/>
+    </row>
+    <row r="61" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B61" s="395"/>
+      <c r="C61" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D61" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E61" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F61" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G61" s="398"/>
+      <c r="H61" s="398"/>
+      <c r="I61" s="395"/>
+      <c r="J61" s="395">
+        <v>3</v>
+      </c>
+      <c r="K61" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L61" s="399"/>
+    </row>
+    <row r="62" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B62" s="395"/>
+      <c r="C62" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D62" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E62" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F62" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G62" s="398"/>
+      <c r="H62" s="398"/>
+      <c r="I62" s="395"/>
+      <c r="J62" s="395">
+        <v>4</v>
+      </c>
+      <c r="K62" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" s="399"/>
+    </row>
+    <row r="63" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B63" s="395"/>
+      <c r="C63" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D63" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E63" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F63" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G63" s="398" t="s">
+        <v>693</v>
+      </c>
+      <c r="H63" s="398"/>
+      <c r="I63" s="395"/>
+      <c r="J63" s="395">
+        <v>5</v>
+      </c>
+      <c r="K63" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L63" s="399"/>
+    </row>
+    <row r="64" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B64" s="395"/>
+      <c r="C64" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D64" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E64" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F64" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G64" s="398"/>
+      <c r="H64" s="398"/>
+      <c r="I64" s="395"/>
+      <c r="J64" s="395">
+        <v>6</v>
+      </c>
+      <c r="K64" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L64" s="399"/>
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B65" s="395"/>
+      <c r="C65" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D65" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E65" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F65" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G65" s="398"/>
+      <c r="H65" s="398"/>
+      <c r="I65" s="395"/>
+      <c r="J65" s="395">
+        <v>7</v>
+      </c>
+      <c r="K65" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L65" s="399"/>
+    </row>
+    <row r="66" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B66" s="395"/>
+      <c r="C66" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D66" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E66" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F66" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G66" s="398"/>
+      <c r="H66" s="398"/>
+      <c r="I66" s="395"/>
+      <c r="J66" s="395">
+        <v>8</v>
+      </c>
+      <c r="K66" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L66" s="399"/>
+    </row>
+    <row r="67" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B67" s="395"/>
+      <c r="C67" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D67" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E67" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F67" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G67" s="398" t="s">
+        <v>685</v>
+      </c>
+      <c r="H67" s="398"/>
+      <c r="I67" s="395"/>
+      <c r="J67" s="395">
+        <v>9</v>
+      </c>
+      <c r="K67" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L67" s="399"/>
+    </row>
+    <row r="68" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B68" s="395"/>
+      <c r="C68" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D68" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E68" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F68" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G68" s="398"/>
+      <c r="H68" s="398"/>
+      <c r="I68" s="395"/>
+      <c r="J68" s="395">
+        <v>10</v>
+      </c>
+      <c r="K68" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L68" s="399"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="237">
         <v>43101</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84" t="s">
+      <c r="B69" s="84"/>
+      <c r="C69" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D59" s="118" t="s">
+      <c r="D69" s="118" t="s">
         <v>388</v>
       </c>
-      <c r="E59" s="118" t="s">
+      <c r="E69" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="118" t="s">
+      <c r="F69" s="118" t="s">
         <v>344</v>
       </c>
-      <c r="G59" s="118"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84">
+      <c r="G69" s="118"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84">
         <v>1</v>
       </c>
-      <c r="K59" s="118" t="s">
+      <c r="K69" s="118" t="s">
         <v>389</v>
       </c>
-      <c r="L59" s="217" t="s">
+      <c r="L69" s="217" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="237">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="237">
         <v>43101</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84" t="s">
+      <c r="B70" s="84"/>
+      <c r="C70" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D60" s="118" t="s">
+      <c r="D70" s="118" t="s">
         <v>388</v>
       </c>
-      <c r="E60" s="118" t="s">
+      <c r="E70" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="118" t="s">
+      <c r="F70" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="G60" s="118"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84">
+      <c r="G70" s="118"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84">
         <v>1</v>
       </c>
-      <c r="K60" s="118" t="s">
+      <c r="K70" s="118" t="s">
         <v>375</v>
       </c>
-      <c r="L60" s="217" t="s">
+      <c r="L70" s="217" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="237">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="237">
         <v>43101</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="65" t="s">
+      <c r="B71" s="84"/>
+      <c r="C71" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D71" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="E61" s="82" t="s">
+      <c r="E71" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="118" t="s">
+      <c r="F71" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="G61" s="118"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84">
+      <c r="G71" s="118"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84">
         <v>1</v>
       </c>
-      <c r="K61" s="118" t="s">
+      <c r="K71" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L61" s="63"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="237">
+      <c r="L71" s="63"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="237">
         <v>43101</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="65" t="s">
+      <c r="B72" s="84"/>
+      <c r="C72" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D72" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="82" t="s">
+      <c r="E72" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="118" t="s">
+      <c r="F72" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="G62" s="118"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84">
+      <c r="G72" s="118"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84">
         <v>1</v>
       </c>
-      <c r="K62" s="118" t="s">
+      <c r="K72" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L62" s="63"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="237">
+      <c r="L72" s="63"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="237">
         <v>43101</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="68" t="s">
+      <c r="B73" s="84"/>
+      <c r="C73" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D73" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="E63" s="82" t="s">
+      <c r="E73" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="F63" s="118" t="s">
+      <c r="F73" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="G63" s="118"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84">
+      <c r="G73" s="118"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84">
         <v>2</v>
       </c>
-      <c r="K63" s="118" t="s">
+      <c r="K73" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L63" s="63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="237">
+      <c r="L73" s="63"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="237">
         <v>43101</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="65" t="s">
+      <c r="B74" s="84"/>
+      <c r="C74" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D74" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="E64" s="82" t="s">
+      <c r="E74" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="118" t="s">
+      <c r="F74" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="G64" s="118"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84">
+      <c r="G74" s="118"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84">
         <v>1</v>
       </c>
-      <c r="K64" s="118" t="s">
+      <c r="K74" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L64" s="63"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="237">
+      <c r="L74" s="63"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="237">
         <v>43101</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="65" t="s">
+      <c r="B75" s="84"/>
+      <c r="C75" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D75" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="E65" s="82" t="s">
+      <c r="E75" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F65" s="118" t="s">
+      <c r="F75" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="G65" s="118"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84">
+      <c r="G75" s="118"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84">
         <v>1</v>
       </c>
-      <c r="K65" s="118" t="s">
+      <c r="K75" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L65" s="63"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="237">
+      <c r="L75" s="63"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="237">
         <v>43101</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="68" t="s">
+      <c r="B76" s="84"/>
+      <c r="C76" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D76" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="E66" s="82" t="s">
+      <c r="E76" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="118" t="s">
+      <c r="F76" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="G66" s="118"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84">
+      <c r="G76" s="118"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84">
         <v>2</v>
       </c>
-      <c r="K66" s="118" t="s">
+      <c r="K76" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L66" s="63"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="237">
+      <c r="L76" s="63"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="237">
         <v>43101</v>
       </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="65" t="s">
+      <c r="B77" s="84"/>
+      <c r="C77" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D77" s="68" t="s">
         <v>394</v>
       </c>
-      <c r="E67" s="82" t="s">
+      <c r="E77" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="118" t="s">
+      <c r="F77" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84">
+      <c r="G77" s="118"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84">
         <v>1</v>
       </c>
-      <c r="K67" s="118" t="s">
+      <c r="K77" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="L67" s="63"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="238">
+      <c r="L77" s="63"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="238">
         <v>43101</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="73" t="s">
+      <c r="B78" s="90"/>
+      <c r="C78" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="D68" s="86" t="s">
+      <c r="D78" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E78" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="239" t="s">
+      <c r="F78" s="239" t="s">
         <v>328</v>
       </c>
-      <c r="G68" s="239"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90">
+      <c r="G78" s="239"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90">
         <v>1</v>
       </c>
-      <c r="K68" s="239" t="s">
+      <c r="K78" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="L68" s="91"/>
+      <c r="L78" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5EEA19-02DA-C047-82D4-F1C7C79883C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AEEB6A-2665-A940-8E8A-7960C00F9594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="973">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3013,9 +3013,6 @@
   </si>
   <si>
     <t>Create Collection of Complex Case Links</t>
-  </si>
-  <si>
-    <t>https://run.mocky.io/v3/8f97e310-a289-487c-b2cf-be9616d8780a</t>
   </si>
   <si>
     <t>Searchable</t>
@@ -14827,16 +14824,16 @@
         <v>455</v>
       </c>
       <c r="E30" s="454" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F30" s="465" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G30" s="466">
         <v>5</v>
       </c>
       <c r="H30" s="467" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I30" s="468">
         <v>3</v>
@@ -16961,8 +16958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17169,7 +17166,7 @@
         <v>489</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>959</v>
+        <v>532</v>
       </c>
       <c r="K4" s="114"/>
       <c r="L4" s="114"/>
@@ -18779,7 +18776,6 @@
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J36" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{B1AF49E4-49FA-C84C-94E6-3BBDD6902A47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18787,7 +18783,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20370,7 +20366,7 @@
         <v>923</v>
       </c>
       <c r="E40" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F40" s="469">
         <v>1</v>
@@ -20487,7 +20483,7 @@
         <v>924</v>
       </c>
       <c r="E43" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F43" s="469">
         <v>1</v>
@@ -30992,7 +30988,7 @@
         <v>922</v>
       </c>
       <c r="D46" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E46" s="455" t="s">
         <v>776</v>
@@ -36018,7 +36014,7 @@
         <v>806</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -38698,14 +38694,14 @@
         <v>922</v>
       </c>
       <c r="D45" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="E45" s="454" t="s">
         <v>961</v>
-      </c>
-      <c r="E45" s="454" t="s">
-        <v>962</v>
       </c>
       <c r="F45" s="455"/>
       <c r="G45" s="454" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H45" s="453"/>
       <c r="I45" s="454"/>
@@ -43185,7 +43181,7 @@
         <v>817</v>
       </c>
       <c r="S3" s="450" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -46613,7 +46609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -47404,10 +47400,10 @@
         <v>923</v>
       </c>
       <c r="E27" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F27" s="462" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G27" s="462"/>
       <c r="H27" s="460"/>
@@ -47432,10 +47428,10 @@
         <v>923</v>
       </c>
       <c r="E28" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F28" s="462" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G28" s="462"/>
       <c r="H28" s="460"/>
@@ -47460,10 +47456,10 @@
         <v>923</v>
       </c>
       <c r="E29" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F29" s="462" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G29" s="462"/>
       <c r="H29" s="460"/>
@@ -47488,10 +47484,10 @@
         <v>923</v>
       </c>
       <c r="E30" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F30" s="462" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G30" s="462"/>
       <c r="H30" s="460"/>
@@ -47516,10 +47512,10 @@
         <v>923</v>
       </c>
       <c r="E31" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F31" s="462" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G31" s="462"/>
       <c r="H31" s="460"/>
@@ -47544,10 +47540,10 @@
         <v>923</v>
       </c>
       <c r="E32" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F32" s="462" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G32" s="462"/>
       <c r="H32" s="460"/>
@@ -47572,10 +47568,10 @@
         <v>923</v>
       </c>
       <c r="E33" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F33" s="462" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G33" s="462"/>
       <c r="H33" s="460"/>
@@ -47600,10 +47596,10 @@
         <v>923</v>
       </c>
       <c r="E34" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F34" s="462" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G34" s="462"/>
       <c r="H34" s="460"/>
@@ -47628,10 +47624,10 @@
         <v>923</v>
       </c>
       <c r="E35" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F35" s="462" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G35" s="462"/>
       <c r="H35" s="460"/>
@@ -47656,10 +47652,10 @@
         <v>923</v>
       </c>
       <c r="E36" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F36" s="462" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G36" s="462"/>
       <c r="H36" s="460"/>
@@ -47854,10 +47850,10 @@
         <v>924</v>
       </c>
       <c r="E43" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F43" s="462" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G43" s="462"/>
       <c r="H43" s="460"/>
@@ -47882,10 +47878,10 @@
         <v>924</v>
       </c>
       <c r="E44" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F44" s="462" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G44" s="462"/>
       <c r="H44" s="460"/>
@@ -47910,10 +47906,10 @@
         <v>924</v>
       </c>
       <c r="E45" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F45" s="462" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G45" s="462"/>
       <c r="H45" s="460"/>
@@ -47938,10 +47934,10 @@
         <v>924</v>
       </c>
       <c r="E46" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F46" s="462" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G46" s="462"/>
       <c r="H46" s="460"/>
@@ -47966,10 +47962,10 @@
         <v>924</v>
       </c>
       <c r="E47" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F47" s="462" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G47" s="462"/>
       <c r="H47" s="460"/>
@@ -47994,10 +47990,10 @@
         <v>924</v>
       </c>
       <c r="E48" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F48" s="462" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G48" s="462"/>
       <c r="H48" s="460"/>
@@ -48022,10 +48018,10 @@
         <v>924</v>
       </c>
       <c r="E49" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F49" s="462" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G49" s="462"/>
       <c r="H49" s="460"/>
@@ -48050,10 +48046,10 @@
         <v>924</v>
       </c>
       <c r="E50" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F50" s="462" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G50" s="462"/>
       <c r="H50" s="460"/>
@@ -48078,10 +48074,10 @@
         <v>924</v>
       </c>
       <c r="E51" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F51" s="462" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G51" s="462"/>
       <c r="H51" s="460"/>
@@ -48106,10 +48102,10 @@
         <v>924</v>
       </c>
       <c r="E52" s="454" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F52" s="462" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G52" s="462"/>
       <c r="H52" s="460"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C5746-D1C4-C44C-BFD2-C6A8D6E63370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499951B-DE73-6546-A7DD-186D5417880A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22260" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="951">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2970,10 +2970,19 @@
     <t>caseworker-befta_master-solicitor</t>
   </si>
   <si>
-    <t>retainHiddenValue</t>
-  </si>
-  <si>
     <t>TextField=""</t>
+  </si>
+  <si>
+    <t>FT_RetainHiddenValue</t>
+  </si>
+  <si>
+    <t>FT-Retain Hidden Value</t>
+  </si>
+  <si>
+    <t>CaseType for testing retain hidden value</t>
+  </si>
+  <si>
+    <t>RetainHiddenValue</t>
   </si>
 </sst>
 </file>
@@ -4812,31 +4821,6 @@
   </cellStyles>
   <dxfs count="304">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -7745,6 +7729,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -12054,117 +12063,117 @@
     <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
     <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
     <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
-    <tableColumn id="18" xr3:uid="{22D2BD03-F5C9-1342-90B0-EF990C0C1749}" name="retainHiddenValue" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
+    <tableColumn id="18" xr3:uid="{22D2BD03-F5C9-1342-90B0-EF990C0C1749}" name="RetainHiddenValue" dataDxfId="116"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H46" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H52" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I52" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F150" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12183,40 +12192,40 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F49" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12273,7 +12282,7 @@
     <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="241"/>
     <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="240"/>
     <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="239"/>
-    <tableColumn id="19" xr3:uid="{CC708665-6CBC-F34D-B9D8-CAD2850BA184}" name="retainHiddenValue"/>
+    <tableColumn id="19" xr3:uid="{CC708665-6CBC-F34D-B9D8-CAD2850BA184}" name="RetainHiddenValue"/>
     <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="238"/>
     <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="237"/>
     <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="236"/>
@@ -13527,10 +13536,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CR65"/>
+  <dimension ref="A1:CR67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15828,6 +15837,66 @@
       <c r="R65" s="17"/>
       <c r="S65" s="17"/>
     </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="61"/>
+      <c r="C66" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="G66" s="79">
+        <v>2</v>
+      </c>
+      <c r="H66" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="80">
+        <v>1</v>
+      </c>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="64"/>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="61"/>
+      <c r="C67" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="F67" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="G67" s="79">
+        <v>2</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="80">
+        <v>2</v>
+      </c>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="64"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I56:I65 G56:G65" xr:uid="{5BF06C15-BA32-9342-A8C0-880EAE9CE63E}">
@@ -15847,10 +15916,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:FH30"/>
+  <dimension ref="A1:FH32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16669,6 +16738,46 @@
       </c>
       <c r="H30" s="290"/>
     </row>
+    <row r="31" spans="1:164" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="81"/>
+      <c r="G31" s="80">
+        <v>1</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:164" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="F32" s="81"/>
+      <c r="G32" s="80">
+        <v>2</v>
+      </c>
+      <c r="H32" s="64"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G26:G28" xr:uid="{4F2581EF-0318-6146-80A0-4232D55627A6}">
@@ -16688,10 +16797,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18459,6 +18568,92 @@
       <c r="S41" s="289"/>
       <c r="T41" s="294"/>
     </row>
+    <row r="42" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="G42" s="80">
+        <v>1</v>
+      </c>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="T42" s="115"/>
+    </row>
+    <row r="43" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="61"/>
+      <c r="C43" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>944</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>944</v>
+      </c>
+      <c r="G43" s="80">
+        <v>1</v>
+      </c>
+      <c r="H43" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="T43" s="115"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G36:G39" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
@@ -18483,10 +18678,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18630,7 +18825,7 @@
         <v>227</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="N3" s="58" t="s">
         <v>592</v>
@@ -18718,12 +18913,8 @@
         <v>2</v>
       </c>
       <c r="K5" s="81"/>
-      <c r="L5" s="62" t="s">
-        <v>947</v>
-      </c>
-      <c r="M5" s="81" t="b">
-        <v>1</v>
-      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
       <c r="P5" s="62" t="s">
@@ -18763,9 +18954,7 @@
       </c>
       <c r="K6" s="81"/>
       <c r="L6" s="81"/>
-      <c r="M6" s="81" t="b">
-        <v>0</v>
-      </c>
+      <c r="M6" s="81"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="62" t="s">
@@ -24856,8 +25045,731 @@
       <c r="Q156" s="17"/>
       <c r="R156" s="17"/>
     </row>
-    <row r="166" spans="6:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="326"/>
+    <row r="157" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B157" s="61"/>
+      <c r="C157" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D157" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E157" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157" s="69">
+        <v>1</v>
+      </c>
+      <c r="G157" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I157" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J157" s="80">
+        <v>1</v>
+      </c>
+      <c r="K157" s="81"/>
+      <c r="L157" s="81"/>
+      <c r="M157" s="81"/>
+      <c r="N157" s="81"/>
+      <c r="O157" s="81"/>
+      <c r="P157" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q157" s="81"/>
+      <c r="R157" s="64"/>
+    </row>
+    <row r="158" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="61"/>
+      <c r="C158" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D158" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E158" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="69">
+        <v>1</v>
+      </c>
+      <c r="G158" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H158" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I158" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J158" s="80">
+        <v>2</v>
+      </c>
+      <c r="K158" s="81"/>
+      <c r="L158" s="62" t="s">
+        <v>946</v>
+      </c>
+      <c r="M158" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="N158" s="81"/>
+      <c r="O158" s="81"/>
+      <c r="P158" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q158" s="81"/>
+      <c r="R158" s="64"/>
+    </row>
+    <row r="159" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B159" s="61"/>
+      <c r="C159" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D159" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E159" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="69">
+        <v>1</v>
+      </c>
+      <c r="G159" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I159" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J159" s="80">
+        <v>3</v>
+      </c>
+      <c r="K159" s="81"/>
+      <c r="L159" s="81"/>
+      <c r="M159" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N159" s="81"/>
+      <c r="O159" s="81"/>
+      <c r="P159" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q159" s="81"/>
+      <c r="R159" s="64"/>
+    </row>
+    <row r="160" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D160" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E160" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F160" s="69">
+        <v>2</v>
+      </c>
+      <c r="G160" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H160" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I160" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J160" s="80">
+        <v>4</v>
+      </c>
+      <c r="K160" s="81"/>
+      <c r="L160" s="81"/>
+      <c r="M160" s="81"/>
+      <c r="N160" s="81"/>
+      <c r="O160" s="81"/>
+      <c r="P160" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q160" s="81"/>
+      <c r="R160" s="64"/>
+    </row>
+    <row r="161" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B161" s="61"/>
+      <c r="C161" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D161" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E161" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F161" s="69">
+        <v>1</v>
+      </c>
+      <c r="G161" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H161" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I161" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J161" s="80">
+        <v>5</v>
+      </c>
+      <c r="K161" s="81"/>
+      <c r="L161" s="81"/>
+      <c r="M161" s="81"/>
+      <c r="N161" s="81"/>
+      <c r="O161" s="81"/>
+      <c r="P161" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q161" s="81"/>
+      <c r="R161" s="64"/>
+    </row>
+    <row r="162" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="61"/>
+      <c r="C162" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D162" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E162" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F162" s="69">
+        <v>1</v>
+      </c>
+      <c r="G162" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H162" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I162" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J162" s="80">
+        <v>6</v>
+      </c>
+      <c r="K162" s="81"/>
+      <c r="L162" s="81"/>
+      <c r="M162" s="81"/>
+      <c r="N162" s="81"/>
+      <c r="O162" s="81"/>
+      <c r="P162" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q162" s="81"/>
+      <c r="R162" s="64"/>
+    </row>
+    <row r="163" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="61"/>
+      <c r="C163" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D163" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E163" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="69">
+        <v>1</v>
+      </c>
+      <c r="G163" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H163" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I163" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J163" s="80">
+        <v>7</v>
+      </c>
+      <c r="K163" s="81"/>
+      <c r="L163" s="81"/>
+      <c r="M163" s="81"/>
+      <c r="N163" s="81"/>
+      <c r="O163" s="81"/>
+      <c r="P163" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q163" s="81"/>
+      <c r="R163" s="64"/>
+    </row>
+    <row r="164" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B164" s="61"/>
+      <c r="C164" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D164" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E164" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F164" s="69">
+        <v>1</v>
+      </c>
+      <c r="G164" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H164" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I164" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J164" s="80">
+        <v>8</v>
+      </c>
+      <c r="K164" s="81"/>
+      <c r="L164" s="81"/>
+      <c r="M164" s="81"/>
+      <c r="N164" s="81"/>
+      <c r="O164" s="81"/>
+      <c r="P164" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q164" s="81"/>
+      <c r="R164" s="64"/>
+    </row>
+    <row r="165" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B165" s="67"/>
+      <c r="C165" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D165" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E165" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F165" s="84">
+        <v>1</v>
+      </c>
+      <c r="G165" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="H165" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="I165" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="J165" s="83">
+        <v>9</v>
+      </c>
+      <c r="K165" s="84"/>
+      <c r="L165" s="84"/>
+      <c r="M165" s="84"/>
+      <c r="N165" s="84"/>
+      <c r="O165" s="84"/>
+      <c r="P165" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q165" s="84"/>
+      <c r="R165" s="63"/>
+    </row>
+    <row r="166" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="143">
+        <v>42737</v>
+      </c>
+      <c r="B166" s="129"/>
+      <c r="C166" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D166" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="E166" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="F166" s="129">
+        <v>1</v>
+      </c>
+      <c r="G166" s="130" t="s">
+        <v>596</v>
+      </c>
+      <c r="H166" s="130" t="s">
+        <v>597</v>
+      </c>
+      <c r="I166" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J166" s="131">
+        <v>10</v>
+      </c>
+      <c r="K166" s="129"/>
+      <c r="L166" s="129"/>
+      <c r="M166" s="129"/>
+      <c r="N166" s="129"/>
+      <c r="O166" s="129"/>
+      <c r="P166" s="129" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q166" s="129"/>
+      <c r="R166" s="64"/>
+    </row>
+    <row r="167" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B167" s="61"/>
+      <c r="C167" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D167" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E167" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F167" s="69">
+        <v>1</v>
+      </c>
+      <c r="G167" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H167" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I167" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J167" s="80">
+        <v>13</v>
+      </c>
+      <c r="K167" s="81"/>
+      <c r="L167" s="81"/>
+      <c r="M167" s="81"/>
+      <c r="N167" s="81"/>
+      <c r="O167" s="81"/>
+      <c r="P167" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q167" s="81"/>
+      <c r="R167" s="64"/>
+    </row>
+    <row r="168" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B168" s="61"/>
+      <c r="C168" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D168" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E168" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F168" s="69">
+        <v>1</v>
+      </c>
+      <c r="G168" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H168" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I168" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J168" s="80">
+        <v>14</v>
+      </c>
+      <c r="K168" s="81"/>
+      <c r="L168" s="81"/>
+      <c r="M168" s="81"/>
+      <c r="N168" s="81"/>
+      <c r="O168" s="81"/>
+      <c r="P168" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="64"/>
+    </row>
+    <row r="169" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B169" s="61"/>
+      <c r="C169" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D169" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E169" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F169" s="69">
+        <v>1</v>
+      </c>
+      <c r="G169" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H169" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I169" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J169" s="80">
+        <v>15</v>
+      </c>
+      <c r="K169" s="81"/>
+      <c r="L169" s="81"/>
+      <c r="M169" s="81"/>
+      <c r="N169" s="81"/>
+      <c r="O169" s="81"/>
+      <c r="P169" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="64"/>
+    </row>
+    <row r="170" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B170" s="61"/>
+      <c r="C170" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D170" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E170" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F170" s="69">
+        <v>1</v>
+      </c>
+      <c r="G170" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H170" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I170" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J170" s="80">
+        <v>16</v>
+      </c>
+      <c r="K170" s="81"/>
+      <c r="L170" s="81"/>
+      <c r="M170" s="81"/>
+      <c r="N170" s="81"/>
+      <c r="O170" s="81"/>
+      <c r="P170" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="64"/>
+    </row>
+    <row r="171" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B171" s="61"/>
+      <c r="C171" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D171" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E171" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F171" s="69">
+        <v>1</v>
+      </c>
+      <c r="G171" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H171" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="I171" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J171" s="80">
+        <v>17</v>
+      </c>
+      <c r="K171" s="81"/>
+      <c r="L171" s="81"/>
+      <c r="M171" s="81"/>
+      <c r="N171" s="81"/>
+      <c r="O171" s="81"/>
+      <c r="P171" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q171" s="81"/>
+      <c r="R171" s="64"/>
+    </row>
+    <row r="172" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B172" s="67"/>
+      <c r="C172" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D172" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E172" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F172" s="84">
+        <v>1</v>
+      </c>
+      <c r="G172" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="H172" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="I172" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="J172" s="83">
+        <v>1</v>
+      </c>
+      <c r="K172" s="84"/>
+      <c r="L172" s="84"/>
+      <c r="M172" s="84"/>
+      <c r="N172" s="84"/>
+      <c r="O172" s="84"/>
+      <c r="P172" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q172" s="84"/>
+      <c r="R172" s="63"/>
+    </row>
+    <row r="173" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="413">
+        <v>42736</v>
+      </c>
+      <c r="B173" s="414"/>
+      <c r="C173" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D173" s="407" t="s">
+        <v>943</v>
+      </c>
+      <c r="E173" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F173" s="415">
+        <v>1</v>
+      </c>
+      <c r="G173" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H173" s="407" t="s">
+        <v>597</v>
+      </c>
+      <c r="I173" s="407" t="s">
+        <v>942</v>
+      </c>
+      <c r="J173" s="416">
+        <v>1</v>
+      </c>
+      <c r="K173" s="417"/>
+      <c r="L173" s="417"/>
+      <c r="M173" s="417"/>
+      <c r="N173" s="417"/>
+      <c r="O173" s="417"/>
+      <c r="P173" s="418" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q173" s="417"/>
+      <c r="R173" s="419"/>
+    </row>
+    <row r="174" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="413">
+        <v>42736</v>
+      </c>
+      <c r="B174" s="414"/>
+      <c r="C174" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D174" s="407" t="s">
+        <v>943</v>
+      </c>
+      <c r="E174" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F174" s="415">
+        <v>1</v>
+      </c>
+      <c r="G174" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="H174" s="407" t="s">
+        <v>597</v>
+      </c>
+      <c r="I174" s="407" t="s">
+        <v>942</v>
+      </c>
+      <c r="J174" s="416">
+        <v>2</v>
+      </c>
+      <c r="K174" s="417"/>
+      <c r="L174" s="417"/>
+      <c r="M174" s="417"/>
+      <c r="N174" s="417"/>
+      <c r="O174" s="417"/>
+      <c r="P174" s="418" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q174" s="417"/>
+      <c r="R174" s="419"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24876,10 +25788,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25938,6 +26850,286 @@
         <v>3</v>
       </c>
       <c r="H50" s="368"/>
+    </row>
+    <row r="51" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="151"/>
+      <c r="C51" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="153">
+        <v>1</v>
+      </c>
+      <c r="H51" s="308"/>
+    </row>
+    <row r="52" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="154"/>
+      <c r="C52" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="156">
+        <v>2</v>
+      </c>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="154"/>
+      <c r="C53" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="62"/>
+      <c r="F53" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="156">
+        <v>3</v>
+      </c>
+      <c r="H53" s="78"/>
+    </row>
+    <row r="54" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="154"/>
+      <c r="C54" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="62"/>
+      <c r="F54" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="156">
+        <v>4</v>
+      </c>
+      <c r="H54" s="78"/>
+    </row>
+    <row r="55" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="154"/>
+      <c r="C55" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="62"/>
+      <c r="F55" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="156">
+        <v>5</v>
+      </c>
+      <c r="H55" s="78"/>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="154"/>
+      <c r="C56" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="62"/>
+      <c r="F56" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="156">
+        <v>6</v>
+      </c>
+      <c r="H56" s="78"/>
+    </row>
+    <row r="57" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="154"/>
+      <c r="C57" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="62"/>
+      <c r="F57" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="156">
+        <v>7</v>
+      </c>
+      <c r="H57" s="78"/>
+    </row>
+    <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="154"/>
+      <c r="C58" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="156">
+        <v>8</v>
+      </c>
+      <c r="H58" s="78"/>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="154"/>
+      <c r="C59" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62" t="s">
+        <v>658</v>
+      </c>
+      <c r="G59" s="156">
+        <v>9</v>
+      </c>
+      <c r="H59" s="78"/>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="154"/>
+      <c r="C60" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="156">
+        <v>10</v>
+      </c>
+      <c r="H60" s="78"/>
+    </row>
+    <row r="61" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="154"/>
+      <c r="C61" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D61" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="156">
+        <v>11</v>
+      </c>
+      <c r="H61" s="78"/>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="154"/>
+      <c r="C62" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="156">
+        <v>12</v>
+      </c>
+      <c r="H62" s="78"/>
+    </row>
+    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="154"/>
+      <c r="C63" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="156">
+        <v>13</v>
+      </c>
+      <c r="H63" s="78"/>
+    </row>
+    <row r="64" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="154"/>
+      <c r="C64" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D64" s="65" t="s">
+        <v>727</v>
+      </c>
+      <c r="E64" s="62"/>
+      <c r="F64" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" s="156">
+        <v>14</v>
+      </c>
+      <c r="H64" s="78"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -25958,10 +27150,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:DS35"/>
+  <dimension ref="A1:DS37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26926,6 +28118,44 @@
       <c r="DR35" s="400"/>
       <c r="DS35" s="400"/>
     </row>
+    <row r="36" spans="1:123" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="170"/>
+      <c r="C36" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D36" s="141" t="s">
+        <v>668</v>
+      </c>
+      <c r="E36" s="171" t="s">
+        <v>669</v>
+      </c>
+      <c r="F36" s="172"/>
+      <c r="G36" s="173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:123" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="170"/>
+      <c r="C37" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D37" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="171"/>
+      <c r="G37" s="174">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G23:G24" xr:uid="{9850B61E-9DFD-1342-A596-EA5F0D31DB06}">
@@ -26945,10 +28175,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28047,6 +29277,306 @@
         <v>3</v>
       </c>
       <c r="H52" s="380"/>
+    </row>
+    <row r="53" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="170"/>
+      <c r="C53" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D53" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="141"/>
+      <c r="F53" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="174">
+        <v>1</v>
+      </c>
+      <c r="H53" s="312"/>
+    </row>
+    <row r="54" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="186"/>
+      <c r="C54" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D54" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="174">
+        <v>2</v>
+      </c>
+      <c r="H54" s="312"/>
+    </row>
+    <row r="55" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="186"/>
+      <c r="C55" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D55" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="141"/>
+      <c r="F55" s="171" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="174">
+        <v>3</v>
+      </c>
+      <c r="H55" s="312"/>
+    </row>
+    <row r="56" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="186"/>
+      <c r="C56" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D56" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="141"/>
+      <c r="F56" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="174">
+        <v>4</v>
+      </c>
+      <c r="H56" s="312"/>
+    </row>
+    <row r="57" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="186"/>
+      <c r="C57" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D57" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="141"/>
+      <c r="F57" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="174">
+        <v>5</v>
+      </c>
+      <c r="H57" s="312"/>
+    </row>
+    <row r="58" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="186"/>
+      <c r="C58" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D58" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="141"/>
+      <c r="F58" s="171" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="174">
+        <v>6</v>
+      </c>
+      <c r="H58" s="312"/>
+    </row>
+    <row r="59" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="186"/>
+      <c r="C59" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D59" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="141"/>
+      <c r="F59" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="174">
+        <v>7</v>
+      </c>
+      <c r="H59" s="312"/>
+    </row>
+    <row r="60" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="186"/>
+      <c r="C60" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D60" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="174">
+        <v>8</v>
+      </c>
+      <c r="H60" s="312"/>
+    </row>
+    <row r="61" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="186"/>
+      <c r="C61" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D61" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141" t="s">
+        <v>658</v>
+      </c>
+      <c r="G61" s="174">
+        <v>9</v>
+      </c>
+      <c r="H61" s="312"/>
+    </row>
+    <row r="62" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="186"/>
+      <c r="C62" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D62" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="174">
+        <v>10</v>
+      </c>
+      <c r="H62" s="312"/>
+    </row>
+    <row r="63" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="186"/>
+      <c r="C63" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D63" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="141"/>
+      <c r="F63" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="174">
+        <v>11</v>
+      </c>
+      <c r="H63" s="312"/>
+    </row>
+    <row r="64" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="186"/>
+      <c r="C64" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D64" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="174">
+        <v>12</v>
+      </c>
+      <c r="H64" s="312"/>
+    </row>
+    <row r="65" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="186"/>
+      <c r="C65" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D65" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="174">
+        <v>13</v>
+      </c>
+      <c r="H65" s="312"/>
+    </row>
+    <row r="66" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="186"/>
+      <c r="C66" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D66" s="141" t="s">
+        <v>668</v>
+      </c>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141" t="s">
+        <v>669</v>
+      </c>
+      <c r="G66" s="174">
+        <v>14</v>
+      </c>
+      <c r="H66" s="312"/>
+    </row>
+    <row r="67" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="185">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="186"/>
+      <c r="C67" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D67" s="141" t="s">
+        <v>727</v>
+      </c>
+      <c r="E67" s="141"/>
+      <c r="F67" s="141" t="s">
+        <v>482</v>
+      </c>
+      <c r="G67" s="174">
+        <v>15</v>
+      </c>
+      <c r="H67" s="312"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -28067,10 +29597,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:BL52"/>
+  <dimension ref="A1:BL69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29320,6 +30850,363 @@
       <c r="BK52" s="400"/>
       <c r="BL52" s="400"/>
     </row>
+    <row r="53" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="221"/>
+      <c r="C53" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D53" s="215" t="s">
+        <v>668</v>
+      </c>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215" t="s">
+        <v>669</v>
+      </c>
+      <c r="G53" s="216">
+        <v>1</v>
+      </c>
+      <c r="H53" s="319"/>
+      <c r="I53" s="319"/>
+    </row>
+    <row r="54" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="221"/>
+      <c r="C54" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D54" s="215" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="215"/>
+      <c r="F54" s="215" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="216">
+        <v>2</v>
+      </c>
+      <c r="H54" s="215"/>
+      <c r="I54" s="215"/>
+    </row>
+    <row r="55" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="215"/>
+      <c r="C55" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D55" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="216">
+        <v>3</v>
+      </c>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+    </row>
+    <row r="56" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="215"/>
+      <c r="C56" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D56" s="215" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="216">
+        <v>4</v>
+      </c>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+    </row>
+    <row r="57" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="215"/>
+      <c r="C57" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D57" s="215" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="216">
+        <v>5</v>
+      </c>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+    </row>
+    <row r="58" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="215"/>
+      <c r="C58" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D58" s="215" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="216">
+        <v>6</v>
+      </c>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+    </row>
+    <row r="59" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="215"/>
+      <c r="C59" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D59" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="216">
+        <v>7</v>
+      </c>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+    </row>
+    <row r="60" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="215"/>
+      <c r="C60" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D60" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="215"/>
+      <c r="F60" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="216">
+        <v>8</v>
+      </c>
+      <c r="H60" s="215"/>
+      <c r="I60" s="215"/>
+    </row>
+    <row r="61" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="215"/>
+      <c r="C61" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D61" s="215" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="216">
+        <v>9</v>
+      </c>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+    </row>
+    <row r="62" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="215"/>
+      <c r="C62" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D62" s="215" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="215"/>
+      <c r="F62" s="215" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="216">
+        <v>10</v>
+      </c>
+      <c r="H62" s="215"/>
+      <c r="I62" s="215"/>
+    </row>
+    <row r="63" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="215"/>
+      <c r="C63" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D63" s="215" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="215"/>
+      <c r="F63" s="215" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="216">
+        <v>11</v>
+      </c>
+      <c r="H63" s="215"/>
+      <c r="I63" s="215"/>
+    </row>
+    <row r="64" spans="1:64" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="215"/>
+      <c r="C64" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D64" s="215" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="216">
+        <v>12</v>
+      </c>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+    </row>
+    <row r="65" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="215"/>
+      <c r="C65" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D65" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="215"/>
+      <c r="F65" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="216">
+        <v>13</v>
+      </c>
+      <c r="H65" s="215"/>
+      <c r="I65" s="215"/>
+    </row>
+    <row r="66" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="215"/>
+      <c r="C66" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D66" s="215" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="216">
+        <v>14</v>
+      </c>
+      <c r="H66" s="215"/>
+      <c r="I66" s="215"/>
+    </row>
+    <row r="67" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="215"/>
+      <c r="C67" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D67" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="215"/>
+      <c r="F67" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="216">
+        <v>15</v>
+      </c>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+    </row>
+    <row r="68" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B68" s="215"/>
+      <c r="C68" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D68" s="215" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215" t="s">
+        <v>674</v>
+      </c>
+      <c r="G68" s="216">
+        <v>16</v>
+      </c>
+      <c r="H68" s="215"/>
+      <c r="I68" s="215"/>
+    </row>
+    <row r="69" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B69" s="215"/>
+      <c r="C69" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D69" s="215" t="s">
+        <v>727</v>
+      </c>
+      <c r="E69" s="215"/>
+      <c r="F69" s="215" t="s">
+        <v>482</v>
+      </c>
+      <c r="G69" s="216">
+        <v>17</v>
+      </c>
+      <c r="H69" s="215"/>
+      <c r="I69" s="215"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
   <dataValidations count="1">
@@ -29472,10 +31359,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29804,6 +31691,51 @@
         <v>945</v>
       </c>
       <c r="E21" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>938</v>
+      </c>
+      <c r="E23" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D24" s="429" t="s">
+        <v>945</v>
+      </c>
+      <c r="E24" s="125" t="s">
         <v>339</v>
       </c>
     </row>
@@ -29941,10 +31873,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32659,6 +34591,380 @@
       <c r="F150" s="266" t="s">
         <v>339</v>
       </c>
+    </row>
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B151" s="61"/>
+      <c r="C151" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D151" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F151" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B152" s="61"/>
+      <c r="C152" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D152" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F152" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B153" s="61"/>
+      <c r="C153" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D153" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F153" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B154" s="61"/>
+      <c r="C154" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D154" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F154" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B155" s="61"/>
+      <c r="C155" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D155" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F155" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B156" s="61"/>
+      <c r="C156" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D156" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F156" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B157" s="61"/>
+      <c r="C157" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D157" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F157" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="61"/>
+      <c r="C158" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D158" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E158" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F158" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B159" s="61"/>
+      <c r="C159" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D159" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E159" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F159" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D160" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F160" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="292" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B161" s="61"/>
+      <c r="C161" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="E161" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F161" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="292" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="61"/>
+      <c r="C162" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="E162" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F162" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="81"/>
+      <c r="C163" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D163" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E163" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F163" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="143">
+        <v>42737</v>
+      </c>
+      <c r="B164" s="129"/>
+      <c r="C164" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D164" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="E164" s="129" t="s">
+        <v>778</v>
+      </c>
+      <c r="F164" s="199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B165" s="81"/>
+      <c r="C165" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D165" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F165" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B166" s="81"/>
+      <c r="C166" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D166" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E166" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F166" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B167" s="81"/>
+      <c r="C167" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D167" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F167" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B168" s="81"/>
+      <c r="C168" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D168" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" s="81" t="s">
+        <v>778</v>
+      </c>
+      <c r="F168" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B169" s="84"/>
+      <c r="C169" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D169" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" s="84" t="s">
+        <v>778</v>
+      </c>
+      <c r="F169" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="60"/>
+      <c r="B170" s="81"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="81"/>
+      <c r="F170" s="115"/>
+    </row>
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="60"/>
+      <c r="B171" s="81"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="81"/>
+      <c r="F171" s="115"/>
+    </row>
+    <row r="172" spans="1:6" s="400" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="405"/>
+      <c r="B172" s="406"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="407"/>
+      <c r="E172" s="406"/>
+      <c r="F172" s="408"/>
+    </row>
+    <row r="173" spans="1:6" s="400" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="405"/>
+      <c r="B173" s="406"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="407"/>
+      <c r="E173" s="406"/>
+      <c r="F173" s="408"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
@@ -32678,7 +34984,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -32822,10 +35128,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK49"/>
+  <dimension ref="A1:EK53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33992,6 +36298,78 @@
         <v>339</v>
       </c>
     </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="F50" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="134" t="s">
+        <v>938</v>
+      </c>
+      <c r="F51" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="81"/>
+      <c r="C52" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="E52" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="F52" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="81"/>
+      <c r="C53" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="E53" s="134" t="s">
+        <v>938</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -34006,10 +36384,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:CF36"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34828,6 +37206,78 @@
         <v>339</v>
       </c>
     </row>
+    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="F37" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>938</v>
+      </c>
+      <c r="F38" s="277" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="134" t="s">
+        <v>938</v>
+      </c>
+      <c r="F40" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -34844,8 +37294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35265,7 +37715,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="421">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
@@ -35579,11 +38051,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO128"/>
+  <dimension ref="A1:IO150"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="3" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41642,6 +44114,886 @@
         <v>784</v>
       </c>
     </row>
+    <row r="129" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B129" s="61"/>
+      <c r="C129" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D129" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="81"/>
+      <c r="G129" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" s="62"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="81"/>
+      <c r="M129" s="64"/>
+      <c r="N129" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B130" s="61"/>
+      <c r="C130" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D130" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="81"/>
+      <c r="G130" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H130" s="62"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81"/>
+      <c r="K130" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L130" s="81"/>
+      <c r="M130" s="64"/>
+      <c r="N130" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="61"/>
+      <c r="C131" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D131" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="81"/>
+      <c r="G131" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="62"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="81"/>
+      <c r="K131" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" s="81"/>
+      <c r="M131" s="64"/>
+      <c r="N131" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="61"/>
+      <c r="C132" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D132" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F132" s="81"/>
+      <c r="G132" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H132" s="62"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81"/>
+      <c r="K132" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L132" s="81"/>
+      <c r="M132" s="64"/>
+      <c r="N132" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="61"/>
+      <c r="C133" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D133" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E133" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F133" s="81"/>
+      <c r="G133" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" s="62"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" s="81"/>
+      <c r="M133" s="64"/>
+      <c r="N133" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="61"/>
+      <c r="C134" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D134" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F134" s="81"/>
+      <c r="G134" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" s="62"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="81"/>
+      <c r="K134" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L134" s="81"/>
+      <c r="M134" s="64"/>
+      <c r="N134" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B135" s="61"/>
+      <c r="C135" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F135" s="81"/>
+      <c r="G135" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" s="62"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L135" s="81"/>
+      <c r="M135" s="64"/>
+      <c r="N135" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B136" s="67"/>
+      <c r="C136" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F136" s="84"/>
+      <c r="G136" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" s="68"/>
+      <c r="I136" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J136" s="84"/>
+      <c r="K136" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" s="84"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B137" s="61"/>
+      <c r="C137" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D137" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E137" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F137" s="81"/>
+      <c r="G137" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" s="62"/>
+      <c r="I137" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J137" s="81"/>
+      <c r="K137" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" s="81"/>
+      <c r="M137" s="64"/>
+      <c r="N137" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="66">
+        <v>42737</v>
+      </c>
+      <c r="B138" s="84"/>
+      <c r="C138" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E138" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" s="84"/>
+      <c r="G138" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" s="68"/>
+      <c r="I138" s="68"/>
+      <c r="J138" s="84"/>
+      <c r="K138" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L138" s="84"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="61"/>
+      <c r="C139" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D139" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E139" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F139" s="81"/>
+      <c r="G139" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139" s="62"/>
+      <c r="I139" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J139" s="81"/>
+      <c r="K139" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L139" s="81"/>
+      <c r="M139" s="64"/>
+      <c r="N139" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B140" s="61"/>
+      <c r="C140" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D140" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F140" s="81"/>
+      <c r="G140" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H140" s="62"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L140" s="81"/>
+      <c r="M140" s="64"/>
+      <c r="N140" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B141" s="61"/>
+      <c r="C141" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D141" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="81"/>
+      <c r="G141" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H141" s="358" t="s">
+        <v>749</v>
+      </c>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L141" s="81"/>
+      <c r="M141" s="64"/>
+      <c r="N141" s="18" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B142" s="61"/>
+      <c r="C142" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D142" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="E142" s="65" t="s">
+        <v>761</v>
+      </c>
+      <c r="F142" s="81"/>
+      <c r="G142" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H142" s="358" t="s">
+        <v>751</v>
+      </c>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L142" s="81"/>
+      <c r="M142" s="64"/>
+      <c r="N142" s="18" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B143" s="61"/>
+      <c r="C143" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="E143" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="F143" s="81"/>
+      <c r="G143" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H143" s="358" t="s">
+        <v>774</v>
+      </c>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L143" s="81"/>
+      <c r="M143" s="64"/>
+      <c r="N143" s="18" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B144" s="61"/>
+      <c r="C144" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D144" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="81"/>
+      <c r="G144" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H144" s="62"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L144" s="81"/>
+      <c r="M144" s="64"/>
+      <c r="N144" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="145" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B145" s="61"/>
+      <c r="C145" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D145" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" s="81"/>
+      <c r="G145" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H145" s="62"/>
+      <c r="I145" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="J145" s="81"/>
+      <c r="K145" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L145" s="81"/>
+      <c r="M145" s="64"/>
+      <c r="N145" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="146" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B146" s="133"/>
+      <c r="C146" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D146" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="134"/>
+      <c r="G146" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H146" s="82"/>
+      <c r="I146" s="134"/>
+      <c r="J146" s="134"/>
+      <c r="K146" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L146" s="134"/>
+      <c r="M146" s="256"/>
+      <c r="N146" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="147" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B147" s="133"/>
+      <c r="C147" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D147" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F147" s="134"/>
+      <c r="G147" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H147" s="82"/>
+      <c r="I147" s="134"/>
+      <c r="J147" s="134"/>
+      <c r="K147" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L147" s="134"/>
+      <c r="M147" s="256"/>
+      <c r="N147" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="148" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B148" s="133"/>
+      <c r="C148" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="D148" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F148" s="134"/>
+      <c r="G148" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H148" s="82"/>
+      <c r="I148" s="134"/>
+      <c r="J148" s="134"/>
+      <c r="K148" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L148" s="134"/>
+      <c r="M148" s="256"/>
+      <c r="N148" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="149" spans="1:249" s="403" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="405"/>
+      <c r="B149" s="409"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="407"/>
+      <c r="E149" s="407"/>
+      <c r="F149" s="411"/>
+      <c r="G149" s="410"/>
+      <c r="H149" s="410"/>
+      <c r="I149" s="407"/>
+      <c r="J149" s="406"/>
+      <c r="K149" s="410"/>
+      <c r="L149" s="406"/>
+      <c r="M149" s="412"/>
+    </row>
+    <row r="150" spans="1:249" s="400" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="405"/>
+      <c r="B150" s="409"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="407"/>
+      <c r="E150" s="407"/>
+      <c r="F150" s="411"/>
+      <c r="G150" s="410"/>
+      <c r="H150" s="410"/>
+      <c r="I150" s="407"/>
+      <c r="J150" s="406"/>
+      <c r="K150" s="410"/>
+      <c r="L150" s="406"/>
+      <c r="M150" s="412"/>
+      <c r="N150" s="403"/>
+      <c r="O150" s="404"/>
+      <c r="P150" s="404"/>
+      <c r="Q150" s="404"/>
+      <c r="R150" s="404"/>
+      <c r="S150" s="404"/>
+      <c r="T150" s="404"/>
+      <c r="U150" s="404"/>
+      <c r="V150" s="404"/>
+      <c r="W150" s="404"/>
+      <c r="X150" s="404"/>
+      <c r="Y150" s="404"/>
+      <c r="Z150" s="404"/>
+      <c r="AA150" s="404"/>
+      <c r="AB150" s="404"/>
+      <c r="AC150" s="404"/>
+      <c r="AD150" s="404"/>
+      <c r="AE150" s="404"/>
+      <c r="AF150" s="404"/>
+      <c r="AG150" s="404"/>
+      <c r="AH150" s="404"/>
+      <c r="AI150" s="404"/>
+      <c r="AJ150" s="404"/>
+      <c r="AK150" s="404"/>
+      <c r="AL150" s="404"/>
+      <c r="AM150" s="404"/>
+      <c r="AN150" s="404"/>
+      <c r="AO150" s="404"/>
+      <c r="AP150" s="404"/>
+      <c r="AQ150" s="404"/>
+      <c r="AR150" s="404"/>
+      <c r="AS150" s="404"/>
+      <c r="AT150" s="404"/>
+      <c r="AU150" s="404"/>
+      <c r="AV150" s="404"/>
+      <c r="AW150" s="404"/>
+      <c r="AX150" s="404"/>
+      <c r="AY150" s="404"/>
+      <c r="AZ150" s="404"/>
+      <c r="BA150" s="404"/>
+      <c r="BB150" s="404"/>
+      <c r="BC150" s="404"/>
+      <c r="BD150" s="404"/>
+      <c r="BE150" s="404"/>
+      <c r="BF150" s="404"/>
+      <c r="BG150" s="404"/>
+      <c r="BH150" s="404"/>
+      <c r="BI150" s="404"/>
+      <c r="BJ150" s="404"/>
+      <c r="BK150" s="404"/>
+      <c r="BL150" s="404"/>
+      <c r="BM150" s="404"/>
+      <c r="BN150" s="404"/>
+      <c r="BO150" s="404"/>
+      <c r="BP150" s="404"/>
+      <c r="BQ150" s="404"/>
+      <c r="BR150" s="404"/>
+      <c r="BS150" s="404"/>
+      <c r="BT150" s="404"/>
+      <c r="BU150" s="404"/>
+      <c r="BV150" s="404"/>
+      <c r="BW150" s="404"/>
+      <c r="BX150" s="404"/>
+      <c r="BY150" s="404"/>
+      <c r="BZ150" s="404"/>
+      <c r="CA150" s="404"/>
+      <c r="CB150" s="404"/>
+      <c r="CC150" s="404"/>
+      <c r="CD150" s="404"/>
+      <c r="CE150" s="404"/>
+      <c r="CF150" s="404"/>
+      <c r="CG150" s="404"/>
+      <c r="CH150" s="404"/>
+      <c r="CI150" s="404"/>
+      <c r="CJ150" s="404"/>
+      <c r="CK150" s="404"/>
+      <c r="CL150" s="404"/>
+      <c r="CM150" s="404"/>
+      <c r="CN150" s="404"/>
+      <c r="CO150" s="404"/>
+      <c r="CP150" s="404"/>
+      <c r="CQ150" s="404"/>
+      <c r="CR150" s="404"/>
+      <c r="CS150" s="404"/>
+      <c r="CT150" s="404"/>
+      <c r="CU150" s="404"/>
+      <c r="CV150" s="404"/>
+      <c r="CW150" s="404"/>
+      <c r="CX150" s="404"/>
+      <c r="CY150" s="404"/>
+      <c r="CZ150" s="404"/>
+      <c r="DA150" s="404"/>
+      <c r="DB150" s="404"/>
+      <c r="DC150" s="404"/>
+      <c r="DD150" s="404"/>
+      <c r="DE150" s="404"/>
+      <c r="DF150" s="404"/>
+      <c r="DG150" s="404"/>
+      <c r="DH150" s="404"/>
+      <c r="DI150" s="404"/>
+      <c r="DJ150" s="404"/>
+      <c r="DK150" s="404"/>
+      <c r="DL150" s="404"/>
+      <c r="DM150" s="404"/>
+      <c r="DN150" s="404"/>
+      <c r="DO150" s="404"/>
+      <c r="DP150" s="404"/>
+      <c r="DQ150" s="404"/>
+      <c r="DR150" s="404"/>
+      <c r="DS150" s="404"/>
+      <c r="DT150" s="404"/>
+      <c r="DU150" s="404"/>
+      <c r="DV150" s="404"/>
+      <c r="DW150" s="404"/>
+      <c r="DX150" s="404"/>
+      <c r="DY150" s="404"/>
+      <c r="DZ150" s="404"/>
+      <c r="EA150" s="404"/>
+      <c r="EB150" s="404"/>
+      <c r="EC150" s="404"/>
+      <c r="ED150" s="404"/>
+      <c r="EE150" s="404"/>
+      <c r="EF150" s="404"/>
+      <c r="EG150" s="404"/>
+      <c r="EH150" s="404"/>
+      <c r="EI150" s="404"/>
+      <c r="EJ150" s="404"/>
+      <c r="EK150" s="404"/>
+      <c r="EL150" s="404"/>
+      <c r="EM150" s="404"/>
+      <c r="EN150" s="404"/>
+      <c r="EO150" s="404"/>
+      <c r="EP150" s="404"/>
+      <c r="EQ150" s="404"/>
+      <c r="ER150" s="404"/>
+      <c r="ES150" s="404"/>
+      <c r="ET150" s="404"/>
+      <c r="EU150" s="404"/>
+      <c r="EV150" s="404"/>
+      <c r="EW150" s="404"/>
+      <c r="EX150" s="404"/>
+      <c r="EY150" s="404"/>
+      <c r="EZ150" s="404"/>
+      <c r="FA150" s="404"/>
+      <c r="FB150" s="404"/>
+      <c r="FC150" s="404"/>
+      <c r="FD150" s="404"/>
+      <c r="FE150" s="404"/>
+      <c r="FF150" s="404"/>
+      <c r="FG150" s="404"/>
+      <c r="FH150" s="404"/>
+      <c r="FI150" s="404"/>
+      <c r="FJ150" s="404"/>
+      <c r="FK150" s="404"/>
+      <c r="FL150" s="404"/>
+      <c r="FM150" s="404"/>
+      <c r="FN150" s="404"/>
+      <c r="FO150" s="404"/>
+      <c r="FP150" s="404"/>
+      <c r="FQ150" s="404"/>
+      <c r="FR150" s="404"/>
+      <c r="FS150" s="404"/>
+      <c r="FT150" s="404"/>
+      <c r="FU150" s="404"/>
+      <c r="FV150" s="404"/>
+      <c r="FW150" s="404"/>
+      <c r="FX150" s="404"/>
+      <c r="FY150" s="404"/>
+      <c r="FZ150" s="404"/>
+      <c r="GA150" s="404"/>
+      <c r="GB150" s="404"/>
+      <c r="GC150" s="404"/>
+      <c r="GD150" s="404"/>
+      <c r="GE150" s="404"/>
+      <c r="GF150" s="404"/>
+      <c r="GG150" s="404"/>
+      <c r="GH150" s="404"/>
+      <c r="GI150" s="404"/>
+      <c r="GJ150" s="404"/>
+      <c r="GK150" s="404"/>
+      <c r="GL150" s="404"/>
+      <c r="GM150" s="404"/>
+      <c r="GN150" s="404"/>
+      <c r="GO150" s="404"/>
+      <c r="GP150" s="404"/>
+      <c r="GQ150" s="404"/>
+      <c r="GR150" s="404"/>
+      <c r="GS150" s="404"/>
+      <c r="GT150" s="404"/>
+      <c r="GU150" s="404"/>
+      <c r="GV150" s="404"/>
+      <c r="GW150" s="404"/>
+      <c r="GX150" s="404"/>
+      <c r="GY150" s="404"/>
+      <c r="GZ150" s="404"/>
+      <c r="HA150" s="404"/>
+      <c r="HB150" s="404"/>
+      <c r="HC150" s="404"/>
+      <c r="HD150" s="404"/>
+      <c r="HE150" s="404"/>
+      <c r="HF150" s="404"/>
+      <c r="HG150" s="404"/>
+      <c r="HH150" s="404"/>
+      <c r="HI150" s="404"/>
+      <c r="HJ150" s="404"/>
+      <c r="HK150" s="404"/>
+      <c r="HL150" s="404"/>
+      <c r="HM150" s="404"/>
+      <c r="HN150" s="404"/>
+      <c r="HO150" s="404"/>
+      <c r="HP150" s="404"/>
+      <c r="HQ150" s="404"/>
+      <c r="HR150" s="404"/>
+      <c r="HS150" s="404"/>
+      <c r="HT150" s="404"/>
+      <c r="HU150" s="404"/>
+      <c r="HV150" s="404"/>
+      <c r="HW150" s="404"/>
+      <c r="HX150" s="404"/>
+      <c r="HY150" s="404"/>
+      <c r="HZ150" s="404"/>
+      <c r="IA150" s="404"/>
+      <c r="IB150" s="404"/>
+      <c r="IC150" s="404"/>
+      <c r="ID150" s="404"/>
+      <c r="IE150" s="404"/>
+      <c r="IF150" s="404"/>
+      <c r="IG150" s="404"/>
+      <c r="IH150" s="404"/>
+      <c r="II150" s="404"/>
+      <c r="IJ150" s="404"/>
+      <c r="IK150" s="404"/>
+      <c r="IL150" s="404"/>
+      <c r="IM150" s="404"/>
+      <c r="IN150" s="404"/>
+      <c r="IO150" s="404"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B119" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
@@ -41664,7 +45016,7 @@
   <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41784,7 +45136,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>51</v>
@@ -44290,7 +47642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -45171,8 +48523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AEEB6A-2665-A940-8E8A-7960C00F9594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104E141-5AE7-484D-A181-2608F16BE3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
     <sheet name="Banner" sheetId="22" r:id="rId2"/>
     <sheet name="CaseType" sheetId="2" r:id="rId3"/>
-    <sheet name="Category" sheetId="23" r:id="rId4"/>
-    <sheet name="CaseField" sheetId="3" r:id="rId5"/>
-    <sheet name="ComplexTypes" sheetId="4" r:id="rId6"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId7"/>
-    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId8"/>
-    <sheet name="FixedLists" sheetId="5" r:id="rId9"/>
-    <sheet name="CaseTypeTab" sheetId="6" r:id="rId10"/>
-    <sheet name="State" sheetId="7" r:id="rId11"/>
-    <sheet name="CaseEvent" sheetId="8" r:id="rId12"/>
-    <sheet name="CaseEventToFields" sheetId="9" r:id="rId13"/>
-    <sheet name="SearchInputFields" sheetId="10" r:id="rId14"/>
-    <sheet name="SearchResultFields" sheetId="11" r:id="rId15"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId16"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId17"/>
-    <sheet name="UserProfile" sheetId="14" r:id="rId18"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId19"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId20"/>
-    <sheet name="CaseRoles" sheetId="19" r:id="rId21"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId22"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId23"/>
+    <sheet name="NoCConfig" sheetId="24" r:id="rId4"/>
+    <sheet name="Category" sheetId="23" r:id="rId5"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId6"/>
+    <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId8"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId9"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId10"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId11"/>
+    <sheet name="State" sheetId="7" r:id="rId12"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId13"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId14"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId15"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId16"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId17"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId18"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId19"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId20"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId21"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId22"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId23"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CaseEvent!$A$22:$T$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$IO$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$22:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseField!$A$3:$IO$119</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5923" uniqueCount="979">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3055,6 +3056,24 @@
   </si>
   <si>
     <t>NotesReason</t>
+  </si>
+  <si>
+    <t>NoCConfig</t>
+  </si>
+  <si>
+    <t>CaseTypeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes or No, to enable or disable the reason field.                     </t>
+  </si>
+  <si>
+    <t>Yes or No, to enable or disable the noc action interpretaion</t>
+  </si>
+  <si>
+    <t>ReasonRequired</t>
+  </si>
+  <si>
+    <t>NoCActionInterpretationRequired</t>
   </si>
 </sst>
 </file>
@@ -3467,11 +3486,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3768,7 +3789,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5003,6 +5024,29 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="17" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5020,7 +5064,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
   </cellStyles>
-  <dxfs count="304">
+  <dxfs count="312">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -11302,6 +11346,220 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -12192,19 +12450,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="303" dataDxfId="301" headerRowBorderDxfId="302" tableBorderDxfId="300" totalsRowBorderDxfId="299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="311" dataDxfId="309" headerRowBorderDxfId="310" tableBorderDxfId="308" totalsRowBorderDxfId="307">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="298"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="297"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="296"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="295"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="294"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="306"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="305"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="304"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="303"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="302"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L67" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="165"/>
@@ -12220,7 +12498,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T40" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="152"/>
@@ -12248,7 +12526,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q161" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="127"/>
@@ -12273,7 +12551,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H43" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
@@ -12289,7 +12567,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
@@ -12304,7 +12582,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H48" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
@@ -12320,7 +12598,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
@@ -12337,7 +12615,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
@@ -12351,7 +12629,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
@@ -12364,7 +12642,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="301" dataDxfId="299" headerRowBorderDxfId="300" tableBorderDxfId="298" totalsRowBorderDxfId="297">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="296"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="295"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="294"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="293" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F154" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
@@ -12378,19 +12668,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290" totalsRowBorderDxfId="289">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="287"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="286"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="285" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
@@ -12402,7 +12680,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
@@ -12416,7 +12694,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
@@ -12431,24 +12709,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="284" dataDxfId="282" headerRowBorderDxfId="283" tableBorderDxfId="281" totalsRowBorderDxfId="280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="292" dataDxfId="290" headerRowBorderDxfId="291" tableBorderDxfId="289" totalsRowBorderDxfId="288">
   <autoFilter ref="A3:I17" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="279"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="278"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="277"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="276"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="275"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="274"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="273"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="272"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="271"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="287"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="286"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="285"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="284"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="283"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="282"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="281"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="280"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="279"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F70D0623-0A9A-6C4C-9874-9A93D5DC3ACF}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="278" dataDxfId="276" headerRowBorderDxfId="277" tableBorderDxfId="275" totalsRowBorderDxfId="274">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{24BEC596-8705-9C49-940B-FCCC2F2EB305}" name="CaseTypeId" dataDxfId="273"/>
+    <tableColumn id="2" xr3:uid="{C8273B71-59AA-7D4D-B60F-85A96E9E15D7}" name="ReasonRequired" dataDxfId="272"/>
+    <tableColumn id="4" xr3:uid="{4A0A9C2B-6C96-574F-BCC8-ACBC4B9E5EA7}" name="NoCActionInterpretationRequired" dataDxfId="271" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M132" totalsRowShown="0" headerRowDxfId="270" dataDxfId="268" headerRowBorderDxfId="269" tableBorderDxfId="267" totalsRowBorderDxfId="266">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="265"/>
@@ -12469,7 +12758,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:S76" totalsRowShown="0" headerRowDxfId="252" dataDxfId="250" headerRowBorderDxfId="251" tableBorderDxfId="249" totalsRowBorderDxfId="248">
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="247"/>
@@ -12496,7 +12785,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
@@ -12511,7 +12800,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L78" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
@@ -12531,7 +12820,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="194"/>
@@ -12541,26 +12830,6 @@
     <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="190"/>
     <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="189"/>
     <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="188"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L67" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13734,6 +14003,533 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="3" max="4" width="31.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
+    <col min="8" max="252" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>739</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="115"/>
+      <c r="G4" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="115"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="115"/>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="115"/>
+      <c r="G13" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" s="277"/>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="277"/>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="119"/>
+      <c r="G16" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="F17" s="119"/>
+      <c r="G17" s="63"/>
+    </row>
+    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="F18" s="119"/>
+      <c r="G18" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19" s="119"/>
+      <c r="G19" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="119"/>
+      <c r="G20" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" s="119"/>
+      <c r="G21" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="119"/>
+      <c r="G22" s="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69" t="s">
+        <v>720</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>722</v>
+      </c>
+      <c r="F23" s="277"/>
+      <c r="G23" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72" t="s">
+        <v>720</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>724</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>723</v>
+      </c>
+      <c r="F24" s="278"/>
+      <c r="G24" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="65" t="s">
+        <v>765</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>766</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>750</v>
+      </c>
+      <c r="F25" s="277" t="s">
+        <v>749</v>
+      </c>
+      <c r="G25" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="284" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="279">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="280"/>
+      <c r="C26" s="285" t="s">
+        <v>765</v>
+      </c>
+      <c r="D26" s="281" t="s">
+        <v>767</v>
+      </c>
+      <c r="E26" s="281" t="s">
+        <v>768</v>
+      </c>
+      <c r="F26" s="282" t="s">
+        <v>771</v>
+      </c>
+      <c r="G26" s="283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR67"/>
   <sheetViews>
@@ -16113,7 +16909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FH30"/>
   <sheetViews>
@@ -16954,11 +17750,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="109" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E2" zoomScale="109" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -18788,7 +19584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q171"/>
   <sheetViews>
@@ -25210,7 +26006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -26228,7 +27024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
@@ -27215,7 +28011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -28253,7 +29049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL53"/>
   <sheetViews>
@@ -29547,7 +30343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -29675,355 +30471,6 @@
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.83203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="191" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="194" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="180" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" s="180" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="180" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="110" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="62" t="s">
-        <v>882</v>
-      </c>
-      <c r="D4" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E4" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="62" t="s">
-        <v>882</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>685</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="62" t="s">
-        <v>882</v>
-      </c>
-      <c r="D6" s="134" t="s">
-        <v>936</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="62" t="s">
-        <v>880</v>
-      </c>
-      <c r="D7" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="292" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="289"/>
-      <c r="C8" s="352" t="s">
-        <v>922</v>
-      </c>
-      <c r="D8" s="366" t="s">
-        <v>776</v>
-      </c>
-      <c r="E8" s="294" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="189" t="s">
-        <v>883</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E9" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="189" t="s">
-        <v>884</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E10" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="62" t="s">
-        <v>885</v>
-      </c>
-      <c r="D11" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E11" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="62" t="s">
-        <v>886</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E12" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="62" t="s">
-        <v>887</v>
-      </c>
-      <c r="D13" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="62" t="s">
-        <v>888</v>
-      </c>
-      <c r="D14" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E14" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="65" t="s">
-        <v>889</v>
-      </c>
-      <c r="D15" s="134" t="s">
-        <v>776</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="68" t="s">
-        <v>892</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>777</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="68" t="s">
-        <v>892</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>778</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="86" t="s">
-        <v>890</v>
-      </c>
-      <c r="D18" s="195" t="s">
-        <v>776</v>
-      </c>
-      <c r="E18" s="125" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="86" t="s">
-        <v>891</v>
-      </c>
-      <c r="D19" s="195" t="s">
-        <v>776</v>
-      </c>
-      <c r="E19" s="125" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="286">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="289"/>
-      <c r="C20" s="352" t="s">
-        <v>881</v>
-      </c>
-      <c r="D20" s="366" t="s">
-        <v>776</v>
-      </c>
-      <c r="E20" s="294" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="265" t="s">
-        <v>882</v>
-      </c>
-      <c r="D21" s="429" t="s">
-        <v>943</v>
-      </c>
-      <c r="E21" s="125" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -30149,6 +30596,355 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="13" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="191" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="76"/>
+    </row>
+    <row r="2" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="180" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" s="180" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="180" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>936</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="292" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="286">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="289"/>
+      <c r="C8" s="352" t="s">
+        <v>922</v>
+      </c>
+      <c r="D8" s="366" t="s">
+        <v>776</v>
+      </c>
+      <c r="E8" s="294" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="189" t="s">
+        <v>883</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="189" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="62" t="s">
+        <v>885</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="62" t="s">
+        <v>886</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="62" t="s">
+        <v>887</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="62" t="s">
+        <v>888</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="65" t="s">
+        <v>889</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="68" t="s">
+        <v>892</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>777</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="68" t="s">
+        <v>892</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="86" t="s">
+        <v>890</v>
+      </c>
+      <c r="D18" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="86" t="s">
+        <v>891</v>
+      </c>
+      <c r="D19" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="286">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="289"/>
+      <c r="C20" s="352" t="s">
+        <v>881</v>
+      </c>
+      <c r="D20" s="366" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="294" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="265" t="s">
+        <v>882</v>
+      </c>
+      <c r="D21" s="429" t="s">
+        <v>943</v>
+      </c>
+      <c r="E21" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -32954,7 +33750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -33101,7 +33897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK50"/>
   <sheetViews>
@@ -34303,7 +35099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF36"/>
   <sheetViews>
@@ -35144,7 +35940,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35627,6 +36423,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B542E-F9DA-F649-9998-3A7EA6C2B3CB}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="472" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+    </row>
+    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="474" t="s">
+        <v>974</v>
+      </c>
+      <c r="B3" s="475" t="s">
+        <v>977</v>
+      </c>
+      <c r="C3" s="476" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" s="477" t="s">
+        <v>922</v>
+      </c>
+      <c r="B4" s="477" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="478" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5" s="477"/>
+      <c r="B5" s="477"/>
+      <c r="C5" s="478"/>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="477"/>
+      <c r="B6" s="479"/>
+      <c r="C6" s="480"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="477"/>
+      <c r="B7" s="477"/>
+      <c r="C7" s="478"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E15BE1-896E-C94F-B2CD-122BE5CAB0E3}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -35876,7 +36750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO132"/>
   <sheetViews>
@@ -43029,7 +43903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
@@ -45724,7 +46598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -46605,7 +47479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
@@ -48866,531 +49740,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
-    <col min="3" max="4" width="31.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
-    <col min="8" max="252" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="56"/>
-    </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3" s="110" t="s">
-        <v>739</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>417</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="277"/>
-      <c r="G14" s="64"/>
-    </row>
-    <row r="15" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>423</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="F15" s="277"/>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="63"/>
-    </row>
-    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>429</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>430</v>
-      </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>435</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>436</v>
-      </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>437</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69" t="s">
-        <v>720</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>721</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>722</v>
-      </c>
-      <c r="F23" s="277"/>
-      <c r="G23" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72" t="s">
-        <v>720</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>724</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>723</v>
-      </c>
-      <c r="F24" s="278"/>
-      <c r="G24" s="74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="65" t="s">
-        <v>765</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>766</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>750</v>
-      </c>
-      <c r="F25" s="277" t="s">
-        <v>749</v>
-      </c>
-      <c r="G25" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="284" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="279">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="280"/>
-      <c r="C26" s="285" t="s">
-        <v>765</v>
-      </c>
-      <c r="D26" s="281" t="s">
-        <v>767</v>
-      </c>
-      <c r="E26" s="281" t="s">
-        <v>768</v>
-      </c>
-      <c r="F26" s="282" t="s">
-        <v>771</v>
-      </c>
-      <c r="G26" s="283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104E141-5AE7-484D-A181-2608F16BE3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8184DE-B2E3-384C-B852-F406B8E08710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
     <sheet name="Banner" sheetId="22" r:id="rId2"/>
     <sheet name="CaseType" sheetId="2" r:id="rId3"/>
-    <sheet name="NoCConfig" sheetId="24" r:id="rId4"/>
+    <sheet name="NoticeOfChangeConfig" sheetId="24" r:id="rId4"/>
     <sheet name="Category" sheetId="23" r:id="rId5"/>
     <sheet name="CaseField" sheetId="3" r:id="rId6"/>
     <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
@@ -3058,9 +3058,6 @@
     <t>NotesReason</t>
   </si>
   <si>
-    <t>NoCConfig</t>
-  </si>
-  <si>
     <t>CaseTypeId</t>
   </si>
   <si>
@@ -3074,6 +3071,9 @@
   </si>
   <si>
     <t>NoCActionInterpretationRequired</t>
+  </si>
+  <si>
+    <t>NoticeOfChangeConfig</t>
   </si>
 </sst>
 </file>
@@ -36427,7 +36427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -36439,31 +36439,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="472" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B1" s="473"/>
       <c r="C1" s="473"/>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>974</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>975</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="474" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B3" s="475" t="s">
+        <v>976</v>
+      </c>
+      <c r="C3" s="476" t="s">
         <v>977</v>
-      </c>
-      <c r="C3" s="476" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8184DE-B2E3-384C-B852-F406B8E08710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A76BE-ECDE-7D4B-9ABF-20DD4B8EC62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5923" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="983">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3074,6 +3074,18 @@
   </si>
   <si>
     <t>NoticeOfChangeConfig</t>
+  </si>
+  <si>
+    <t>RetainHiddenValue</t>
+  </si>
+  <si>
+    <t>MotherFullName="Mary"</t>
+  </si>
+  <si>
+    <t>ChileFullName="Jack"</t>
+  </si>
+  <si>
+    <t>Homeless="no"</t>
   </si>
 </sst>
 </file>
@@ -3789,7 +3801,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="481">
+  <cellXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5047,6 +5059,9 @@
     <xf numFmtId="49" fontId="52" fillId="17" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5064,7 +5079,32 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
   </cellStyles>
-  <dxfs count="312">
+  <dxfs count="313">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -12450,386 +12490,388 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="311" dataDxfId="309" headerRowBorderDxfId="310" tableBorderDxfId="308" totalsRowBorderDxfId="307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="312" dataDxfId="310" headerRowBorderDxfId="311" tableBorderDxfId="309" totalsRowBorderDxfId="308">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="306"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="305"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="304"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="303"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="302"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="307"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="306"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="305"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="304"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="303"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L67" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L67" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="173"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="172"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="173"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="172"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H28" totalsRowShown="0" headerRowDxfId="171" dataDxfId="169" headerRowBorderDxfId="170" tableBorderDxfId="168" totalsRowBorderDxfId="167">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="163"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="162"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="161"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="160"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T40" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T40" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="143" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="140"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="138"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="136"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="135"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="134"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="144" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="141"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="139"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="137"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="136"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="135"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:Q161" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="117"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="116"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R161" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
+    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H43" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H43" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H48" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H48" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="301" dataDxfId="299" headerRowBorderDxfId="300" tableBorderDxfId="298" totalsRowBorderDxfId="297">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="302" dataDxfId="300" headerRowBorderDxfId="301" tableBorderDxfId="299" totalsRowBorderDxfId="298">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="296"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="295"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="294"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="293" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="297"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="296"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="295"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="294" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F154" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F154" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="292" dataDxfId="290" headerRowBorderDxfId="291" tableBorderDxfId="289" totalsRowBorderDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I17" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290" totalsRowBorderDxfId="289">
   <autoFilter ref="A3:I17" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="283"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="281"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="280"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="279"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="287"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="286"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="285"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="284"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="283"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="282"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="281"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="280"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F70D0623-0A9A-6C4C-9874-9A93D5DC3ACF}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="278" dataDxfId="276" headerRowBorderDxfId="277" tableBorderDxfId="275" totalsRowBorderDxfId="274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F70D0623-0A9A-6C4C-9874-9A93D5DC3ACF}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="279" dataDxfId="277" headerRowBorderDxfId="278" tableBorderDxfId="276" totalsRowBorderDxfId="275">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{24BEC596-8705-9C49-940B-FCCC2F2EB305}" name="CaseTypeId" dataDxfId="273"/>
-    <tableColumn id="2" xr3:uid="{C8273B71-59AA-7D4D-B60F-85A96E9E15D7}" name="ReasonRequired" dataDxfId="272"/>
-    <tableColumn id="4" xr3:uid="{4A0A9C2B-6C96-574F-BCC8-ACBC4B9E5EA7}" name="NoCActionInterpretationRequired" dataDxfId="271" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{24BEC596-8705-9C49-940B-FCCC2F2EB305}" name="CaseTypeId" dataDxfId="274"/>
+    <tableColumn id="2" xr3:uid="{C8273B71-59AA-7D4D-B60F-85A96E9E15D7}" name="ReasonRequired" dataDxfId="273"/>
+    <tableColumn id="4" xr3:uid="{4A0A9C2B-6C96-574F-BCC8-ACBC4B9E5EA7}" name="NoCActionInterpretationRequired" dataDxfId="272" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M132" totalsRowShown="0" headerRowDxfId="270" dataDxfId="268" headerRowBorderDxfId="269" tableBorderDxfId="267" totalsRowBorderDxfId="266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M132" totalsRowShown="0" headerRowDxfId="271" dataDxfId="269" headerRowBorderDxfId="270" tableBorderDxfId="268" totalsRowBorderDxfId="267">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="265"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="264"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="263"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="262"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="261"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="260"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="259"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="258"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="257"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="256"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="255"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="254"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="253"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="266"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="265"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="264"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="263"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="261"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="260"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="259"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="258"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="257"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="256"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="255"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="254"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:S76" totalsRowShown="0" headerRowDxfId="252" dataDxfId="250" headerRowBorderDxfId="251" tableBorderDxfId="249" totalsRowBorderDxfId="248">
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="247"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="245"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="244"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="243"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="240"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="239"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="238"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="237"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="236"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="235"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="234"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="233"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="232"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="231"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="230"/>
-    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:T76" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250" totalsRowBorderDxfId="249">
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="248"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="247"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="246"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="245"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="244"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="241"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="240"/>
+    <tableColumn id="20" xr3:uid="{3056D2D9-052A-4948-A9B6-EA6D4AEEE813}" name="RetainHiddenValue"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="239"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="238"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="237"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="236"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="235"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="234"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="233"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="232"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="231"/>
+    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G41" totalsRowShown="0" headerRowDxfId="229" dataDxfId="227" headerRowBorderDxfId="228" tableBorderDxfId="226" totalsRowBorderDxfId="225" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="220"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="217"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="220"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="219"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L78" totalsRowShown="0" headerRowDxfId="216" dataDxfId="214" headerRowBorderDxfId="215" tableBorderDxfId="213" totalsRowBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L78" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="211"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="210"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="206"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="203"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="202"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="201"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="205"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="203"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="202"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="201"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G24" totalsRowShown="0" headerRowDxfId="200" dataDxfId="198" headerRowBorderDxfId="199" tableBorderDxfId="197" totalsRowBorderDxfId="196">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="189"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="188"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19586,10 +19628,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q171"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F13" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19613,7 +19655,7 @@
     <col min="18" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="93" t="s">
         <v>575</v>
       </c>
@@ -19640,7 +19682,7 @@
       <c r="P1" s="97"/>
       <c r="Q1" s="101"/>
     </row>
-    <row r="2" spans="1:17" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="99" t="s">
         <v>4</v>
       </c>
@@ -19691,7 +19733,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -19728,23 +19770,26 @@
       <c r="L3" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="81" t="s">
+        <v>979</v>
+      </c>
+      <c r="N3" s="58" t="s">
         <v>592</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="O3" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="P3" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="Q3" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="Q3" s="146" t="s">
+      <c r="R3" s="146" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -19777,13 +19822,14 @@
       <c r="L4" s="81"/>
       <c r="M4" s="81"/>
       <c r="N4" s="81"/>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="64"/>
-    </row>
-    <row r="5" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="64"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -19816,13 +19862,14 @@
       <c r="L5" s="81"/>
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="81"/>
+      <c r="P5" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="64"/>
-    </row>
-    <row r="6" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -19855,13 +19902,14 @@
       <c r="L6" s="81"/>
       <c r="M6" s="81"/>
       <c r="N6" s="81"/>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="81"/>
+      <c r="P6" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="64"/>
-    </row>
-    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="81"/>
+      <c r="R6" s="64"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -19894,13 +19942,14 @@
       <c r="L7" s="81"/>
       <c r="M7" s="81"/>
       <c r="N7" s="81"/>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="64"/>
-    </row>
-    <row r="8" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -19933,13 +19982,14 @@
       <c r="L8" s="81"/>
       <c r="M8" s="81"/>
       <c r="N8" s="81"/>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="64"/>
-    </row>
-    <row r="9" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="81"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -19972,13 +20022,14 @@
       <c r="L9" s="81"/>
       <c r="M9" s="81"/>
       <c r="N9" s="81"/>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="81"/>
+      <c r="P9" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="64"/>
-    </row>
-    <row r="10" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="81"/>
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -20011,13 +20062,14 @@
       <c r="L10" s="81"/>
       <c r="M10" s="81"/>
       <c r="N10" s="81"/>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="81"/>
+      <c r="P10" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="64"/>
-    </row>
-    <row r="11" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="81"/>
+      <c r="R10" s="64"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>42736</v>
       </c>
@@ -20050,13 +20102,14 @@
       <c r="L11" s="81"/>
       <c r="M11" s="81"/>
       <c r="N11" s="81"/>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="81"/>
+      <c r="P11" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="64"/>
-    </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="81"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66">
         <v>42736</v>
       </c>
@@ -20089,13 +20142,14 @@
       <c r="L12" s="84"/>
       <c r="M12" s="84"/>
       <c r="N12" s="84"/>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="84"/>
+      <c r="P12" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="63"/>
-    </row>
-    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" s="84"/>
+      <c r="R12" s="63"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="143">
         <v>42737</v>
       </c>
@@ -20128,13 +20182,14 @@
       <c r="L13" s="129"/>
       <c r="M13" s="129"/>
       <c r="N13" s="129"/>
-      <c r="O13" s="129" t="s">
+      <c r="O13" s="129"/>
+      <c r="P13" s="129" t="s">
         <v>533</v>
       </c>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="64"/>
-    </row>
-    <row r="14" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="129"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -20167,13 +20222,14 @@
       <c r="L14" s="81"/>
       <c r="M14" s="81"/>
       <c r="N14" s="81"/>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="81"/>
+      <c r="P14" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="64"/>
-    </row>
-    <row r="15" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" s="81"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -20206,13 +20262,14 @@
       <c r="L15" s="81"/>
       <c r="M15" s="81"/>
       <c r="N15" s="81"/>
-      <c r="O15" s="62" t="s">
+      <c r="O15" s="81"/>
+      <c r="P15" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="64"/>
-    </row>
-    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="81"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -20245,13 +20302,14 @@
       <c r="L16" s="81"/>
       <c r="M16" s="81"/>
       <c r="N16" s="81"/>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="81"/>
+      <c r="P16" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="64"/>
-    </row>
-    <row r="17" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="81"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60">
         <v>42736</v>
       </c>
@@ -20284,13 +20342,14 @@
       <c r="L17" s="81"/>
       <c r="M17" s="81"/>
       <c r="N17" s="81"/>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="81"/>
+      <c r="P17" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="64"/>
-    </row>
-    <row r="18" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="81"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
@@ -20323,13 +20382,14 @@
       <c r="L18" s="81"/>
       <c r="M18" s="81"/>
       <c r="N18" s="81"/>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="81"/>
+      <c r="P18" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="64"/>
-    </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18" s="81"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="66">
         <v>42736</v>
       </c>
@@ -20362,13 +20422,14 @@
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84"/>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="84"/>
+      <c r="P19" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19" s="84"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="413">
         <v>42736</v>
       </c>
@@ -20401,13 +20462,14 @@
       <c r="L20" s="417"/>
       <c r="M20" s="417"/>
       <c r="N20" s="417"/>
-      <c r="O20" s="418" t="s">
+      <c r="O20" s="417"/>
+      <c r="P20" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P20" s="417"/>
-      <c r="Q20" s="419"/>
-    </row>
-    <row r="21" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="417"/>
+      <c r="R20" s="419"/>
+    </row>
+    <row r="21" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="413">
         <v>42736</v>
       </c>
@@ -20440,13 +20502,14 @@
       <c r="L21" s="417"/>
       <c r="M21" s="417"/>
       <c r="N21" s="417"/>
-      <c r="O21" s="418" t="s">
+      <c r="O21" s="417"/>
+      <c r="P21" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P21" s="417"/>
-      <c r="Q21" s="419"/>
-    </row>
-    <row r="22" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="417"/>
+      <c r="R21" s="419"/>
+    </row>
+    <row r="22" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="413">
         <v>42736</v>
       </c>
@@ -20479,13 +20542,14 @@
       <c r="L22" s="417"/>
       <c r="M22" s="417"/>
       <c r="N22" s="417"/>
-      <c r="O22" s="418" t="s">
+      <c r="O22" s="417"/>
+      <c r="P22" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="419"/>
-    </row>
-    <row r="23" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="417"/>
+      <c r="R22" s="419"/>
+    </row>
+    <row r="23" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="413">
         <v>42736</v>
       </c>
@@ -20518,13 +20582,14 @@
       <c r="L23" s="417"/>
       <c r="M23" s="417"/>
       <c r="N23" s="417"/>
-      <c r="O23" s="418" t="s">
+      <c r="O23" s="417"/>
+      <c r="P23" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="P23" s="417"/>
-      <c r="Q23" s="419"/>
-    </row>
-    <row r="24" spans="1:17" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="417"/>
+      <c r="R23" s="419"/>
+    </row>
+    <row r="24" spans="1:18" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="431">
         <v>42736</v>
       </c>
@@ -20557,13 +20622,14 @@
       <c r="L24" s="395"/>
       <c r="M24" s="395"/>
       <c r="N24" s="395"/>
-      <c r="O24" s="433" t="s">
+      <c r="O24" s="395"/>
+      <c r="P24" s="433" t="s">
         <v>533</v>
       </c>
-      <c r="P24" s="395"/>
-      <c r="Q24" s="399"/>
-    </row>
-    <row r="25" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="395"/>
+      <c r="R24" s="399"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60">
         <v>42736</v>
       </c>
@@ -20595,16 +20661,17 @@
       <c r="K25" s="81"/>
       <c r="L25" s="81"/>
       <c r="M25" s="81"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="62" t="s">
+      <c r="N25" s="81"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="144" t="s">
+      <c r="Q25" s="81"/>
+      <c r="R25" s="144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
         <v>42736</v>
       </c>
@@ -20637,13 +20704,14 @@
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
       <c r="N26" s="81"/>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="81"/>
+      <c r="P26" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="64"/>
-    </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" s="81"/>
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60">
         <v>42736</v>
       </c>
@@ -20676,13 +20744,14 @@
       <c r="L27" s="81"/>
       <c r="M27" s="81"/>
       <c r="N27" s="81"/>
-      <c r="O27" s="62" t="s">
+      <c r="O27" s="81"/>
+      <c r="P27" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="64"/>
-    </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="81"/>
+      <c r="R27" s="64"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60">
         <v>42736</v>
       </c>
@@ -20715,13 +20784,14 @@
       <c r="L28" s="81"/>
       <c r="M28" s="81"/>
       <c r="N28" s="81"/>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="81"/>
+      <c r="P28" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="64"/>
-    </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="81"/>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60">
         <v>42736</v>
       </c>
@@ -20754,13 +20824,14 @@
       <c r="L29" s="81"/>
       <c r="M29" s="81"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="62" t="s">
+      <c r="O29" s="81"/>
+      <c r="P29" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="64"/>
-    </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="81"/>
+      <c r="R29" s="64"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>42736</v>
       </c>
@@ -20790,16 +20861,21 @@
         <v>1</v>
       </c>
       <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
+      <c r="L30" s="81" t="s">
+        <v>982</v>
+      </c>
+      <c r="M30" s="81" t="b">
+        <v>1</v>
+      </c>
       <c r="N30" s="81"/>
-      <c r="O30" s="62" t="s">
+      <c r="O30" s="81"/>
+      <c r="P30" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="64"/>
-    </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="81"/>
+      <c r="R30" s="64"/>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>42736</v>
       </c>
@@ -20829,16 +20905,21 @@
         <v>2</v>
       </c>
       <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
+      <c r="L31" s="81" t="s">
+        <v>982</v>
+      </c>
+      <c r="M31" s="81" t="b">
+        <v>1</v>
+      </c>
       <c r="N31" s="81"/>
-      <c r="O31" s="62" t="s">
+      <c r="O31" s="81"/>
+      <c r="P31" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="64"/>
-    </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="81"/>
+      <c r="R31" s="64"/>
+    </row>
+    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60">
         <v>42736</v>
       </c>
@@ -20871,13 +20952,14 @@
       <c r="L32" s="81"/>
       <c r="M32" s="81"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="81"/>
+      <c r="P32" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="64"/>
-    </row>
-    <row r="33" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="81"/>
+      <c r="R32" s="64"/>
+    </row>
+    <row r="33" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="66">
         <v>42736</v>
       </c>
@@ -20910,13 +20992,14 @@
       <c r="L33" s="84"/>
       <c r="M33" s="84"/>
       <c r="N33" s="84"/>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="84"/>
+      <c r="P33" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="63"/>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="84"/>
+      <c r="R33" s="63"/>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>42736</v>
       </c>
@@ -20949,13 +21032,14 @@
       <c r="L34" s="81"/>
       <c r="M34" s="81"/>
       <c r="N34" s="81"/>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="81"/>
+      <c r="P34" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="64"/>
-    </row>
-    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="81"/>
+      <c r="R34" s="64"/>
+    </row>
+    <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
         <v>42736</v>
       </c>
@@ -20987,14 +21071,15 @@
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
       <c r="M35" s="81"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="62" t="s">
+      <c r="N35" s="81"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="64"/>
-    </row>
-    <row r="36" spans="1:17" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="81"/>
+      <c r="R35" s="64"/>
+    </row>
+    <row r="36" spans="1:18" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="431">
         <v>42736</v>
       </c>
@@ -21027,13 +21112,14 @@
       <c r="L36" s="395"/>
       <c r="M36" s="395"/>
       <c r="N36" s="395"/>
-      <c r="O36" s="433" t="s">
+      <c r="O36" s="395"/>
+      <c r="P36" s="433" t="s">
         <v>533</v>
       </c>
-      <c r="P36" s="395"/>
-      <c r="Q36" s="399"/>
-    </row>
-    <row r="37" spans="1:17" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="395"/>
+      <c r="R36" s="399"/>
+    </row>
+    <row r="37" spans="1:18" s="434" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="431">
         <v>42736</v>
       </c>
@@ -21066,13 +21152,14 @@
       <c r="L37" s="395"/>
       <c r="M37" s="395"/>
       <c r="N37" s="395"/>
-      <c r="O37" s="433" t="s">
+      <c r="O37" s="395"/>
+      <c r="P37" s="433" t="s">
         <v>533</v>
       </c>
-      <c r="P37" s="395"/>
-      <c r="Q37" s="399"/>
-    </row>
-    <row r="38" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="395"/>
+      <c r="R37" s="399"/>
+    </row>
+    <row r="38" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="344">
         <v>42736</v>
       </c>
@@ -21105,13 +21192,14 @@
       <c r="L38" s="337"/>
       <c r="M38" s="337"/>
       <c r="N38" s="337"/>
-      <c r="O38" s="346" t="s">
+      <c r="O38" s="337"/>
+      <c r="P38" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P38" s="337"/>
-      <c r="Q38" s="350"/>
-    </row>
-    <row r="39" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="337"/>
+      <c r="R38" s="350"/>
+    </row>
+    <row r="39" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="344">
         <v>42736</v>
       </c>
@@ -21144,13 +21232,14 @@
       <c r="L39" s="337"/>
       <c r="M39" s="337"/>
       <c r="N39" s="337"/>
-      <c r="O39" s="346" t="s">
+      <c r="O39" s="337"/>
+      <c r="P39" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P39" s="337"/>
-      <c r="Q39" s="350"/>
-    </row>
-    <row r="40" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q39" s="337"/>
+      <c r="R39" s="350"/>
+    </row>
+    <row r="40" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="451">
         <v>42736</v>
       </c>
@@ -21183,13 +21272,14 @@
       <c r="L40" s="455"/>
       <c r="M40" s="455"/>
       <c r="N40" s="455"/>
-      <c r="O40" s="453" t="s">
+      <c r="O40" s="455"/>
+      <c r="P40" s="453" t="s">
         <v>533</v>
       </c>
-      <c r="P40" s="455"/>
-      <c r="Q40" s="456"/>
-    </row>
-    <row r="41" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="455"/>
+      <c r="R40" s="456"/>
+    </row>
+    <row r="41" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="344">
         <v>42736</v>
       </c>
@@ -21222,13 +21312,14 @@
       <c r="L41" s="337"/>
       <c r="M41" s="337"/>
       <c r="N41" s="337"/>
-      <c r="O41" s="346" t="s">
+      <c r="O41" s="337"/>
+      <c r="P41" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P41" s="337"/>
-      <c r="Q41" s="350"/>
-    </row>
-    <row r="42" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q41" s="337"/>
+      <c r="R41" s="350"/>
+    </row>
+    <row r="42" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="344">
         <v>42736</v>
       </c>
@@ -21261,13 +21352,14 @@
       <c r="L42" s="337"/>
       <c r="M42" s="337"/>
       <c r="N42" s="337"/>
-      <c r="O42" s="346" t="s">
+      <c r="O42" s="337"/>
+      <c r="P42" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="P42" s="337"/>
-      <c r="Q42" s="350"/>
-    </row>
-    <row r="43" spans="1:17" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q42" s="337"/>
+      <c r="R42" s="350"/>
+    </row>
+    <row r="43" spans="1:18" s="403" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="451">
         <v>42736</v>
       </c>
@@ -21300,13 +21392,14 @@
       <c r="L43" s="455"/>
       <c r="M43" s="455"/>
       <c r="N43" s="455"/>
-      <c r="O43" s="453" t="s">
+      <c r="O43" s="455"/>
+      <c r="P43" s="453" t="s">
         <v>533</v>
       </c>
-      <c r="P43" s="455"/>
-      <c r="Q43" s="456"/>
-    </row>
-    <row r="44" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q43" s="455"/>
+      <c r="R43" s="456"/>
+    </row>
+    <row r="44" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="60">
         <v>42736</v>
       </c>
@@ -21339,13 +21432,14 @@
       <c r="L44" s="81"/>
       <c r="M44" s="81"/>
       <c r="N44" s="81"/>
-      <c r="O44" s="62" t="s">
+      <c r="O44" s="81"/>
+      <c r="P44" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="64"/>
-    </row>
-    <row r="45" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q44" s="81"/>
+      <c r="R44" s="64"/>
+    </row>
+    <row r="45" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="60">
         <v>42736</v>
       </c>
@@ -21378,13 +21472,14 @@
       <c r="L45" s="81"/>
       <c r="M45" s="81"/>
       <c r="N45" s="81"/>
-      <c r="O45" s="62" t="s">
+      <c r="O45" s="81"/>
+      <c r="P45" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="64"/>
-    </row>
-    <row r="46" spans="1:17" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q45" s="81"/>
+      <c r="R45" s="64"/>
+    </row>
+    <row r="46" spans="1:18" s="328" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="60">
         <v>42736</v>
       </c>
@@ -21417,13 +21512,14 @@
       <c r="L46" s="81"/>
       <c r="M46" s="81"/>
       <c r="N46" s="81"/>
-      <c r="O46" s="62" t="s">
+      <c r="O46" s="81"/>
+      <c r="P46" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="64"/>
-    </row>
-    <row r="47" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q46" s="81"/>
+      <c r="R46" s="64"/>
+    </row>
+    <row r="47" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60">
         <v>42736</v>
       </c>
@@ -21456,13 +21552,14 @@
       <c r="L47" s="81"/>
       <c r="M47" s="81"/>
       <c r="N47" s="81"/>
-      <c r="O47" s="62" t="s">
+      <c r="O47" s="81"/>
+      <c r="P47" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="64"/>
-    </row>
-    <row r="48" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q47" s="81"/>
+      <c r="R47" s="64"/>
+    </row>
+    <row r="48" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="60">
         <v>42736</v>
       </c>
@@ -21495,13 +21592,14 @@
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
       <c r="N48" s="81"/>
-      <c r="O48" s="62" t="s">
+      <c r="O48" s="81"/>
+      <c r="P48" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="64"/>
-    </row>
-    <row r="49" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="81"/>
+      <c r="R48" s="64"/>
+    </row>
+    <row r="49" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="60">
         <v>42736</v>
       </c>
@@ -21534,13 +21632,14 @@
       <c r="L49" s="81"/>
       <c r="M49" s="81"/>
       <c r="N49" s="81"/>
-      <c r="O49" s="62" t="s">
+      <c r="O49" s="81"/>
+      <c r="P49" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="64"/>
-    </row>
-    <row r="50" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="81"/>
+      <c r="R49" s="64"/>
+    </row>
+    <row r="50" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="60">
         <v>42736</v>
       </c>
@@ -21573,13 +21672,14 @@
       <c r="L50" s="81"/>
       <c r="M50" s="81"/>
       <c r="N50" s="81"/>
-      <c r="O50" s="62" t="s">
+      <c r="O50" s="81"/>
+      <c r="P50" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="64"/>
-    </row>
-    <row r="51" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q50" s="81"/>
+      <c r="R50" s="64"/>
+    </row>
+    <row r="51" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="60">
         <v>42736</v>
       </c>
@@ -21612,13 +21712,14 @@
       <c r="L51" s="81"/>
       <c r="M51" s="81"/>
       <c r="N51" s="81"/>
-      <c r="O51" s="62" t="s">
+      <c r="O51" s="81"/>
+      <c r="P51" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="64"/>
-    </row>
-    <row r="52" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="81"/>
+      <c r="R51" s="64"/>
+    </row>
+    <row r="52" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60">
         <v>42736</v>
       </c>
@@ -21651,13 +21752,14 @@
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
       <c r="N52" s="81"/>
-      <c r="O52" s="62" t="s">
+      <c r="O52" s="81"/>
+      <c r="P52" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="64"/>
-    </row>
-    <row r="53" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="81"/>
+      <c r="R52" s="64"/>
+    </row>
+    <row r="53" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="60">
         <v>42736</v>
       </c>
@@ -21690,13 +21792,14 @@
       <c r="L53" s="81"/>
       <c r="M53" s="81"/>
       <c r="N53" s="81"/>
-      <c r="O53" s="62" t="s">
+      <c r="O53" s="81"/>
+      <c r="P53" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="64"/>
-    </row>
-    <row r="54" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q53" s="81"/>
+      <c r="R53" s="64"/>
+    </row>
+    <row r="54" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="60">
         <v>42736</v>
       </c>
@@ -21729,13 +21832,14 @@
       <c r="L54" s="81"/>
       <c r="M54" s="81"/>
       <c r="N54" s="81"/>
-      <c r="O54" s="62" t="s">
+      <c r="O54" s="81"/>
+      <c r="P54" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="64"/>
-    </row>
-    <row r="55" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q54" s="81"/>
+      <c r="R54" s="64"/>
+    </row>
+    <row r="55" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="60">
         <v>42736</v>
       </c>
@@ -21768,13 +21872,14 @@
       <c r="L55" s="81"/>
       <c r="M55" s="81"/>
       <c r="N55" s="81"/>
-      <c r="O55" s="62" t="s">
+      <c r="O55" s="81"/>
+      <c r="P55" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="64"/>
-    </row>
-    <row r="56" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q55" s="81"/>
+      <c r="R55" s="64"/>
+    </row>
+    <row r="56" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="60">
         <v>42736</v>
       </c>
@@ -21807,13 +21912,14 @@
       <c r="L56" s="81"/>
       <c r="M56" s="81"/>
       <c r="N56" s="81"/>
-      <c r="O56" s="62" t="s">
+      <c r="O56" s="81"/>
+      <c r="P56" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="64"/>
-    </row>
-    <row r="57" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q56" s="81"/>
+      <c r="R56" s="64"/>
+    </row>
+    <row r="57" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="60">
         <v>42736</v>
       </c>
@@ -21846,13 +21952,14 @@
       <c r="L57" s="81"/>
       <c r="M57" s="81"/>
       <c r="N57" s="81"/>
-      <c r="O57" s="62" t="s">
+      <c r="O57" s="81"/>
+      <c r="P57" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="64"/>
-    </row>
-    <row r="58" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q57" s="81"/>
+      <c r="R57" s="64"/>
+    </row>
+    <row r="58" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="60">
         <v>42736</v>
       </c>
@@ -21885,13 +21992,14 @@
       <c r="L58" s="81"/>
       <c r="M58" s="81"/>
       <c r="N58" s="81"/>
-      <c r="O58" s="62" t="s">
+      <c r="O58" s="81"/>
+      <c r="P58" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="64"/>
-    </row>
-    <row r="59" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q58" s="81"/>
+      <c r="R58" s="64"/>
+    </row>
+    <row r="59" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="60">
         <v>42736</v>
       </c>
@@ -21924,13 +22032,14 @@
       <c r="L59" s="81"/>
       <c r="M59" s="81"/>
       <c r="N59" s="81"/>
-      <c r="O59" s="62" t="s">
+      <c r="O59" s="81"/>
+      <c r="P59" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="64"/>
-    </row>
-    <row r="60" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q59" s="81"/>
+      <c r="R59" s="64"/>
+    </row>
+    <row r="60" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="60">
         <v>42737</v>
       </c>
@@ -21963,13 +22072,14 @@
       <c r="L60" s="134"/>
       <c r="M60" s="134"/>
       <c r="N60" s="134"/>
-      <c r="O60" s="82" t="s">
+      <c r="O60" s="134"/>
+      <c r="P60" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="64"/>
-    </row>
-    <row r="61" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q60" s="134"/>
+      <c r="R60" s="64"/>
+    </row>
+    <row r="61" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="60">
         <v>42738</v>
       </c>
@@ -22002,13 +22112,14 @@
       <c r="L61" s="134"/>
       <c r="M61" s="134"/>
       <c r="N61" s="134"/>
-      <c r="O61" s="82" t="s">
+      <c r="O61" s="134"/>
+      <c r="P61" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P61" s="134"/>
-      <c r="Q61" s="64"/>
-    </row>
-    <row r="62" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q61" s="134"/>
+      <c r="R61" s="64"/>
+    </row>
+    <row r="62" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="60">
         <v>42739</v>
       </c>
@@ -22041,13 +22152,14 @@
       <c r="L62" s="134"/>
       <c r="M62" s="134"/>
       <c r="N62" s="134"/>
-      <c r="O62" s="82" t="s">
+      <c r="O62" s="134"/>
+      <c r="P62" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="64"/>
-    </row>
-    <row r="63" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q62" s="134"/>
+      <c r="R62" s="64"/>
+    </row>
+    <row r="63" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="60">
         <v>42740</v>
       </c>
@@ -22080,13 +22192,14 @@
       <c r="L63" s="134"/>
       <c r="M63" s="134"/>
       <c r="N63" s="134"/>
-      <c r="O63" s="82" t="s">
+      <c r="O63" s="134"/>
+      <c r="P63" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="63"/>
-    </row>
-    <row r="64" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q63" s="134"/>
+      <c r="R63" s="63"/>
+    </row>
+    <row r="64" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="60">
         <v>42741</v>
       </c>
@@ -22119,13 +22232,14 @@
       <c r="L64" s="134"/>
       <c r="M64" s="134"/>
       <c r="N64" s="134"/>
-      <c r="O64" s="82" t="s">
+      <c r="O64" s="134"/>
+      <c r="P64" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="63"/>
-    </row>
-    <row r="65" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q64" s="134"/>
+      <c r="R64" s="63"/>
+    </row>
+    <row r="65" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="60">
         <v>42742</v>
       </c>
@@ -22158,13 +22272,14 @@
       <c r="L65" s="134"/>
       <c r="M65" s="134"/>
       <c r="N65" s="134"/>
-      <c r="O65" s="82" t="s">
+      <c r="O65" s="134"/>
+      <c r="P65" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P65" s="134"/>
-      <c r="Q65" s="63"/>
-    </row>
-    <row r="66" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q65" s="134"/>
+      <c r="R65" s="63"/>
+    </row>
+    <row r="66" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="60">
         <v>42743</v>
       </c>
@@ -22197,13 +22312,14 @@
       <c r="L66" s="134"/>
       <c r="M66" s="134"/>
       <c r="N66" s="134"/>
-      <c r="O66" s="82" t="s">
+      <c r="O66" s="134"/>
+      <c r="P66" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P66" s="134"/>
-      <c r="Q66" s="63"/>
-    </row>
-    <row r="67" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q66" s="134"/>
+      <c r="R66" s="63"/>
+    </row>
+    <row r="67" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="60">
         <v>42744</v>
       </c>
@@ -22236,13 +22352,14 @@
       <c r="L67" s="134"/>
       <c r="M67" s="134"/>
       <c r="N67" s="134"/>
-      <c r="O67" s="82" t="s">
+      <c r="O67" s="134"/>
+      <c r="P67" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P67" s="134"/>
-      <c r="Q67" s="63"/>
-    </row>
-    <row r="68" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q67" s="134"/>
+      <c r="R67" s="63"/>
+    </row>
+    <row r="68" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="60">
         <v>42745</v>
       </c>
@@ -22275,13 +22392,14 @@
       <c r="L68" s="134"/>
       <c r="M68" s="134"/>
       <c r="N68" s="134"/>
-      <c r="O68" s="82" t="s">
+      <c r="O68" s="134"/>
+      <c r="P68" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="63"/>
-    </row>
-    <row r="69" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q68" s="134"/>
+      <c r="R68" s="63"/>
+    </row>
+    <row r="69" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="60">
         <v>42746</v>
       </c>
@@ -22314,13 +22432,14 @@
       <c r="L69" s="134"/>
       <c r="M69" s="134"/>
       <c r="N69" s="134"/>
-      <c r="O69" s="82" t="s">
+      <c r="O69" s="134"/>
+      <c r="P69" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P69" s="134"/>
-      <c r="Q69" s="63"/>
-    </row>
-    <row r="70" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q69" s="134"/>
+      <c r="R69" s="63"/>
+    </row>
+    <row r="70" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="60">
         <v>42747</v>
       </c>
@@ -22353,13 +22472,14 @@
       <c r="L70" s="134"/>
       <c r="M70" s="134"/>
       <c r="N70" s="134"/>
-      <c r="O70" s="82" t="s">
+      <c r="O70" s="134"/>
+      <c r="P70" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="63"/>
-    </row>
-    <row r="71" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q70" s="134"/>
+      <c r="R70" s="63"/>
+    </row>
+    <row r="71" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="60">
         <v>42748</v>
       </c>
@@ -22391,14 +22511,15 @@
       <c r="K71" s="134"/>
       <c r="L71" s="134"/>
       <c r="M71" s="134"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82" t="s">
+      <c r="N71" s="134"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P71" s="134"/>
-      <c r="Q71" s="70"/>
-    </row>
-    <row r="72" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q71" s="134"/>
+      <c r="R71" s="70"/>
+    </row>
+    <row r="72" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="60">
         <v>42749</v>
       </c>
@@ -22433,13 +22554,14 @@
       </c>
       <c r="M72" s="134"/>
       <c r="N72" s="134"/>
-      <c r="O72" s="82" t="s">
+      <c r="O72" s="134"/>
+      <c r="P72" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="70"/>
-    </row>
-    <row r="73" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q72" s="134"/>
+      <c r="R72" s="70"/>
+    </row>
+    <row r="73" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="60">
         <v>42750</v>
       </c>
@@ -22474,13 +22596,14 @@
       </c>
       <c r="M73" s="134"/>
       <c r="N73" s="134"/>
-      <c r="O73" s="82" t="s">
+      <c r="O73" s="134"/>
+      <c r="P73" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="70"/>
-    </row>
-    <row r="74" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q73" s="134"/>
+      <c r="R73" s="70"/>
+    </row>
+    <row r="74" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="60">
         <v>42751</v>
       </c>
@@ -22515,13 +22638,14 @@
       </c>
       <c r="M74" s="134"/>
       <c r="N74" s="134"/>
-      <c r="O74" s="82" t="s">
+      <c r="O74" s="134"/>
+      <c r="P74" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="70"/>
-    </row>
-    <row r="75" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q74" s="134"/>
+      <c r="R74" s="70"/>
+    </row>
+    <row r="75" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="60">
         <v>42752</v>
       </c>
@@ -22556,13 +22680,14 @@
       </c>
       <c r="M75" s="134"/>
       <c r="N75" s="134"/>
-      <c r="O75" s="82" t="s">
+      <c r="O75" s="134"/>
+      <c r="P75" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="70"/>
-    </row>
-    <row r="76" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q75" s="134"/>
+      <c r="R75" s="70"/>
+    </row>
+    <row r="76" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="60">
         <v>42753</v>
       </c>
@@ -22597,13 +22722,14 @@
       </c>
       <c r="M76" s="134"/>
       <c r="N76" s="134"/>
-      <c r="O76" s="82" t="s">
+      <c r="O76" s="134"/>
+      <c r="P76" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="70"/>
-    </row>
-    <row r="77" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q76" s="134"/>
+      <c r="R76" s="70"/>
+    </row>
+    <row r="77" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="60">
         <v>42754</v>
       </c>
@@ -22638,13 +22764,14 @@
       </c>
       <c r="M77" s="134"/>
       <c r="N77" s="134"/>
-      <c r="O77" s="82" t="s">
+      <c r="O77" s="134"/>
+      <c r="P77" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P77" s="134"/>
-      <c r="Q77" s="70"/>
-    </row>
-    <row r="78" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q77" s="134"/>
+      <c r="R77" s="70"/>
+    </row>
+    <row r="78" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="60">
         <v>42755</v>
       </c>
@@ -22679,13 +22806,14 @@
       </c>
       <c r="M78" s="134"/>
       <c r="N78" s="134"/>
-      <c r="O78" s="82" t="s">
+      <c r="O78" s="134"/>
+      <c r="P78" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P78" s="134"/>
-      <c r="Q78" s="70"/>
-    </row>
-    <row r="79" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q78" s="134"/>
+      <c r="R78" s="70"/>
+    </row>
+    <row r="79" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="60">
         <v>42756</v>
       </c>
@@ -22720,13 +22848,14 @@
       </c>
       <c r="M79" s="134"/>
       <c r="N79" s="134"/>
-      <c r="O79" s="82" t="s">
+      <c r="O79" s="134"/>
+      <c r="P79" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P79" s="134"/>
-      <c r="Q79" s="70"/>
-    </row>
-    <row r="80" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q79" s="134"/>
+      <c r="R79" s="70"/>
+    </row>
+    <row r="80" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="60">
         <v>42757</v>
       </c>
@@ -22759,15 +22888,16 @@
       <c r="L80" s="82" t="s">
         <v>628</v>
       </c>
-      <c r="M80" s="134"/>
+      <c r="M80" s="82"/>
       <c r="N80" s="134"/>
-      <c r="O80" s="82" t="s">
+      <c r="O80" s="134"/>
+      <c r="P80" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P80" s="134"/>
-      <c r="Q80" s="70"/>
-    </row>
-    <row r="81" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q80" s="134"/>
+      <c r="R80" s="70"/>
+    </row>
+    <row r="81" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="60">
         <v>42758</v>
       </c>
@@ -22800,15 +22930,16 @@
       <c r="L81" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="M81" s="134"/>
+      <c r="M81" s="82"/>
       <c r="N81" s="134"/>
-      <c r="O81" s="82" t="s">
+      <c r="O81" s="134"/>
+      <c r="P81" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P81" s="134"/>
-      <c r="Q81" s="70"/>
-    </row>
-    <row r="82" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q81" s="134"/>
+      <c r="R81" s="70"/>
+    </row>
+    <row r="82" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="60">
         <v>42759</v>
       </c>
@@ -22842,14 +22973,15 @@
         <v>630</v>
       </c>
       <c r="M82" s="82"/>
-      <c r="N82" s="134"/>
-      <c r="O82" s="82" t="s">
+      <c r="N82" s="82"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P82" s="134"/>
-      <c r="Q82" s="70"/>
-    </row>
-    <row r="83" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q82" s="134"/>
+      <c r="R82" s="70"/>
+    </row>
+    <row r="83" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="60">
         <v>42760</v>
       </c>
@@ -22883,12 +23015,13 @@
         <v>631</v>
       </c>
       <c r="M83" s="82"/>
-      <c r="N83" s="134"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="70"/>
-    </row>
-    <row r="84" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N83" s="82"/>
+      <c r="O83" s="134"/>
+      <c r="P83" s="82"/>
+      <c r="Q83" s="134"/>
+      <c r="R83" s="70"/>
+    </row>
+    <row r="84" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="60">
         <v>42761</v>
       </c>
@@ -22919,17 +23052,18 @@
       </c>
       <c r="K84" s="134"/>
       <c r="L84" s="134"/>
-      <c r="M84" s="134" t="s">
+      <c r="M84" s="134"/>
+      <c r="N84" s="134" t="s">
         <v>478</v>
       </c>
-      <c r="N84" s="134"/>
-      <c r="O84" s="82" t="s">
+      <c r="O84" s="134"/>
+      <c r="P84" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="70"/>
-    </row>
-    <row r="85" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q84" s="134"/>
+      <c r="R84" s="70"/>
+    </row>
+    <row r="85" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="60">
         <v>42762</v>
       </c>
@@ -22960,17 +23094,18 @@
       </c>
       <c r="K85" s="134"/>
       <c r="L85" s="134"/>
-      <c r="M85" s="134" t="s">
+      <c r="M85" s="134"/>
+      <c r="N85" s="134" t="s">
         <v>636</v>
       </c>
-      <c r="N85" s="134"/>
-      <c r="O85" s="82" t="s">
+      <c r="O85" s="134"/>
+      <c r="P85" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="70"/>
-    </row>
-    <row r="86" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q85" s="134"/>
+      <c r="R85" s="70"/>
+    </row>
+    <row r="86" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="60">
         <v>42763</v>
       </c>
@@ -23001,17 +23136,18 @@
       </c>
       <c r="K86" s="134"/>
       <c r="L86" s="134"/>
-      <c r="M86" s="134" t="s">
+      <c r="M86" s="134"/>
+      <c r="N86" s="134" t="s">
         <v>639</v>
       </c>
-      <c r="N86" s="134"/>
-      <c r="O86" s="82" t="s">
+      <c r="O86" s="134"/>
+      <c r="P86" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P86" s="134"/>
-      <c r="Q86" s="70"/>
-    </row>
-    <row r="87" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q86" s="134"/>
+      <c r="R86" s="70"/>
+    </row>
+    <row r="87" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="60">
         <v>42764</v>
       </c>
@@ -23042,17 +23178,18 @@
       </c>
       <c r="K87" s="134"/>
       <c r="L87" s="134"/>
-      <c r="M87" s="134" t="s">
+      <c r="M87" s="134"/>
+      <c r="N87" s="134" t="s">
         <v>642</v>
       </c>
-      <c r="N87" s="134"/>
-      <c r="O87" s="82" t="s">
+      <c r="O87" s="134"/>
+      <c r="P87" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P87" s="134"/>
-      <c r="Q87" s="70"/>
-    </row>
-    <row r="88" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q87" s="134"/>
+      <c r="R87" s="70"/>
+    </row>
+    <row r="88" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="66">
         <v>42737</v>
       </c>
@@ -23085,13 +23222,14 @@
       <c r="L88" s="134"/>
       <c r="M88" s="134"/>
       <c r="N88" s="134"/>
-      <c r="O88" s="82" t="s">
+      <c r="O88" s="134"/>
+      <c r="P88" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P88" s="134"/>
-      <c r="Q88" s="63"/>
-    </row>
-    <row r="89" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q88" s="134"/>
+      <c r="R88" s="63"/>
+    </row>
+    <row r="89" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="66">
         <v>42737</v>
       </c>
@@ -23126,13 +23264,14 @@
       </c>
       <c r="M89" s="134"/>
       <c r="N89" s="134"/>
-      <c r="O89" s="82" t="s">
+      <c r="O89" s="134"/>
+      <c r="P89" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P89" s="134"/>
-      <c r="Q89" s="63"/>
-    </row>
-    <row r="90" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q89" s="134"/>
+      <c r="R89" s="63"/>
+    </row>
+    <row r="90" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="60">
         <v>42765</v>
       </c>
@@ -23164,14 +23303,15 @@
       <c r="K90" s="134"/>
       <c r="L90" s="134"/>
       <c r="M90" s="134"/>
-      <c r="N90" s="82"/>
-      <c r="O90" s="82" t="s">
+      <c r="N90" s="134"/>
+      <c r="O90" s="82"/>
+      <c r="P90" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P90" s="134"/>
-      <c r="Q90" s="70"/>
-    </row>
-    <row r="91" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q90" s="134"/>
+      <c r="R90" s="70"/>
+    </row>
+    <row r="91" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="60">
         <v>42766</v>
       </c>
@@ -23203,14 +23343,15 @@
       <c r="K91" s="134"/>
       <c r="L91" s="134"/>
       <c r="M91" s="134"/>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82" t="s">
+      <c r="N91" s="134"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P91" s="134"/>
-      <c r="Q91" s="70"/>
-    </row>
-    <row r="92" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q91" s="134"/>
+      <c r="R91" s="70"/>
+    </row>
+    <row r="92" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="60">
         <v>42767</v>
       </c>
@@ -23245,13 +23386,14 @@
       </c>
       <c r="M92" s="82"/>
       <c r="N92" s="82"/>
-      <c r="O92" s="82" t="s">
+      <c r="O92" s="82"/>
+      <c r="P92" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P92" s="134"/>
-      <c r="Q92" s="70"/>
-    </row>
-    <row r="93" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q92" s="134"/>
+      <c r="R92" s="70"/>
+    </row>
+    <row r="93" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="60">
         <v>42768</v>
       </c>
@@ -23286,13 +23428,14 @@
       </c>
       <c r="M93" s="82"/>
       <c r="N93" s="82"/>
-      <c r="O93" s="82" t="s">
+      <c r="O93" s="82"/>
+      <c r="P93" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P93" s="134"/>
-      <c r="Q93" s="70"/>
-    </row>
-    <row r="94" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q93" s="134"/>
+      <c r="R93" s="70"/>
+    </row>
+    <row r="94" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="60">
         <v>42769</v>
       </c>
@@ -23327,13 +23470,14 @@
       </c>
       <c r="M94" s="82"/>
       <c r="N94" s="82"/>
-      <c r="O94" s="82" t="s">
+      <c r="O94" s="82"/>
+      <c r="P94" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P94" s="134"/>
-      <c r="Q94" s="70"/>
-    </row>
-    <row r="95" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q94" s="134"/>
+      <c r="R94" s="70"/>
+    </row>
+    <row r="95" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="60">
         <v>42770</v>
       </c>
@@ -23365,14 +23509,15 @@
       <c r="K95" s="134"/>
       <c r="L95" s="134"/>
       <c r="M95" s="134"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82" t="s">
+      <c r="N95" s="134"/>
+      <c r="O95" s="82"/>
+      <c r="P95" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P95" s="134"/>
-      <c r="Q95" s="70"/>
-    </row>
-    <row r="96" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q95" s="134"/>
+      <c r="R95" s="70"/>
+    </row>
+    <row r="96" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="60">
         <v>42771</v>
       </c>
@@ -23405,13 +23550,14 @@
       <c r="L96" s="134"/>
       <c r="M96" s="134"/>
       <c r="N96" s="134"/>
-      <c r="O96" s="82" t="s">
+      <c r="O96" s="134"/>
+      <c r="P96" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P96" s="134"/>
-      <c r="Q96" s="70"/>
-    </row>
-    <row r="97" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q96" s="134"/>
+      <c r="R96" s="70"/>
+    </row>
+    <row r="97" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="60">
         <v>42772</v>
       </c>
@@ -23442,17 +23588,18 @@
       </c>
       <c r="K97" s="134"/>
       <c r="L97" s="134"/>
-      <c r="M97" s="82" t="s">
+      <c r="M97" s="134"/>
+      <c r="N97" s="82" t="s">
         <v>646</v>
       </c>
-      <c r="N97" s="82"/>
-      <c r="O97" s="82" t="s">
+      <c r="O97" s="82"/>
+      <c r="P97" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P97" s="134"/>
-      <c r="Q97" s="70"/>
-    </row>
-    <row r="98" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q97" s="134"/>
+      <c r="R97" s="70"/>
+    </row>
+    <row r="98" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="60">
         <v>42773</v>
       </c>
@@ -23484,14 +23631,15 @@
       <c r="K98" s="134"/>
       <c r="L98" s="134"/>
       <c r="M98" s="134"/>
-      <c r="N98" s="82"/>
-      <c r="O98" s="82" t="s">
+      <c r="N98" s="134"/>
+      <c r="O98" s="82"/>
+      <c r="P98" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P98" s="134"/>
-      <c r="Q98" s="70"/>
-    </row>
-    <row r="99" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q98" s="134"/>
+      <c r="R98" s="70"/>
+    </row>
+    <row r="99" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="66">
         <v>42774</v>
       </c>
@@ -23524,15 +23672,16 @@
       <c r="L99" s="82" t="s">
         <v>646</v>
       </c>
-      <c r="M99" s="134"/>
+      <c r="M99" s="82"/>
       <c r="N99" s="134"/>
-      <c r="O99" s="82" t="s">
+      <c r="O99" s="134"/>
+      <c r="P99" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P99" s="134"/>
-      <c r="Q99" s="63"/>
-    </row>
-    <row r="100" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q99" s="134"/>
+      <c r="R99" s="63"/>
+    </row>
+    <row r="100" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="60">
         <v>42774</v>
       </c>
@@ -23563,17 +23712,18 @@
       </c>
       <c r="K100" s="134"/>
       <c r="L100" s="134"/>
-      <c r="M100" s="134" t="s">
+      <c r="M100" s="134"/>
+      <c r="N100" s="134" t="s">
         <v>642</v>
       </c>
-      <c r="N100" s="134"/>
-      <c r="O100" s="82" t="s">
+      <c r="O100" s="134"/>
+      <c r="P100" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P100" s="134"/>
-      <c r="Q100" s="70"/>
-    </row>
-    <row r="101" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q100" s="134"/>
+      <c r="R100" s="70"/>
+    </row>
+    <row r="101" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="60">
         <v>42775</v>
       </c>
@@ -23606,13 +23756,14 @@
       <c r="L101" s="134"/>
       <c r="M101" s="134"/>
       <c r="N101" s="134"/>
-      <c r="O101" s="82" t="s">
+      <c r="O101" s="134"/>
+      <c r="P101" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P101" s="134"/>
-      <c r="Q101" s="70"/>
-    </row>
-    <row r="102" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q101" s="134"/>
+      <c r="R101" s="70"/>
+    </row>
+    <row r="102" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="60">
         <v>42776</v>
       </c>
@@ -23643,17 +23794,18 @@
       </c>
       <c r="K102" s="134"/>
       <c r="L102" s="134"/>
-      <c r="M102" s="134" t="s">
+      <c r="M102" s="134"/>
+      <c r="N102" s="134" t="s">
         <v>647</v>
       </c>
-      <c r="N102" s="134"/>
-      <c r="O102" s="82" t="s">
+      <c r="O102" s="134"/>
+      <c r="P102" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P102" s="134"/>
-      <c r="Q102" s="70"/>
-    </row>
-    <row r="103" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q102" s="134"/>
+      <c r="R102" s="70"/>
+    </row>
+    <row r="103" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="60">
         <v>42777</v>
       </c>
@@ -23688,13 +23840,14 @@
       </c>
       <c r="M103" s="134"/>
       <c r="N103" s="134"/>
-      <c r="O103" s="82" t="s">
+      <c r="O103" s="134"/>
+      <c r="P103" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P103" s="134"/>
-      <c r="Q103" s="70"/>
-    </row>
-    <row r="104" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q103" s="134"/>
+      <c r="R103" s="70"/>
+    </row>
+    <row r="104" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="60">
         <v>42778</v>
       </c>
@@ -23727,13 +23880,14 @@
       <c r="L104" s="134"/>
       <c r="M104" s="134"/>
       <c r="N104" s="134"/>
-      <c r="O104" s="82" t="s">
+      <c r="O104" s="134"/>
+      <c r="P104" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P104" s="134"/>
-      <c r="Q104" s="70"/>
-    </row>
-    <row r="105" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q104" s="134"/>
+      <c r="R104" s="70"/>
+    </row>
+    <row r="105" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="60">
         <v>42779</v>
       </c>
@@ -23764,17 +23918,18 @@
       </c>
       <c r="K105" s="134"/>
       <c r="L105" s="134"/>
-      <c r="M105" s="134" t="s">
+      <c r="M105" s="134"/>
+      <c r="N105" s="134" t="s">
         <v>649</v>
       </c>
-      <c r="N105" s="134"/>
-      <c r="O105" s="82" t="s">
+      <c r="O105" s="134"/>
+      <c r="P105" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P105" s="134"/>
-      <c r="Q105" s="70"/>
-    </row>
-    <row r="106" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q105" s="134"/>
+      <c r="R105" s="70"/>
+    </row>
+    <row r="106" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="60">
         <v>42780</v>
       </c>
@@ -23809,13 +23964,14 @@
       </c>
       <c r="M106" s="134"/>
       <c r="N106" s="134"/>
-      <c r="O106" s="82" t="s">
+      <c r="O106" s="134"/>
+      <c r="P106" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P106" s="134"/>
-      <c r="Q106" s="70"/>
-    </row>
-    <row r="107" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q106" s="134"/>
+      <c r="R106" s="70"/>
+    </row>
+    <row r="107" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="60">
         <v>42781</v>
       </c>
@@ -23848,13 +24004,14 @@
       <c r="L107" s="134"/>
       <c r="M107" s="134"/>
       <c r="N107" s="134"/>
-      <c r="O107" s="82" t="s">
+      <c r="O107" s="134"/>
+      <c r="P107" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P107" s="134"/>
-      <c r="Q107" s="70"/>
-    </row>
-    <row r="108" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q107" s="134"/>
+      <c r="R107" s="70"/>
+    </row>
+    <row r="108" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="60">
         <v>42782</v>
       </c>
@@ -23887,13 +24044,14 @@
       <c r="L108" s="134"/>
       <c r="M108" s="134"/>
       <c r="N108" s="134"/>
-      <c r="O108" s="82" t="s">
+      <c r="O108" s="134"/>
+      <c r="P108" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P108" s="134"/>
-      <c r="Q108" s="70"/>
-    </row>
-    <row r="109" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q108" s="134"/>
+      <c r="R108" s="70"/>
+    </row>
+    <row r="109" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="60">
         <v>42783</v>
       </c>
@@ -23924,17 +24082,18 @@
       </c>
       <c r="K109" s="134"/>
       <c r="L109" s="134"/>
-      <c r="M109" s="134" t="s">
+      <c r="M109" s="134"/>
+      <c r="N109" s="134" t="s">
         <v>651</v>
       </c>
-      <c r="N109" s="134"/>
-      <c r="O109" s="82" t="s">
+      <c r="O109" s="134"/>
+      <c r="P109" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P109" s="134"/>
-      <c r="Q109" s="70"/>
-    </row>
-    <row r="110" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q109" s="134"/>
+      <c r="R109" s="70"/>
+    </row>
+    <row r="110" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="60">
         <v>42784</v>
       </c>
@@ -23969,13 +24128,14 @@
       </c>
       <c r="M110" s="134"/>
       <c r="N110" s="134"/>
-      <c r="O110" s="82" t="s">
+      <c r="O110" s="134"/>
+      <c r="P110" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P110" s="134"/>
-      <c r="Q110" s="70"/>
-    </row>
-    <row r="111" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q110" s="134"/>
+      <c r="R110" s="70"/>
+    </row>
+    <row r="111" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="60">
         <v>42785</v>
       </c>
@@ -24008,13 +24168,14 @@
       <c r="L111" s="134"/>
       <c r="M111" s="134"/>
       <c r="N111" s="134"/>
-      <c r="O111" s="82" t="s">
+      <c r="O111" s="134"/>
+      <c r="P111" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P111" s="134"/>
-      <c r="Q111" s="70"/>
-    </row>
-    <row r="112" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q111" s="134"/>
+      <c r="R111" s="70"/>
+    </row>
+    <row r="112" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="60">
         <v>42786</v>
       </c>
@@ -24047,13 +24208,14 @@
       <c r="L112" s="134"/>
       <c r="M112" s="134"/>
       <c r="N112" s="134"/>
-      <c r="O112" s="82" t="s">
+      <c r="O112" s="134"/>
+      <c r="P112" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P112" s="134"/>
-      <c r="Q112" s="70"/>
-    </row>
-    <row r="113" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q112" s="134"/>
+      <c r="R112" s="70"/>
+    </row>
+    <row r="113" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="60">
         <v>42787</v>
       </c>
@@ -24086,13 +24248,14 @@
       <c r="L113" s="134"/>
       <c r="M113" s="134"/>
       <c r="N113" s="134"/>
-      <c r="O113" s="82" t="s">
+      <c r="O113" s="134"/>
+      <c r="P113" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P113" s="134"/>
-      <c r="Q113" s="70"/>
-    </row>
-    <row r="114" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q113" s="134"/>
+      <c r="R113" s="70"/>
+    </row>
+    <row r="114" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="60">
         <v>42788</v>
       </c>
@@ -24125,13 +24288,14 @@
       <c r="L114" s="134"/>
       <c r="M114" s="134"/>
       <c r="N114" s="134"/>
-      <c r="O114" s="82" t="s">
+      <c r="O114" s="134"/>
+      <c r="P114" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P114" s="134"/>
-      <c r="Q114" s="70"/>
-    </row>
-    <row r="115" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q114" s="134"/>
+      <c r="R114" s="70"/>
+    </row>
+    <row r="115" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="60">
         <v>42789</v>
       </c>
@@ -24164,13 +24328,14 @@
       <c r="L115" s="134"/>
       <c r="M115" s="134"/>
       <c r="N115" s="134"/>
-      <c r="O115" s="82" t="s">
+      <c r="O115" s="134"/>
+      <c r="P115" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P115" s="134"/>
-      <c r="Q115" s="70"/>
-    </row>
-    <row r="116" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q115" s="134"/>
+      <c r="R115" s="70"/>
+    </row>
+    <row r="116" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="60">
         <v>42790</v>
       </c>
@@ -24202,14 +24367,15 @@
       <c r="K116" s="142"/>
       <c r="L116" s="142"/>
       <c r="M116" s="142"/>
-      <c r="N116" s="136"/>
-      <c r="O116" s="141" t="s">
+      <c r="N116" s="142"/>
+      <c r="O116" s="136"/>
+      <c r="P116" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="70"/>
-    </row>
-    <row r="117" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q116" s="142"/>
+      <c r="R116" s="70"/>
+    </row>
+    <row r="117" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="60">
         <v>42791</v>
       </c>
@@ -24242,13 +24408,14 @@
       <c r="L117" s="134"/>
       <c r="M117" s="134"/>
       <c r="N117" s="134"/>
-      <c r="O117" s="82" t="s">
+      <c r="O117" s="134"/>
+      <c r="P117" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P117" s="134"/>
-      <c r="Q117" s="70"/>
-    </row>
-    <row r="118" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q117" s="134"/>
+      <c r="R117" s="70"/>
+    </row>
+    <row r="118" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="60">
         <v>42792</v>
       </c>
@@ -24281,13 +24448,14 @@
       <c r="L118" s="134"/>
       <c r="M118" s="134"/>
       <c r="N118" s="134"/>
-      <c r="O118" s="82" t="s">
+      <c r="O118" s="134"/>
+      <c r="P118" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P118" s="134"/>
-      <c r="Q118" s="70"/>
-    </row>
-    <row r="119" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q118" s="134"/>
+      <c r="R118" s="70"/>
+    </row>
+    <row r="119" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="60">
         <v>42793</v>
       </c>
@@ -24320,13 +24488,14 @@
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
       <c r="N119" s="134"/>
-      <c r="O119" s="82" t="s">
+      <c r="O119" s="134"/>
+      <c r="P119" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P119" s="134"/>
-      <c r="Q119" s="70"/>
-    </row>
-    <row r="120" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q119" s="134"/>
+      <c r="R119" s="70"/>
+    </row>
+    <row r="120" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="60">
         <v>42794</v>
       </c>
@@ -24359,13 +24528,14 @@
       <c r="L120" s="134"/>
       <c r="M120" s="134"/>
       <c r="N120" s="134"/>
-      <c r="O120" s="82" t="s">
+      <c r="O120" s="134"/>
+      <c r="P120" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P120" s="134"/>
-      <c r="Q120" s="70"/>
-    </row>
-    <row r="121" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q120" s="134"/>
+      <c r="R120" s="70"/>
+    </row>
+    <row r="121" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="60">
         <v>42795</v>
       </c>
@@ -24398,13 +24568,14 @@
       <c r="L121" s="134"/>
       <c r="M121" s="134"/>
       <c r="N121" s="134"/>
-      <c r="O121" s="82" t="s">
+      <c r="O121" s="134"/>
+      <c r="P121" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="P121" s="134"/>
-      <c r="Q121" s="70"/>
-    </row>
-    <row r="122" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q121" s="134"/>
+      <c r="R121" s="70"/>
+    </row>
+    <row r="122" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="60">
         <v>42796</v>
       </c>
@@ -24436,14 +24607,15 @@
       <c r="K122" s="142"/>
       <c r="L122" s="142"/>
       <c r="M122" s="142"/>
-      <c r="N122" s="136"/>
-      <c r="O122" s="141" t="s">
+      <c r="N122" s="142"/>
+      <c r="O122" s="136"/>
+      <c r="P122" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="P122" s="142"/>
-      <c r="Q122" s="70"/>
-    </row>
-    <row r="123" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q122" s="142"/>
+      <c r="R122" s="70"/>
+    </row>
+    <row r="123" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="66">
         <v>42736</v>
       </c>
@@ -24476,13 +24648,14 @@
       <c r="L123" s="84"/>
       <c r="M123" s="84"/>
       <c r="N123" s="84"/>
-      <c r="O123" s="68" t="s">
+      <c r="O123" s="84"/>
+      <c r="P123" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P123" s="84"/>
-      <c r="Q123" s="63"/>
-    </row>
-    <row r="124" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q123" s="84"/>
+      <c r="R123" s="63"/>
+    </row>
+    <row r="124" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="66">
         <v>42736</v>
       </c>
@@ -24515,13 +24688,14 @@
       <c r="L124" s="84"/>
       <c r="M124" s="84"/>
       <c r="N124" s="84"/>
-      <c r="O124" s="68" t="s">
+      <c r="O124" s="84"/>
+      <c r="P124" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P124" s="84"/>
-      <c r="Q124" s="63"/>
-    </row>
-    <row r="125" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q124" s="84"/>
+      <c r="R124" s="63"/>
+    </row>
+    <row r="125" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="66">
         <v>42736</v>
       </c>
@@ -24554,13 +24728,14 @@
       <c r="L125" s="84"/>
       <c r="M125" s="84"/>
       <c r="N125" s="84"/>
-      <c r="O125" s="68" t="s">
+      <c r="O125" s="84"/>
+      <c r="P125" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P125" s="84"/>
-      <c r="Q125" s="63"/>
-    </row>
-    <row r="126" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q125" s="84"/>
+      <c r="R125" s="63"/>
+    </row>
+    <row r="126" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="66">
         <v>42736</v>
       </c>
@@ -24593,13 +24768,14 @@
       <c r="L126" s="84"/>
       <c r="M126" s="84"/>
       <c r="N126" s="84"/>
-      <c r="O126" s="68" t="s">
+      <c r="O126" s="84"/>
+      <c r="P126" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P126" s="84"/>
-      <c r="Q126" s="63"/>
-    </row>
-    <row r="127" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q126" s="84"/>
+      <c r="R126" s="63"/>
+    </row>
+    <row r="127" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="66">
         <v>42736</v>
       </c>
@@ -24632,13 +24808,14 @@
       <c r="L127" s="84"/>
       <c r="M127" s="84"/>
       <c r="N127" s="84"/>
-      <c r="O127" s="68" t="s">
+      <c r="O127" s="84"/>
+      <c r="P127" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P127" s="84"/>
-      <c r="Q127" s="63"/>
-    </row>
-    <row r="128" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q127" s="84"/>
+      <c r="R127" s="63"/>
+    </row>
+    <row r="128" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="66">
         <v>42736</v>
       </c>
@@ -24671,13 +24848,14 @@
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
       <c r="N128" s="84"/>
-      <c r="O128" s="68" t="s">
+      <c r="O128" s="84"/>
+      <c r="P128" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P128" s="84"/>
-      <c r="Q128" s="63"/>
-    </row>
-    <row r="129" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q128" s="84"/>
+      <c r="R128" s="63"/>
+    </row>
+    <row r="129" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="66">
         <v>42736</v>
       </c>
@@ -24710,13 +24888,14 @@
       <c r="L129" s="84"/>
       <c r="M129" s="84"/>
       <c r="N129" s="84"/>
-      <c r="O129" s="68" t="s">
+      <c r="O129" s="84"/>
+      <c r="P129" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P129" s="84"/>
-      <c r="Q129" s="63"/>
-    </row>
-    <row r="130" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q129" s="84"/>
+      <c r="R129" s="63"/>
+    </row>
+    <row r="130" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="66">
         <v>42736</v>
       </c>
@@ -24749,13 +24928,14 @@
       <c r="L130" s="84"/>
       <c r="M130" s="84"/>
       <c r="N130" s="84"/>
-      <c r="O130" s="68" t="s">
+      <c r="O130" s="84"/>
+      <c r="P130" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P130" s="84"/>
-      <c r="Q130" s="63"/>
-    </row>
-    <row r="131" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q130" s="84"/>
+      <c r="R130" s="63"/>
+    </row>
+    <row r="131" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="66">
         <v>42736</v>
       </c>
@@ -24788,13 +24968,14 @@
       <c r="L131" s="84"/>
       <c r="M131" s="84"/>
       <c r="N131" s="84"/>
-      <c r="O131" s="68" t="s">
+      <c r="O131" s="84"/>
+      <c r="P131" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="P131" s="84"/>
-      <c r="Q131" s="63"/>
-    </row>
-    <row r="132" spans="1:17" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q131" s="84"/>
+      <c r="R131" s="63"/>
+    </row>
+    <row r="132" spans="1:18" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
         <v>42736</v>
       </c>
@@ -24827,13 +25008,14 @@
       <c r="L132" s="90"/>
       <c r="M132" s="90"/>
       <c r="N132" s="90"/>
-      <c r="O132" s="86" t="s">
+      <c r="O132" s="90"/>
+      <c r="P132" s="86" t="s">
         <v>533</v>
       </c>
-      <c r="P132" s="90"/>
-      <c r="Q132" s="91"/>
-    </row>
-    <row r="133" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q132" s="90"/>
+      <c r="R132" s="91"/>
+    </row>
+    <row r="133" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
         <v>42741</v>
       </c>
@@ -24864,15 +25046,16 @@
       </c>
       <c r="K133" s="69"/>
       <c r="L133" s="69"/>
-      <c r="M133" s="17"/>
+      <c r="M133" s="481"/>
       <c r="N133" s="17"/>
-      <c r="O133" s="297" t="s">
+      <c r="O133" s="17"/>
+      <c r="P133" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P133" s="69"/>
-      <c r="Q133" s="17"/>
-    </row>
-    <row r="134" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q133" s="69"/>
+      <c r="R133" s="17"/>
+    </row>
+    <row r="134" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>42741</v>
       </c>
@@ -24903,17 +25086,18 @@
       </c>
       <c r="K134" s="69"/>
       <c r="L134" s="69"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17" t="s">
+      <c r="M134" s="481"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="O134" s="297" t="s">
+      <c r="P134" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P134" s="69"/>
-      <c r="Q134" s="17"/>
-    </row>
-    <row r="135" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q134" s="69"/>
+      <c r="R134" s="17"/>
+    </row>
+    <row r="135" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
         <v>42742</v>
       </c>
@@ -24944,17 +25128,18 @@
       </c>
       <c r="K135" s="69"/>
       <c r="L135" s="69"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17" t="s">
+      <c r="M135" s="481"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="O135" s="297" t="s">
+      <c r="P135" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P135" s="69"/>
-      <c r="Q135" s="17"/>
-    </row>
-    <row r="136" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q135" s="69"/>
+      <c r="R135" s="17"/>
+    </row>
+    <row r="136" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
         <v>42743</v>
       </c>
@@ -24985,15 +25170,16 @@
       </c>
       <c r="K136" s="69"/>
       <c r="L136" s="69"/>
-      <c r="M136" s="17"/>
+      <c r="M136" s="481"/>
       <c r="N136" s="17"/>
-      <c r="O136" s="297" t="s">
+      <c r="O136" s="17"/>
+      <c r="P136" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P136" s="69"/>
-      <c r="Q136" s="17"/>
-    </row>
-    <row r="137" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q136" s="69"/>
+      <c r="R136" s="17"/>
+    </row>
+    <row r="137" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
         <v>42744</v>
       </c>
@@ -25024,15 +25210,16 @@
       </c>
       <c r="K137" s="69"/>
       <c r="L137" s="69"/>
-      <c r="M137" s="17"/>
+      <c r="M137" s="481"/>
       <c r="N137" s="17"/>
-      <c r="O137" s="297" t="s">
+      <c r="O137" s="17"/>
+      <c r="P137" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P137" s="69"/>
-      <c r="Q137" s="17"/>
-    </row>
-    <row r="138" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q137" s="69"/>
+      <c r="R137" s="17"/>
+    </row>
+    <row r="138" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
         <v>42745</v>
       </c>
@@ -25063,17 +25250,18 @@
       </c>
       <c r="K138" s="69"/>
       <c r="L138" s="69"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17" t="s">
+      <c r="M138" s="481"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="O138" s="297" t="s">
+      <c r="P138" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P138" s="69"/>
-      <c r="Q138" s="17"/>
-    </row>
-    <row r="139" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q138" s="69"/>
+      <c r="R138" s="17"/>
+    </row>
+    <row r="139" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="71">
         <v>42746</v>
       </c>
@@ -25104,17 +25292,18 @@
       </c>
       <c r="K139" s="69"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17" t="s">
+      <c r="M139" s="481"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="O139" s="297" t="s">
+      <c r="P139" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P139" s="69"/>
-      <c r="Q139" s="17"/>
-    </row>
-    <row r="140" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q139" s="69"/>
+      <c r="R139" s="17"/>
+    </row>
+    <row r="140" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="71">
         <v>42747</v>
       </c>
@@ -25145,15 +25334,16 @@
       </c>
       <c r="K140" s="69"/>
       <c r="L140" s="69"/>
-      <c r="M140" s="17"/>
+      <c r="M140" s="481"/>
       <c r="N140" s="17"/>
-      <c r="O140" s="297" t="s">
+      <c r="O140" s="17"/>
+      <c r="P140" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P140" s="69"/>
-      <c r="Q140" s="17"/>
-    </row>
-    <row r="141" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q140" s="69"/>
+      <c r="R140" s="17"/>
+    </row>
+    <row r="141" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="71">
         <v>42748</v>
       </c>
@@ -25184,15 +25374,16 @@
       </c>
       <c r="K141" s="69"/>
       <c r="L141" s="69"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="481"/>
       <c r="N141" s="17"/>
-      <c r="O141" s="297" t="s">
+      <c r="O141" s="17"/>
+      <c r="P141" s="297" t="s">
         <v>534</v>
       </c>
-      <c r="P141" s="69"/>
-      <c r="Q141" s="17"/>
-    </row>
-    <row r="142" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q141" s="69"/>
+      <c r="R141" s="17"/>
+    </row>
+    <row r="142" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="71">
         <v>42741</v>
       </c>
@@ -25223,15 +25414,16 @@
       </c>
       <c r="K142" s="69"/>
       <c r="L142" s="69"/>
-      <c r="M142" s="17"/>
+      <c r="M142" s="481"/>
       <c r="N142" s="17"/>
-      <c r="O142" s="297" t="s">
+      <c r="O142" s="17"/>
+      <c r="P142" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P142" s="69"/>
-      <c r="Q142" s="17"/>
-    </row>
-    <row r="143" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q142" s="69"/>
+      <c r="R142" s="17"/>
+    </row>
+    <row r="143" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="71">
         <v>42754</v>
       </c>
@@ -25262,17 +25454,18 @@
       </c>
       <c r="K143" s="69"/>
       <c r="L143" s="69"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17" t="s">
+      <c r="M143" s="481"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="O143" s="297" t="s">
+      <c r="P143" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P143" s="69"/>
-      <c r="Q143" s="17"/>
-    </row>
-    <row r="144" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q143" s="69"/>
+      <c r="R143" s="17"/>
+    </row>
+    <row r="144" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="71">
         <v>42755</v>
       </c>
@@ -25303,17 +25496,18 @@
       </c>
       <c r="K144" s="69"/>
       <c r="L144" s="69"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17" t="s">
+      <c r="M144" s="481"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="O144" s="297" t="s">
+      <c r="P144" s="297" t="s">
         <v>533</v>
       </c>
-      <c r="P144" s="69"/>
-      <c r="Q144" s="17"/>
-    </row>
-    <row r="145" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q144" s="69"/>
+      <c r="R144" s="17"/>
+    </row>
+    <row r="145" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
         <v>42756</v>
       </c>
@@ -25344,15 +25538,16 @@
       </c>
       <c r="K145" s="69"/>
       <c r="L145" s="69"/>
-      <c r="M145" s="17"/>
+      <c r="M145" s="481"/>
       <c r="N145" s="17"/>
-      <c r="O145" s="297" t="s">
+      <c r="O145" s="17"/>
+      <c r="P145" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P145" s="69"/>
-      <c r="Q145" s="17"/>
-    </row>
-    <row r="146" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q145" s="69"/>
+      <c r="R145" s="17"/>
+    </row>
+    <row r="146" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
         <v>42757</v>
       </c>
@@ -25383,15 +25578,16 @@
       </c>
       <c r="K146" s="69"/>
       <c r="L146" s="69"/>
-      <c r="M146" s="17"/>
+      <c r="M146" s="481"/>
       <c r="N146" s="17"/>
-      <c r="O146" s="297" t="s">
+      <c r="O146" s="17"/>
+      <c r="P146" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P146" s="69"/>
-      <c r="Q146" s="17"/>
-    </row>
-    <row r="147" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q146" s="69"/>
+      <c r="R146" s="17"/>
+    </row>
+    <row r="147" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="71">
         <v>42758</v>
       </c>
@@ -25422,17 +25618,18 @@
       </c>
       <c r="K147" s="69"/>
       <c r="L147" s="69"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17" t="s">
+      <c r="M147" s="481"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="O147" s="297" t="s">
+      <c r="P147" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P147" s="69"/>
-      <c r="Q147" s="17"/>
-    </row>
-    <row r="148" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q147" s="69"/>
+      <c r="R147" s="17"/>
+    </row>
+    <row r="148" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="71">
         <v>42759</v>
       </c>
@@ -25463,17 +25660,18 @@
       </c>
       <c r="K148" s="69"/>
       <c r="L148" s="69"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17" t="s">
+      <c r="M148" s="481"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="O148" s="297" t="s">
+      <c r="P148" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P148" s="69"/>
-      <c r="Q148" s="17"/>
-    </row>
-    <row r="149" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q148" s="69"/>
+      <c r="R148" s="17"/>
+    </row>
+    <row r="149" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="71">
         <v>42760</v>
       </c>
@@ -25504,15 +25702,16 @@
       </c>
       <c r="K149" s="69"/>
       <c r="L149" s="69"/>
-      <c r="M149" s="17"/>
+      <c r="M149" s="481"/>
       <c r="N149" s="17"/>
-      <c r="O149" s="297" t="s">
+      <c r="O149" s="17"/>
+      <c r="P149" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P149" s="69"/>
-      <c r="Q149" s="17"/>
-    </row>
-    <row r="150" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q149" s="69"/>
+      <c r="R149" s="17"/>
+    </row>
+    <row r="150" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="71">
         <v>42761</v>
       </c>
@@ -25543,15 +25742,16 @@
       </c>
       <c r="K150" s="69"/>
       <c r="L150" s="69"/>
-      <c r="M150" s="17"/>
+      <c r="M150" s="481"/>
       <c r="N150" s="17"/>
-      <c r="O150" s="297" t="s">
+      <c r="O150" s="17"/>
+      <c r="P150" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P150" s="69"/>
-      <c r="Q150" s="17"/>
-    </row>
-    <row r="151" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q150" s="69"/>
+      <c r="R150" s="17"/>
+    </row>
+    <row r="151" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="71">
         <v>42741</v>
       </c>
@@ -25582,15 +25782,16 @@
       </c>
       <c r="K151" s="69"/>
       <c r="L151" s="69"/>
-      <c r="M151" s="17"/>
+      <c r="M151" s="481"/>
       <c r="N151" s="17"/>
-      <c r="O151" s="297" t="s">
+      <c r="O151" s="17"/>
+      <c r="P151" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P151" s="69"/>
-      <c r="Q151" s="17"/>
-    </row>
-    <row r="152" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q151" s="69"/>
+      <c r="R151" s="17"/>
+    </row>
+    <row r="152" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="71">
         <v>42766</v>
       </c>
@@ -25621,17 +25822,18 @@
       </c>
       <c r="K152" s="69"/>
       <c r="L152" s="69"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17" t="s">
+      <c r="M152" s="481"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="O152" s="297" t="s">
+      <c r="P152" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P152" s="69"/>
-      <c r="Q152" s="17"/>
-    </row>
-    <row r="153" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q152" s="69"/>
+      <c r="R152" s="17"/>
+    </row>
+    <row r="153" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="71">
         <v>42767</v>
       </c>
@@ -25662,17 +25864,18 @@
       </c>
       <c r="K153" s="69"/>
       <c r="L153" s="69"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17" t="s">
+      <c r="M153" s="481"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="O153" s="297" t="s">
+      <c r="P153" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P153" s="69"/>
-      <c r="Q153" s="17"/>
-    </row>
-    <row r="154" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q153" s="69"/>
+      <c r="R153" s="17"/>
+    </row>
+    <row r="154" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="71">
         <v>42768</v>
       </c>
@@ -25703,15 +25906,16 @@
       </c>
       <c r="K154" s="69"/>
       <c r="L154" s="69"/>
-      <c r="M154" s="17"/>
+      <c r="M154" s="481"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="297" t="s">
+      <c r="O154" s="17"/>
+      <c r="P154" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P154" s="69"/>
-      <c r="Q154" s="17"/>
-    </row>
-    <row r="155" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q154" s="69"/>
+      <c r="R154" s="17"/>
+    </row>
+    <row r="155" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="71">
         <v>42769</v>
       </c>
@@ -25742,15 +25946,16 @@
       </c>
       <c r="K155" s="69"/>
       <c r="L155" s="69"/>
-      <c r="M155" s="17"/>
+      <c r="M155" s="481"/>
       <c r="N155" s="17"/>
-      <c r="O155" s="297" t="s">
+      <c r="O155" s="17"/>
+      <c r="P155" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P155" s="69"/>
-      <c r="Q155" s="17"/>
-    </row>
-    <row r="156" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q155" s="69"/>
+      <c r="R155" s="17"/>
+    </row>
+    <row r="156" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="71">
         <v>42770</v>
       </c>
@@ -25781,17 +25986,18 @@
       </c>
       <c r="K156" s="69"/>
       <c r="L156" s="69"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17" t="s">
+      <c r="M156" s="481"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="O156" s="297" t="s">
+      <c r="P156" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P156" s="69"/>
-      <c r="Q156" s="17"/>
-    </row>
-    <row r="157" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q156" s="69"/>
+      <c r="R156" s="17"/>
+    </row>
+    <row r="157" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="71">
         <v>42771</v>
       </c>
@@ -25822,17 +26028,18 @@
       </c>
       <c r="K157" s="69"/>
       <c r="L157" s="69"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17" t="s">
+      <c r="M157" s="481"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="O157" s="297" t="s">
+      <c r="P157" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P157" s="69"/>
-      <c r="Q157" s="17"/>
-    </row>
-    <row r="158" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q157" s="69"/>
+      <c r="R157" s="17"/>
+    </row>
+    <row r="158" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="71">
         <v>42772</v>
       </c>
@@ -25863,15 +26070,16 @@
       </c>
       <c r="K158" s="69"/>
       <c r="L158" s="69"/>
-      <c r="M158" s="17"/>
+      <c r="M158" s="481"/>
       <c r="N158" s="17"/>
-      <c r="O158" s="297" t="s">
+      <c r="O158" s="17"/>
+      <c r="P158" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P158" s="69"/>
-      <c r="Q158" s="17"/>
-    </row>
-    <row r="159" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q158" s="69"/>
+      <c r="R158" s="17"/>
+    </row>
+    <row r="159" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="71">
         <v>42773</v>
       </c>
@@ -25902,15 +26110,16 @@
       </c>
       <c r="K159" s="69"/>
       <c r="L159" s="69"/>
-      <c r="M159" s="17"/>
+      <c r="M159" s="481"/>
       <c r="N159" s="17"/>
-      <c r="O159" s="297" t="s">
+      <c r="O159" s="17"/>
+      <c r="P159" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P159" s="69"/>
-      <c r="Q159" s="17"/>
-    </row>
-    <row r="160" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q159" s="69"/>
+      <c r="R159" s="17"/>
+    </row>
+    <row r="160" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="71">
         <v>42778</v>
       </c>
@@ -25941,15 +26150,16 @@
       </c>
       <c r="K160" s="69"/>
       <c r="L160" s="69"/>
-      <c r="M160" s="17"/>
+      <c r="M160" s="481"/>
       <c r="N160" s="17"/>
-      <c r="O160" s="297" t="s">
+      <c r="O160" s="17"/>
+      <c r="P160" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P160" s="17"/>
       <c r="Q160" s="17"/>
-    </row>
-    <row r="161" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R160" s="17"/>
+    </row>
+    <row r="161" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="71">
         <v>42779</v>
       </c>
@@ -25980,20 +26190,21 @@
       </c>
       <c r="K161" s="72"/>
       <c r="L161" s="72"/>
-      <c r="M161" s="17"/>
+      <c r="M161" s="481"/>
       <c r="N161" s="17"/>
-      <c r="O161" s="297" t="s">
+      <c r="O161" s="17"/>
+      <c r="P161" s="297" t="s">
         <v>836</v>
       </c>
-      <c r="P161" s="17"/>
       <c r="Q161" s="17"/>
-    </row>
-    <row r="171" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R161" s="17"/>
+    </row>
+    <row r="171" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="326"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q25" r:id="rId1" xr:uid="{AB0A03AB-2F01-3F4D-AD0F-1694A8F186DE}"/>
+    <hyperlink ref="R25" r:id="rId1" xr:uid="{AB0A03AB-2F01-3F4D-AD0F-1694A8F186DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -36426,7 +36637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B542E-F9DA-F649-9998-3A7EA6C2B3CB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -36755,7 +36966,7 @@
   <dimension ref="A1:IO132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -43905,10 +44116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="J34" sqref="A34:XFD34"/>
+    <sheetView showGridLines="0" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43933,7 +44144,7 @@
     <col min="250" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>219</v>
       </c>
@@ -43957,7 +44168,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
     </row>
-    <row r="2" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
@@ -43999,7 +44210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -44028,37 +44239,40 @@
         <v>227</v>
       </c>
       <c r="J3" s="58" t="s">
+        <v>979</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="L3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="M3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="N3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="O3" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="302" t="s">
+      <c r="P3" s="302" t="s">
         <v>454</v>
       </c>
-      <c r="P3" s="301" t="s">
+      <c r="Q3" s="301" t="s">
         <v>815</v>
       </c>
-      <c r="Q3" s="301" t="s">
+      <c r="R3" s="301" t="s">
         <v>816</v>
       </c>
-      <c r="R3" s="301" t="s">
+      <c r="S3" s="301" t="s">
         <v>817</v>
       </c>
-      <c r="S3" s="450" t="s">
+      <c r="T3" s="450" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60">
         <v>42736</v>
       </c>
@@ -44078,20 +44292,21 @@
         <v>229</v>
       </c>
       <c r="I4" s="62"/>
-      <c r="J4" s="81"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="81"/>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="103"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="103"/>
       <c r="Q4" s="103"/>
       <c r="R4" s="103"/>
       <c r="S4" s="103"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T4" s="103"/>
+    </row>
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60">
         <v>42736</v>
       </c>
@@ -44111,20 +44326,21 @@
         <v>231</v>
       </c>
       <c r="I5" s="62"/>
-      <c r="J5" s="81"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="81"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="81"/>
+      <c r="M5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="62"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
       <c r="S5" s="62"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T5" s="62"/>
+    </row>
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60">
         <v>42736</v>
       </c>
@@ -44144,20 +44360,21 @@
         <v>233</v>
       </c>
       <c r="I6" s="62"/>
-      <c r="J6" s="81"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="81"/>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="81"/>
+      <c r="M6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="62"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
       <c r="S6" s="62"/>
-    </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="62"/>
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60">
         <v>42736</v>
       </c>
@@ -44177,20 +44394,21 @@
         <v>234</v>
       </c>
       <c r="I7" s="62"/>
-      <c r="J7" s="81"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="81"/>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="81"/>
+      <c r="M7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="62"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="S7" s="62"/>
-    </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T7" s="62"/>
+    </row>
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>42736</v>
       </c>
@@ -44210,20 +44428,21 @@
         <v>229</v>
       </c>
       <c r="I8" s="62"/>
-      <c r="J8" s="81"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="62"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
       <c r="S8" s="62"/>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T8" s="62"/>
+    </row>
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>42736</v>
       </c>
@@ -44243,20 +44462,21 @@
         <v>231</v>
       </c>
       <c r="I9" s="62"/>
-      <c r="J9" s="81"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="81"/>
+      <c r="M9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="62"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="64"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
       <c r="S9" s="62"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T9" s="62"/>
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>42736</v>
       </c>
@@ -44276,20 +44496,21 @@
         <v>233</v>
       </c>
       <c r="I10" s="62"/>
-      <c r="J10" s="81"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="81"/>
+      <c r="M10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="62"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="S10" s="62"/>
-    </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T10" s="62"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>42736</v>
       </c>
@@ -44309,20 +44530,21 @@
         <v>234</v>
       </c>
       <c r="I11" s="62"/>
-      <c r="J11" s="81"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="81"/>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="81"/>
+      <c r="M11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="62"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
-    </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="62"/>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66">
         <v>42736</v>
       </c>
@@ -44344,20 +44566,21 @@
       <c r="I12" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="84"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="84"/>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="68"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
-    </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="68"/>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66">
         <v>42736</v>
       </c>
@@ -44379,20 +44602,21 @@
       <c r="I13" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="84"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="84"/>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="68"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
       <c r="S13" s="68"/>
-    </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T13" s="68"/>
+    </row>
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="60">
         <v>42736</v>
       </c>
@@ -44412,20 +44636,21 @@
         <v>242</v>
       </c>
       <c r="I14" s="62"/>
-      <c r="J14" s="81"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="81"/>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="81"/>
+      <c r="M14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="62"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="62"/>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="60">
         <v>42736</v>
       </c>
@@ -44445,20 +44670,21 @@
         <v>108</v>
       </c>
       <c r="I15" s="62"/>
-      <c r="J15" s="81"/>
+      <c r="J15" s="62"/>
       <c r="K15" s="81"/>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="81"/>
+      <c r="M15" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="62"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="S15" s="62"/>
-    </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T15" s="62"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="60">
         <v>42736</v>
       </c>
@@ -44478,20 +44704,21 @@
         <v>110</v>
       </c>
       <c r="I16" s="62"/>
-      <c r="J16" s="81"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="81"/>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="81"/>
+      <c r="M16" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M16" s="81"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="62"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T16" s="62"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="60">
         <v>42736</v>
       </c>
@@ -44511,20 +44738,21 @@
         <v>112</v>
       </c>
       <c r="I17" s="62"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="81"/>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="81"/>
+      <c r="M17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="62"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="62"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="60">
         <v>42736</v>
       </c>
@@ -44544,20 +44772,21 @@
         <v>249</v>
       </c>
       <c r="I18" s="62"/>
-      <c r="J18" s="81"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="81"/>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="81"/>
+      <c r="M18" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="62"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="60">
         <v>42736</v>
       </c>
@@ -44577,20 +44806,21 @@
         <v>251</v>
       </c>
       <c r="I19" s="62"/>
-      <c r="J19" s="81"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="81"/>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="81"/>
+      <c r="M19" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M19" s="81"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="62"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="S19" s="62"/>
-    </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T19" s="62"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="60">
         <v>42736</v>
       </c>
@@ -44610,20 +44840,21 @@
         <v>12</v>
       </c>
       <c r="I20" s="62"/>
-      <c r="J20" s="81"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="81"/>
+      <c r="M20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="62"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="S20" s="62"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T20" s="62"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="60">
         <v>42736</v>
       </c>
@@ -44643,20 +44874,21 @@
         <v>253</v>
       </c>
       <c r="I21" s="62"/>
-      <c r="J21" s="81"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="81"/>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="81"/>
+      <c r="M21" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="62"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="S21" s="62"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60">
         <v>42736</v>
       </c>
@@ -44676,20 +44908,21 @@
         <v>12</v>
       </c>
       <c r="I22" s="62"/>
-      <c r="J22" s="81"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="81"/>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="81"/>
+      <c r="M22" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="81"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="62"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="S22" s="62"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="60">
         <v>42736</v>
       </c>
@@ -44709,20 +44942,21 @@
         <v>253</v>
       </c>
       <c r="I23" s="62"/>
-      <c r="J23" s="81"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="81"/>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="81"/>
+      <c r="M23" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M23" s="81"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="62"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T23" s="62"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60">
         <v>42736</v>
       </c>
@@ -44742,20 +44976,21 @@
         <v>256</v>
       </c>
       <c r="I24" s="62"/>
-      <c r="J24" s="81"/>
+      <c r="J24" s="62"/>
       <c r="K24" s="81"/>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="81"/>
+      <c r="M24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M24" s="81"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="62"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="64"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="S24" s="62"/>
-    </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T24" s="62"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60">
         <v>42736</v>
       </c>
@@ -44775,22 +45010,23 @@
         <v>258</v>
       </c>
       <c r="I25" s="62"/>
-      <c r="J25" s="81"/>
+      <c r="J25" s="62"/>
       <c r="K25" s="81"/>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="81"/>
+      <c r="M25" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="81"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="62"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="64"/>
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="62" t="s">
+      <c r="S25" s="62"/>
+      <c r="T25" s="62" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
         <v>42736</v>
       </c>
@@ -44811,23 +45047,28 @@
       <c r="H26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="81"/>
+      <c r="I26" s="62" t="s">
+        <v>981</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>422</v>
+      </c>
       <c r="K26" s="81"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="81"/>
+      <c r="M26" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="62"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="64"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="62" t="s">
+      <c r="S26" s="62"/>
+      <c r="T26" s="62" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60">
         <v>42736</v>
       </c>
@@ -44846,21 +45087,26 @@
       <c r="H27" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="81"/>
+      <c r="I27" s="62" t="s">
+        <v>981</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>424</v>
+      </c>
       <c r="K27" s="81"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="81"/>
+      <c r="M27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="62"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="S27" s="62"/>
-    </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T27" s="62"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60">
         <v>42736</v>
       </c>
@@ -44882,20 +45128,21 @@
         <v>769</v>
       </c>
       <c r="I28" s="62"/>
-      <c r="J28" s="81"/>
+      <c r="J28" s="62"/>
       <c r="K28" s="81"/>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="81"/>
+      <c r="M28" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="81"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="62"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="S28" s="62"/>
-    </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T28" s="62"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60">
         <v>42736</v>
       </c>
@@ -44915,20 +45162,21 @@
         <v>265</v>
       </c>
       <c r="I29" s="62"/>
-      <c r="J29" s="81"/>
+      <c r="J29" s="62"/>
       <c r="K29" s="81"/>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="81"/>
+      <c r="M29" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="81"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="62"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="S29" s="62"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T29" s="62"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60">
         <v>42736</v>
       </c>
@@ -44948,20 +45196,21 @@
         <v>267</v>
       </c>
       <c r="I30" s="62"/>
-      <c r="J30" s="81"/>
+      <c r="J30" s="62"/>
       <c r="K30" s="81"/>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="81"/>
+      <c r="M30" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="81"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="62"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="S30" s="62"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T30" s="62"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60">
         <v>42736</v>
       </c>
@@ -44981,20 +45230,21 @@
         <v>269</v>
       </c>
       <c r="I31" s="62"/>
-      <c r="J31" s="81"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="81"/>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="81"/>
+      <c r="M31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="62"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="64"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="S31" s="62"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T31" s="62"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60">
         <v>42736</v>
       </c>
@@ -45014,20 +45264,21 @@
         <v>272</v>
       </c>
       <c r="I32" s="62"/>
-      <c r="J32" s="81"/>
+      <c r="J32" s="62"/>
       <c r="K32" s="81"/>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="81"/>
+      <c r="M32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="62"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="64"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="S32" s="62"/>
-    </row>
-    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T32" s="62"/>
+    </row>
+    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60">
         <v>42736</v>
       </c>
@@ -45047,22 +45298,23 @@
         <v>879</v>
       </c>
       <c r="I33" s="62"/>
-      <c r="J33" s="81"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="81"/>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="81"/>
+      <c r="M33" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="62"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="64"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="62" t="s">
+      <c r="S33" s="62"/>
+      <c r="T33" s="62" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60">
         <v>42736</v>
       </c>
@@ -45082,22 +45334,23 @@
         <v>274</v>
       </c>
       <c r="I34" s="62"/>
-      <c r="J34" s="81"/>
+      <c r="J34" s="62"/>
       <c r="K34" s="81"/>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="81"/>
+      <c r="M34" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="62"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="64"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
-      <c r="S34" s="62" t="s">
+      <c r="S34" s="62"/>
+      <c r="T34" s="62" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60">
         <v>42736</v>
       </c>
@@ -45116,23 +45369,28 @@
       <c r="H35" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="81"/>
+      <c r="I35" s="62" t="s">
+        <v>980</v>
+      </c>
+      <c r="J35" s="62" t="s">
+        <v>422</v>
+      </c>
       <c r="K35" s="81"/>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="81"/>
+      <c r="M35" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="62"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="64"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
-      <c r="S35" s="62" t="s">
+      <c r="S35" s="62"/>
+      <c r="T35" s="62" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60">
         <v>42736</v>
       </c>
@@ -45151,23 +45409,28 @@
       <c r="H36" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="81"/>
+      <c r="I36" s="62" t="s">
+        <v>980</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>424</v>
+      </c>
       <c r="K36" s="81"/>
-      <c r="L36" s="62" t="s">
+      <c r="L36" s="81"/>
+      <c r="M36" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="62"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="64"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
-      <c r="S36" s="62" t="s">
+      <c r="S36" s="62"/>
+      <c r="T36" s="62" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="60">
         <v>42736</v>
       </c>
@@ -45187,22 +45450,23 @@
         <v>280</v>
       </c>
       <c r="I37" s="62"/>
-      <c r="J37" s="81"/>
+      <c r="J37" s="62"/>
       <c r="K37" s="81"/>
-      <c r="L37" s="62" t="s">
+      <c r="L37" s="81"/>
+      <c r="M37" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="62"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="64"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
-      <c r="S37" s="62" t="s">
+      <c r="S37" s="62"/>
+      <c r="T37" s="62" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="60">
         <v>42736</v>
       </c>
@@ -45224,20 +45488,21 @@
         <v>281</v>
       </c>
       <c r="I38" s="62"/>
-      <c r="J38" s="81"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="81"/>
-      <c r="L38" s="62" t="s">
+      <c r="L38" s="81"/>
+      <c r="M38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="81"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="62"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="62"/>
-    </row>
-    <row r="39" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T38" s="62"/>
+    </row>
+    <row r="39" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="66">
         <v>42736</v>
       </c>
@@ -45257,20 +45522,21 @@
         <v>283</v>
       </c>
       <c r="I39" s="68"/>
-      <c r="J39" s="84"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="84"/>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="84"/>
+      <c r="M39" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="68"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="63"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="68"/>
       <c r="R39" s="68"/>
       <c r="S39" s="68"/>
-    </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T39" s="68"/>
+    </row>
+    <row r="40" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="66">
         <v>42736</v>
       </c>
@@ -45292,20 +45558,21 @@
         <v>285</v>
       </c>
       <c r="I40" s="68"/>
-      <c r="J40" s="84"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="84"/>
+      <c r="M40" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="84"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="68"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
       <c r="R40" s="68"/>
       <c r="S40" s="68"/>
-    </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T40" s="68"/>
+    </row>
+    <row r="41" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66">
         <v>42736</v>
       </c>
@@ -45325,20 +45592,21 @@
         <v>287</v>
       </c>
       <c r="I41" s="68"/>
-      <c r="J41" s="84"/>
+      <c r="J41" s="68"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="84"/>
+      <c r="M41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="84"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="68"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="63"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="68"/>
       <c r="R41" s="68"/>
       <c r="S41" s="68"/>
-    </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T41" s="68"/>
+    </row>
+    <row r="42" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="66">
         <v>42736</v>
       </c>
@@ -45358,20 +45626,21 @@
         <v>289</v>
       </c>
       <c r="I42" s="68"/>
-      <c r="J42" s="84"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="84"/>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="84"/>
+      <c r="M42" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="84"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="68"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="63"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="68"/>
       <c r="R42" s="68"/>
       <c r="S42" s="68"/>
-    </row>
-    <row r="43" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T42" s="68"/>
+    </row>
+    <row r="43" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66">
         <v>42736</v>
       </c>
@@ -45391,20 +45660,21 @@
         <v>292</v>
       </c>
       <c r="I43" s="68"/>
-      <c r="J43" s="84"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="84"/>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="84"/>
+      <c r="M43" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="68"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="63"/>
       <c r="P43" s="68"/>
       <c r="Q43" s="68"/>
       <c r="R43" s="68"/>
       <c r="S43" s="68"/>
-    </row>
-    <row r="44" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T43" s="68"/>
+    </row>
+    <row r="44" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66">
         <v>42736</v>
       </c>
@@ -45424,20 +45694,21 @@
         <v>294</v>
       </c>
       <c r="I44" s="68"/>
-      <c r="J44" s="84"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="84"/>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="84"/>
+      <c r="M44" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="84"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="68"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="63"/>
       <c r="P44" s="68"/>
       <c r="Q44" s="68"/>
       <c r="R44" s="68"/>
       <c r="S44" s="68"/>
-    </row>
-    <row r="45" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T44" s="68"/>
+    </row>
+    <row r="45" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66">
         <v>42736</v>
       </c>
@@ -45457,20 +45728,21 @@
         <v>296</v>
       </c>
       <c r="I45" s="68"/>
-      <c r="J45" s="84"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="84"/>
-      <c r="L45" s="68" t="s">
+      <c r="L45" s="84"/>
+      <c r="M45" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="84"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="68"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="63"/>
       <c r="P45" s="68"/>
       <c r="Q45" s="68"/>
       <c r="R45" s="68"/>
       <c r="S45" s="68"/>
-    </row>
-    <row r="46" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T45" s="68"/>
+    </row>
+    <row r="46" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="60">
         <v>42736</v>
       </c>
@@ -45490,20 +45762,21 @@
         <v>299</v>
       </c>
       <c r="I46" s="62"/>
-      <c r="J46" s="81"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="81"/>
-      <c r="L46" s="62" t="s">
+      <c r="L46" s="81"/>
+      <c r="M46" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="84"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="68"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
       <c r="R46" s="68"/>
       <c r="S46" s="68"/>
-    </row>
-    <row r="47" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T46" s="68"/>
+    </row>
+    <row r="47" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60">
         <v>42736</v>
       </c>
@@ -45523,20 +45796,21 @@
         <v>301</v>
       </c>
       <c r="I47" s="62"/>
-      <c r="J47" s="81"/>
+      <c r="J47" s="62"/>
       <c r="K47" s="81"/>
-      <c r="L47" s="62" t="s">
+      <c r="L47" s="81"/>
+      <c r="M47" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="81"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="68"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="64"/>
       <c r="P47" s="68"/>
       <c r="Q47" s="68"/>
       <c r="R47" s="68"/>
       <c r="S47" s="68"/>
-    </row>
-    <row r="48" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T47" s="68"/>
+    </row>
+    <row r="48" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="60">
         <v>42736</v>
       </c>
@@ -45558,20 +45832,21 @@
         <v>303</v>
       </c>
       <c r="I48" s="62"/>
-      <c r="J48" s="81"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="81"/>
-      <c r="L48" s="62" t="s">
+      <c r="L48" s="81"/>
+      <c r="M48" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M48" s="84"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="68"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
       <c r="S48" s="68"/>
-    </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T48" s="68"/>
+    </row>
+    <row r="49" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="66">
         <v>42736</v>
       </c>
@@ -45593,20 +45868,21 @@
         <v>306</v>
       </c>
       <c r="I49" s="82"/>
-      <c r="J49" s="134"/>
+      <c r="J49" s="82"/>
       <c r="K49" s="134"/>
-      <c r="L49" s="82" t="s">
+      <c r="L49" s="134"/>
+      <c r="M49" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="84"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="68"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="63"/>
       <c r="P49" s="68"/>
       <c r="Q49" s="68"/>
       <c r="R49" s="68"/>
       <c r="S49" s="68"/>
-    </row>
-    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T49" s="68"/>
+    </row>
+    <row r="50" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="60">
         <v>42736</v>
       </c>
@@ -45626,20 +45902,21 @@
         <v>308</v>
       </c>
       <c r="I50" s="62"/>
-      <c r="J50" s="81"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="81"/>
-      <c r="L50" s="62" t="s">
+      <c r="L50" s="81"/>
+      <c r="M50" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="81"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="62"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="64"/>
       <c r="P50" s="62"/>
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="S50" s="62"/>
-    </row>
-    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T50" s="62"/>
+    </row>
+    <row r="51" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="66">
         <v>42736</v>
       </c>
@@ -45661,18 +45938,19 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="67"/>
-      <c r="L51" s="68" t="s">
+      <c r="L51" s="67"/>
+      <c r="M51" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="81"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="62"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="64"/>
       <c r="P51" s="62"/>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="S51" s="62"/>
-    </row>
-    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T51" s="62"/>
+    </row>
+    <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60">
         <v>42736</v>
       </c>
@@ -45694,18 +45972,19 @@
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
       <c r="K52" s="61"/>
-      <c r="L52" s="62" t="s">
+      <c r="L52" s="61"/>
+      <c r="M52" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M52" s="81"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="62"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="64"/>
       <c r="P52" s="62"/>
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="S52" s="62"/>
-    </row>
-    <row r="53" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T52" s="62"/>
+    </row>
+    <row r="53" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="60">
         <v>42736</v>
       </c>
@@ -45727,18 +46006,19 @@
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
       <c r="K53" s="61"/>
-      <c r="L53" s="197" t="s">
+      <c r="L53" s="61"/>
+      <c r="M53" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M53" s="67"/>
-      <c r="N53" s="253"/>
-      <c r="O53" s="68"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="253"/>
       <c r="P53" s="68"/>
       <c r="Q53" s="68"/>
       <c r="R53" s="68"/>
       <c r="S53" s="68"/>
-    </row>
-    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T53" s="68"/>
+    </row>
+    <row r="54" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="60">
         <v>42736</v>
       </c>
@@ -45762,18 +46042,19 @@
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
       <c r="K54" s="61"/>
-      <c r="L54" s="197" t="s">
+      <c r="L54" s="61"/>
+      <c r="M54" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M54" s="61"/>
-      <c r="N54" s="254"/>
-      <c r="O54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="254"/>
       <c r="P54" s="62"/>
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="S54" s="62"/>
-    </row>
-    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T54" s="62"/>
+    </row>
+    <row r="55" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="66">
         <v>42736</v>
       </c>
@@ -45797,18 +46078,19 @@
       <c r="I55" s="67"/>
       <c r="J55" s="67"/>
       <c r="K55" s="67"/>
-      <c r="L55" s="197" t="s">
+      <c r="L55" s="67"/>
+      <c r="M55" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M55" s="84"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="62"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="70"/>
       <c r="P55" s="62"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="S55" s="62"/>
-    </row>
-    <row r="56" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T55" s="62"/>
+    </row>
+    <row r="56" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="66">
         <v>42736</v>
       </c>
@@ -45828,20 +46110,21 @@
         <v>320</v>
       </c>
       <c r="I56" s="68"/>
-      <c r="J56" s="84"/>
+      <c r="J56" s="68"/>
       <c r="K56" s="84"/>
-      <c r="L56" s="68" t="s">
+      <c r="L56" s="84"/>
+      <c r="M56" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M56" s="84"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="68"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="63"/>
       <c r="P56" s="68"/>
       <c r="Q56" s="68"/>
       <c r="R56" s="68"/>
       <c r="S56" s="68"/>
-    </row>
-    <row r="57" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T56" s="68"/>
+    </row>
+    <row r="57" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="66">
         <v>42736</v>
       </c>
@@ -45863,20 +46146,21 @@
       <c r="I57" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="J57" s="84"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="84"/>
-      <c r="L57" s="68" t="s">
+      <c r="L57" s="84"/>
+      <c r="M57" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="84"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="68"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="63"/>
       <c r="P57" s="68"/>
       <c r="Q57" s="68"/>
       <c r="R57" s="68"/>
       <c r="S57" s="68"/>
-    </row>
-    <row r="58" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T57" s="68"/>
+    </row>
+    <row r="58" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="66">
         <v>42736</v>
       </c>
@@ -45896,20 +46180,21 @@
         <v>229</v>
       </c>
       <c r="I58" s="68"/>
-      <c r="J58" s="84"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="84"/>
-      <c r="L58" s="68" t="s">
+      <c r="L58" s="84"/>
+      <c r="M58" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="84"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="68"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="63"/>
       <c r="P58" s="68"/>
       <c r="Q58" s="68"/>
       <c r="R58" s="68"/>
       <c r="S58" s="68"/>
-    </row>
-    <row r="59" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T58" s="68"/>
+    </row>
+    <row r="59" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="66">
         <v>42736</v>
       </c>
@@ -45929,20 +46214,21 @@
         <v>231</v>
       </c>
       <c r="I59" s="68"/>
-      <c r="J59" s="84"/>
+      <c r="J59" s="68"/>
       <c r="K59" s="84"/>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="84"/>
+      <c r="M59" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M59" s="84"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="68"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="63"/>
       <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
       <c r="R59" s="68"/>
       <c r="S59" s="68"/>
-    </row>
-    <row r="60" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T59" s="68"/>
+    </row>
+    <row r="60" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="66">
         <v>42736</v>
       </c>
@@ -45962,20 +46248,21 @@
         <v>233</v>
       </c>
       <c r="I60" s="68"/>
-      <c r="J60" s="84"/>
+      <c r="J60" s="68"/>
       <c r="K60" s="84"/>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="84"/>
+      <c r="M60" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="84"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="68"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="63"/>
       <c r="P60" s="68"/>
       <c r="Q60" s="68"/>
       <c r="R60" s="68"/>
       <c r="S60" s="68"/>
-    </row>
-    <row r="61" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T60" s="68"/>
+    </row>
+    <row r="61" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="66">
         <v>42736</v>
       </c>
@@ -45995,20 +46282,21 @@
         <v>234</v>
       </c>
       <c r="I61" s="68"/>
-      <c r="J61" s="84"/>
+      <c r="J61" s="68"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="68" t="s">
+      <c r="L61" s="84"/>
+      <c r="M61" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M61" s="84"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="68"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="63"/>
       <c r="P61" s="68"/>
       <c r="Q61" s="68"/>
       <c r="R61" s="68"/>
       <c r="S61" s="68"/>
-    </row>
-    <row r="62" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T61" s="68"/>
+    </row>
+    <row r="62" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="66">
         <v>42736</v>
       </c>
@@ -46030,20 +46318,21 @@
       <c r="I62" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="J62" s="84"/>
+      <c r="J62" s="68"/>
       <c r="K62" s="84"/>
-      <c r="L62" s="68" t="s">
+      <c r="L62" s="84"/>
+      <c r="M62" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="84"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="68"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="63"/>
       <c r="P62" s="68"/>
       <c r="Q62" s="68"/>
       <c r="R62" s="68"/>
       <c r="S62" s="68"/>
-    </row>
-    <row r="63" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T62" s="68"/>
+    </row>
+    <row r="63" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="66">
         <v>42736</v>
       </c>
@@ -46063,20 +46352,21 @@
         <v>318</v>
       </c>
       <c r="I63" s="68"/>
-      <c r="J63" s="84"/>
+      <c r="J63" s="68"/>
       <c r="K63" s="84"/>
-      <c r="L63" s="68" t="s">
+      <c r="L63" s="84"/>
+      <c r="M63" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="84"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="68"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="63"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="68"/>
       <c r="R63" s="68"/>
       <c r="S63" s="68"/>
-    </row>
-    <row r="64" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T63" s="68"/>
+    </row>
+    <row r="64" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="66">
         <v>42736</v>
       </c>
@@ -46096,20 +46386,21 @@
         <v>327</v>
       </c>
       <c r="I64" s="68"/>
-      <c r="J64" s="84"/>
+      <c r="J64" s="68"/>
       <c r="K64" s="84"/>
-      <c r="L64" s="68" t="s">
+      <c r="L64" s="84"/>
+      <c r="M64" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="84"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="68"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="63"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="68"/>
       <c r="R64" s="68"/>
       <c r="S64" s="68"/>
-    </row>
-    <row r="65" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T64" s="68"/>
+    </row>
+    <row r="65" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="66">
         <v>42736</v>
       </c>
@@ -46129,20 +46420,21 @@
         <v>329</v>
       </c>
       <c r="I65" s="68"/>
-      <c r="J65" s="84"/>
+      <c r="J65" s="68"/>
       <c r="K65" s="84"/>
-      <c r="L65" s="68" t="s">
+      <c r="L65" s="84"/>
+      <c r="M65" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="M65" s="84"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="68"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="63"/>
       <c r="P65" s="68"/>
       <c r="Q65" s="68"/>
       <c r="R65" s="68"/>
       <c r="S65" s="68"/>
-    </row>
-    <row r="66" spans="1:19" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T65" s="68"/>
+    </row>
+    <row r="66" spans="1:20" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="71">
         <v>42736</v>
       </c>
@@ -46162,20 +46454,21 @@
         <v>331</v>
       </c>
       <c r="I66" s="86"/>
-      <c r="J66" s="90"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="90"/>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="90"/>
+      <c r="M66" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M66" s="90"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="68"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="91"/>
       <c r="P66" s="68"/>
       <c r="Q66" s="68"/>
       <c r="R66" s="68"/>
       <c r="S66" s="68"/>
-    </row>
-    <row r="67" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T66" s="68"/>
+    </row>
+    <row r="67" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="71">
         <v>42737</v>
       </c>
@@ -46196,23 +46489,24 @@
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="297" t="s">
+      <c r="K67" s="17"/>
+      <c r="L67" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L67" s="297" t="s">
+      <c r="M67" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M67" s="17"/>
       <c r="N67" s="17"/>
-      <c r="O67" s="68" t="s">
+      <c r="O67" s="17"/>
+      <c r="P67" s="68" t="s">
         <v>808</v>
       </c>
-      <c r="P67" s="68"/>
       <c r="Q67" s="68"/>
       <c r="R67" s="68"/>
-      <c r="S67" s="62"/>
-    </row>
-    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S67" s="68"/>
+      <c r="T67" s="62"/>
+    </row>
+    <row r="68" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="71">
         <v>42738</v>
       </c>
@@ -46233,23 +46527,24 @@
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="297" t="s">
+      <c r="K68" s="17"/>
+      <c r="L68" s="297" t="s">
         <v>787</v>
       </c>
-      <c r="L68" s="297" t="s">
+      <c r="M68" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M68" s="17"/>
       <c r="N68" s="17"/>
-      <c r="O68" s="68" t="s">
+      <c r="O68" s="17"/>
+      <c r="P68" s="68" t="s">
         <v>810</v>
       </c>
-      <c r="P68" s="68"/>
       <c r="Q68" s="68"/>
       <c r="R68" s="68"/>
-      <c r="S68" s="62"/>
-    </row>
-    <row r="69" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S68" s="68"/>
+      <c r="T68" s="62"/>
+    </row>
+    <row r="69" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="71">
         <v>42739</v>
       </c>
@@ -46270,21 +46565,22 @@
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="297" t="s">
+      <c r="K69" s="17"/>
+      <c r="L69" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L69" s="297" t="s">
+      <c r="M69" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M69" s="17"/>
       <c r="N69" s="17"/>
-      <c r="O69" s="68"/>
+      <c r="O69" s="17"/>
       <c r="P69" s="68"/>
       <c r="Q69" s="68"/>
       <c r="R69" s="68"/>
-      <c r="S69" s="62"/>
-    </row>
-    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S69" s="68"/>
+      <c r="T69" s="62"/>
+    </row>
+    <row r="70" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="71">
         <v>42740</v>
       </c>
@@ -46305,21 +46601,22 @@
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="297" t="s">
+      <c r="K70" s="17"/>
+      <c r="L70" s="297" t="s">
         <v>787</v>
       </c>
-      <c r="L70" s="297" t="s">
+      <c r="M70" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M70" s="17"/>
       <c r="N70" s="17"/>
-      <c r="O70" s="68"/>
+      <c r="O70" s="17"/>
       <c r="P70" s="68"/>
       <c r="Q70" s="68"/>
       <c r="R70" s="68"/>
-      <c r="S70" s="62"/>
-    </row>
-    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S70" s="68"/>
+      <c r="T70" s="62"/>
+    </row>
+    <row r="71" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="71">
         <v>42741</v>
       </c>
@@ -46340,21 +46637,22 @@
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="297" t="s">
+      <c r="K71" s="17"/>
+      <c r="L71" s="297" t="s">
         <v>876</v>
       </c>
-      <c r="L71" s="297" t="s">
+      <c r="M71" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M71" s="17"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="68"/>
+      <c r="O71" s="17"/>
       <c r="P71" s="68"/>
       <c r="Q71" s="68"/>
       <c r="R71" s="68"/>
-      <c r="S71" s="62"/>
-    </row>
-    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S71" s="68"/>
+      <c r="T71" s="62"/>
+    </row>
+    <row r="72" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="71">
         <v>42741</v>
       </c>
@@ -46375,23 +46673,24 @@
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="297" t="s">
+      <c r="K72" s="17"/>
+      <c r="L72" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L72" s="297" t="s">
+      <c r="M72" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M72" s="17"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="68" t="s">
+      <c r="O72" s="17"/>
+      <c r="P72" s="68" t="s">
         <v>811</v>
       </c>
-      <c r="P72" s="68"/>
       <c r="Q72" s="68"/>
       <c r="R72" s="68"/>
-      <c r="S72" s="62"/>
-    </row>
-    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S72" s="68"/>
+      <c r="T72" s="62"/>
+    </row>
+    <row r="73" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="71">
         <v>42742</v>
       </c>
@@ -46412,23 +46711,24 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="297" t="s">
+      <c r="K73" s="17"/>
+      <c r="L73" s="297" t="s">
         <v>787</v>
       </c>
-      <c r="L73" s="297" t="s">
+      <c r="M73" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M73" s="17"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="82" t="s">
+      <c r="O73" s="17"/>
+      <c r="P73" s="82" t="s">
         <v>812</v>
       </c>
-      <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
-      <c r="S73" s="62"/>
-    </row>
-    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S73" s="68"/>
+      <c r="T73" s="62"/>
+    </row>
+    <row r="74" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="71">
         <v>42743</v>
       </c>
@@ -46449,21 +46749,22 @@
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="297" t="s">
+      <c r="K74" s="17"/>
+      <c r="L74" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="L74" s="297" t="s">
+      <c r="M74" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M74" s="17"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="68"/>
+      <c r="O74" s="17"/>
       <c r="P74" s="68"/>
       <c r="Q74" s="68"/>
       <c r="R74" s="68"/>
-      <c r="S74" s="62"/>
-    </row>
-    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S74" s="68"/>
+      <c r="T74" s="62"/>
+    </row>
+    <row r="75" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="71">
         <v>42744</v>
       </c>
@@ -46484,21 +46785,22 @@
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="297" t="s">
+      <c r="K75" s="17"/>
+      <c r="L75" s="297" t="s">
         <v>787</v>
       </c>
-      <c r="L75" s="297" t="s">
+      <c r="M75" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M75" s="17"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="68"/>
+      <c r="O75" s="17"/>
       <c r="P75" s="68"/>
       <c r="Q75" s="68"/>
       <c r="R75" s="68"/>
-      <c r="S75" s="62"/>
-    </row>
-    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S75" s="68"/>
+      <c r="T75" s="62"/>
+    </row>
+    <row r="76" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="71">
         <v>42745</v>
       </c>
@@ -46519,19 +46821,20 @@
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="297"/>
-      <c r="L76" s="297" t="s">
+      <c r="K76" s="17"/>
+      <c r="L76" s="297"/>
+      <c r="M76" s="297" t="s">
         <v>783</v>
       </c>
-      <c r="M76" s="17"/>
       <c r="N76" s="17"/>
-      <c r="O76" s="86"/>
+      <c r="O76" s="17"/>
       <c r="P76" s="86"/>
       <c r="Q76" s="86"/>
       <c r="R76" s="86"/>
-      <c r="S76" s="265"/>
-    </row>
-    <row r="77" spans="1:19" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S76" s="86"/>
+      <c r="T76" s="265"/>
+    </row>
+    <row r="77" spans="1:20" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="436">
         <v>42745</v>
       </c>
@@ -46558,7 +46861,7 @@
       <c r="Q77" s="439"/>
       <c r="R77" s="439"/>
     </row>
-    <row r="78" spans="1:19" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" s="434" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="436">
         <v>42745</v>
       </c>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A76BE-ECDE-7D4B-9ABF-20DD4B8EC62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510E04C-B713-7D47-BA96-A09803256488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -3082,10 +3082,10 @@
     <t>MotherFullName="Mary"</t>
   </si>
   <si>
-    <t>ChileFullName="Jack"</t>
-  </si>
-  <si>
     <t>Homeless="no"</t>
+  </si>
+  <si>
+    <t>ChildFullName="Jack"</t>
   </si>
 </sst>
 </file>
@@ -19630,7 +19630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F13" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E13" zoomScale="88" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="K30" s="81"/>
       <c r="L30" s="81" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M30" s="81" t="b">
         <v>1</v>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="K31" s="81"/>
       <c r="L31" s="81" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M31" s="81" t="b">
         <v>1</v>
@@ -44119,7 +44119,7 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45048,7 +45048,7 @@
         <v>261</v>
       </c>
       <c r="I26" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J26" s="62" t="s">
         <v>422</v>
@@ -45088,7 +45088,7 @@
         <v>263</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J27" s="62" t="s">
         <v>424</v>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510E04C-B713-7D47-BA96-A09803256488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF45DF8-DB8B-6F49-9003-5E9494DA3370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -5081,31 +5081,6 @@
   </cellStyles>
   <dxfs count="313">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -8014,6 +7989,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -12581,103 +12581,103 @@
     <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="119"/>
     <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="118"/>
     <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="117"/>
-    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="116"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="115"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="114"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="113"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="112"/>
+    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="116"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="115"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H43" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H43" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:G35" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H48" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H48" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I53" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12696,54 +12696,54 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F154" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F154" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F50" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19630,7 +19630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E13" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C126" zoomScale="88" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -44118,8 +44118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77:M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46853,7 +46853,7 @@
         <v>951</v>
       </c>
       <c r="K77" s="438"/>
-      <c r="L77" s="438" t="s">
+      <c r="M77" s="438" t="s">
         <v>783</v>
       </c>
       <c r="O77" s="439"/>
@@ -46880,7 +46880,7 @@
         <v>952</v>
       </c>
       <c r="K78" s="438"/>
-      <c r="L78" s="438" t="s">
+      <c r="M78" s="438" t="s">
         <v>783</v>
       </c>
       <c r="O78" s="439"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF45DF8-DB8B-6F49-9003-5E9494DA3370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9FF7A-5B8F-7A4A-9A07-6A9A03F4BFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -18,29 +18,30 @@
     <sheet name="CaseType" sheetId="2" r:id="rId3"/>
     <sheet name="NoticeOfChangeConfig" sheetId="24" r:id="rId4"/>
     <sheet name="Category" sheetId="23" r:id="rId5"/>
-    <sheet name="CaseField" sheetId="3" r:id="rId6"/>
-    <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId8"/>
-    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId9"/>
-    <sheet name="FixedLists" sheetId="5" r:id="rId10"/>
-    <sheet name="CaseTypeTab" sheetId="6" r:id="rId11"/>
-    <sheet name="State" sheetId="7" r:id="rId12"/>
-    <sheet name="CaseEvent" sheetId="8" r:id="rId13"/>
-    <sheet name="CaseEventToFields" sheetId="9" r:id="rId14"/>
-    <sheet name="SearchInputFields" sheetId="10" r:id="rId15"/>
-    <sheet name="SearchResultFields" sheetId="11" r:id="rId16"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId17"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId18"/>
-    <sheet name="UserProfile" sheetId="14" r:id="rId19"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId20"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId21"/>
-    <sheet name="CaseRoles" sheetId="19" r:id="rId22"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId23"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId24"/>
+    <sheet name="ChallengeQuestion" sheetId="25" r:id="rId6"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId7"/>
+    <sheet name="ComplexTypes" sheetId="4" r:id="rId8"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId9"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId10"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId11"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId12"/>
+    <sheet name="State" sheetId="7" r:id="rId13"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId14"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId15"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId16"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId17"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId19"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId20"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId21"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId22"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$22:$T$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseField!$A$3:$IO$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">CaseEvent!$A$22:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseField!$A$3:$IO$119</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="1007">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3086,18 +3087,92 @@
   </si>
   <si>
     <t>ChildFullName="Jack"</t>
+  </si>
+  <si>
+    <t>ChallengeQuestion</t>
+  </si>
+  <si>
+    <t>MaxLength:70</t>
+  </si>
+  <si>
+    <t>The type of the field that the answer will contain</t>
+  </si>
+  <si>
+    <t>Text should begin with #LIST( or #TABLE(
+MaxLength: 1000</t>
+  </si>
+  <si>
+    <t>In the form of a comma separated list of potential answer field(s) for each of the (n) litigant types on possible on the case.</t>
+  </si>
+  <si>
+    <t>QuestionText</t>
+  </si>
+  <si>
+    <t>AnswerFieldType</t>
+  </si>
+  <si>
+    <t>QuestionId</t>
+  </si>
+  <si>
+    <t>NoCChallenge</t>
+  </si>
+  <si>
+    <t>What's the name of the party you wish to represent?</t>
+  </si>
+  <si>
+    <t>${OrganisationField.OrganisationName}|${OrganisationField.OrganisationID}:[Claimant],${OrganisationField.OrganisationName}|${OrganisationField.OrganisationID}:[Defendant]</t>
+  </si>
+  <si>
+    <t>NoCChallengeQ1</t>
+  </si>
+  <si>
+    <t>What's xxxx?</t>
+  </si>
+  <si>
+    <t>${OrganisationField.OrganisationName}|${OrganisationField.OrganisationID}:[Defendant]</t>
+  </si>
+  <si>
+    <t>NoCChallengeQ2</t>
+  </si>
+  <si>
+    <t>What  time is it?</t>
+  </si>
+  <si>
+    <t>${OrganisationField.OrganisationID}:[Defendant]</t>
+  </si>
+  <si>
+    <t>NoCChallengeQ3</t>
+  </si>
+  <si>
+    <t>What's their Postcode?</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>NoCChallengeQ4</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>${CaseLinkComplex}:[Defendant]</t>
+  </si>
+  <si>
+    <t>CollectionsQ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3506,8 +3581,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3614,6 +3734,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -3785,7 +3911,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3800,8 +3926,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="482">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5062,8 +5189,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="67" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="70" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
+    <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -14045,6 +14204,2269 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="88.5" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="228" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="231" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="231"/>
+      <c r="H1" s="229" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="229" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="229" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="81"/>
+      <c r="L1" s="229"/>
+    </row>
+    <row r="2" spans="1:12" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="232"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="233" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="234" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="234" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="232" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="232" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" s="234" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" s="234" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="235" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="241" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="241" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="241" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="241" t="s">
+        <v>934</v>
+      </c>
+      <c r="H3" s="241" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="241" t="s">
+        <v>370</v>
+      </c>
+      <c r="J3" s="241" t="s">
+        <v>371</v>
+      </c>
+      <c r="K3" s="241" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" s="242" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="118"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81">
+        <v>1</v>
+      </c>
+      <c r="K4" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="118"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81">
+        <v>2</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L5" s="64"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81">
+        <v>3</v>
+      </c>
+      <c r="K6" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="118" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="118"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81">
+        <v>1</v>
+      </c>
+      <c r="K7" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="118"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81">
+        <v>2</v>
+      </c>
+      <c r="K8" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81">
+        <v>2</v>
+      </c>
+      <c r="K9" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81">
+        <v>3</v>
+      </c>
+      <c r="K10" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84">
+        <v>5</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="63"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84">
+        <v>6</v>
+      </c>
+      <c r="K12" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="118"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="217" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="118"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81">
+        <v>7</v>
+      </c>
+      <c r="K14" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L14" s="217" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118" t="s">
+        <v>380</v>
+      </c>
+      <c r="I15" s="118" t="s">
+        <v>381</v>
+      </c>
+      <c r="J15" s="81">
+        <v>4</v>
+      </c>
+      <c r="K15" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L15" s="217"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="118"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81">
+        <v>6</v>
+      </c>
+      <c r="K16" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L16" s="64"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>770</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81">
+        <v>6</v>
+      </c>
+      <c r="K17" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="64"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="118"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81">
+        <v>5</v>
+      </c>
+      <c r="K18" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81">
+        <v>8</v>
+      </c>
+      <c r="K19" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" s="217" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="236">
+        <v>43101</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="118" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="118"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L20" s="217" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B21" s="330"/>
+      <c r="C21" s="333" t="s">
+        <v>907</v>
+      </c>
+      <c r="D21" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E21" s="341" t="s">
+        <v>908</v>
+      </c>
+      <c r="F21" s="342" t="s">
+        <v>917</v>
+      </c>
+      <c r="G21" s="342"/>
+      <c r="H21" s="330" t="s">
+        <v>918</v>
+      </c>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330">
+        <v>1</v>
+      </c>
+      <c r="K21" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L21" s="343"/>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B22" s="330"/>
+      <c r="C22" s="333" t="s">
+        <v>907</v>
+      </c>
+      <c r="D22" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E22" s="341" t="s">
+        <v>908</v>
+      </c>
+      <c r="F22" s="342" t="s">
+        <v>919</v>
+      </c>
+      <c r="G22" s="342"/>
+      <c r="H22" s="342" t="s">
+        <v>920</v>
+      </c>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330">
+        <v>2</v>
+      </c>
+      <c r="K22" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="343"/>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B23" s="330"/>
+      <c r="C23" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D23" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E23" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F23" s="342" t="s">
+        <v>915</v>
+      </c>
+      <c r="G23" s="342"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330">
+        <v>3</v>
+      </c>
+      <c r="K23" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L23" s="343"/>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B24" s="330"/>
+      <c r="C24" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D24" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E24" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F24" s="342" t="s">
+        <v>916</v>
+      </c>
+      <c r="G24" s="342"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330">
+        <v>4</v>
+      </c>
+      <c r="K24" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L24" s="343"/>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B25" s="330"/>
+      <c r="C25" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D25" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E25" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F25" s="342" t="s">
+        <v>913</v>
+      </c>
+      <c r="G25" s="342" t="s">
+        <v>685</v>
+      </c>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330">
+        <v>5</v>
+      </c>
+      <c r="K25" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L25" s="343"/>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B26" s="330"/>
+      <c r="C26" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D26" s="333" t="s">
+        <v>923</v>
+      </c>
+      <c r="E26" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F26" s="342" t="s">
+        <v>914</v>
+      </c>
+      <c r="G26" s="342"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330">
+        <v>6</v>
+      </c>
+      <c r="K26" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L26" s="343"/>
+    </row>
+    <row r="27" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B27" s="460"/>
+      <c r="C27" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D27" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E27" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F27" s="462" t="s">
+        <v>963</v>
+      </c>
+      <c r="G27" s="462"/>
+      <c r="H27" s="460"/>
+      <c r="I27" s="460"/>
+      <c r="J27" s="460">
+        <v>7</v>
+      </c>
+      <c r="K27" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L27" s="463"/>
+    </row>
+    <row r="28" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B28" s="460"/>
+      <c r="C28" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D28" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E28" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F28" s="462" t="s">
+        <v>964</v>
+      </c>
+      <c r="G28" s="462"/>
+      <c r="H28" s="460"/>
+      <c r="I28" s="460"/>
+      <c r="J28" s="460">
+        <v>8</v>
+      </c>
+      <c r="K28" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" s="463"/>
+    </row>
+    <row r="29" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B29" s="460"/>
+      <c r="C29" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D29" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E29" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F29" s="462" t="s">
+        <v>965</v>
+      </c>
+      <c r="G29" s="462"/>
+      <c r="H29" s="460"/>
+      <c r="I29" s="460"/>
+      <c r="J29" s="460">
+        <v>9</v>
+      </c>
+      <c r="K29" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L29" s="463"/>
+    </row>
+    <row r="30" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B30" s="460"/>
+      <c r="C30" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D30" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E30" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F30" s="462" t="s">
+        <v>966</v>
+      </c>
+      <c r="G30" s="462"/>
+      <c r="H30" s="460"/>
+      <c r="I30" s="460"/>
+      <c r="J30" s="460">
+        <v>10</v>
+      </c>
+      <c r="K30" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L30" s="463"/>
+    </row>
+    <row r="31" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B31" s="460"/>
+      <c r="C31" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D31" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E31" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F31" s="462" t="s">
+        <v>967</v>
+      </c>
+      <c r="G31" s="462"/>
+      <c r="H31" s="460"/>
+      <c r="I31" s="460"/>
+      <c r="J31" s="460">
+        <v>11</v>
+      </c>
+      <c r="K31" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L31" s="463"/>
+    </row>
+    <row r="32" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B32" s="460"/>
+      <c r="C32" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D32" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E32" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F32" s="462" t="s">
+        <v>968</v>
+      </c>
+      <c r="G32" s="462"/>
+      <c r="H32" s="460"/>
+      <c r="I32" s="460"/>
+      <c r="J32" s="460">
+        <v>12</v>
+      </c>
+      <c r="K32" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L32" s="463"/>
+    </row>
+    <row r="33" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B33" s="460"/>
+      <c r="C33" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D33" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E33" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F33" s="462" t="s">
+        <v>969</v>
+      </c>
+      <c r="G33" s="462"/>
+      <c r="H33" s="460"/>
+      <c r="I33" s="460"/>
+      <c r="J33" s="460">
+        <v>13</v>
+      </c>
+      <c r="K33" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L33" s="463"/>
+    </row>
+    <row r="34" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B34" s="460"/>
+      <c r="C34" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D34" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E34" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F34" s="462" t="s">
+        <v>970</v>
+      </c>
+      <c r="G34" s="462"/>
+      <c r="H34" s="460"/>
+      <c r="I34" s="460"/>
+      <c r="J34" s="460">
+        <v>14</v>
+      </c>
+      <c r="K34" s="464" t="s">
+        <v>374</v>
+      </c>
+      <c r="L34" s="463"/>
+    </row>
+    <row r="35" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B35" s="460"/>
+      <c r="C35" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D35" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E35" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F35" s="462" t="s">
+        <v>971</v>
+      </c>
+      <c r="G35" s="462"/>
+      <c r="H35" s="460"/>
+      <c r="I35" s="460"/>
+      <c r="J35" s="460">
+        <v>15</v>
+      </c>
+      <c r="K35" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L35" s="463"/>
+    </row>
+    <row r="36" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B36" s="460"/>
+      <c r="C36" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D36" s="461" t="s">
+        <v>923</v>
+      </c>
+      <c r="E36" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F36" s="462" t="s">
+        <v>972</v>
+      </c>
+      <c r="G36" s="462"/>
+      <c r="H36" s="460"/>
+      <c r="I36" s="460"/>
+      <c r="J36" s="460">
+        <v>16</v>
+      </c>
+      <c r="K36" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L36" s="463"/>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B37" s="330"/>
+      <c r="C37" s="333" t="s">
+        <v>907</v>
+      </c>
+      <c r="D37" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E37" s="341" t="s">
+        <v>908</v>
+      </c>
+      <c r="F37" s="342" t="s">
+        <v>917</v>
+      </c>
+      <c r="G37" s="342"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330">
+        <v>1</v>
+      </c>
+      <c r="K37" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L37" s="343"/>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B38" s="330"/>
+      <c r="C38" s="333" t="s">
+        <v>907</v>
+      </c>
+      <c r="D38" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E38" s="341" t="s">
+        <v>908</v>
+      </c>
+      <c r="F38" s="342" t="s">
+        <v>919</v>
+      </c>
+      <c r="G38" s="342"/>
+      <c r="H38" s="342"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="330">
+        <v>2</v>
+      </c>
+      <c r="K38" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L38" s="343"/>
+    </row>
+    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B39" s="330"/>
+      <c r="C39" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D39" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E39" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F39" s="342" t="s">
+        <v>915</v>
+      </c>
+      <c r="G39" s="342"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="330">
+        <v>3</v>
+      </c>
+      <c r="K39" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L39" s="343"/>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B40" s="330"/>
+      <c r="C40" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D40" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E40" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F40" s="342" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="342"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330">
+        <v>4</v>
+      </c>
+      <c r="K40" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" s="343"/>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B41" s="330"/>
+      <c r="C41" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D41" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E41" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F41" s="342" t="s">
+        <v>913</v>
+      </c>
+      <c r="G41" s="342" t="s">
+        <v>693</v>
+      </c>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330">
+        <v>5</v>
+      </c>
+      <c r="K41" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="343"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="329">
+        <v>43101</v>
+      </c>
+      <c r="B42" s="330"/>
+      <c r="C42" s="333" t="s">
+        <v>912</v>
+      </c>
+      <c r="D42" s="333" t="s">
+        <v>924</v>
+      </c>
+      <c r="E42" s="341" t="s">
+        <v>909</v>
+      </c>
+      <c r="F42" s="342" t="s">
+        <v>914</v>
+      </c>
+      <c r="G42" s="342"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330">
+        <v>6</v>
+      </c>
+      <c r="K42" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" s="343"/>
+    </row>
+    <row r="43" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B43" s="460"/>
+      <c r="C43" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D43" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E43" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F43" s="462" t="s">
+        <v>963</v>
+      </c>
+      <c r="G43" s="462"/>
+      <c r="H43" s="460"/>
+      <c r="I43" s="460"/>
+      <c r="J43" s="460">
+        <v>7</v>
+      </c>
+      <c r="K43" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="463"/>
+    </row>
+    <row r="44" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B44" s="460"/>
+      <c r="C44" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D44" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E44" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F44" s="462" t="s">
+        <v>964</v>
+      </c>
+      <c r="G44" s="462"/>
+      <c r="H44" s="460"/>
+      <c r="I44" s="460"/>
+      <c r="J44" s="460">
+        <v>8</v>
+      </c>
+      <c r="K44" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" s="463"/>
+    </row>
+    <row r="45" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B45" s="460"/>
+      <c r="C45" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D45" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E45" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F45" s="462" t="s">
+        <v>965</v>
+      </c>
+      <c r="G45" s="462"/>
+      <c r="H45" s="460"/>
+      <c r="I45" s="460"/>
+      <c r="J45" s="460">
+        <v>9</v>
+      </c>
+      <c r="K45" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" s="463"/>
+    </row>
+    <row r="46" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B46" s="460"/>
+      <c r="C46" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D46" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E46" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F46" s="462" t="s">
+        <v>966</v>
+      </c>
+      <c r="G46" s="462"/>
+      <c r="H46" s="460"/>
+      <c r="I46" s="460"/>
+      <c r="J46" s="460">
+        <v>10</v>
+      </c>
+      <c r="K46" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" s="463"/>
+    </row>
+    <row r="47" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B47" s="460"/>
+      <c r="C47" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D47" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E47" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F47" s="462" t="s">
+        <v>967</v>
+      </c>
+      <c r="G47" s="462"/>
+      <c r="H47" s="460"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="460">
+        <v>11</v>
+      </c>
+      <c r="K47" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" s="463"/>
+    </row>
+    <row r="48" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B48" s="460"/>
+      <c r="C48" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D48" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E48" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F48" s="462" t="s">
+        <v>968</v>
+      </c>
+      <c r="G48" s="462"/>
+      <c r="H48" s="460"/>
+      <c r="I48" s="460"/>
+      <c r="J48" s="460">
+        <v>12</v>
+      </c>
+      <c r="K48" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L48" s="463"/>
+    </row>
+    <row r="49" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B49" s="460"/>
+      <c r="C49" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D49" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E49" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F49" s="462" t="s">
+        <v>969</v>
+      </c>
+      <c r="G49" s="462"/>
+      <c r="H49" s="460"/>
+      <c r="I49" s="460"/>
+      <c r="J49" s="460">
+        <v>13</v>
+      </c>
+      <c r="K49" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" s="463"/>
+    </row>
+    <row r="50" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B50" s="460"/>
+      <c r="C50" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D50" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E50" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F50" s="462" t="s">
+        <v>970</v>
+      </c>
+      <c r="G50" s="462"/>
+      <c r="H50" s="460"/>
+      <c r="I50" s="460"/>
+      <c r="J50" s="460">
+        <v>14</v>
+      </c>
+      <c r="K50" s="464" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" s="463"/>
+    </row>
+    <row r="51" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B51" s="460"/>
+      <c r="C51" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D51" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E51" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F51" s="462" t="s">
+        <v>971</v>
+      </c>
+      <c r="G51" s="462"/>
+      <c r="H51" s="460"/>
+      <c r="I51" s="460"/>
+      <c r="J51" s="460">
+        <v>15</v>
+      </c>
+      <c r="K51" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" s="463"/>
+    </row>
+    <row r="52" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="459">
+        <v>43101</v>
+      </c>
+      <c r="B52" s="460"/>
+      <c r="C52" s="461" t="s">
+        <v>912</v>
+      </c>
+      <c r="D52" s="461" t="s">
+        <v>924</v>
+      </c>
+      <c r="E52" s="454" t="s">
+        <v>960</v>
+      </c>
+      <c r="F52" s="462" t="s">
+        <v>972</v>
+      </c>
+      <c r="G52" s="462"/>
+      <c r="H52" s="460"/>
+      <c r="I52" s="460"/>
+      <c r="J52" s="460">
+        <v>16</v>
+      </c>
+      <c r="K52" s="462" t="s">
+        <v>375</v>
+      </c>
+      <c r="L52" s="463"/>
+    </row>
+    <row r="53" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B53" s="395"/>
+      <c r="C53" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D53" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F53" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G53" s="398"/>
+      <c r="H53" s="398"/>
+      <c r="I53" s="395"/>
+      <c r="J53" s="395">
+        <v>3</v>
+      </c>
+      <c r="K53" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L53" s="399"/>
+    </row>
+    <row r="54" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B54" s="395"/>
+      <c r="C54" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D54" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F54" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G54" s="398"/>
+      <c r="H54" s="398"/>
+      <c r="I54" s="395"/>
+      <c r="J54" s="395">
+        <v>4</v>
+      </c>
+      <c r="K54" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" s="399"/>
+    </row>
+    <row r="55" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B55" s="395"/>
+      <c r="C55" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D55" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F55" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G55" s="398" t="s">
+        <v>685</v>
+      </c>
+      <c r="H55" s="398"/>
+      <c r="I55" s="395"/>
+      <c r="J55" s="395">
+        <v>5</v>
+      </c>
+      <c r="K55" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" s="399"/>
+    </row>
+    <row r="56" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B56" s="395"/>
+      <c r="C56" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D56" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E56" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F56" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G56" s="398"/>
+      <c r="H56" s="398"/>
+      <c r="I56" s="395"/>
+      <c r="J56" s="395">
+        <v>6</v>
+      </c>
+      <c r="K56" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" s="399"/>
+    </row>
+    <row r="57" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B57" s="395"/>
+      <c r="C57" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D57" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E57" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F57" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G57" s="398"/>
+      <c r="H57" s="398"/>
+      <c r="I57" s="395"/>
+      <c r="J57" s="395">
+        <v>7</v>
+      </c>
+      <c r="K57" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L57" s="399"/>
+    </row>
+    <row r="58" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B58" s="395"/>
+      <c r="C58" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D58" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F58" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G58" s="398"/>
+      <c r="H58" s="398"/>
+      <c r="I58" s="395"/>
+      <c r="J58" s="395">
+        <v>8</v>
+      </c>
+      <c r="K58" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L58" s="399"/>
+    </row>
+    <row r="59" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B59" s="395"/>
+      <c r="C59" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D59" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E59" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F59" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G59" s="398" t="s">
+        <v>693</v>
+      </c>
+      <c r="H59" s="398"/>
+      <c r="I59" s="395"/>
+      <c r="J59" s="395">
+        <v>9</v>
+      </c>
+      <c r="K59" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" s="399"/>
+    </row>
+    <row r="60" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B60" s="395"/>
+      <c r="C60" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D60" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F60" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G60" s="398"/>
+      <c r="H60" s="398"/>
+      <c r="I60" s="395"/>
+      <c r="J60" s="395">
+        <v>10</v>
+      </c>
+      <c r="K60" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L60" s="399"/>
+    </row>
+    <row r="61" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B61" s="395"/>
+      <c r="C61" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D61" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E61" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F61" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G61" s="398"/>
+      <c r="H61" s="398"/>
+      <c r="I61" s="395"/>
+      <c r="J61" s="395">
+        <v>3</v>
+      </c>
+      <c r="K61" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L61" s="399"/>
+    </row>
+    <row r="62" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B62" s="395"/>
+      <c r="C62" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D62" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E62" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F62" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G62" s="398"/>
+      <c r="H62" s="398"/>
+      <c r="I62" s="395"/>
+      <c r="J62" s="395">
+        <v>4</v>
+      </c>
+      <c r="K62" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" s="399"/>
+    </row>
+    <row r="63" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B63" s="395"/>
+      <c r="C63" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D63" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E63" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F63" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G63" s="398" t="s">
+        <v>693</v>
+      </c>
+      <c r="H63" s="398"/>
+      <c r="I63" s="395"/>
+      <c r="J63" s="395">
+        <v>5</v>
+      </c>
+      <c r="K63" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L63" s="399"/>
+    </row>
+    <row r="64" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B64" s="395"/>
+      <c r="C64" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D64" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E64" s="397" t="s">
+        <v>937</v>
+      </c>
+      <c r="F64" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G64" s="398"/>
+      <c r="H64" s="398"/>
+      <c r="I64" s="395"/>
+      <c r="J64" s="395">
+        <v>6</v>
+      </c>
+      <c r="K64" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L64" s="399"/>
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B65" s="395"/>
+      <c r="C65" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D65" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E65" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F65" s="398" t="s">
+        <v>915</v>
+      </c>
+      <c r="G65" s="398"/>
+      <c r="H65" s="398"/>
+      <c r="I65" s="395"/>
+      <c r="J65" s="395">
+        <v>7</v>
+      </c>
+      <c r="K65" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L65" s="399"/>
+    </row>
+    <row r="66" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B66" s="395"/>
+      <c r="C66" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D66" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E66" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F66" s="398" t="s">
+        <v>916</v>
+      </c>
+      <c r="G66" s="398"/>
+      <c r="H66" s="398"/>
+      <c r="I66" s="395"/>
+      <c r="J66" s="395">
+        <v>8</v>
+      </c>
+      <c r="K66" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L66" s="399"/>
+    </row>
+    <row r="67" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B67" s="395"/>
+      <c r="C67" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D67" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E67" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F67" s="398" t="s">
+        <v>913</v>
+      </c>
+      <c r="G67" s="398" t="s">
+        <v>685</v>
+      </c>
+      <c r="H67" s="398"/>
+      <c r="I67" s="395"/>
+      <c r="J67" s="395">
+        <v>9</v>
+      </c>
+      <c r="K67" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L67" s="399"/>
+    </row>
+    <row r="68" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="394">
+        <v>43983</v>
+      </c>
+      <c r="B68" s="395"/>
+      <c r="C68" s="396" t="s">
+        <v>935</v>
+      </c>
+      <c r="D68" s="396" t="s">
+        <v>941</v>
+      </c>
+      <c r="E68" s="397" t="s">
+        <v>938</v>
+      </c>
+      <c r="F68" s="398" t="s">
+        <v>914</v>
+      </c>
+      <c r="G68" s="398"/>
+      <c r="H68" s="398"/>
+      <c r="I68" s="395"/>
+      <c r="J68" s="395">
+        <v>10</v>
+      </c>
+      <c r="K68" s="398" t="s">
+        <v>375</v>
+      </c>
+      <c r="L68" s="399"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="118" t="s">
+        <v>388</v>
+      </c>
+      <c r="E69" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="118" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="118"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84">
+        <v>1</v>
+      </c>
+      <c r="K69" s="118" t="s">
+        <v>389</v>
+      </c>
+      <c r="L69" s="217" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="118" t="s">
+        <v>388</v>
+      </c>
+      <c r="E70" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="118" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" s="118"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84">
+        <v>1</v>
+      </c>
+      <c r="K70" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L70" s="217" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B71" s="84"/>
+      <c r="C71" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="118"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84">
+        <v>1</v>
+      </c>
+      <c r="K71" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L71" s="63"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B72" s="84"/>
+      <c r="C72" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E72" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="G72" s="118"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84">
+        <v>1</v>
+      </c>
+      <c r="K72" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L72" s="63"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B73" s="84"/>
+      <c r="C73" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E73" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="G73" s="118"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84">
+        <v>2</v>
+      </c>
+      <c r="K73" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L73" s="63"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B74" s="84"/>
+      <c r="C74" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="118"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84">
+        <v>1</v>
+      </c>
+      <c r="K74" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L74" s="63"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B75" s="84"/>
+      <c r="C75" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="G75" s="118"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84">
+        <v>1</v>
+      </c>
+      <c r="K75" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L75" s="63"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B76" s="84"/>
+      <c r="C76" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="G76" s="118"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84">
+        <v>2</v>
+      </c>
+      <c r="K76" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L76" s="63"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B77" s="84"/>
+      <c r="C77" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="118"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84">
+        <v>1</v>
+      </c>
+      <c r="K77" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L77" s="63"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="238">
+        <v>43101</v>
+      </c>
+      <c r="B78" s="90"/>
+      <c r="C78" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="239" t="s">
+        <v>328</v>
+      </c>
+      <c r="G78" s="239"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90">
+        <v>1</v>
+      </c>
+      <c r="K78" s="239" t="s">
+        <v>374</v>
+      </c>
+      <c r="L78" s="91"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -14571,7 +16993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR67"/>
   <sheetViews>
@@ -16951,7 +19373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FH30"/>
   <sheetViews>
@@ -17792,7 +20214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -19626,7 +22048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
@@ -26217,7 +28639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -27235,7 +29657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
@@ -28222,7 +30644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -29260,7 +31682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL53"/>
   <sheetViews>
@@ -30554,7 +32976,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87C05-4433-0B47-8359-B17D583CFB7A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="257" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" s="258" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="258" t="s">
+        <v>715</v>
+      </c>
+      <c r="D3" s="259" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="260" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="261" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="262" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{76901EAB-8C8D-2C4E-B48C-A34C7A0DEE7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -30686,127 +33228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87C05-4433-0B47-8359-B17D583CFB7A}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="257" t="s">
-        <v>713</v>
-      </c>
-      <c r="B3" s="258" t="s">
-        <v>714</v>
-      </c>
-      <c r="C3" s="258" t="s">
-        <v>715</v>
-      </c>
-      <c r="D3" s="259" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="261" t="s">
-        <v>717</v>
-      </c>
-      <c r="C4" s="261" t="s">
-        <v>718</v>
-      </c>
-      <c r="D4" s="262" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{76901EAB-8C8D-2C4E-B48C-A34C7A0DEE7E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -31155,7 +33577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -33961,7 +36383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -34108,7 +36530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK50"/>
   <sheetViews>
@@ -35310,7 +37732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF36"/>
   <sheetViews>
@@ -36962,11 +39384,298 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC343D0E-808F-8348-B776-EC7A2F9FD0AC}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="482" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1" s="483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="484" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="485" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+    </row>
+    <row r="2" spans="1:10" ht="168" x14ac:dyDescent="0.15">
+      <c r="A2" s="487"/>
+      <c r="B2" s="488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="489" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="489" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="489" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="490" t="s">
+        <v>984</v>
+      </c>
+      <c r="G2" s="490" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2" s="491" t="s">
+        <v>986</v>
+      </c>
+      <c r="I2" s="492" t="s">
+        <v>987</v>
+      </c>
+      <c r="J2" s="490"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="493"/>
+      <c r="B3" s="493" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="494" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="494" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="494" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="494" t="s">
+        <v>988</v>
+      </c>
+      <c r="G3" s="495" t="s">
+        <v>989</v>
+      </c>
+      <c r="H3" s="495" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" s="495" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="495" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+      <c r="A4" s="496"/>
+      <c r="B4" s="496"/>
+      <c r="C4" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="E4" s="486">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="G4" s="305" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="486" t="s">
+        <v>849</v>
+      </c>
+      <c r="I4" s="497" t="s">
+        <v>993</v>
+      </c>
+      <c r="J4" s="486" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+      <c r="A5" s="496"/>
+      <c r="B5" s="496"/>
+      <c r="C5" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="E5" s="486">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="G5" s="305" t="s">
+        <v>788</v>
+      </c>
+      <c r="H5" s="486" t="s">
+        <v>849</v>
+      </c>
+      <c r="I5" s="497" t="s">
+        <v>996</v>
+      </c>
+      <c r="J5" s="486" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="496"/>
+      <c r="B6" s="496"/>
+      <c r="C6" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="E6" s="486">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="G6" s="305" t="s">
+        <v>788</v>
+      </c>
+      <c r="H6" s="486" t="s">
+        <v>849</v>
+      </c>
+      <c r="I6" s="497" t="s">
+        <v>999</v>
+      </c>
+      <c r="J6" s="486" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A7" s="496"/>
+      <c r="B7" s="496"/>
+      <c r="C7" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="E7" s="486">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="305" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H7" s="486"/>
+      <c r="I7" s="497" t="s">
+        <v>999</v>
+      </c>
+      <c r="J7" s="486" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="496"/>
+      <c r="B8" s="496"/>
+      <c r="C8" s="494"/>
+      <c r="D8" s="486"/>
+      <c r="E8" s="486"/>
+      <c r="F8" s="486"/>
+      <c r="G8" s="486"/>
+      <c r="H8" s="486"/>
+      <c r="I8" s="486"/>
+      <c r="J8" s="486"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="496"/>
+      <c r="B9" s="496"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="486"/>
+      <c r="E9" s="490"/>
+      <c r="F9" s="486"/>
+      <c r="G9" s="486"/>
+      <c r="H9" s="486"/>
+      <c r="I9" s="486"/>
+      <c r="J9" s="486"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="496"/>
+      <c r="B10" s="496"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="486"/>
+      <c r="E10" s="494"/>
+      <c r="F10" s="486"/>
+      <c r="G10" s="486"/>
+      <c r="H10" s="486"/>
+      <c r="I10" s="486"/>
+      <c r="J10" s="486"/>
+    </row>
+    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="496"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="498" t="s">
+        <v>881</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G11" s="486" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="486"/>
+      <c r="I11" s="497" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J11" s="486" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -44114,11 +46823,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D51" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D51" workbookViewId="0">
       <selection activeCell="M77" sqref="M77:M78"/>
     </sheetView>
   </sheetViews>
@@ -46901,7 +49610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -47780,2267 +50489,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="88.5" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="228" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1" s="229" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="231" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="231"/>
-      <c r="H1" s="229" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="229" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="229"/>
-    </row>
-    <row r="2" spans="1:12" ht="122" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="232"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="234" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="234" t="s">
-        <v>361</v>
-      </c>
-      <c r="F2" s="232" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232" t="s">
-        <v>362</v>
-      </c>
-      <c r="I2" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="J2" s="234" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2" s="234" t="s">
-        <v>365</v>
-      </c>
-      <c r="L2" s="235" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="240" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="241" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="241" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="241" t="s">
-        <v>367</v>
-      </c>
-      <c r="E3" s="241" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="241" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="241" t="s">
-        <v>934</v>
-      </c>
-      <c r="H3" s="241" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" s="241" t="s">
-        <v>370</v>
-      </c>
-      <c r="J3" s="241" t="s">
-        <v>371</v>
-      </c>
-      <c r="K3" s="241" t="s">
-        <v>372</v>
-      </c>
-      <c r="L3" s="242" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81">
-        <v>1</v>
-      </c>
-      <c r="K4" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L4" s="64"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81">
-        <v>2</v>
-      </c>
-      <c r="K5" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E6" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81">
-        <v>3</v>
-      </c>
-      <c r="K6" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81">
-        <v>1</v>
-      </c>
-      <c r="K7" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L7" s="64"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>344</v>
-      </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81">
-        <v>2</v>
-      </c>
-      <c r="K8" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L8" s="64"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81">
-        <v>2</v>
-      </c>
-      <c r="K9" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81">
-        <v>3</v>
-      </c>
-      <c r="K10" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84">
-        <v>5</v>
-      </c>
-      <c r="K11" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="L11" s="63"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84">
-        <v>6</v>
-      </c>
-      <c r="K12" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L12" s="63"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="217" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81">
-        <v>7</v>
-      </c>
-      <c r="K14" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L14" s="217" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118" t="s">
-        <v>380</v>
-      </c>
-      <c r="I15" s="118" t="s">
-        <v>381</v>
-      </c>
-      <c r="J15" s="81">
-        <v>4</v>
-      </c>
-      <c r="K15" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L15" s="217"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81">
-        <v>6</v>
-      </c>
-      <c r="K16" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L16" s="64"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>770</v>
-      </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81">
-        <v>6</v>
-      </c>
-      <c r="K17" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L17" s="64"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="118" t="s">
-        <v>383</v>
-      </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81">
-        <v>5</v>
-      </c>
-      <c r="K18" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="64"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="118" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81">
-        <v>8</v>
-      </c>
-      <c r="K19" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L19" s="217" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="236">
-        <v>43101</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="118" t="s">
-        <v>373</v>
-      </c>
-      <c r="E20" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L20" s="217" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B21" s="330"/>
-      <c r="C21" s="333" t="s">
-        <v>907</v>
-      </c>
-      <c r="D21" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E21" s="341" t="s">
-        <v>908</v>
-      </c>
-      <c r="F21" s="342" t="s">
-        <v>917</v>
-      </c>
-      <c r="G21" s="342"/>
-      <c r="H21" s="330" t="s">
-        <v>918</v>
-      </c>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330">
-        <v>1</v>
-      </c>
-      <c r="K21" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L21" s="343"/>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B22" s="330"/>
-      <c r="C22" s="333" t="s">
-        <v>907</v>
-      </c>
-      <c r="D22" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E22" s="341" t="s">
-        <v>908</v>
-      </c>
-      <c r="F22" s="342" t="s">
-        <v>919</v>
-      </c>
-      <c r="G22" s="342"/>
-      <c r="H22" s="342" t="s">
-        <v>920</v>
-      </c>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330">
-        <v>2</v>
-      </c>
-      <c r="K22" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="343"/>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B23" s="330"/>
-      <c r="C23" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D23" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E23" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F23" s="342" t="s">
-        <v>915</v>
-      </c>
-      <c r="G23" s="342"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330">
-        <v>3</v>
-      </c>
-      <c r="K23" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L23" s="343"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B24" s="330"/>
-      <c r="C24" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D24" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E24" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F24" s="342" t="s">
-        <v>916</v>
-      </c>
-      <c r="G24" s="342"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330">
-        <v>4</v>
-      </c>
-      <c r="K24" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" s="343"/>
-    </row>
-    <row r="25" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B25" s="330"/>
-      <c r="C25" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D25" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E25" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F25" s="342" t="s">
-        <v>913</v>
-      </c>
-      <c r="G25" s="342" t="s">
-        <v>685</v>
-      </c>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330">
-        <v>5</v>
-      </c>
-      <c r="K25" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L25" s="343"/>
-    </row>
-    <row r="26" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B26" s="330"/>
-      <c r="C26" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D26" s="333" t="s">
-        <v>923</v>
-      </c>
-      <c r="E26" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F26" s="342" t="s">
-        <v>914</v>
-      </c>
-      <c r="G26" s="342"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330">
-        <v>6</v>
-      </c>
-      <c r="K26" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L26" s="343"/>
-    </row>
-    <row r="27" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B27" s="460"/>
-      <c r="C27" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D27" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E27" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F27" s="462" t="s">
-        <v>963</v>
-      </c>
-      <c r="G27" s="462"/>
-      <c r="H27" s="460"/>
-      <c r="I27" s="460"/>
-      <c r="J27" s="460">
-        <v>7</v>
-      </c>
-      <c r="K27" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L27" s="463"/>
-    </row>
-    <row r="28" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B28" s="460"/>
-      <c r="C28" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D28" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E28" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F28" s="462" t="s">
-        <v>964</v>
-      </c>
-      <c r="G28" s="462"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="460"/>
-      <c r="J28" s="460">
-        <v>8</v>
-      </c>
-      <c r="K28" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L28" s="463"/>
-    </row>
-    <row r="29" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B29" s="460"/>
-      <c r="C29" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D29" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E29" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F29" s="462" t="s">
-        <v>965</v>
-      </c>
-      <c r="G29" s="462"/>
-      <c r="H29" s="460"/>
-      <c r="I29" s="460"/>
-      <c r="J29" s="460">
-        <v>9</v>
-      </c>
-      <c r="K29" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="463"/>
-    </row>
-    <row r="30" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B30" s="460"/>
-      <c r="C30" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D30" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E30" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F30" s="462" t="s">
-        <v>966</v>
-      </c>
-      <c r="G30" s="462"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="460"/>
-      <c r="J30" s="460">
-        <v>10</v>
-      </c>
-      <c r="K30" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" s="463"/>
-    </row>
-    <row r="31" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B31" s="460"/>
-      <c r="C31" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D31" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E31" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F31" s="462" t="s">
-        <v>967</v>
-      </c>
-      <c r="G31" s="462"/>
-      <c r="H31" s="460"/>
-      <c r="I31" s="460"/>
-      <c r="J31" s="460">
-        <v>11</v>
-      </c>
-      <c r="K31" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="463"/>
-    </row>
-    <row r="32" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B32" s="460"/>
-      <c r="C32" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D32" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E32" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F32" s="462" t="s">
-        <v>968</v>
-      </c>
-      <c r="G32" s="462"/>
-      <c r="H32" s="460"/>
-      <c r="I32" s="460"/>
-      <c r="J32" s="460">
-        <v>12</v>
-      </c>
-      <c r="K32" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L32" s="463"/>
-    </row>
-    <row r="33" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B33" s="460"/>
-      <c r="C33" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D33" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E33" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F33" s="462" t="s">
-        <v>969</v>
-      </c>
-      <c r="G33" s="462"/>
-      <c r="H33" s="460"/>
-      <c r="I33" s="460"/>
-      <c r="J33" s="460">
-        <v>13</v>
-      </c>
-      <c r="K33" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L33" s="463"/>
-    </row>
-    <row r="34" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B34" s="460"/>
-      <c r="C34" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D34" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E34" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F34" s="462" t="s">
-        <v>970</v>
-      </c>
-      <c r="G34" s="462"/>
-      <c r="H34" s="460"/>
-      <c r="I34" s="460"/>
-      <c r="J34" s="460">
-        <v>14</v>
-      </c>
-      <c r="K34" s="464" t="s">
-        <v>374</v>
-      </c>
-      <c r="L34" s="463"/>
-    </row>
-    <row r="35" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B35" s="460"/>
-      <c r="C35" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D35" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E35" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F35" s="462" t="s">
-        <v>971</v>
-      </c>
-      <c r="G35" s="462"/>
-      <c r="H35" s="460"/>
-      <c r="I35" s="460"/>
-      <c r="J35" s="460">
-        <v>15</v>
-      </c>
-      <c r="K35" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="463"/>
-    </row>
-    <row r="36" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B36" s="460"/>
-      <c r="C36" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D36" s="461" t="s">
-        <v>923</v>
-      </c>
-      <c r="E36" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F36" s="462" t="s">
-        <v>972</v>
-      </c>
-      <c r="G36" s="462"/>
-      <c r="H36" s="460"/>
-      <c r="I36" s="460"/>
-      <c r="J36" s="460">
-        <v>16</v>
-      </c>
-      <c r="K36" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="463"/>
-    </row>
-    <row r="37" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B37" s="330"/>
-      <c r="C37" s="333" t="s">
-        <v>907</v>
-      </c>
-      <c r="D37" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E37" s="341" t="s">
-        <v>908</v>
-      </c>
-      <c r="F37" s="342" t="s">
-        <v>917</v>
-      </c>
-      <c r="G37" s="342"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330">
-        <v>1</v>
-      </c>
-      <c r="K37" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L37" s="343"/>
-    </row>
-    <row r="38" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B38" s="330"/>
-      <c r="C38" s="333" t="s">
-        <v>907</v>
-      </c>
-      <c r="D38" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E38" s="341" t="s">
-        <v>908</v>
-      </c>
-      <c r="F38" s="342" t="s">
-        <v>919</v>
-      </c>
-      <c r="G38" s="342"/>
-      <c r="H38" s="342"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="330">
-        <v>2</v>
-      </c>
-      <c r="K38" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L38" s="343"/>
-    </row>
-    <row r="39" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B39" s="330"/>
-      <c r="C39" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D39" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E39" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F39" s="342" t="s">
-        <v>915</v>
-      </c>
-      <c r="G39" s="342"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="330">
-        <v>3</v>
-      </c>
-      <c r="K39" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L39" s="343"/>
-    </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B40" s="330"/>
-      <c r="C40" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D40" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E40" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F40" s="342" t="s">
-        <v>916</v>
-      </c>
-      <c r="G40" s="342"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330">
-        <v>4</v>
-      </c>
-      <c r="K40" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="343"/>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B41" s="330"/>
-      <c r="C41" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D41" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E41" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F41" s="342" t="s">
-        <v>913</v>
-      </c>
-      <c r="G41" s="342" t="s">
-        <v>693</v>
-      </c>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330">
-        <v>5</v>
-      </c>
-      <c r="K41" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="343"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="329">
-        <v>43101</v>
-      </c>
-      <c r="B42" s="330"/>
-      <c r="C42" s="333" t="s">
-        <v>912</v>
-      </c>
-      <c r="D42" s="333" t="s">
-        <v>924</v>
-      </c>
-      <c r="E42" s="341" t="s">
-        <v>909</v>
-      </c>
-      <c r="F42" s="342" t="s">
-        <v>914</v>
-      </c>
-      <c r="G42" s="342"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330">
-        <v>6</v>
-      </c>
-      <c r="K42" s="342" t="s">
-        <v>375</v>
-      </c>
-      <c r="L42" s="343"/>
-    </row>
-    <row r="43" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B43" s="460"/>
-      <c r="C43" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D43" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E43" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F43" s="462" t="s">
-        <v>963</v>
-      </c>
-      <c r="G43" s="462"/>
-      <c r="H43" s="460"/>
-      <c r="I43" s="460"/>
-      <c r="J43" s="460">
-        <v>7</v>
-      </c>
-      <c r="K43" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="463"/>
-    </row>
-    <row r="44" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B44" s="460"/>
-      <c r="C44" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D44" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E44" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F44" s="462" t="s">
-        <v>964</v>
-      </c>
-      <c r="G44" s="462"/>
-      <c r="H44" s="460"/>
-      <c r="I44" s="460"/>
-      <c r="J44" s="460">
-        <v>8</v>
-      </c>
-      <c r="K44" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L44" s="463"/>
-    </row>
-    <row r="45" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B45" s="460"/>
-      <c r="C45" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D45" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E45" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F45" s="462" t="s">
-        <v>965</v>
-      </c>
-      <c r="G45" s="462"/>
-      <c r="H45" s="460"/>
-      <c r="I45" s="460"/>
-      <c r="J45" s="460">
-        <v>9</v>
-      </c>
-      <c r="K45" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L45" s="463"/>
-    </row>
-    <row r="46" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B46" s="460"/>
-      <c r="C46" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D46" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E46" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F46" s="462" t="s">
-        <v>966</v>
-      </c>
-      <c r="G46" s="462"/>
-      <c r="H46" s="460"/>
-      <c r="I46" s="460"/>
-      <c r="J46" s="460">
-        <v>10</v>
-      </c>
-      <c r="K46" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L46" s="463"/>
-    </row>
-    <row r="47" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B47" s="460"/>
-      <c r="C47" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D47" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E47" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F47" s="462" t="s">
-        <v>967</v>
-      </c>
-      <c r="G47" s="462"/>
-      <c r="H47" s="460"/>
-      <c r="I47" s="460"/>
-      <c r="J47" s="460">
-        <v>11</v>
-      </c>
-      <c r="K47" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L47" s="463"/>
-    </row>
-    <row r="48" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B48" s="460"/>
-      <c r="C48" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D48" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E48" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F48" s="462" t="s">
-        <v>968</v>
-      </c>
-      <c r="G48" s="462"/>
-      <c r="H48" s="460"/>
-      <c r="I48" s="460"/>
-      <c r="J48" s="460">
-        <v>12</v>
-      </c>
-      <c r="K48" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L48" s="463"/>
-    </row>
-    <row r="49" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B49" s="460"/>
-      <c r="C49" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D49" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E49" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F49" s="462" t="s">
-        <v>969</v>
-      </c>
-      <c r="G49" s="462"/>
-      <c r="H49" s="460"/>
-      <c r="I49" s="460"/>
-      <c r="J49" s="460">
-        <v>13</v>
-      </c>
-      <c r="K49" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L49" s="463"/>
-    </row>
-    <row r="50" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B50" s="460"/>
-      <c r="C50" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D50" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E50" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F50" s="462" t="s">
-        <v>970</v>
-      </c>
-      <c r="G50" s="462"/>
-      <c r="H50" s="460"/>
-      <c r="I50" s="460"/>
-      <c r="J50" s="460">
-        <v>14</v>
-      </c>
-      <c r="K50" s="464" t="s">
-        <v>374</v>
-      </c>
-      <c r="L50" s="463"/>
-    </row>
-    <row r="51" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B51" s="460"/>
-      <c r="C51" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D51" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E51" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F51" s="462" t="s">
-        <v>971</v>
-      </c>
-      <c r="G51" s="462"/>
-      <c r="H51" s="460"/>
-      <c r="I51" s="460"/>
-      <c r="J51" s="460">
-        <v>15</v>
-      </c>
-      <c r="K51" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L51" s="463"/>
-    </row>
-    <row r="52" spans="1:12" s="403" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="459">
-        <v>43101</v>
-      </c>
-      <c r="B52" s="460"/>
-      <c r="C52" s="461" t="s">
-        <v>912</v>
-      </c>
-      <c r="D52" s="461" t="s">
-        <v>924</v>
-      </c>
-      <c r="E52" s="454" t="s">
-        <v>960</v>
-      </c>
-      <c r="F52" s="462" t="s">
-        <v>972</v>
-      </c>
-      <c r="G52" s="462"/>
-      <c r="H52" s="460"/>
-      <c r="I52" s="460"/>
-      <c r="J52" s="460">
-        <v>16</v>
-      </c>
-      <c r="K52" s="462" t="s">
-        <v>375</v>
-      </c>
-      <c r="L52" s="463"/>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B53" s="395"/>
-      <c r="C53" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D53" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F53" s="398" t="s">
-        <v>915</v>
-      </c>
-      <c r="G53" s="398"/>
-      <c r="H53" s="398"/>
-      <c r="I53" s="395"/>
-      <c r="J53" s="395">
-        <v>3</v>
-      </c>
-      <c r="K53" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L53" s="399"/>
-    </row>
-    <row r="54" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B54" s="395"/>
-      <c r="C54" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D54" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E54" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F54" s="398" t="s">
-        <v>916</v>
-      </c>
-      <c r="G54" s="398"/>
-      <c r="H54" s="398"/>
-      <c r="I54" s="395"/>
-      <c r="J54" s="395">
-        <v>4</v>
-      </c>
-      <c r="K54" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L54" s="399"/>
-    </row>
-    <row r="55" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B55" s="395"/>
-      <c r="C55" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D55" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E55" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F55" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G55" s="398" t="s">
-        <v>685</v>
-      </c>
-      <c r="H55" s="398"/>
-      <c r="I55" s="395"/>
-      <c r="J55" s="395">
-        <v>5</v>
-      </c>
-      <c r="K55" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L55" s="399"/>
-    </row>
-    <row r="56" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B56" s="395"/>
-      <c r="C56" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D56" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E56" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F56" s="398" t="s">
-        <v>914</v>
-      </c>
-      <c r="G56" s="398"/>
-      <c r="H56" s="398"/>
-      <c r="I56" s="395"/>
-      <c r="J56" s="395">
-        <v>6</v>
-      </c>
-      <c r="K56" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L56" s="399"/>
-    </row>
-    <row r="57" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B57" s="395"/>
-      <c r="C57" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D57" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E57" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F57" s="398" t="s">
-        <v>915</v>
-      </c>
-      <c r="G57" s="398"/>
-      <c r="H57" s="398"/>
-      <c r="I57" s="395"/>
-      <c r="J57" s="395">
-        <v>7</v>
-      </c>
-      <c r="K57" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L57" s="399"/>
-    </row>
-    <row r="58" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B58" s="395"/>
-      <c r="C58" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D58" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E58" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F58" s="398" t="s">
-        <v>916</v>
-      </c>
-      <c r="G58" s="398"/>
-      <c r="H58" s="398"/>
-      <c r="I58" s="395"/>
-      <c r="J58" s="395">
-        <v>8</v>
-      </c>
-      <c r="K58" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L58" s="399"/>
-    </row>
-    <row r="59" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B59" s="395"/>
-      <c r="C59" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D59" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E59" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F59" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G59" s="398" t="s">
-        <v>693</v>
-      </c>
-      <c r="H59" s="398"/>
-      <c r="I59" s="395"/>
-      <c r="J59" s="395">
-        <v>9</v>
-      </c>
-      <c r="K59" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L59" s="399"/>
-    </row>
-    <row r="60" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B60" s="395"/>
-      <c r="C60" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D60" s="396" t="s">
-        <v>392</v>
-      </c>
-      <c r="E60" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F60" s="398" t="s">
-        <v>914</v>
-      </c>
-      <c r="G60" s="398"/>
-      <c r="H60" s="398"/>
-      <c r="I60" s="395"/>
-      <c r="J60" s="395">
-        <v>10</v>
-      </c>
-      <c r="K60" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L60" s="399"/>
-    </row>
-    <row r="61" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B61" s="395"/>
-      <c r="C61" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D61" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E61" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F61" s="398" t="s">
-        <v>915</v>
-      </c>
-      <c r="G61" s="398"/>
-      <c r="H61" s="398"/>
-      <c r="I61" s="395"/>
-      <c r="J61" s="395">
-        <v>3</v>
-      </c>
-      <c r="K61" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L61" s="399"/>
-    </row>
-    <row r="62" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B62" s="395"/>
-      <c r="C62" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D62" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E62" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F62" s="398" t="s">
-        <v>916</v>
-      </c>
-      <c r="G62" s="398"/>
-      <c r="H62" s="398"/>
-      <c r="I62" s="395"/>
-      <c r="J62" s="395">
-        <v>4</v>
-      </c>
-      <c r="K62" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L62" s="399"/>
-    </row>
-    <row r="63" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B63" s="395"/>
-      <c r="C63" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D63" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E63" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F63" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G63" s="398" t="s">
-        <v>693</v>
-      </c>
-      <c r="H63" s="398"/>
-      <c r="I63" s="395"/>
-      <c r="J63" s="395">
-        <v>5</v>
-      </c>
-      <c r="K63" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L63" s="399"/>
-    </row>
-    <row r="64" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B64" s="395"/>
-      <c r="C64" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D64" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E64" s="397" t="s">
-        <v>937</v>
-      </c>
-      <c r="F64" s="398" t="s">
-        <v>914</v>
-      </c>
-      <c r="G64" s="398"/>
-      <c r="H64" s="398"/>
-      <c r="I64" s="395"/>
-      <c r="J64" s="395">
-        <v>6</v>
-      </c>
-      <c r="K64" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L64" s="399"/>
-    </row>
-    <row r="65" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B65" s="395"/>
-      <c r="C65" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D65" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E65" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F65" s="398" t="s">
-        <v>915</v>
-      </c>
-      <c r="G65" s="398"/>
-      <c r="H65" s="398"/>
-      <c r="I65" s="395"/>
-      <c r="J65" s="395">
-        <v>7</v>
-      </c>
-      <c r="K65" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L65" s="399"/>
-    </row>
-    <row r="66" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B66" s="395"/>
-      <c r="C66" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D66" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E66" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F66" s="398" t="s">
-        <v>916</v>
-      </c>
-      <c r="G66" s="398"/>
-      <c r="H66" s="398"/>
-      <c r="I66" s="395"/>
-      <c r="J66" s="395">
-        <v>8</v>
-      </c>
-      <c r="K66" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L66" s="399"/>
-    </row>
-    <row r="67" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B67" s="395"/>
-      <c r="C67" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D67" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E67" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F67" s="398" t="s">
-        <v>913</v>
-      </c>
-      <c r="G67" s="398" t="s">
-        <v>685</v>
-      </c>
-      <c r="H67" s="398"/>
-      <c r="I67" s="395"/>
-      <c r="J67" s="395">
-        <v>9</v>
-      </c>
-      <c r="K67" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L67" s="399"/>
-    </row>
-    <row r="68" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="394">
-        <v>43983</v>
-      </c>
-      <c r="B68" s="395"/>
-      <c r="C68" s="396" t="s">
-        <v>935</v>
-      </c>
-      <c r="D68" s="396" t="s">
-        <v>941</v>
-      </c>
-      <c r="E68" s="397" t="s">
-        <v>938</v>
-      </c>
-      <c r="F68" s="398" t="s">
-        <v>914</v>
-      </c>
-      <c r="G68" s="398"/>
-      <c r="H68" s="398"/>
-      <c r="I68" s="395"/>
-      <c r="J68" s="395">
-        <v>10</v>
-      </c>
-      <c r="K68" s="398" t="s">
-        <v>375</v>
-      </c>
-      <c r="L68" s="399"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="118" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="118" t="s">
-        <v>344</v>
-      </c>
-      <c r="G69" s="118"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84">
-        <v>1</v>
-      </c>
-      <c r="K69" s="118" t="s">
-        <v>389</v>
-      </c>
-      <c r="L69" s="217" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" s="118" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="118" t="s">
-        <v>341</v>
-      </c>
-      <c r="G70" s="118"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84">
-        <v>1</v>
-      </c>
-      <c r="K70" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="L70" s="217" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E71" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="118"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84">
-        <v>1</v>
-      </c>
-      <c r="K71" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L71" s="63"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E72" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="118" t="s">
-        <v>328</v>
-      </c>
-      <c r="G72" s="118"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84">
-        <v>1</v>
-      </c>
-      <c r="K72" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L72" s="63"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E73" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="G73" s="118"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84">
-        <v>2</v>
-      </c>
-      <c r="K73" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L73" s="63"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B74" s="84"/>
-      <c r="C74" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="E74" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F74" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="G74" s="118"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84">
-        <v>1</v>
-      </c>
-      <c r="K74" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L74" s="63"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="E75" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="118" t="s">
-        <v>328</v>
-      </c>
-      <c r="G75" s="118"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84">
-        <v>1</v>
-      </c>
-      <c r="K75" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L75" s="63"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="E76" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="F76" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="118"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84">
-        <v>2</v>
-      </c>
-      <c r="K76" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L76" s="63"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="237">
-        <v>43101</v>
-      </c>
-      <c r="B77" s="84"/>
-      <c r="C77" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="E77" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="G77" s="118"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84">
-        <v>1</v>
-      </c>
-      <c r="K77" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="L77" s="63"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="238">
-        <v>43101</v>
-      </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="E78" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" s="239" t="s">
-        <v>328</v>
-      </c>
-      <c r="G78" s="239"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90">
-        <v>1</v>
-      </c>
-      <c r="K78" s="239" t="s">
-        <v>374</v>
-      </c>
-      <c r="L78" s="91"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="58" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9FF7A-5B8F-7A4A-9A07-6A9A03F4BFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0B9E3-FD11-E043-AF9E-D9404BD76E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="1008">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3150,9 +3150,6 @@
     <t>Postcode</t>
   </si>
   <si>
-    <t>NoCChallengeQ4</t>
-  </si>
-  <si>
     <t>Collections</t>
   </si>
   <si>
@@ -3160,6 +3157,12 @@
   </si>
   <si>
     <t>CollectionsQ1</t>
+  </si>
+  <si>
+    <t>NoCChallengeGroup2</t>
+  </si>
+  <si>
+    <t>NoCChallengeG2Q1</t>
   </si>
 </sst>
 </file>
@@ -3928,7 +3931,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5194,9 +5197,6 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -33233,7 +33233,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33581,7 +33581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -36385,10 +36385,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -36519,6 +36519,20 @@
         <v>694</v>
       </c>
       <c r="D9" s="401" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B10" s="401" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="401" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="401" t="s">
         <v>695</v>
       </c>
     </row>
@@ -38573,7 +38587,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39385,13 +39399,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC343D0E-808F-8348-B776-EC7A2F9FD0AC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="482" t="s">
         <v>983</v>
       </c>
@@ -39409,261 +39436,215 @@
       <c r="G1" s="486"/>
       <c r="H1" s="486"/>
       <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-    </row>
-    <row r="2" spans="1:10" ht="168" x14ac:dyDescent="0.15">
-      <c r="A2" s="487"/>
+    </row>
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A2" s="487" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="488" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="489" t="s">
+      <c r="C2" s="488" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="488" t="s">
+        <v>657</v>
+      </c>
       <c r="E2" s="489" t="s">
-        <v>657</v>
-      </c>
-      <c r="F2" s="490" t="s">
         <v>984</v>
       </c>
+      <c r="F2" s="489" t="s">
+        <v>985</v>
+      </c>
       <c r="G2" s="490" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2" s="491" t="s">
-        <v>986</v>
-      </c>
-      <c r="I2" s="492" t="s">
         <v>987</v>
       </c>
-      <c r="J2" s="490"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="493"/>
+      <c r="I2" s="489"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="492" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="493" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="494" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="494" t="s">
+      <c r="C3" s="493" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="D3" s="493" t="s">
         <v>400</v>
       </c>
+      <c r="E3" s="493" t="s">
+        <v>988</v>
+      </c>
       <c r="F3" s="494" t="s">
-        <v>988</v>
-      </c>
-      <c r="G3" s="495" t="s">
         <v>989</v>
       </c>
-      <c r="H3" s="495" t="s">
+      <c r="G3" s="494" t="s">
         <v>454</v>
       </c>
-      <c r="I3" s="495" t="s">
+      <c r="H3" s="494" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="495" t="s">
+      <c r="I3" s="494" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.15">
-      <c r="A4" s="496"/>
-      <c r="B4" s="496"/>
+    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="495"/>
+      <c r="B4" s="17" t="s">
+        <v>922</v>
+      </c>
       <c r="C4" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="D4" s="486">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="F4" s="305" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="486" t="s">
+        <v>849</v>
+      </c>
+      <c r="H4" s="496" t="s">
+        <v>993</v>
+      </c>
+      <c r="I4" s="486" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="495"/>
+      <c r="B5" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="E4" s="486">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="G4" s="305" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="486" t="s">
+      <c r="D5" s="486">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="F5" s="305" t="s">
+        <v>788</v>
+      </c>
+      <c r="G5" s="486" t="s">
         <v>849</v>
       </c>
-      <c r="I4" s="497" t="s">
-        <v>993</v>
-      </c>
-      <c r="J4" s="486" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.15">
-      <c r="A5" s="496"/>
-      <c r="B5" s="496"/>
-      <c r="C5" s="17" t="s">
+      <c r="H5" s="496" t="s">
+        <v>996</v>
+      </c>
+      <c r="I5" s="486" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="495"/>
+      <c r="B6" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="E5" s="486">
+      <c r="D6" s="486">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="G5" s="305" t="s">
+      <c r="E6" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="F6" s="305" t="s">
         <v>788</v>
       </c>
-      <c r="H5" s="486" t="s">
+      <c r="G6" s="486" t="s">
         <v>849</v>
       </c>
-      <c r="I5" s="497" t="s">
-        <v>996</v>
-      </c>
-      <c r="J5" s="486" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A6" s="496"/>
-      <c r="B6" s="496"/>
-      <c r="C6" s="17" t="s">
+      <c r="H6" s="496" t="s">
+        <v>999</v>
+      </c>
+      <c r="I6" s="486" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="495"/>
+      <c r="B7" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="E6" s="486">
+      <c r="C7" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="486">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="G6" s="305" t="s">
-        <v>788</v>
-      </c>
-      <c r="H6" s="486" t="s">
-        <v>849</v>
-      </c>
-      <c r="I6" s="497" t="s">
+      <c r="E7" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="305" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="486"/>
+      <c r="H7" s="496" t="s">
         <v>999</v>
       </c>
-      <c r="J6" s="486" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A7" s="496"/>
-      <c r="B7" s="496"/>
-      <c r="C7" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="E7" s="486">
+      <c r="I7" s="486" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="495"/>
+      <c r="B8" s="497" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="G7" s="305" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H7" s="486"/>
-      <c r="I7" s="497" t="s">
-        <v>999</v>
-      </c>
-      <c r="J7" s="486" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="496"/>
-      <c r="B8" s="496"/>
-      <c r="C8" s="494"/>
-      <c r="D8" s="486"/>
-      <c r="E8" s="486"/>
-      <c r="F8" s="486"/>
+      <c r="F8" s="486" t="s">
+        <v>56</v>
+      </c>
       <c r="G8" s="486"/>
-      <c r="H8" s="486"/>
-      <c r="I8" s="486"/>
-      <c r="J8" s="486"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="496"/>
-      <c r="B9" s="496"/>
+      <c r="H8" s="496" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I8" s="486" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="486"/>
-      <c r="E9" s="490"/>
-      <c r="F9" s="486"/>
-      <c r="G9" s="486"/>
-      <c r="H9" s="486"/>
-      <c r="I9" s="486"/>
-      <c r="J9" s="486"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="496"/>
-      <c r="B10" s="496"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="486"/>
-      <c r="E10" s="494"/>
-      <c r="F10" s="486"/>
-      <c r="G10" s="486"/>
-      <c r="H10" s="486"/>
-      <c r="I10" s="486"/>
-      <c r="J10" s="486"/>
-    </row>
-    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A11" s="496"/>
-      <c r="B11" s="496"/>
-      <c r="C11" s="498" t="s">
-        <v>881</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G11" s="486" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="486"/>
-      <c r="I11" s="497" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J11" s="486" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39675,8 +39656,8 @@
   <dimension ref="A1:IO132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0B9E3-FD11-E043-AF9E-D9404BD76E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE7CFA-DB1B-AA41-82A1-E014FE4C5D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,30 +18,34 @@
     <sheet name="CaseType" sheetId="2" r:id="rId3"/>
     <sheet name="NoticeOfChangeConfig" sheetId="24" r:id="rId4"/>
     <sheet name="Category" sheetId="23" r:id="rId5"/>
-    <sheet name="ChallengeQuestion" sheetId="25" r:id="rId6"/>
-    <sheet name="CaseField" sheetId="3" r:id="rId7"/>
-    <sheet name="ComplexTypes" sheetId="4" r:id="rId8"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId9"/>
-    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId10"/>
-    <sheet name="FixedLists" sheetId="5" r:id="rId11"/>
-    <sheet name="CaseTypeTab" sheetId="6" r:id="rId12"/>
-    <sheet name="State" sheetId="7" r:id="rId13"/>
-    <sheet name="CaseEvent" sheetId="8" r:id="rId14"/>
-    <sheet name="CaseEventToFields" sheetId="9" r:id="rId15"/>
-    <sheet name="SearchInputFields" sheetId="10" r:id="rId16"/>
-    <sheet name="SearchResultFields" sheetId="11" r:id="rId17"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId18"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId19"/>
-    <sheet name="UserProfile" sheetId="14" r:id="rId20"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId21"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId22"/>
-    <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
+    <sheet name="SearchCasesResultFields" sheetId="26" r:id="rId6"/>
+    <sheet name="ChallengeQuestion" sheetId="25" r:id="rId7"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId8"/>
+    <sheet name="ComplexTypes" sheetId="4" r:id="rId9"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId10"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId11"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId12"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId13"/>
+    <sheet name="State" sheetId="7" r:id="rId14"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId15"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId16"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId17"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId18"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId19"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId20"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId21"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId22"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId23"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId24"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId25"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId26"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId27"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">CaseEvent!$A$22:$T$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CaseField!$A$3:$IO$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">CaseEvent!$A$22:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseField!$A$3:$IO$119</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="1015">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3163,6 +3167,27 @@
   </si>
   <si>
     <t>NoCChallengeG2Q1</t>
+  </si>
+  <si>
+    <t>orgcases</t>
+  </si>
+  <si>
+    <t>`CaseReference` orgcases</t>
+  </si>
+  <si>
+    <t>`Email` orgcases</t>
+  </si>
+  <si>
+    <t>1:ASC</t>
+  </si>
+  <si>
+    <t>`Text` orgcases</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>SearchCasesResultFields</t>
   </si>
 </sst>
 </file>
@@ -3175,7 +3200,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3629,6 +3654,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -3746,7 +3784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3913,8 +3951,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3930,8 +3983,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5220,8 +5274,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="15" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -5237,6 +5298,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
+    <cellStyle name="Normal 3" xfId="15" xr:uid="{740B127F-765C-6B48-8069-14FF6FB13A4B}"/>
   </cellStyles>
   <dxfs count="313">
     <dxf>
@@ -12646,6 +12708,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Jurisdiction"/>
+      <sheetName val="CaseType"/>
+      <sheetName val="CaseField"/>
+      <sheetName val="FixedLists"/>
+      <sheetName val="ComplexTypes"/>
+      <sheetName val="State"/>
+      <sheetName val="CaseEvent"/>
+      <sheetName val="CaseEventToFields"/>
+      <sheetName val="SearchInputFields"/>
+      <sheetName val="SearchCasesResultFields"/>
+      <sheetName val="SearchResultFields"/>
+      <sheetName val="WorkBasketInputFields"/>
+      <sheetName val="WorkBasketResultFields"/>
+      <sheetName val="CaseTypeTab"/>
+      <sheetName val="UserProfile"/>
+      <sheetName val="AuthorisationCaseType"/>
+      <sheetName val="AuthorisationCaseState"/>
+      <sheetName val="AuthorisationCaseEvent"/>
+      <sheetName val="AuthorisationCaseField"/>
+      <sheetName val="AuthorisationComplexType"/>
+      <sheetName val="SearchAlias"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14204,6 +14319,887 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.15">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="251" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="251" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="251" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="251" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="252" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D4" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G4" s="244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D5" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G5" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D6" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G6" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D7" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G7" s="244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D8" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G8" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D9" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G9" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D10" s="196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G10" s="244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G11" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G12" s="244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="197" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G13" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G14" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="197" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G15" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G16" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G17" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G18" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G19" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="196"/>
+      <c r="C20" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D20" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G20" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G21" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G22" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G23" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="196"/>
+      <c r="C24" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D24" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G24" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D25" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G25" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="196"/>
+      <c r="C26" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G26" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G27" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D28" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G28" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G29" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G30" s="245" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G31" s="245" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="243">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="196"/>
+      <c r="C32" s="196" t="s">
+        <v>887</v>
+      </c>
+      <c r="D32" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>776</v>
+      </c>
+      <c r="G32" s="245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="246">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127" t="s">
+        <v>892</v>
+      </c>
+      <c r="D33" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" s="118" t="s">
+        <v>778</v>
+      </c>
+      <c r="G33" s="119" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="246">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127" t="s">
+        <v>892</v>
+      </c>
+      <c r="D34" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" s="118" t="s">
+        <v>777</v>
+      </c>
+      <c r="G34" s="119" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="246">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="127"/>
+      <c r="C35" s="214" t="s">
+        <v>892</v>
+      </c>
+      <c r="D35" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>778</v>
+      </c>
+      <c r="G35" s="119" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="247">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="248"/>
+      <c r="C36" s="248" t="s">
+        <v>892</v>
+      </c>
+      <c r="D36" s="249" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="90" t="s">
+        <v>777</v>
+      </c>
+      <c r="G36" s="125" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="335">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="337"/>
+      <c r="C37" s="331" t="s">
+        <v>922</v>
+      </c>
+      <c r="D37" s="353" t="s">
+        <v>909</v>
+      </c>
+      <c r="E37" s="293" t="s">
+        <v>913</v>
+      </c>
+      <c r="F37" s="354" t="s">
+        <v>776</v>
+      </c>
+      <c r="G37" s="355" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="336">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="334"/>
+      <c r="C38" s="331" t="s">
+        <v>922</v>
+      </c>
+      <c r="D38" s="353" t="s">
+        <v>909</v>
+      </c>
+      <c r="E38" s="293" t="s">
+        <v>914</v>
+      </c>
+      <c r="F38" s="354" t="s">
+        <v>776</v>
+      </c>
+      <c r="G38" s="355" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="335">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="337"/>
+      <c r="C39" s="331" t="s">
+        <v>922</v>
+      </c>
+      <c r="D39" s="353" t="s">
+        <v>909</v>
+      </c>
+      <c r="E39" s="293" t="s">
+        <v>907</v>
+      </c>
+      <c r="F39" s="354" t="s">
+        <v>776</v>
+      </c>
+      <c r="G39" s="355" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="335">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="337"/>
+      <c r="C40" s="331" t="s">
+        <v>922</v>
+      </c>
+      <c r="D40" s="353" t="s">
+        <v>909</v>
+      </c>
+      <c r="E40" s="293" t="s">
+        <v>915</v>
+      </c>
+      <c r="F40" s="354" t="s">
+        <v>776</v>
+      </c>
+      <c r="G40" s="355" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="338">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="339"/>
+      <c r="C41" s="340" t="s">
+        <v>922</v>
+      </c>
+      <c r="D41" s="332" t="s">
+        <v>909</v>
+      </c>
+      <c r="E41" s="333" t="s">
+        <v>916</v>
+      </c>
+      <c r="F41" s="356" t="s">
+        <v>776</v>
+      </c>
+      <c r="G41" s="357" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
@@ -16466,7 +17462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -16993,7 +17989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR67"/>
   <sheetViews>
@@ -19373,7 +20369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FH30"/>
   <sheetViews>
@@ -20214,7 +21210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -22048,7 +23044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
@@ -28639,7 +29635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -29657,7 +30653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:DS35"/>
   <sheetViews>
@@ -30644,7 +31640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -31682,7 +32678,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87C05-4433-0B47-8359-B17D583CFB7A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="257" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" s="258" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="258" t="s">
+        <v>715</v>
+      </c>
+      <c r="D3" s="259" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="260" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="261" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="262" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{76901EAB-8C8D-2C4E-B48C-A34C7A0DEE7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL53"/>
   <sheetViews>
@@ -32976,127 +34092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87C05-4433-0B47-8359-B17D583CFB7A}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="257" t="s">
-        <v>713</v>
-      </c>
-      <c r="B3" s="258" t="s">
-        <v>714</v>
-      </c>
-      <c r="C3" s="258" t="s">
-        <v>715</v>
-      </c>
-      <c r="D3" s="259" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="261" t="s">
-        <v>717</v>
-      </c>
-      <c r="C4" s="261" t="s">
-        <v>718</v>
-      </c>
-      <c r="D4" s="262" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{76901EAB-8C8D-2C4E-B48C-A34C7A0DEE7E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -33228,7 +34224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -33577,7 +34573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -36383,7 +37379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -36544,7 +37540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:EK50"/>
   <sheetViews>
@@ -37746,7 +38742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF36"/>
   <sheetViews>
@@ -39398,11 +40394,169 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590FB9C5-F50E-214B-A54B-0633B3E45C3F}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" style="498" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="498" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="498" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="498" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="498" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="498" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="498" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="498" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="498" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="498" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="498"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="504" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="503" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="503" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="503" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="503" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="503" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="503" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="503" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="503" t="s">
+        <v>874</v>
+      </c>
+      <c r="J3" s="503" t="s">
+        <v>454</v>
+      </c>
+      <c r="K3" s="503" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="501">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="501">
+        <v>42736</v>
+      </c>
+      <c r="C4" s="498" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4" s="499"/>
+      <c r="E4" s="498" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="500" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H4" s="498">
+        <v>1</v>
+      </c>
+      <c r="I4" s="502" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K4" s="499" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="501">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="501">
+        <v>42736</v>
+      </c>
+      <c r="C5" s="498" t="s">
+        <v>882</v>
+      </c>
+      <c r="E5" s="498" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="500" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H5" s="498">
+        <v>2</v>
+      </c>
+      <c r="K5" s="499" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="501">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="501">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="498" t="s">
+        <v>882</v>
+      </c>
+      <c r="E6" s="498" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" s="500" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H6" s="498">
+        <v>3</v>
+      </c>
+      <c r="K6" s="499" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:B6" xr:uid="{55AA11B3-7BE7-9B49-898D-8FBAB83ED961}">
+      <formula1>42736</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{A39E125B-D4A5-5B42-A9C3-D2C963D285C3}">
+          <x14:formula1>
+            <xm:f>'/Users/dev/Documents/Definition Files/[RDM-8509.xlsx]CaseField'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC343D0E-808F-8348-B776-EC7A2F9FD0AC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -39556,7 +40710,7 @@
         <v>991</v>
       </c>
       <c r="D6" s="486">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>998</v>
@@ -39583,7 +40737,7 @@
         <v>1006</v>
       </c>
       <c r="D7" s="486">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1001</v>
@@ -39608,7 +40762,7 @@
         <v>1003</v>
       </c>
       <c r="D8" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>1001</v>
@@ -39651,7 +40805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO132"/>
   <sheetViews>
@@ -46804,7 +47958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
@@ -49589,885 +50743,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="250" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="251" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="251" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="251" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="251" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="252" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D4" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G4" s="244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D5" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G5" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D6" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G6" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G7" s="244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D8" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G8" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D9" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G9" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D10" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G10" s="244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D11" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="197" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G11" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="197" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G12" s="244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D13" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="197" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G13" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D14" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G14" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="197" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G15" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>341</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G16" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D17" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G17" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G18" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D19" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G19" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G20" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D21" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G21" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D22" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G22" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D23" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G23" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G24" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D25" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G25" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="196"/>
-      <c r="C26" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D26" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G26" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G27" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D28" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G28" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D29" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G29" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D30" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G30" s="245" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G31" s="245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="243">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="196"/>
-      <c r="C32" s="196" t="s">
-        <v>887</v>
-      </c>
-      <c r="D32" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>776</v>
-      </c>
-      <c r="G32" s="245" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="246">
-        <v>42736</v>
-      </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127" t="s">
-        <v>892</v>
-      </c>
-      <c r="D33" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="F33" s="118" t="s">
-        <v>778</v>
-      </c>
-      <c r="G33" s="119" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="246">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127" t="s">
-        <v>892</v>
-      </c>
-      <c r="D34" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="F34" s="118" t="s">
-        <v>777</v>
-      </c>
-      <c r="G34" s="119" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="246">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="214" t="s">
-        <v>892</v>
-      </c>
-      <c r="D35" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>778</v>
-      </c>
-      <c r="G35" s="119" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="247">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="248"/>
-      <c r="C36" s="248" t="s">
-        <v>892</v>
-      </c>
-      <c r="D36" s="249" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="90" t="s">
-        <v>777</v>
-      </c>
-      <c r="G36" s="125" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="335">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="337"/>
-      <c r="C37" s="331" t="s">
-        <v>922</v>
-      </c>
-      <c r="D37" s="353" t="s">
-        <v>909</v>
-      </c>
-      <c r="E37" s="293" t="s">
-        <v>913</v>
-      </c>
-      <c r="F37" s="354" t="s">
-        <v>776</v>
-      </c>
-      <c r="G37" s="355" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="336">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="334"/>
-      <c r="C38" s="331" t="s">
-        <v>922</v>
-      </c>
-      <c r="D38" s="353" t="s">
-        <v>909</v>
-      </c>
-      <c r="E38" s="293" t="s">
-        <v>914</v>
-      </c>
-      <c r="F38" s="354" t="s">
-        <v>776</v>
-      </c>
-      <c r="G38" s="355" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="335">
-        <v>42736</v>
-      </c>
-      <c r="B39" s="337"/>
-      <c r="C39" s="331" t="s">
-        <v>922</v>
-      </c>
-      <c r="D39" s="353" t="s">
-        <v>909</v>
-      </c>
-      <c r="E39" s="293" t="s">
-        <v>907</v>
-      </c>
-      <c r="F39" s="354" t="s">
-        <v>776</v>
-      </c>
-      <c r="G39" s="355" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="335">
-        <v>42736</v>
-      </c>
-      <c r="B40" s="337"/>
-      <c r="C40" s="331" t="s">
-        <v>922</v>
-      </c>
-      <c r="D40" s="353" t="s">
-        <v>909</v>
-      </c>
-      <c r="E40" s="293" t="s">
-        <v>915</v>
-      </c>
-      <c r="F40" s="354" t="s">
-        <v>776</v>
-      </c>
-      <c r="G40" s="355" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="292" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="338">
-        <v>42736</v>
-      </c>
-      <c r="B41" s="339"/>
-      <c r="C41" s="340" t="s">
-        <v>922</v>
-      </c>
-      <c r="D41" s="332" t="s">
-        <v>909</v>
-      </c>
-      <c r="E41" s="333" t="s">
-        <v>916</v>
-      </c>
-      <c r="F41" s="356" t="s">
-        <v>776</v>
-      </c>
-      <c r="G41" s="357" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF45DF8-DB8B-6F49-9003-5E9494DA3370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F49D13-3C2F-1A45-BBD4-3FB9859FE301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="981">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3079,13 +3079,7 @@
     <t>RetainHiddenValue</t>
   </si>
   <si>
-    <t>MotherFullName="Mary"</t>
-  </si>
-  <si>
     <t>Homeless="no"</t>
-  </si>
-  <si>
-    <t>ChildFullName="Jack"</t>
   </si>
 </sst>
 </file>
@@ -19630,8 +19624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C126" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" topLeftCell="D15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20862,7 +20856,7 @@
       </c>
       <c r="K30" s="81"/>
       <c r="L30" s="81" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M30" s="81" t="b">
         <v>1</v>
@@ -20906,7 +20900,7 @@
       </c>
       <c r="K31" s="81"/>
       <c r="L31" s="81" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M31" s="81" t="b">
         <v>1</v>
@@ -44118,8 +44112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77:M78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45047,12 +45041,8 @@
       <c r="H26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="I26" s="62" t="s">
-        <v>982</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="62" t="s">
@@ -45087,12 +45077,8 @@
       <c r="H27" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I27" s="62" t="s">
-        <v>982</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
       <c r="M27" s="62" t="s">
@@ -45369,12 +45355,8 @@
       <c r="H35" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="I35" s="62" t="s">
-        <v>980</v>
-      </c>
-      <c r="J35" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
       <c r="M35" s="62" t="s">
@@ -45409,12 +45391,8 @@
       <c r="H36" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="I36" s="62" t="s">
-        <v>980</v>
-      </c>
-      <c r="J36" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
       <c r="M36" s="62" t="s">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1678B93B-63C5-454A-9F6B-2156EDC18778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F9D2AB-2B9D-6B46-A2C2-608B88F731A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19980" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1062">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3293,6 +3293,42 @@
   </si>
   <si>
     <t>CollectionsQ1</t>
+  </si>
+  <si>
+    <t>CaseType for testing Conditional event post state</t>
+  </si>
+  <si>
+    <t>Update case</t>
+  </si>
+  <si>
+    <t>CaseAmended</t>
+  </si>
+  <si>
+    <t>Amend case</t>
+  </si>
+  <si>
+    <t>CaseRevoked</t>
+  </si>
+  <si>
+    <t>Revoke case</t>
+  </si>
+  <si>
+    <t>CaseDeleted</t>
+  </si>
+  <si>
+    <t>Delete case</t>
+  </si>
+  <si>
+    <t>CaseUpdated(TextField="updated" AND EmailField="*"):1;CaseAmended(TextField="amended" AND EmailField="*"):2;CaseRevoked(TextField="revoked" AND EmailField="*"):3;CaseDeleted</t>
+  </si>
+  <si>
+    <t>Conditional event post state page</t>
+  </si>
+  <si>
+    <t>FT_ConditionalPostState</t>
+  </si>
+  <si>
+    <t>FT-Conditional Post State</t>
   </si>
 </sst>
 </file>
@@ -3783,7 +3819,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3896,6 +3932,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -4111,7 +4153,7 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="543">
+  <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5505,6 +5547,68 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -13001,7 +13105,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L68" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L69" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="183"/>
     <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="182"/>
@@ -13065,7 +13169,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R173" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R184" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="128"/>
     <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="127"/>
@@ -13194,7 +13298,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F158" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F169" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
@@ -13220,7 +13324,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F57" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F59" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
@@ -13234,7 +13338,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F41" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
@@ -13277,7 +13381,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M136" totalsRowShown="0" headerRowDxfId="271" dataDxfId="269" headerRowBorderDxfId="270" tableBorderDxfId="268" totalsRowBorderDxfId="267">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:M147" totalsRowShown="0" headerRowDxfId="271" dataDxfId="269" headerRowBorderDxfId="270" tableBorderDxfId="268" totalsRowBorderDxfId="267">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="266"/>
     <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="265"/>
@@ -15302,10 +15406,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CR68"/>
+  <dimension ref="A1:CR69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17495,39 +17599,76 @@
       <c r="R67" s="17"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:19" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="421">
+    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="67">
+        <v>42745</v>
+      </c>
+      <c r="B68" s="299"/>
+      <c r="C68" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="F68" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="G68" s="17">
+        <v>1</v>
+      </c>
+      <c r="H68" s="293" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1</v>
+      </c>
+      <c r="J68" s="299"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+    </row>
+    <row r="69" spans="1:19" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="421">
         <v>42744</v>
       </c>
-      <c r="B68" s="486"/>
-      <c r="C68" s="486" t="s">
+      <c r="B69" s="486"/>
+      <c r="C69" s="486" t="s">
         <v>983</v>
       </c>
-      <c r="D68" s="491" t="s">
+      <c r="D69" s="491" t="s">
         <v>455</v>
       </c>
-      <c r="E68" s="486" t="s">
+      <c r="E69" s="486" t="s">
         <v>457</v>
       </c>
-      <c r="F68" s="486" t="s">
+      <c r="F69" s="486" t="s">
         <v>990</v>
       </c>
-      <c r="G68" s="486">
+      <c r="G69" s="486">
         <v>1</v>
       </c>
-      <c r="H68" s="486" t="s">
+      <c r="H69" s="486" t="s">
         <v>991</v>
       </c>
-      <c r="I68" s="486">
+      <c r="I69" s="486">
         <v>1</v>
       </c>
-      <c r="J68" s="486"/>
-      <c r="K68" s="486"/>
-      <c r="L68" s="492"/>
+      <c r="J69" s="486"/>
+      <c r="K69" s="486"/>
+      <c r="L69" s="492"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I58:I67 G58:G67" xr:uid="{5BF06C15-BA32-9342-A8C0-880EAE9CE63E}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G58:G68 I58:I68" xr:uid="{5BF06C15-BA32-9342-A8C0-880EAE9CE63E}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -17544,10 +17685,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:FH31"/>
+  <dimension ref="A1:FH36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18366,25 +18507,125 @@
       </c>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:164" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="462">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="469"/>
-      <c r="C31" s="469" t="s">
+    <row r="31" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="81"/>
+      <c r="G31" s="80">
+        <v>1</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:164" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F32" s="81"/>
+      <c r="G32" s="80">
+        <v>1</v>
+      </c>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F33" s="81"/>
+      <c r="G33" s="80">
+        <v>1</v>
+      </c>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="G34" s="80">
+        <v>1</v>
+      </c>
+      <c r="H34" s="64"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F35" s="81"/>
+      <c r="G35" s="80">
+        <v>1</v>
+      </c>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="469"/>
+      <c r="C36" s="469" t="s">
         <v>983</v>
       </c>
-      <c r="D31" s="469" t="s">
+      <c r="D36" s="469" t="s">
         <v>489</v>
       </c>
-      <c r="E31" s="469" t="s">
+      <c r="E36" s="469" t="s">
         <v>490</v>
       </c>
-      <c r="F31" s="469"/>
-      <c r="G31" s="469">
+      <c r="F36" s="469"/>
+      <c r="G36" s="469">
         <v>1</v>
       </c>
-      <c r="H31" s="469"/>
+      <c r="H36" s="469"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -18405,10 +18646,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20216,85 +20457,87 @@
       <c r="S42" s="478"/>
       <c r="T42" s="479"/>
     </row>
-    <row r="43" spans="1:20" s="481" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="480">
-        <v>42739</v>
-      </c>
-      <c r="B43" s="459"/>
-      <c r="C43" s="459" t="s">
-        <v>983</v>
-      </c>
-      <c r="D43" s="459" t="s">
-        <v>996</v>
-      </c>
-      <c r="E43" s="459" t="s">
-        <v>997</v>
-      </c>
-      <c r="F43" s="519" t="s">
-        <v>997</v>
-      </c>
-      <c r="G43" s="459">
-        <v>7</v>
-      </c>
-      <c r="H43" s="459"/>
-      <c r="I43" s="459" t="s">
+    <row r="43" spans="1:20" s="389" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="543">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="544"/>
+      <c r="C43" s="544" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D43" s="551" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" s="551" t="s">
+        <v>531</v>
+      </c>
+      <c r="F43" s="545" t="s">
+        <v>531</v>
+      </c>
+      <c r="G43" s="546">
+        <v>1</v>
+      </c>
+      <c r="H43" s="547"/>
+      <c r="I43" s="547" t="s">
         <v>489</v>
       </c>
-      <c r="J43" s="459"/>
-      <c r="K43" s="459"/>
-      <c r="L43" s="459"/>
-      <c r="M43" s="459"/>
-      <c r="N43" s="459"/>
-      <c r="O43" s="459"/>
-      <c r="P43" s="471" t="s">
+      <c r="J43" s="548"/>
+      <c r="K43" s="548"/>
+      <c r="L43" s="548"/>
+      <c r="M43" s="548"/>
+      <c r="N43" s="548"/>
+      <c r="O43" s="548"/>
+      <c r="P43" s="547" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="471" t="s">
+      <c r="Q43" s="547" t="s">
         <v>533</v>
       </c>
-      <c r="R43" s="459"/>
-      <c r="S43" s="459"/>
-      <c r="T43" s="459"/>
-    </row>
-    <row r="44" spans="1:20" s="481" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="480">
-        <v>42739</v>
-      </c>
-      <c r="B44" s="459"/>
-      <c r="C44" s="459" t="s">
-        <v>983</v>
-      </c>
-      <c r="D44" s="459" t="s">
-        <v>998</v>
-      </c>
-      <c r="E44" s="459" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F44" s="519" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G44" s="459">
-        <v>6</v>
-      </c>
-      <c r="H44" s="459"/>
-      <c r="I44" s="459" t="s">
+      <c r="R43" s="549"/>
+      <c r="S43" s="549"/>
+      <c r="T43" s="550"/>
+    </row>
+    <row r="44" spans="1:20" s="389" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="543">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="544"/>
+      <c r="C44" s="544" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D44" s="551" t="s">
+        <v>941</v>
+      </c>
+      <c r="E44" s="551" t="s">
+        <v>942</v>
+      </c>
+      <c r="F44" s="545" t="s">
+        <v>942</v>
+      </c>
+      <c r="G44" s="546">
+        <v>2</v>
+      </c>
+      <c r="H44" s="547" t="s">
         <v>489</v>
       </c>
-      <c r="J44" s="459"/>
-      <c r="K44" s="459"/>
-      <c r="L44" s="459"/>
-      <c r="M44" s="459"/>
-      <c r="N44" s="459"/>
-      <c r="O44" s="459"/>
-      <c r="P44" s="471" t="s">
+      <c r="I44" s="547" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J44" s="548"/>
+      <c r="K44" s="548"/>
+      <c r="L44" s="548"/>
+      <c r="M44" s="548"/>
+      <c r="N44" s="548"/>
+      <c r="O44" s="548"/>
+      <c r="P44" s="547" t="s">
         <v>26</v>
       </c>
-      <c r="Q44" s="471" t="s">
+      <c r="Q44" s="547" t="s">
         <v>533</v>
       </c>
-      <c r="R44" s="459"/>
-      <c r="S44" s="459"/>
-      <c r="T44" s="459"/>
+      <c r="R44" s="549"/>
+      <c r="S44" s="549"/>
+      <c r="T44" s="550"/>
     </row>
     <row r="45" spans="1:20" s="481" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="480">
@@ -20305,16 +20548,16 @@
         <v>983</v>
       </c>
       <c r="D45" s="459" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E45" s="459" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F45" s="519" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="G45" s="459">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" s="459"/>
       <c r="I45" s="459" t="s">
@@ -20345,16 +20588,16 @@
         <v>983</v>
       </c>
       <c r="D46" s="459" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E46" s="459" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F46" s="519" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G46" s="459">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H46" s="459"/>
       <c r="I46" s="459" t="s">
@@ -20384,17 +20627,17 @@
       <c r="C47" s="459" t="s">
         <v>983</v>
       </c>
-      <c r="D47" s="519" t="s">
-        <v>1001</v>
+      <c r="D47" s="459" t="s">
+        <v>999</v>
       </c>
       <c r="E47" s="459" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F47" s="519" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G47" s="459">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" s="459"/>
       <c r="I47" s="459" t="s">
@@ -20425,16 +20668,16 @@
         <v>983</v>
       </c>
       <c r="D48" s="459" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="459" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F48" s="519" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G48" s="459">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="459"/>
       <c r="I48" s="459" t="s">
@@ -20464,17 +20707,17 @@
       <c r="C49" s="459" t="s">
         <v>983</v>
       </c>
-      <c r="D49" s="459" t="s">
-        <v>1003</v>
+      <c r="D49" s="519" t="s">
+        <v>1001</v>
       </c>
       <c r="E49" s="459" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F49" s="519" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G49" s="459">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" s="459"/>
       <c r="I49" s="459" t="s">
@@ -20495,6 +20738,86 @@
       <c r="R49" s="459"/>
       <c r="S49" s="459"/>
       <c r="T49" s="459"/>
+    </row>
+    <row r="50" spans="1:20" s="481" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="480">
+        <v>42739</v>
+      </c>
+      <c r="B50" s="459"/>
+      <c r="C50" s="459" t="s">
+        <v>983</v>
+      </c>
+      <c r="D50" s="459" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E50" s="459" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F50" s="519" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G50" s="459">
+        <v>2</v>
+      </c>
+      <c r="H50" s="459"/>
+      <c r="I50" s="459" t="s">
+        <v>489</v>
+      </c>
+      <c r="J50" s="459"/>
+      <c r="K50" s="459"/>
+      <c r="L50" s="459"/>
+      <c r="M50" s="459"/>
+      <c r="N50" s="459"/>
+      <c r="O50" s="459"/>
+      <c r="P50" s="471" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" s="471" t="s">
+        <v>533</v>
+      </c>
+      <c r="R50" s="459"/>
+      <c r="S50" s="459"/>
+      <c r="T50" s="459"/>
+    </row>
+    <row r="51" spans="1:20" s="481" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="480">
+        <v>42739</v>
+      </c>
+      <c r="B51" s="459"/>
+      <c r="C51" s="459" t="s">
+        <v>983</v>
+      </c>
+      <c r="D51" s="459" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E51" s="459" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F51" s="519" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G51" s="459">
+        <v>1</v>
+      </c>
+      <c r="H51" s="459"/>
+      <c r="I51" s="459" t="s">
+        <v>489</v>
+      </c>
+      <c r="J51" s="459"/>
+      <c r="K51" s="459"/>
+      <c r="L51" s="459"/>
+      <c r="M51" s="459"/>
+      <c r="N51" s="459"/>
+      <c r="O51" s="459"/>
+      <c r="P51" s="471" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="471" t="s">
+        <v>533</v>
+      </c>
+      <c r="R51" s="459"/>
+      <c r="S51" s="459"/>
+      <c r="T51" s="459"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -20519,10 +20842,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27090,455 +27413,465 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="17"/>
     </row>
-    <row r="162" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="425">
+    <row r="162" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="552">
         <v>42741</v>
       </c>
-      <c r="B162" s="482"/>
-      <c r="C162" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D162" s="484" t="s">
-        <v>996</v>
-      </c>
-      <c r="E162" s="483" t="s">
-        <v>986</v>
-      </c>
-      <c r="F162" s="485">
+      <c r="B162" s="553"/>
+      <c r="C162" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D162" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E162" s="545" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162" s="544">
+        <v>1</v>
+      </c>
+      <c r="G162" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H162" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I162" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J162" s="405">
+        <v>1</v>
+      </c>
+      <c r="K162" s="544"/>
+      <c r="L162" s="544"/>
+      <c r="M162" s="555"/>
+      <c r="N162" s="544"/>
+      <c r="O162" s="544"/>
+      <c r="P162" s="554" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q162" s="544"/>
+      <c r="R162" s="556"/>
+    </row>
+    <row r="163" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B163" s="553"/>
+      <c r="C163" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D163" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E163" s="545" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" s="544">
         <v>2</v>
       </c>
-      <c r="G162" s="483" t="s">
+      <c r="G163" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="H162" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I162" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J162" s="428">
-        <v>1</v>
-      </c>
-      <c r="K162" s="485"/>
-      <c r="L162" s="485"/>
-      <c r="M162" s="486"/>
-      <c r="N162" s="485"/>
-      <c r="O162" s="485"/>
-      <c r="P162" s="426" t="s">
+      <c r="H163" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I163" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J163" s="405">
+        <v>2</v>
+      </c>
+      <c r="K163" s="544"/>
+      <c r="L163" s="544"/>
+      <c r="M163" s="555"/>
+      <c r="N163" s="544"/>
+      <c r="O163" s="544"/>
+      <c r="P163" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q162" s="485"/>
-      <c r="R162" s="487"/>
-    </row>
-    <row r="163" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="425">
-        <v>42754</v>
-      </c>
-      <c r="B163" s="482"/>
-      <c r="C163" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D163" s="484" t="s">
-        <v>996</v>
-      </c>
-      <c r="E163" s="483" t="s">
-        <v>987</v>
-      </c>
-      <c r="F163" s="485">
-        <v>1</v>
-      </c>
-      <c r="G163" s="483" t="s">
+      <c r="Q163" s="544"/>
+      <c r="R163" s="556"/>
+    </row>
+    <row r="164" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B164" s="553"/>
+      <c r="C164" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D164" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E164" s="545" t="s">
+        <v>60</v>
+      </c>
+      <c r="F164" s="544">
+        <v>3</v>
+      </c>
+      <c r="G164" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="H163" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I163" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J163" s="428">
-        <v>1</v>
-      </c>
-      <c r="K163" s="485"/>
-      <c r="L163" s="485"/>
-      <c r="M163" s="486"/>
-      <c r="N163" s="485"/>
-      <c r="O163" s="485"/>
-      <c r="P163" s="426" t="s">
+      <c r="H164" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I164" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J164" s="405">
+        <v>3</v>
+      </c>
+      <c r="K164" s="544"/>
+      <c r="L164" s="544"/>
+      <c r="M164" s="555"/>
+      <c r="N164" s="544"/>
+      <c r="O164" s="544"/>
+      <c r="P164" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q163" s="485"/>
-      <c r="R163" s="487"/>
-    </row>
-    <row r="164" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="425">
-        <v>42755</v>
-      </c>
-      <c r="B164" s="482"/>
-      <c r="C164" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D164" s="484" t="s">
-        <v>998</v>
-      </c>
-      <c r="E164" s="483" t="s">
-        <v>986</v>
-      </c>
-      <c r="F164" s="485">
-        <v>1</v>
-      </c>
-      <c r="G164" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H164" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I164" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J164" s="428">
-        <v>1</v>
-      </c>
-      <c r="K164" s="485"/>
-      <c r="L164" s="485"/>
-      <c r="M164" s="486"/>
-      <c r="N164" s="485"/>
-      <c r="O164" s="485"/>
-      <c r="P164" s="426" t="s">
+      <c r="Q164" s="544"/>
+      <c r="R164" s="556"/>
+    </row>
+    <row r="165" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B165" s="553"/>
+      <c r="C165" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D165" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E165" s="545" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="544">
+        <v>4</v>
+      </c>
+      <c r="G165" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H165" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I165" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J165" s="405">
+        <v>4</v>
+      </c>
+      <c r="K165" s="544"/>
+      <c r="L165" s="544"/>
+      <c r="M165" s="555"/>
+      <c r="N165" s="544"/>
+      <c r="O165" s="544"/>
+      <c r="P165" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q164" s="485"/>
-      <c r="R164" s="487"/>
-    </row>
-    <row r="165" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="425">
-        <v>42756</v>
-      </c>
-      <c r="B165" s="482"/>
-      <c r="C165" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D165" s="484" t="s">
-        <v>998</v>
-      </c>
-      <c r="E165" s="483" t="s">
-        <v>987</v>
-      </c>
-      <c r="F165" s="485">
-        <v>2</v>
-      </c>
-      <c r="G165" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H165" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I165" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J165" s="488">
-        <v>1</v>
-      </c>
-      <c r="K165" s="485"/>
-      <c r="L165" s="485"/>
-      <c r="M165" s="486"/>
-      <c r="N165" s="485"/>
-      <c r="O165" s="485"/>
-      <c r="P165" s="426" t="s">
+      <c r="Q165" s="544"/>
+      <c r="R165" s="556"/>
+    </row>
+    <row r="166" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B166" s="553"/>
+      <c r="C166" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D166" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E166" s="545" t="s">
+        <v>66</v>
+      </c>
+      <c r="F166" s="544">
+        <v>5</v>
+      </c>
+      <c r="G166" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H166" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I166" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J166" s="405">
+        <v>5</v>
+      </c>
+      <c r="K166" s="544"/>
+      <c r="L166" s="544"/>
+      <c r="M166" s="555"/>
+      <c r="N166" s="544"/>
+      <c r="O166" s="544"/>
+      <c r="P166" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q165" s="485"/>
-      <c r="R165" s="487"/>
-    </row>
-    <row r="166" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="425">
+      <c r="Q166" s="544"/>
+      <c r="R166" s="556"/>
+    </row>
+    <row r="167" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="552">
         <v>42741</v>
       </c>
-      <c r="B166" s="482"/>
-      <c r="C166" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D166" s="484" t="s">
-        <v>999</v>
-      </c>
-      <c r="E166" s="483" t="s">
-        <v>986</v>
-      </c>
-      <c r="F166" s="485"/>
-      <c r="G166" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H166" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I166" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J166" s="428">
-        <v>1</v>
-      </c>
-      <c r="K166" s="485"/>
-      <c r="L166" s="485"/>
-      <c r="M166" s="486"/>
-      <c r="N166" s="485"/>
-      <c r="O166" s="485"/>
-      <c r="P166" s="426" t="s">
+      <c r="B167" s="553"/>
+      <c r="C167" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D167" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E167" s="545" t="s">
+        <v>69</v>
+      </c>
+      <c r="F167" s="544">
+        <v>6</v>
+      </c>
+      <c r="G167" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H167" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I167" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J167" s="405">
+        <v>6</v>
+      </c>
+      <c r="K167" s="544"/>
+      <c r="L167" s="544"/>
+      <c r="M167" s="555"/>
+      <c r="N167" s="544"/>
+      <c r="O167" s="544"/>
+      <c r="P167" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q166" s="485"/>
-      <c r="R166" s="487"/>
-    </row>
-    <row r="167" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="425">
-        <v>42754</v>
-      </c>
-      <c r="B167" s="482"/>
-      <c r="C167" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D167" s="484" t="s">
-        <v>999</v>
-      </c>
-      <c r="E167" s="483" t="s">
-        <v>987</v>
-      </c>
-      <c r="F167" s="485"/>
-      <c r="G167" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H167" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I167" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J167" s="428">
-        <v>1</v>
-      </c>
-      <c r="K167" s="485"/>
-      <c r="L167" s="485"/>
-      <c r="M167" s="486"/>
-      <c r="N167" s="485"/>
-      <c r="O167" s="485"/>
-      <c r="P167" s="426" t="s">
+      <c r="Q167" s="544"/>
+      <c r="R167" s="556"/>
+    </row>
+    <row r="168" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B168" s="553"/>
+      <c r="C168" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D168" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E168" s="545" t="s">
+        <v>72</v>
+      </c>
+      <c r="F168" s="544">
+        <v>7</v>
+      </c>
+      <c r="G168" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H168" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I168" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J168" s="405">
+        <v>7</v>
+      </c>
+      <c r="K168" s="544"/>
+      <c r="L168" s="544"/>
+      <c r="M168" s="555"/>
+      <c r="N168" s="544"/>
+      <c r="O168" s="544"/>
+      <c r="P168" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q167" s="485"/>
-      <c r="R167" s="487"/>
-    </row>
-    <row r="168" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="425">
-        <v>42755</v>
-      </c>
-      <c r="B168" s="482"/>
-      <c r="C168" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D168" s="484" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E168" s="483" t="s">
-        <v>986</v>
-      </c>
-      <c r="F168" s="485"/>
-      <c r="G168" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H168" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I168" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J168" s="428">
-        <v>1</v>
-      </c>
-      <c r="K168" s="485"/>
-      <c r="L168" s="485"/>
-      <c r="M168" s="486"/>
-      <c r="N168" s="485"/>
-      <c r="O168" s="485"/>
-      <c r="P168" s="426" t="s">
+      <c r="Q168" s="544"/>
+      <c r="R168" s="556"/>
+    </row>
+    <row r="169" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B169" s="553"/>
+      <c r="C169" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D169" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E169" s="545" t="s">
+        <v>83</v>
+      </c>
+      <c r="F169" s="544">
+        <v>8</v>
+      </c>
+      <c r="G169" s="545" t="s">
+        <v>375</v>
+      </c>
+      <c r="H169" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I169" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J169" s="405">
+        <v>8</v>
+      </c>
+      <c r="K169" s="544"/>
+      <c r="L169" s="544"/>
+      <c r="M169" s="555"/>
+      <c r="N169" s="544"/>
+      <c r="O169" s="544"/>
+      <c r="P169" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q168" s="485"/>
-      <c r="R168" s="487"/>
-    </row>
-    <row r="169" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="425">
-        <v>42756</v>
-      </c>
-      <c r="B169" s="482"/>
-      <c r="C169" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D169" s="484" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E169" s="483" t="s">
-        <v>986</v>
-      </c>
-      <c r="F169" s="485"/>
-      <c r="G169" s="483" t="s">
+      <c r="Q169" s="544"/>
+      <c r="R169" s="556"/>
+    </row>
+    <row r="170" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B170" s="553"/>
+      <c r="C170" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D170" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E170" s="545" t="s">
+        <v>87</v>
+      </c>
+      <c r="F170" s="544">
+        <v>9</v>
+      </c>
+      <c r="G170" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="H169" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I169" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J169" s="488">
-        <v>1</v>
-      </c>
-      <c r="K169" s="485"/>
-      <c r="L169" s="485"/>
-      <c r="M169" s="486"/>
-      <c r="N169" s="485"/>
-      <c r="O169" s="485"/>
-      <c r="P169" s="426" t="s">
+      <c r="H170" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I170" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J170" s="405">
+        <v>9</v>
+      </c>
+      <c r="K170" s="544"/>
+      <c r="L170" s="544"/>
+      <c r="M170" s="555"/>
+      <c r="N170" s="544"/>
+      <c r="O170" s="544"/>
+      <c r="P170" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q169" s="485"/>
-      <c r="R169" s="487"/>
-    </row>
-    <row r="170" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="425">
-        <v>42757</v>
-      </c>
-      <c r="B170" s="482"/>
-      <c r="C170" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D170" s="484" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E170" s="483" t="s">
-        <v>987</v>
-      </c>
-      <c r="F170" s="485">
-        <v>1</v>
-      </c>
-      <c r="G170" s="483" t="s">
+      <c r="Q170" s="544"/>
+      <c r="R170" s="556"/>
+    </row>
+    <row r="171" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B171" s="553"/>
+      <c r="C171" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D171" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E171" s="545" t="s">
+        <v>93</v>
+      </c>
+      <c r="F171" s="544">
+        <v>10</v>
+      </c>
+      <c r="G171" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="H170" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I170" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J170" s="428">
-        <v>1</v>
-      </c>
-      <c r="K170" s="485"/>
-      <c r="L170" s="485"/>
-      <c r="M170" s="486"/>
-      <c r="N170" s="485"/>
-      <c r="O170" s="485"/>
-      <c r="P170" s="426" t="s">
+      <c r="H171" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I171" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J171" s="405">
+        <v>10</v>
+      </c>
+      <c r="K171" s="544"/>
+      <c r="L171" s="544"/>
+      <c r="M171" s="555"/>
+      <c r="N171" s="544"/>
+      <c r="O171" s="544"/>
+      <c r="P171" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q170" s="485"/>
-      <c r="R170" s="487"/>
-    </row>
-    <row r="171" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="425">
-        <v>42758</v>
-      </c>
-      <c r="B171" s="482"/>
-      <c r="C171" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D171" s="484" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E171" s="483" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="489"/>
-      <c r="G171" s="483" t="s">
+      <c r="Q171" s="544"/>
+      <c r="R171" s="556"/>
+    </row>
+    <row r="172" spans="1:18" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="552">
+        <v>42741</v>
+      </c>
+      <c r="B172" s="553"/>
+      <c r="C172" s="545" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D172" s="547" t="s">
+        <v>392</v>
+      </c>
+      <c r="E172" s="545" t="s">
+        <v>96</v>
+      </c>
+      <c r="F172" s="544">
+        <v>11</v>
+      </c>
+      <c r="G172" s="545" t="s">
         <v>375</v>
       </c>
-      <c r="H171" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I171" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J171" s="428">
-        <v>1</v>
-      </c>
-      <c r="K171" s="485"/>
-      <c r="L171" s="485"/>
-      <c r="M171" s="486"/>
-      <c r="N171" s="485"/>
-      <c r="O171" s="485"/>
-      <c r="P171" s="426" t="s">
+      <c r="H172" s="554" t="s">
+        <v>597</v>
+      </c>
+      <c r="I172" s="554" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J172" s="405">
+        <v>11</v>
+      </c>
+      <c r="K172" s="544"/>
+      <c r="L172" s="544"/>
+      <c r="M172" s="555"/>
+      <c r="N172" s="544"/>
+      <c r="O172" s="544"/>
+      <c r="P172" s="554" t="s">
         <v>836</v>
       </c>
-      <c r="Q171" s="485"/>
-      <c r="R171" s="487"/>
-    </row>
-    <row r="172" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="425">
-        <v>42759</v>
-      </c>
-      <c r="B172" s="482"/>
-      <c r="C172" s="483" t="s">
-        <v>983</v>
-      </c>
-      <c r="D172" s="483" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E172" s="490" t="s">
-        <v>991</v>
-      </c>
-      <c r="F172" s="485">
-        <v>1</v>
-      </c>
-      <c r="G172" s="483" t="s">
-        <v>609</v>
-      </c>
-      <c r="H172" s="426" t="s">
-        <v>843</v>
-      </c>
-      <c r="I172" s="426" t="s">
-        <v>844</v>
-      </c>
-      <c r="J172" s="428">
-        <v>1</v>
-      </c>
-      <c r="K172" s="485"/>
-      <c r="L172" s="485"/>
-      <c r="M172" s="486"/>
-      <c r="N172" s="485"/>
-      <c r="O172" s="485"/>
-      <c r="P172" s="426" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q172" s="485"/>
-      <c r="R172" s="487"/>
+      <c r="Q172" s="544"/>
+      <c r="R172" s="556"/>
     </row>
     <row r="173" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="425">
-        <v>42760</v>
+        <v>42741</v>
       </c>
       <c r="B173" s="482"/>
       <c r="C173" s="483" t="s">
         <v>983</v>
       </c>
       <c r="D173" s="484" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="E173" s="483" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F173" s="485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173" s="483" t="s">
-        <v>609</v>
+        <v>375</v>
       </c>
       <c r="H173" s="426" t="s">
         <v>843</v>
@@ -27546,7 +27879,7 @@
       <c r="I173" s="426" t="s">
         <v>844</v>
       </c>
-      <c r="J173" s="488">
+      <c r="J173" s="428">
         <v>1</v>
       </c>
       <c r="K173" s="485"/>
@@ -27559,6 +27892,436 @@
       </c>
       <c r="Q173" s="485"/>
       <c r="R173" s="487"/>
+    </row>
+    <row r="174" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="425">
+        <v>42754</v>
+      </c>
+      <c r="B174" s="482"/>
+      <c r="C174" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D174" s="484" t="s">
+        <v>996</v>
+      </c>
+      <c r="E174" s="483" t="s">
+        <v>987</v>
+      </c>
+      <c r="F174" s="485">
+        <v>1</v>
+      </c>
+      <c r="G174" s="483" t="s">
+        <v>375</v>
+      </c>
+      <c r="H174" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I174" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J174" s="428">
+        <v>1</v>
+      </c>
+      <c r="K174" s="485"/>
+      <c r="L174" s="485"/>
+      <c r="M174" s="486"/>
+      <c r="N174" s="485"/>
+      <c r="O174" s="485"/>
+      <c r="P174" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q174" s="485"/>
+      <c r="R174" s="487"/>
+    </row>
+    <row r="175" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="425">
+        <v>42755</v>
+      </c>
+      <c r="B175" s="482"/>
+      <c r="C175" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D175" s="484" t="s">
+        <v>998</v>
+      </c>
+      <c r="E175" s="483" t="s">
+        <v>986</v>
+      </c>
+      <c r="F175" s="485">
+        <v>1</v>
+      </c>
+      <c r="G175" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H175" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I175" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J175" s="428">
+        <v>1</v>
+      </c>
+      <c r="K175" s="485"/>
+      <c r="L175" s="485"/>
+      <c r="M175" s="486"/>
+      <c r="N175" s="485"/>
+      <c r="O175" s="485"/>
+      <c r="P175" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q175" s="485"/>
+      <c r="R175" s="487"/>
+    </row>
+    <row r="176" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="425">
+        <v>42756</v>
+      </c>
+      <c r="B176" s="482"/>
+      <c r="C176" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D176" s="484" t="s">
+        <v>998</v>
+      </c>
+      <c r="E176" s="483" t="s">
+        <v>987</v>
+      </c>
+      <c r="F176" s="485">
+        <v>2</v>
+      </c>
+      <c r="G176" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H176" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I176" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J176" s="488">
+        <v>1</v>
+      </c>
+      <c r="K176" s="485"/>
+      <c r="L176" s="485"/>
+      <c r="M176" s="486"/>
+      <c r="N176" s="485"/>
+      <c r="O176" s="485"/>
+      <c r="P176" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q176" s="485"/>
+      <c r="R176" s="487"/>
+    </row>
+    <row r="177" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="425">
+        <v>42741</v>
+      </c>
+      <c r="B177" s="482"/>
+      <c r="C177" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D177" s="484" t="s">
+        <v>999</v>
+      </c>
+      <c r="E177" s="483" t="s">
+        <v>986</v>
+      </c>
+      <c r="F177" s="485"/>
+      <c r="G177" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H177" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I177" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J177" s="428">
+        <v>1</v>
+      </c>
+      <c r="K177" s="485"/>
+      <c r="L177" s="485"/>
+      <c r="M177" s="486"/>
+      <c r="N177" s="485"/>
+      <c r="O177" s="485"/>
+      <c r="P177" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q177" s="485"/>
+      <c r="R177" s="487"/>
+    </row>
+    <row r="178" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="425">
+        <v>42754</v>
+      </c>
+      <c r="B178" s="482"/>
+      <c r="C178" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D178" s="484" t="s">
+        <v>999</v>
+      </c>
+      <c r="E178" s="483" t="s">
+        <v>987</v>
+      </c>
+      <c r="F178" s="485"/>
+      <c r="G178" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H178" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I178" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J178" s="428">
+        <v>1</v>
+      </c>
+      <c r="K178" s="485"/>
+      <c r="L178" s="485"/>
+      <c r="M178" s="486"/>
+      <c r="N178" s="485"/>
+      <c r="O178" s="485"/>
+      <c r="P178" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q178" s="485"/>
+      <c r="R178" s="487"/>
+    </row>
+    <row r="179" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="425">
+        <v>42755</v>
+      </c>
+      <c r="B179" s="482"/>
+      <c r="C179" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D179" s="484" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E179" s="483" t="s">
+        <v>986</v>
+      </c>
+      <c r="F179" s="485"/>
+      <c r="G179" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H179" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I179" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J179" s="428">
+        <v>1</v>
+      </c>
+      <c r="K179" s="485"/>
+      <c r="L179" s="485"/>
+      <c r="M179" s="486"/>
+      <c r="N179" s="485"/>
+      <c r="O179" s="485"/>
+      <c r="P179" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q179" s="485"/>
+      <c r="R179" s="487"/>
+    </row>
+    <row r="180" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="425">
+        <v>42756</v>
+      </c>
+      <c r="B180" s="482"/>
+      <c r="C180" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D180" s="484" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E180" s="483" t="s">
+        <v>986</v>
+      </c>
+      <c r="F180" s="485"/>
+      <c r="G180" s="483" t="s">
+        <v>375</v>
+      </c>
+      <c r="H180" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I180" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J180" s="488">
+        <v>1</v>
+      </c>
+      <c r="K180" s="485"/>
+      <c r="L180" s="485"/>
+      <c r="M180" s="486"/>
+      <c r="N180" s="485"/>
+      <c r="O180" s="485"/>
+      <c r="P180" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q180" s="485"/>
+      <c r="R180" s="487"/>
+    </row>
+    <row r="181" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="425">
+        <v>42757</v>
+      </c>
+      <c r="B181" s="482"/>
+      <c r="C181" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D181" s="484" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E181" s="483" t="s">
+        <v>987</v>
+      </c>
+      <c r="F181" s="485">
+        <v>1</v>
+      </c>
+      <c r="G181" s="483" t="s">
+        <v>375</v>
+      </c>
+      <c r="H181" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I181" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J181" s="428">
+        <v>1</v>
+      </c>
+      <c r="K181" s="485"/>
+      <c r="L181" s="485"/>
+      <c r="M181" s="486"/>
+      <c r="N181" s="485"/>
+      <c r="O181" s="485"/>
+      <c r="P181" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q181" s="485"/>
+      <c r="R181" s="487"/>
+    </row>
+    <row r="182" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="425">
+        <v>42758</v>
+      </c>
+      <c r="B182" s="482"/>
+      <c r="C182" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D182" s="484" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E182" s="483" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="489"/>
+      <c r="G182" s="483" t="s">
+        <v>375</v>
+      </c>
+      <c r="H182" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I182" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J182" s="428">
+        <v>1</v>
+      </c>
+      <c r="K182" s="485"/>
+      <c r="L182" s="485"/>
+      <c r="M182" s="486"/>
+      <c r="N182" s="485"/>
+      <c r="O182" s="485"/>
+      <c r="P182" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q182" s="485"/>
+      <c r="R182" s="487"/>
+    </row>
+    <row r="183" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="425">
+        <v>42759</v>
+      </c>
+      <c r="B183" s="482"/>
+      <c r="C183" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D183" s="483" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E183" s="490" t="s">
+        <v>991</v>
+      </c>
+      <c r="F183" s="485">
+        <v>1</v>
+      </c>
+      <c r="G183" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H183" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I183" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J183" s="428">
+        <v>1</v>
+      </c>
+      <c r="K183" s="485"/>
+      <c r="L183" s="485"/>
+      <c r="M183" s="486"/>
+      <c r="N183" s="485"/>
+      <c r="O183" s="485"/>
+      <c r="P183" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q183" s="485"/>
+      <c r="R183" s="487"/>
+    </row>
+    <row r="184" spans="1:18" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="425">
+        <v>42760</v>
+      </c>
+      <c r="B184" s="482"/>
+      <c r="C184" s="483" t="s">
+        <v>983</v>
+      </c>
+      <c r="D184" s="484" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E184" s="483" t="s">
+        <v>991</v>
+      </c>
+      <c r="F184" s="485">
+        <v>1</v>
+      </c>
+      <c r="G184" s="483" t="s">
+        <v>609</v>
+      </c>
+      <c r="H184" s="426" t="s">
+        <v>843</v>
+      </c>
+      <c r="I184" s="426" t="s">
+        <v>844</v>
+      </c>
+      <c r="J184" s="488">
+        <v>1</v>
+      </c>
+      <c r="K184" s="485"/>
+      <c r="L184" s="485"/>
+      <c r="M184" s="486"/>
+      <c r="N184" s="485"/>
+      <c r="O184" s="485"/>
+      <c r="P184" s="426" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q184" s="485"/>
+      <c r="R184" s="487"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27577,10 +28340,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28592,6 +29355,25 @@
         <v>12</v>
       </c>
       <c r="G48" s="469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="557">
+        <v>42746</v>
+      </c>
+      <c r="B49" s="393"/>
+      <c r="C49" s="558" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D49" s="393" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="393"/>
+      <c r="F49" s="393" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="393">
         <v>1</v>
       </c>
     </row>
@@ -28617,7 +29399,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28792,10 +29574,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:DS36"/>
+  <dimension ref="A1:DS37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29779,6 +30561,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:123" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="559">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="560"/>
+      <c r="C37" s="561" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D37" s="561" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="562" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="562"/>
+      <c r="G37" s="563">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G23:G24" xr:uid="{9850B61E-9DFD-1342-A596-EA5F0D31DB06}">
@@ -29798,10 +30599,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30833,6 +31634,25 @@
         <v>12</v>
       </c>
       <c r="G49" s="469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="557">
+        <v>42746</v>
+      </c>
+      <c r="B50" s="393"/>
+      <c r="C50" s="558" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D50" s="393" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="393"/>
+      <c r="F50" s="393" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="393">
         <v>1</v>
       </c>
     </row>
@@ -30975,10 +31795,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:BL54"/>
+  <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32268,6 +33088,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:64" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="559">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="560"/>
+      <c r="C55" s="561" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D55" s="561" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="562"/>
+      <c r="F55" s="562" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="563">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -32420,10 +33259,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32756,17 +33595,32 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="462">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="465"/>
-      <c r="C22" s="431" t="s">
+      <c r="A22" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="265" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D22" s="564" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="465"/>
+      <c r="C23" s="431" t="s">
         <v>983</v>
       </c>
-      <c r="D22" s="493" t="s">
+      <c r="D23" s="493" t="s">
         <v>776</v>
       </c>
-      <c r="E22" s="494" t="s">
+      <c r="E23" s="494" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32784,10 +33638,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C48"/>
+    <sheetView showGridLines="0" topLeftCell="A117" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35107,16 +35961,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="71">
         <v>42736</v>
       </c>
-      <c r="B129" s="61"/>
-      <c r="C129" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>877</v>
+      <c r="B129" s="85"/>
+      <c r="C129" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D129" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="E129" s="90" t="s">
         <v>776</v>
@@ -35125,16 +35979,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="71">
         <v>42736</v>
       </c>
-      <c r="B130" s="61"/>
-      <c r="C130" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D130" s="65" t="s">
-        <v>60</v>
+      <c r="B130" s="85"/>
+      <c r="C130" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D130" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="E130" s="90" t="s">
         <v>776</v>
@@ -35143,16 +35997,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="71">
         <v>42736</v>
       </c>
-      <c r="B131" s="61"/>
-      <c r="C131" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D131" s="65" t="s">
-        <v>785</v>
+      <c r="B131" s="85"/>
+      <c r="C131" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D131" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="E131" s="90" t="s">
         <v>776</v>
@@ -35161,16 +36015,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71">
         <v>42736</v>
       </c>
-      <c r="B132" s="61"/>
-      <c r="C132" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D132" s="65" t="s">
-        <v>789</v>
+      <c r="B132" s="85"/>
+      <c r="C132" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D132" s="73" t="s">
+        <v>63</v>
       </c>
       <c r="E132" s="90" t="s">
         <v>776</v>
@@ -35179,16 +36033,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="71">
         <v>42736</v>
       </c>
-      <c r="B133" s="61"/>
-      <c r="C133" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D133" s="65" t="s">
-        <v>791</v>
+      <c r="B133" s="85"/>
+      <c r="C133" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D133" s="73" t="s">
+        <v>66</v>
       </c>
       <c r="E133" s="90" t="s">
         <v>776</v>
@@ -35197,16 +36051,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="71">
         <v>42736</v>
       </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D134" s="65" t="s">
-        <v>793</v>
+      <c r="B134" s="85"/>
+      <c r="C134" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D134" s="73" t="s">
+        <v>69</v>
       </c>
       <c r="E134" s="90" t="s">
         <v>776</v>
@@ -35215,16 +36069,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="71">
         <v>42736</v>
       </c>
-      <c r="B135" s="61"/>
-      <c r="C135" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D135" s="65" t="s">
-        <v>795</v>
+      <c r="B135" s="85"/>
+      <c r="C135" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D135" s="73" t="s">
+        <v>72</v>
       </c>
       <c r="E135" s="90" t="s">
         <v>776</v>
@@ -35233,16 +36087,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="71">
         <v>42736</v>
       </c>
-      <c r="B136" s="61"/>
-      <c r="C136" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D136" s="65" t="s">
-        <v>797</v>
+      <c r="B136" s="85"/>
+      <c r="C136" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D136" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="E136" s="90" t="s">
         <v>776</v>
@@ -35251,16 +36105,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="71">
         <v>42736</v>
       </c>
-      <c r="B137" s="61"/>
-      <c r="C137" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D137" s="65" t="s">
-        <v>800</v>
+      <c r="B137" s="85"/>
+      <c r="C137" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D137" s="73" t="s">
+        <v>87</v>
       </c>
       <c r="E137" s="90" t="s">
         <v>776</v>
@@ -35269,16 +36123,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="71">
         <v>42736</v>
       </c>
-      <c r="B138" s="320"/>
-      <c r="C138" s="65" t="s">
-        <v>891</v>
+      <c r="B138" s="85"/>
+      <c r="C138" s="73" t="s">
+        <v>1060</v>
       </c>
       <c r="D138" s="73" t="s">
-        <v>802</v>
+        <v>93</v>
       </c>
       <c r="E138" s="90" t="s">
         <v>776</v>
@@ -35287,201 +36141,201 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B139" s="61"/>
-      <c r="C139" s="65" t="s">
-        <v>882</v>
-      </c>
-      <c r="D139" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E139" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F139" s="115" t="s">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="85"/>
+      <c r="C139" s="73" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D139" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F139" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="60">
+      <c r="A140" s="71">
         <v>42736</v>
       </c>
       <c r="B140" s="61"/>
       <c r="C140" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D140" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E140" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F140" s="115" t="s">
+        <v>877</v>
+      </c>
+      <c r="E140" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F140" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="60">
+      <c r="A141" s="71">
         <v>42736</v>
       </c>
       <c r="B141" s="61"/>
       <c r="C141" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D141" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E141" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F141" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F141" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="60">
+      <c r="A142" s="71">
         <v>42736</v>
       </c>
       <c r="B142" s="61"/>
       <c r="C142" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D142" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E142" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F142" s="115" t="s">
+        <v>785</v>
+      </c>
+      <c r="E142" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F142" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="60">
+      <c r="A143" s="71">
         <v>42736</v>
       </c>
       <c r="B143" s="61"/>
       <c r="C143" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E143" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F143" s="115" t="s">
+        <v>789</v>
+      </c>
+      <c r="E143" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F143" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="60">
+      <c r="A144" s="71">
         <v>42736</v>
       </c>
       <c r="B144" s="61"/>
       <c r="C144" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E144" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F144" s="115" t="s">
+        <v>791</v>
+      </c>
+      <c r="E144" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F144" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="60">
+      <c r="A145" s="71">
         <v>42736</v>
       </c>
       <c r="B145" s="61"/>
       <c r="C145" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E145" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F145" s="115" t="s">
+        <v>793</v>
+      </c>
+      <c r="E145" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F145" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="60">
+      <c r="A146" s="71">
         <v>42736</v>
       </c>
       <c r="B146" s="61"/>
       <c r="C146" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E146" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F146" s="115" t="s">
+        <v>795</v>
+      </c>
+      <c r="E146" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F146" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="60">
+      <c r="A147" s="71">
         <v>42736</v>
       </c>
       <c r="B147" s="61"/>
       <c r="C147" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="E147" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F147" s="115" t="s">
+        <v>797</v>
+      </c>
+      <c r="E147" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F147" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="60">
+      <c r="A148" s="71">
         <v>42736</v>
       </c>
       <c r="B148" s="61"/>
       <c r="C148" s="65" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>760</v>
-      </c>
-      <c r="E148" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F148" s="115" t="s">
+        <v>800</v>
+      </c>
+      <c r="E148" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F148" s="125" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B149" s="61"/>
+      <c r="A149" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B149" s="320"/>
       <c r="C149" s="65" t="s">
-        <v>882</v>
-      </c>
-      <c r="D149" s="65" t="s">
-        <v>761</v>
-      </c>
-      <c r="E149" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="F149" s="115" t="s">
+        <v>891</v>
+      </c>
+      <c r="D149" s="73" t="s">
+        <v>802</v>
+      </c>
+      <c r="E149" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F149" s="125" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35494,7 +36348,7 @@
         <v>882</v>
       </c>
       <c r="D150" s="65" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E150" s="81" t="s">
         <v>943</v>
@@ -35504,20 +36358,20 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="143">
-        <v>42737</v>
-      </c>
-      <c r="B151" s="128"/>
+      <c r="A151" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B151" s="61"/>
       <c r="C151" s="65" t="s">
         <v>882</v>
       </c>
       <c r="D151" s="65" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E151" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="F151" s="199" t="s">
+      <c r="F151" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35530,7 +36384,7 @@
         <v>882</v>
       </c>
       <c r="D152" s="65" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E152" s="81" t="s">
         <v>943</v>
@@ -35548,7 +36402,7 @@
         <v>882</v>
       </c>
       <c r="D153" s="65" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E153" s="81" t="s">
         <v>943</v>
@@ -35566,7 +36420,7 @@
         <v>882</v>
       </c>
       <c r="D154" s="65" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E154" s="81" t="s">
         <v>943</v>
@@ -35584,7 +36438,7 @@
         <v>882</v>
       </c>
       <c r="D155" s="65" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E155" s="81" t="s">
         <v>943</v>
@@ -35594,20 +36448,20 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="66">
-        <v>42736</v>
-      </c>
-      <c r="B156" s="67"/>
+      <c r="A156" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B156" s="61"/>
       <c r="C156" s="65" t="s">
         <v>882</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E156" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="F156" s="119" t="s">
+      <c r="F156" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35620,7 +36474,7 @@
         <v>882</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>937</v>
+        <v>87</v>
       </c>
       <c r="E157" s="81" t="s">
         <v>943</v>
@@ -35630,20 +36484,218 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="263">
-        <v>42736</v>
-      </c>
-      <c r="B158" s="320"/>
-      <c r="C158" s="73" t="s">
+      <c r="A158" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="61"/>
+      <c r="C158" s="65" t="s">
         <v>882</v>
       </c>
-      <c r="D158" s="73" t="s">
-        <v>938</v>
+      <c r="D158" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="E158" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="F158" s="266" t="s">
+      <c r="F158" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B159" s="61"/>
+      <c r="C159" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D159" s="65" t="s">
+        <v>760</v>
+      </c>
+      <c r="E159" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F159" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>761</v>
+      </c>
+      <c r="E160" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F160" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B161" s="61"/>
+      <c r="C161" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F161" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="143">
+        <v>42737</v>
+      </c>
+      <c r="B162" s="128"/>
+      <c r="C162" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E162" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F162" s="199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="61"/>
+      <c r="C163" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F163" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B164" s="61"/>
+      <c r="C164" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D164" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F164" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B165" s="61"/>
+      <c r="C165" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E165" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F165" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B166" s="61"/>
+      <c r="C166" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F166" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B167" s="67"/>
+      <c r="C167" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D167" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E167" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F167" s="119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B168" s="61"/>
+      <c r="C168" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>937</v>
+      </c>
+      <c r="E168" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F168" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B169" s="320"/>
+      <c r="C169" s="73" t="s">
+        <v>882</v>
+      </c>
+      <c r="D169" s="73" t="s">
+        <v>938</v>
+      </c>
+      <c r="E169" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="F169" s="266" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35664,7 +36716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -35823,10 +36875,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK57"/>
+  <dimension ref="A1:EK59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36980,70 +38032,70 @@
         <v>42736</v>
       </c>
       <c r="B49" s="84"/>
-      <c r="C49" s="65" t="s">
-        <v>890</v>
+      <c r="C49" s="68" t="s">
+        <v>1060</v>
       </c>
       <c r="D49" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="134" t="s">
+      <c r="E49" s="84" t="s">
         <v>776</v>
       </c>
       <c r="F49" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="66">
         <v>42736</v>
       </c>
       <c r="B50" s="84"/>
-      <c r="C50" s="65" t="s">
-        <v>890</v>
+      <c r="C50" s="68" t="s">
+        <v>1060</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>729</v>
-      </c>
-      <c r="E50" s="134" t="s">
+        <v>941</v>
+      </c>
+      <c r="E50" s="84" t="s">
         <v>776</v>
       </c>
       <c r="F50" s="119" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="73" t="s">
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="84"/>
+      <c r="C51" s="65" t="s">
         <v>890</v>
       </c>
-      <c r="D51" s="86" t="s">
-        <v>732</v>
-      </c>
-      <c r="E51" s="195" t="s">
+      <c r="D51" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="134" t="s">
         <v>776</v>
       </c>
-      <c r="F51" s="125" t="s">
+      <c r="F51" s="119" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="69"/>
+      <c r="A52" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="84"/>
       <c r="C52" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>834</v>
-      </c>
-      <c r="E52" s="195" t="s">
+        <v>890</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>729</v>
+      </c>
+      <c r="E52" s="134" t="s">
         <v>776</v>
       </c>
-      <c r="F52" s="125" t="s">
+      <c r="F52" s="119" t="s">
         <v>339</v>
       </c>
     </row>
@@ -37051,12 +38103,12 @@
       <c r="A53" s="71">
         <v>42736</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>837</v>
+      <c r="B53" s="90"/>
+      <c r="C53" s="73" t="s">
+        <v>890</v>
+      </c>
+      <c r="D53" s="86" t="s">
+        <v>732</v>
       </c>
       <c r="E53" s="195" t="s">
         <v>776</v>
@@ -37074,7 +38126,7 @@
         <v>891</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E54" s="195" t="s">
         <v>776</v>
@@ -37087,12 +38139,12 @@
       <c r="A55" s="71">
         <v>42736</v>
       </c>
-      <c r="B55" s="72"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="65" t="s">
         <v>891</v>
       </c>
-      <c r="D55" s="88" t="s">
-        <v>841</v>
+      <c r="D55" s="82" t="s">
+        <v>837</v>
       </c>
       <c r="E55" s="195" t="s">
         <v>776</v>
@@ -37102,38 +38154,74 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="263">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="419"/>
-      <c r="C56" s="73" t="s">
+      <c r="A56" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="69"/>
+      <c r="C56" s="65" t="s">
+        <v>891</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>839</v>
+      </c>
+      <c r="E56" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F56" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="72"/>
+      <c r="C57" s="65" t="s">
+        <v>891</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>841</v>
+      </c>
+      <c r="E57" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F57" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="419"/>
+      <c r="C58" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D56" s="265" t="s">
+      <c r="D58" s="265" t="s">
         <v>392</v>
       </c>
-      <c r="E56" s="418" t="s">
+      <c r="E58" s="418" t="s">
         <v>943</v>
       </c>
-      <c r="F56" s="266" t="s">
+      <c r="F58" s="266" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="60">
-        <v>42736</v>
-      </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="62" t="s">
+    <row r="59" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="81"/>
+      <c r="C59" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D59" s="65" t="s">
         <v>941</v>
       </c>
-      <c r="E57" s="418" t="s">
+      <c r="E59" s="418" t="s">
         <v>943</v>
       </c>
-      <c r="F57" s="115" t="s">
+      <c r="F59" s="115" t="s">
         <v>339</v>
       </c>
     </row>
@@ -37151,10 +38239,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:CF36"/>
+  <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37956,20 +39044,110 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="263">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="419"/>
-      <c r="C36" s="265" t="s">
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D36" s="293" t="s">
+        <v>489</v>
+      </c>
+      <c r="E36" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F36" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D37" s="293" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F37" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D38" s="293" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F38" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D39" s="293" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="72"/>
+      <c r="C40" s="292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D40" s="293" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E40" s="195" t="s">
+        <v>776</v>
+      </c>
+      <c r="F40" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="263">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="419"/>
+      <c r="C41" s="265" t="s">
         <v>882</v>
       </c>
-      <c r="D36" s="265" t="s">
+      <c r="D41" s="265" t="s">
         <v>489</v>
       </c>
-      <c r="E36" s="418" t="s">
+      <c r="E41" s="418" t="s">
         <v>943</v>
       </c>
-      <c r="F36" s="266" t="s">
+      <c r="F41" s="266" t="s">
         <v>339</v>
       </c>
     </row>
@@ -37989,8 +39167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38434,15 +39612,27 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="A19" s="411">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="409"/>
+      <c r="C19" s="130" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E19" s="409" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F19" s="409" t="s">
+        <v>773</v>
+      </c>
+      <c r="G19" s="409"/>
+      <c r="H19" s="409"/>
+      <c r="I19" s="40" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
@@ -38824,11 +40014,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO136"/>
+  <dimension ref="A1:IO147"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46261,297 +47451,3216 @@
       <c r="IN126" s="48"/>
       <c r="IO126" s="48"/>
     </row>
-    <row r="127" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="71">
+    <row r="127" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B127" s="463"/>
+      <c r="C127" s="385" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D127" s="464" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="464" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="465"/>
+      <c r="G127" s="464" t="s">
+        <v>56</v>
+      </c>
+      <c r="H127" s="464"/>
+      <c r="I127" s="465"/>
+      <c r="J127" s="465"/>
+      <c r="K127" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" s="465"/>
+      <c r="M127" s="466"/>
+      <c r="N127" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O127" s="469"/>
+      <c r="P127" s="469"/>
+      <c r="Q127" s="469"/>
+      <c r="R127" s="469"/>
+      <c r="S127" s="469"/>
+      <c r="T127" s="469"/>
+      <c r="U127" s="469"/>
+      <c r="V127" s="469"/>
+      <c r="W127" s="469"/>
+      <c r="X127" s="469"/>
+      <c r="Y127" s="469"/>
+      <c r="Z127" s="469"/>
+      <c r="AA127" s="469"/>
+      <c r="AB127" s="469"/>
+      <c r="AC127" s="469"/>
+      <c r="AD127" s="469"/>
+      <c r="AE127" s="469"/>
+      <c r="AF127" s="469"/>
+      <c r="AG127" s="469"/>
+      <c r="AH127" s="469"/>
+      <c r="AI127" s="469"/>
+      <c r="AJ127" s="469"/>
+      <c r="AK127" s="469"/>
+      <c r="AL127" s="469"/>
+      <c r="AM127" s="469"/>
+      <c r="AN127" s="469"/>
+      <c r="AO127" s="469"/>
+      <c r="AP127" s="469"/>
+      <c r="AQ127" s="469"/>
+      <c r="AR127" s="469"/>
+      <c r="AS127" s="469"/>
+      <c r="AT127" s="469"/>
+      <c r="AU127" s="469"/>
+      <c r="AV127" s="469"/>
+      <c r="AW127" s="469"/>
+      <c r="AX127" s="469"/>
+      <c r="AY127" s="469"/>
+      <c r="AZ127" s="469"/>
+      <c r="BA127" s="469"/>
+      <c r="BB127" s="469"/>
+      <c r="BC127" s="469"/>
+      <c r="BD127" s="469"/>
+      <c r="BE127" s="469"/>
+      <c r="BF127" s="469"/>
+      <c r="BG127" s="469"/>
+      <c r="BH127" s="469"/>
+      <c r="BI127" s="469"/>
+      <c r="BJ127" s="469"/>
+      <c r="BK127" s="469"/>
+      <c r="BL127" s="469"/>
+      <c r="BM127" s="469"/>
+      <c r="BN127" s="469"/>
+      <c r="BO127" s="469"/>
+      <c r="BP127" s="469"/>
+      <c r="BQ127" s="469"/>
+      <c r="BR127" s="469"/>
+      <c r="BS127" s="469"/>
+      <c r="BT127" s="469"/>
+      <c r="BU127" s="469"/>
+      <c r="BV127" s="469"/>
+      <c r="BW127" s="469"/>
+      <c r="BX127" s="469"/>
+      <c r="BY127" s="469"/>
+      <c r="BZ127" s="469"/>
+      <c r="CA127" s="469"/>
+      <c r="CB127" s="469"/>
+      <c r="CC127" s="469"/>
+      <c r="CD127" s="469"/>
+      <c r="CE127" s="469"/>
+      <c r="CF127" s="469"/>
+      <c r="CG127" s="469"/>
+      <c r="CH127" s="469"/>
+      <c r="CI127" s="469"/>
+      <c r="CJ127" s="469"/>
+      <c r="CK127" s="469"/>
+      <c r="CL127" s="469"/>
+      <c r="CM127" s="469"/>
+      <c r="CN127" s="469"/>
+      <c r="CO127" s="469"/>
+      <c r="CP127" s="469"/>
+      <c r="CQ127" s="469"/>
+      <c r="CR127" s="469"/>
+      <c r="CS127" s="469"/>
+      <c r="CT127" s="469"/>
+      <c r="CU127" s="469"/>
+      <c r="CV127" s="469"/>
+      <c r="CW127" s="469"/>
+      <c r="CX127" s="469"/>
+      <c r="CY127" s="469"/>
+      <c r="CZ127" s="469"/>
+      <c r="DA127" s="469"/>
+      <c r="DB127" s="469"/>
+      <c r="DC127" s="469"/>
+      <c r="DD127" s="469"/>
+      <c r="DE127" s="469"/>
+      <c r="DF127" s="469"/>
+      <c r="DG127" s="469"/>
+      <c r="DH127" s="469"/>
+      <c r="DI127" s="469"/>
+      <c r="DJ127" s="469"/>
+      <c r="DK127" s="469"/>
+      <c r="DL127" s="469"/>
+      <c r="DM127" s="469"/>
+      <c r="DN127" s="469"/>
+      <c r="DO127" s="469"/>
+      <c r="DP127" s="469"/>
+      <c r="DQ127" s="469"/>
+      <c r="DR127" s="469"/>
+      <c r="DS127" s="469"/>
+      <c r="DT127" s="469"/>
+      <c r="DU127" s="469"/>
+      <c r="DV127" s="469"/>
+      <c r="DW127" s="469"/>
+      <c r="DX127" s="469"/>
+      <c r="DY127" s="469"/>
+      <c r="DZ127" s="469"/>
+      <c r="EA127" s="469"/>
+      <c r="EB127" s="469"/>
+      <c r="EC127" s="469"/>
+      <c r="ED127" s="469"/>
+      <c r="EE127" s="469"/>
+      <c r="EF127" s="469"/>
+      <c r="EG127" s="469"/>
+      <c r="EH127" s="469"/>
+      <c r="EI127" s="469"/>
+      <c r="EJ127" s="469"/>
+      <c r="EK127" s="469"/>
+      <c r="EL127" s="469"/>
+      <c r="EM127" s="469"/>
+      <c r="EN127" s="469"/>
+      <c r="EO127" s="469"/>
+      <c r="EP127" s="469"/>
+      <c r="EQ127" s="469"/>
+      <c r="ER127" s="469"/>
+      <c r="ES127" s="469"/>
+      <c r="ET127" s="469"/>
+      <c r="EU127" s="469"/>
+      <c r="EV127" s="469"/>
+      <c r="EW127" s="469"/>
+      <c r="EX127" s="469"/>
+      <c r="EY127" s="469"/>
+      <c r="EZ127" s="469"/>
+      <c r="FA127" s="469"/>
+      <c r="FB127" s="469"/>
+      <c r="FC127" s="469"/>
+      <c r="FD127" s="469"/>
+      <c r="FE127" s="469"/>
+      <c r="FF127" s="469"/>
+      <c r="FG127" s="469"/>
+      <c r="FH127" s="469"/>
+      <c r="FI127" s="469"/>
+      <c r="FJ127" s="469"/>
+      <c r="FK127" s="469"/>
+      <c r="FL127" s="469"/>
+      <c r="FM127" s="469"/>
+      <c r="FN127" s="469"/>
+      <c r="FO127" s="469"/>
+      <c r="FP127" s="469"/>
+      <c r="FQ127" s="469"/>
+      <c r="FR127" s="469"/>
+      <c r="FS127" s="469"/>
+      <c r="FT127" s="469"/>
+      <c r="FU127" s="469"/>
+      <c r="FV127" s="469"/>
+      <c r="FW127" s="469"/>
+      <c r="FX127" s="469"/>
+      <c r="FY127" s="469"/>
+      <c r="FZ127" s="469"/>
+      <c r="GA127" s="469"/>
+      <c r="GB127" s="469"/>
+      <c r="GC127" s="469"/>
+      <c r="GD127" s="469"/>
+      <c r="GE127" s="469"/>
+      <c r="GF127" s="469"/>
+      <c r="GG127" s="469"/>
+      <c r="GH127" s="469"/>
+      <c r="GI127" s="469"/>
+      <c r="GJ127" s="469"/>
+      <c r="GK127" s="469"/>
+      <c r="GL127" s="469"/>
+      <c r="GM127" s="469"/>
+      <c r="GN127" s="469"/>
+      <c r="GO127" s="469"/>
+      <c r="GP127" s="469"/>
+      <c r="GQ127" s="469"/>
+      <c r="GR127" s="469"/>
+      <c r="GS127" s="469"/>
+      <c r="GT127" s="469"/>
+      <c r="GU127" s="469"/>
+      <c r="GV127" s="469"/>
+      <c r="GW127" s="469"/>
+      <c r="GX127" s="469"/>
+      <c r="GY127" s="469"/>
+      <c r="GZ127" s="469"/>
+      <c r="HA127" s="469"/>
+      <c r="HB127" s="469"/>
+      <c r="HC127" s="469"/>
+      <c r="HD127" s="469"/>
+      <c r="HE127" s="469"/>
+      <c r="HF127" s="469"/>
+      <c r="HG127" s="469"/>
+      <c r="HH127" s="469"/>
+      <c r="HI127" s="469"/>
+      <c r="HJ127" s="469"/>
+      <c r="HK127" s="469"/>
+      <c r="HL127" s="469"/>
+      <c r="HM127" s="469"/>
+      <c r="HN127" s="469"/>
+      <c r="HO127" s="469"/>
+      <c r="HP127" s="469"/>
+      <c r="HQ127" s="469"/>
+      <c r="HR127" s="469"/>
+      <c r="HS127" s="469"/>
+      <c r="HT127" s="469"/>
+      <c r="HU127" s="469"/>
+      <c r="HV127" s="469"/>
+      <c r="HW127" s="469"/>
+      <c r="HX127" s="469"/>
+      <c r="HY127" s="469"/>
+      <c r="HZ127" s="469"/>
+      <c r="IA127" s="469"/>
+      <c r="IB127" s="469"/>
+      <c r="IC127" s="469"/>
+      <c r="ID127" s="469"/>
+      <c r="IE127" s="469"/>
+      <c r="IF127" s="469"/>
+      <c r="IG127" s="469"/>
+      <c r="IH127" s="469"/>
+      <c r="II127" s="469"/>
+      <c r="IJ127" s="469"/>
+      <c r="IK127" s="469"/>
+      <c r="IL127" s="469"/>
+      <c r="IM127" s="469"/>
+      <c r="IN127" s="469"/>
+      <c r="IO127" s="469"/>
+    </row>
+    <row r="128" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B128" s="463"/>
+      <c r="C128" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D128" s="464" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="464" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128" s="465"/>
+      <c r="G128" s="464" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" s="464"/>
+      <c r="I128" s="465"/>
+      <c r="J128" s="465"/>
+      <c r="K128" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" s="465"/>
+      <c r="M128" s="466"/>
+      <c r="N128" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O128" s="469"/>
+      <c r="P128" s="469"/>
+      <c r="Q128" s="469"/>
+      <c r="R128" s="469"/>
+      <c r="S128" s="469"/>
+      <c r="T128" s="469"/>
+      <c r="U128" s="469"/>
+      <c r="V128" s="469"/>
+      <c r="W128" s="469"/>
+      <c r="X128" s="469"/>
+      <c r="Y128" s="469"/>
+      <c r="Z128" s="469"/>
+      <c r="AA128" s="469"/>
+      <c r="AB128" s="469"/>
+      <c r="AC128" s="469"/>
+      <c r="AD128" s="469"/>
+      <c r="AE128" s="469"/>
+      <c r="AF128" s="469"/>
+      <c r="AG128" s="469"/>
+      <c r="AH128" s="469"/>
+      <c r="AI128" s="469"/>
+      <c r="AJ128" s="469"/>
+      <c r="AK128" s="469"/>
+      <c r="AL128" s="469"/>
+      <c r="AM128" s="469"/>
+      <c r="AN128" s="469"/>
+      <c r="AO128" s="469"/>
+      <c r="AP128" s="469"/>
+      <c r="AQ128" s="469"/>
+      <c r="AR128" s="469"/>
+      <c r="AS128" s="469"/>
+      <c r="AT128" s="469"/>
+      <c r="AU128" s="469"/>
+      <c r="AV128" s="469"/>
+      <c r="AW128" s="469"/>
+      <c r="AX128" s="469"/>
+      <c r="AY128" s="469"/>
+      <c r="AZ128" s="469"/>
+      <c r="BA128" s="469"/>
+      <c r="BB128" s="469"/>
+      <c r="BC128" s="469"/>
+      <c r="BD128" s="469"/>
+      <c r="BE128" s="469"/>
+      <c r="BF128" s="469"/>
+      <c r="BG128" s="469"/>
+      <c r="BH128" s="469"/>
+      <c r="BI128" s="469"/>
+      <c r="BJ128" s="469"/>
+      <c r="BK128" s="469"/>
+      <c r="BL128" s="469"/>
+      <c r="BM128" s="469"/>
+      <c r="BN128" s="469"/>
+      <c r="BO128" s="469"/>
+      <c r="BP128" s="469"/>
+      <c r="BQ128" s="469"/>
+      <c r="BR128" s="469"/>
+      <c r="BS128" s="469"/>
+      <c r="BT128" s="469"/>
+      <c r="BU128" s="469"/>
+      <c r="BV128" s="469"/>
+      <c r="BW128" s="469"/>
+      <c r="BX128" s="469"/>
+      <c r="BY128" s="469"/>
+      <c r="BZ128" s="469"/>
+      <c r="CA128" s="469"/>
+      <c r="CB128" s="469"/>
+      <c r="CC128" s="469"/>
+      <c r="CD128" s="469"/>
+      <c r="CE128" s="469"/>
+      <c r="CF128" s="469"/>
+      <c r="CG128" s="469"/>
+      <c r="CH128" s="469"/>
+      <c r="CI128" s="469"/>
+      <c r="CJ128" s="469"/>
+      <c r="CK128" s="469"/>
+      <c r="CL128" s="469"/>
+      <c r="CM128" s="469"/>
+      <c r="CN128" s="469"/>
+      <c r="CO128" s="469"/>
+      <c r="CP128" s="469"/>
+      <c r="CQ128" s="469"/>
+      <c r="CR128" s="469"/>
+      <c r="CS128" s="469"/>
+      <c r="CT128" s="469"/>
+      <c r="CU128" s="469"/>
+      <c r="CV128" s="469"/>
+      <c r="CW128" s="469"/>
+      <c r="CX128" s="469"/>
+      <c r="CY128" s="469"/>
+      <c r="CZ128" s="469"/>
+      <c r="DA128" s="469"/>
+      <c r="DB128" s="469"/>
+      <c r="DC128" s="469"/>
+      <c r="DD128" s="469"/>
+      <c r="DE128" s="469"/>
+      <c r="DF128" s="469"/>
+      <c r="DG128" s="469"/>
+      <c r="DH128" s="469"/>
+      <c r="DI128" s="469"/>
+      <c r="DJ128" s="469"/>
+      <c r="DK128" s="469"/>
+      <c r="DL128" s="469"/>
+      <c r="DM128" s="469"/>
+      <c r="DN128" s="469"/>
+      <c r="DO128" s="469"/>
+      <c r="DP128" s="469"/>
+      <c r="DQ128" s="469"/>
+      <c r="DR128" s="469"/>
+      <c r="DS128" s="469"/>
+      <c r="DT128" s="469"/>
+      <c r="DU128" s="469"/>
+      <c r="DV128" s="469"/>
+      <c r="DW128" s="469"/>
+      <c r="DX128" s="469"/>
+      <c r="DY128" s="469"/>
+      <c r="DZ128" s="469"/>
+      <c r="EA128" s="469"/>
+      <c r="EB128" s="469"/>
+      <c r="EC128" s="469"/>
+      <c r="ED128" s="469"/>
+      <c r="EE128" s="469"/>
+      <c r="EF128" s="469"/>
+      <c r="EG128" s="469"/>
+      <c r="EH128" s="469"/>
+      <c r="EI128" s="469"/>
+      <c r="EJ128" s="469"/>
+      <c r="EK128" s="469"/>
+      <c r="EL128" s="469"/>
+      <c r="EM128" s="469"/>
+      <c r="EN128" s="469"/>
+      <c r="EO128" s="469"/>
+      <c r="EP128" s="469"/>
+      <c r="EQ128" s="469"/>
+      <c r="ER128" s="469"/>
+      <c r="ES128" s="469"/>
+      <c r="ET128" s="469"/>
+      <c r="EU128" s="469"/>
+      <c r="EV128" s="469"/>
+      <c r="EW128" s="469"/>
+      <c r="EX128" s="469"/>
+      <c r="EY128" s="469"/>
+      <c r="EZ128" s="469"/>
+      <c r="FA128" s="469"/>
+      <c r="FB128" s="469"/>
+      <c r="FC128" s="469"/>
+      <c r="FD128" s="469"/>
+      <c r="FE128" s="469"/>
+      <c r="FF128" s="469"/>
+      <c r="FG128" s="469"/>
+      <c r="FH128" s="469"/>
+      <c r="FI128" s="469"/>
+      <c r="FJ128" s="469"/>
+      <c r="FK128" s="469"/>
+      <c r="FL128" s="469"/>
+      <c r="FM128" s="469"/>
+      <c r="FN128" s="469"/>
+      <c r="FO128" s="469"/>
+      <c r="FP128" s="469"/>
+      <c r="FQ128" s="469"/>
+      <c r="FR128" s="469"/>
+      <c r="FS128" s="469"/>
+      <c r="FT128" s="469"/>
+      <c r="FU128" s="469"/>
+      <c r="FV128" s="469"/>
+      <c r="FW128" s="469"/>
+      <c r="FX128" s="469"/>
+      <c r="FY128" s="469"/>
+      <c r="FZ128" s="469"/>
+      <c r="GA128" s="469"/>
+      <c r="GB128" s="469"/>
+      <c r="GC128" s="469"/>
+      <c r="GD128" s="469"/>
+      <c r="GE128" s="469"/>
+      <c r="GF128" s="469"/>
+      <c r="GG128" s="469"/>
+      <c r="GH128" s="469"/>
+      <c r="GI128" s="469"/>
+      <c r="GJ128" s="469"/>
+      <c r="GK128" s="469"/>
+      <c r="GL128" s="469"/>
+      <c r="GM128" s="469"/>
+      <c r="GN128" s="469"/>
+      <c r="GO128" s="469"/>
+      <c r="GP128" s="469"/>
+      <c r="GQ128" s="469"/>
+      <c r="GR128" s="469"/>
+      <c r="GS128" s="469"/>
+      <c r="GT128" s="469"/>
+      <c r="GU128" s="469"/>
+      <c r="GV128" s="469"/>
+      <c r="GW128" s="469"/>
+      <c r="GX128" s="469"/>
+      <c r="GY128" s="469"/>
+      <c r="GZ128" s="469"/>
+      <c r="HA128" s="469"/>
+      <c r="HB128" s="469"/>
+      <c r="HC128" s="469"/>
+      <c r="HD128" s="469"/>
+      <c r="HE128" s="469"/>
+      <c r="HF128" s="469"/>
+      <c r="HG128" s="469"/>
+      <c r="HH128" s="469"/>
+      <c r="HI128" s="469"/>
+      <c r="HJ128" s="469"/>
+      <c r="HK128" s="469"/>
+      <c r="HL128" s="469"/>
+      <c r="HM128" s="469"/>
+      <c r="HN128" s="469"/>
+      <c r="HO128" s="469"/>
+      <c r="HP128" s="469"/>
+      <c r="HQ128" s="469"/>
+      <c r="HR128" s="469"/>
+      <c r="HS128" s="469"/>
+      <c r="HT128" s="469"/>
+      <c r="HU128" s="469"/>
+      <c r="HV128" s="469"/>
+      <c r="HW128" s="469"/>
+      <c r="HX128" s="469"/>
+      <c r="HY128" s="469"/>
+      <c r="HZ128" s="469"/>
+      <c r="IA128" s="469"/>
+      <c r="IB128" s="469"/>
+      <c r="IC128" s="469"/>
+      <c r="ID128" s="469"/>
+      <c r="IE128" s="469"/>
+      <c r="IF128" s="469"/>
+      <c r="IG128" s="469"/>
+      <c r="IH128" s="469"/>
+      <c r="II128" s="469"/>
+      <c r="IJ128" s="469"/>
+      <c r="IK128" s="469"/>
+      <c r="IL128" s="469"/>
+      <c r="IM128" s="469"/>
+      <c r="IN128" s="469"/>
+      <c r="IO128" s="469"/>
+    </row>
+    <row r="129" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B129" s="463"/>
+      <c r="C129" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D129" s="464" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129" s="464" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="465"/>
+      <c r="G129" s="464" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="464"/>
+      <c r="I129" s="465"/>
+      <c r="J129" s="465"/>
+      <c r="K129" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="465"/>
+      <c r="M129" s="466"/>
+      <c r="N129" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O129" s="469"/>
+      <c r="P129" s="469"/>
+      <c r="Q129" s="469"/>
+      <c r="R129" s="469"/>
+      <c r="S129" s="469"/>
+      <c r="T129" s="469"/>
+      <c r="U129" s="469"/>
+      <c r="V129" s="469"/>
+      <c r="W129" s="469"/>
+      <c r="X129" s="469"/>
+      <c r="Y129" s="469"/>
+      <c r="Z129" s="469"/>
+      <c r="AA129" s="469"/>
+      <c r="AB129" s="469"/>
+      <c r="AC129" s="469"/>
+      <c r="AD129" s="469"/>
+      <c r="AE129" s="469"/>
+      <c r="AF129" s="469"/>
+      <c r="AG129" s="469"/>
+      <c r="AH129" s="469"/>
+      <c r="AI129" s="469"/>
+      <c r="AJ129" s="469"/>
+      <c r="AK129" s="469"/>
+      <c r="AL129" s="469"/>
+      <c r="AM129" s="469"/>
+      <c r="AN129" s="469"/>
+      <c r="AO129" s="469"/>
+      <c r="AP129" s="469"/>
+      <c r="AQ129" s="469"/>
+      <c r="AR129" s="469"/>
+      <c r="AS129" s="469"/>
+      <c r="AT129" s="469"/>
+      <c r="AU129" s="469"/>
+      <c r="AV129" s="469"/>
+      <c r="AW129" s="469"/>
+      <c r="AX129" s="469"/>
+      <c r="AY129" s="469"/>
+      <c r="AZ129" s="469"/>
+      <c r="BA129" s="469"/>
+      <c r="BB129" s="469"/>
+      <c r="BC129" s="469"/>
+      <c r="BD129" s="469"/>
+      <c r="BE129" s="469"/>
+      <c r="BF129" s="469"/>
+      <c r="BG129" s="469"/>
+      <c r="BH129" s="469"/>
+      <c r="BI129" s="469"/>
+      <c r="BJ129" s="469"/>
+      <c r="BK129" s="469"/>
+      <c r="BL129" s="469"/>
+      <c r="BM129" s="469"/>
+      <c r="BN129" s="469"/>
+      <c r="BO129" s="469"/>
+      <c r="BP129" s="469"/>
+      <c r="BQ129" s="469"/>
+      <c r="BR129" s="469"/>
+      <c r="BS129" s="469"/>
+      <c r="BT129" s="469"/>
+      <c r="BU129" s="469"/>
+      <c r="BV129" s="469"/>
+      <c r="BW129" s="469"/>
+      <c r="BX129" s="469"/>
+      <c r="BY129" s="469"/>
+      <c r="BZ129" s="469"/>
+      <c r="CA129" s="469"/>
+      <c r="CB129" s="469"/>
+      <c r="CC129" s="469"/>
+      <c r="CD129" s="469"/>
+      <c r="CE129" s="469"/>
+      <c r="CF129" s="469"/>
+      <c r="CG129" s="469"/>
+      <c r="CH129" s="469"/>
+      <c r="CI129" s="469"/>
+      <c r="CJ129" s="469"/>
+      <c r="CK129" s="469"/>
+      <c r="CL129" s="469"/>
+      <c r="CM129" s="469"/>
+      <c r="CN129" s="469"/>
+      <c r="CO129" s="469"/>
+      <c r="CP129" s="469"/>
+      <c r="CQ129" s="469"/>
+      <c r="CR129" s="469"/>
+      <c r="CS129" s="469"/>
+      <c r="CT129" s="469"/>
+      <c r="CU129" s="469"/>
+      <c r="CV129" s="469"/>
+      <c r="CW129" s="469"/>
+      <c r="CX129" s="469"/>
+      <c r="CY129" s="469"/>
+      <c r="CZ129" s="469"/>
+      <c r="DA129" s="469"/>
+      <c r="DB129" s="469"/>
+      <c r="DC129" s="469"/>
+      <c r="DD129" s="469"/>
+      <c r="DE129" s="469"/>
+      <c r="DF129" s="469"/>
+      <c r="DG129" s="469"/>
+      <c r="DH129" s="469"/>
+      <c r="DI129" s="469"/>
+      <c r="DJ129" s="469"/>
+      <c r="DK129" s="469"/>
+      <c r="DL129" s="469"/>
+      <c r="DM129" s="469"/>
+      <c r="DN129" s="469"/>
+      <c r="DO129" s="469"/>
+      <c r="DP129" s="469"/>
+      <c r="DQ129" s="469"/>
+      <c r="DR129" s="469"/>
+      <c r="DS129" s="469"/>
+      <c r="DT129" s="469"/>
+      <c r="DU129" s="469"/>
+      <c r="DV129" s="469"/>
+      <c r="DW129" s="469"/>
+      <c r="DX129" s="469"/>
+      <c r="DY129" s="469"/>
+      <c r="DZ129" s="469"/>
+      <c r="EA129" s="469"/>
+      <c r="EB129" s="469"/>
+      <c r="EC129" s="469"/>
+      <c r="ED129" s="469"/>
+      <c r="EE129" s="469"/>
+      <c r="EF129" s="469"/>
+      <c r="EG129" s="469"/>
+      <c r="EH129" s="469"/>
+      <c r="EI129" s="469"/>
+      <c r="EJ129" s="469"/>
+      <c r="EK129" s="469"/>
+      <c r="EL129" s="469"/>
+      <c r="EM129" s="469"/>
+      <c r="EN129" s="469"/>
+      <c r="EO129" s="469"/>
+      <c r="EP129" s="469"/>
+      <c r="EQ129" s="469"/>
+      <c r="ER129" s="469"/>
+      <c r="ES129" s="469"/>
+      <c r="ET129" s="469"/>
+      <c r="EU129" s="469"/>
+      <c r="EV129" s="469"/>
+      <c r="EW129" s="469"/>
+      <c r="EX129" s="469"/>
+      <c r="EY129" s="469"/>
+      <c r="EZ129" s="469"/>
+      <c r="FA129" s="469"/>
+      <c r="FB129" s="469"/>
+      <c r="FC129" s="469"/>
+      <c r="FD129" s="469"/>
+      <c r="FE129" s="469"/>
+      <c r="FF129" s="469"/>
+      <c r="FG129" s="469"/>
+      <c r="FH129" s="469"/>
+      <c r="FI129" s="469"/>
+      <c r="FJ129" s="469"/>
+      <c r="FK129" s="469"/>
+      <c r="FL129" s="469"/>
+      <c r="FM129" s="469"/>
+      <c r="FN129" s="469"/>
+      <c r="FO129" s="469"/>
+      <c r="FP129" s="469"/>
+      <c r="FQ129" s="469"/>
+      <c r="FR129" s="469"/>
+      <c r="FS129" s="469"/>
+      <c r="FT129" s="469"/>
+      <c r="FU129" s="469"/>
+      <c r="FV129" s="469"/>
+      <c r="FW129" s="469"/>
+      <c r="FX129" s="469"/>
+      <c r="FY129" s="469"/>
+      <c r="FZ129" s="469"/>
+      <c r="GA129" s="469"/>
+      <c r="GB129" s="469"/>
+      <c r="GC129" s="469"/>
+      <c r="GD129" s="469"/>
+      <c r="GE129" s="469"/>
+      <c r="GF129" s="469"/>
+      <c r="GG129" s="469"/>
+      <c r="GH129" s="469"/>
+      <c r="GI129" s="469"/>
+      <c r="GJ129" s="469"/>
+      <c r="GK129" s="469"/>
+      <c r="GL129" s="469"/>
+      <c r="GM129" s="469"/>
+      <c r="GN129" s="469"/>
+      <c r="GO129" s="469"/>
+      <c r="GP129" s="469"/>
+      <c r="GQ129" s="469"/>
+      <c r="GR129" s="469"/>
+      <c r="GS129" s="469"/>
+      <c r="GT129" s="469"/>
+      <c r="GU129" s="469"/>
+      <c r="GV129" s="469"/>
+      <c r="GW129" s="469"/>
+      <c r="GX129" s="469"/>
+      <c r="GY129" s="469"/>
+      <c r="GZ129" s="469"/>
+      <c r="HA129" s="469"/>
+      <c r="HB129" s="469"/>
+      <c r="HC129" s="469"/>
+      <c r="HD129" s="469"/>
+      <c r="HE129" s="469"/>
+      <c r="HF129" s="469"/>
+      <c r="HG129" s="469"/>
+      <c r="HH129" s="469"/>
+      <c r="HI129" s="469"/>
+      <c r="HJ129" s="469"/>
+      <c r="HK129" s="469"/>
+      <c r="HL129" s="469"/>
+      <c r="HM129" s="469"/>
+      <c r="HN129" s="469"/>
+      <c r="HO129" s="469"/>
+      <c r="HP129" s="469"/>
+      <c r="HQ129" s="469"/>
+      <c r="HR129" s="469"/>
+      <c r="HS129" s="469"/>
+      <c r="HT129" s="469"/>
+      <c r="HU129" s="469"/>
+      <c r="HV129" s="469"/>
+      <c r="HW129" s="469"/>
+      <c r="HX129" s="469"/>
+      <c r="HY129" s="469"/>
+      <c r="HZ129" s="469"/>
+      <c r="IA129" s="469"/>
+      <c r="IB129" s="469"/>
+      <c r="IC129" s="469"/>
+      <c r="ID129" s="469"/>
+      <c r="IE129" s="469"/>
+      <c r="IF129" s="469"/>
+      <c r="IG129" s="469"/>
+      <c r="IH129" s="469"/>
+      <c r="II129" s="469"/>
+      <c r="IJ129" s="469"/>
+      <c r="IK129" s="469"/>
+      <c r="IL129" s="469"/>
+      <c r="IM129" s="469"/>
+      <c r="IN129" s="469"/>
+      <c r="IO129" s="469"/>
+    </row>
+    <row r="130" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B130" s="463"/>
+      <c r="C130" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D130" s="464" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="464" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="465"/>
+      <c r="G130" s="464" t="s">
+        <v>65</v>
+      </c>
+      <c r="H130" s="464"/>
+      <c r="I130" s="465"/>
+      <c r="J130" s="465"/>
+      <c r="K130" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L130" s="465"/>
+      <c r="M130" s="466"/>
+      <c r="N130" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O130" s="469"/>
+      <c r="P130" s="469"/>
+      <c r="Q130" s="469"/>
+      <c r="R130" s="469"/>
+      <c r="S130" s="469"/>
+      <c r="T130" s="469"/>
+      <c r="U130" s="469"/>
+      <c r="V130" s="469"/>
+      <c r="W130" s="469"/>
+      <c r="X130" s="469"/>
+      <c r="Y130" s="469"/>
+      <c r="Z130" s="469"/>
+      <c r="AA130" s="469"/>
+      <c r="AB130" s="469"/>
+      <c r="AC130" s="469"/>
+      <c r="AD130" s="469"/>
+      <c r="AE130" s="469"/>
+      <c r="AF130" s="469"/>
+      <c r="AG130" s="469"/>
+      <c r="AH130" s="469"/>
+      <c r="AI130" s="469"/>
+      <c r="AJ130" s="469"/>
+      <c r="AK130" s="469"/>
+      <c r="AL130" s="469"/>
+      <c r="AM130" s="469"/>
+      <c r="AN130" s="469"/>
+      <c r="AO130" s="469"/>
+      <c r="AP130" s="469"/>
+      <c r="AQ130" s="469"/>
+      <c r="AR130" s="469"/>
+      <c r="AS130" s="469"/>
+      <c r="AT130" s="469"/>
+      <c r="AU130" s="469"/>
+      <c r="AV130" s="469"/>
+      <c r="AW130" s="469"/>
+      <c r="AX130" s="469"/>
+      <c r="AY130" s="469"/>
+      <c r="AZ130" s="469"/>
+      <c r="BA130" s="469"/>
+      <c r="BB130" s="469"/>
+      <c r="BC130" s="469"/>
+      <c r="BD130" s="469"/>
+      <c r="BE130" s="469"/>
+      <c r="BF130" s="469"/>
+      <c r="BG130" s="469"/>
+      <c r="BH130" s="469"/>
+      <c r="BI130" s="469"/>
+      <c r="BJ130" s="469"/>
+      <c r="BK130" s="469"/>
+      <c r="BL130" s="469"/>
+      <c r="BM130" s="469"/>
+      <c r="BN130" s="469"/>
+      <c r="BO130" s="469"/>
+      <c r="BP130" s="469"/>
+      <c r="BQ130" s="469"/>
+      <c r="BR130" s="469"/>
+      <c r="BS130" s="469"/>
+      <c r="BT130" s="469"/>
+      <c r="BU130" s="469"/>
+      <c r="BV130" s="469"/>
+      <c r="BW130" s="469"/>
+      <c r="BX130" s="469"/>
+      <c r="BY130" s="469"/>
+      <c r="BZ130" s="469"/>
+      <c r="CA130" s="469"/>
+      <c r="CB130" s="469"/>
+      <c r="CC130" s="469"/>
+      <c r="CD130" s="469"/>
+      <c r="CE130" s="469"/>
+      <c r="CF130" s="469"/>
+      <c r="CG130" s="469"/>
+      <c r="CH130" s="469"/>
+      <c r="CI130" s="469"/>
+      <c r="CJ130" s="469"/>
+      <c r="CK130" s="469"/>
+      <c r="CL130" s="469"/>
+      <c r="CM130" s="469"/>
+      <c r="CN130" s="469"/>
+      <c r="CO130" s="469"/>
+      <c r="CP130" s="469"/>
+      <c r="CQ130" s="469"/>
+      <c r="CR130" s="469"/>
+      <c r="CS130" s="469"/>
+      <c r="CT130" s="469"/>
+      <c r="CU130" s="469"/>
+      <c r="CV130" s="469"/>
+      <c r="CW130" s="469"/>
+      <c r="CX130" s="469"/>
+      <c r="CY130" s="469"/>
+      <c r="CZ130" s="469"/>
+      <c r="DA130" s="469"/>
+      <c r="DB130" s="469"/>
+      <c r="DC130" s="469"/>
+      <c r="DD130" s="469"/>
+      <c r="DE130" s="469"/>
+      <c r="DF130" s="469"/>
+      <c r="DG130" s="469"/>
+      <c r="DH130" s="469"/>
+      <c r="DI130" s="469"/>
+      <c r="DJ130" s="469"/>
+      <c r="DK130" s="469"/>
+      <c r="DL130" s="469"/>
+      <c r="DM130" s="469"/>
+      <c r="DN130" s="469"/>
+      <c r="DO130" s="469"/>
+      <c r="DP130" s="469"/>
+      <c r="DQ130" s="469"/>
+      <c r="DR130" s="469"/>
+      <c r="DS130" s="469"/>
+      <c r="DT130" s="469"/>
+      <c r="DU130" s="469"/>
+      <c r="DV130" s="469"/>
+      <c r="DW130" s="469"/>
+      <c r="DX130" s="469"/>
+      <c r="DY130" s="469"/>
+      <c r="DZ130" s="469"/>
+      <c r="EA130" s="469"/>
+      <c r="EB130" s="469"/>
+      <c r="EC130" s="469"/>
+      <c r="ED130" s="469"/>
+      <c r="EE130" s="469"/>
+      <c r="EF130" s="469"/>
+      <c r="EG130" s="469"/>
+      <c r="EH130" s="469"/>
+      <c r="EI130" s="469"/>
+      <c r="EJ130" s="469"/>
+      <c r="EK130" s="469"/>
+      <c r="EL130" s="469"/>
+      <c r="EM130" s="469"/>
+      <c r="EN130" s="469"/>
+      <c r="EO130" s="469"/>
+      <c r="EP130" s="469"/>
+      <c r="EQ130" s="469"/>
+      <c r="ER130" s="469"/>
+      <c r="ES130" s="469"/>
+      <c r="ET130" s="469"/>
+      <c r="EU130" s="469"/>
+      <c r="EV130" s="469"/>
+      <c r="EW130" s="469"/>
+      <c r="EX130" s="469"/>
+      <c r="EY130" s="469"/>
+      <c r="EZ130" s="469"/>
+      <c r="FA130" s="469"/>
+      <c r="FB130" s="469"/>
+      <c r="FC130" s="469"/>
+      <c r="FD130" s="469"/>
+      <c r="FE130" s="469"/>
+      <c r="FF130" s="469"/>
+      <c r="FG130" s="469"/>
+      <c r="FH130" s="469"/>
+      <c r="FI130" s="469"/>
+      <c r="FJ130" s="469"/>
+      <c r="FK130" s="469"/>
+      <c r="FL130" s="469"/>
+      <c r="FM130" s="469"/>
+      <c r="FN130" s="469"/>
+      <c r="FO130" s="469"/>
+      <c r="FP130" s="469"/>
+      <c r="FQ130" s="469"/>
+      <c r="FR130" s="469"/>
+      <c r="FS130" s="469"/>
+      <c r="FT130" s="469"/>
+      <c r="FU130" s="469"/>
+      <c r="FV130" s="469"/>
+      <c r="FW130" s="469"/>
+      <c r="FX130" s="469"/>
+      <c r="FY130" s="469"/>
+      <c r="FZ130" s="469"/>
+      <c r="GA130" s="469"/>
+      <c r="GB130" s="469"/>
+      <c r="GC130" s="469"/>
+      <c r="GD130" s="469"/>
+      <c r="GE130" s="469"/>
+      <c r="GF130" s="469"/>
+      <c r="GG130" s="469"/>
+      <c r="GH130" s="469"/>
+      <c r="GI130" s="469"/>
+      <c r="GJ130" s="469"/>
+      <c r="GK130" s="469"/>
+      <c r="GL130" s="469"/>
+      <c r="GM130" s="469"/>
+      <c r="GN130" s="469"/>
+      <c r="GO130" s="469"/>
+      <c r="GP130" s="469"/>
+      <c r="GQ130" s="469"/>
+      <c r="GR130" s="469"/>
+      <c r="GS130" s="469"/>
+      <c r="GT130" s="469"/>
+      <c r="GU130" s="469"/>
+      <c r="GV130" s="469"/>
+      <c r="GW130" s="469"/>
+      <c r="GX130" s="469"/>
+      <c r="GY130" s="469"/>
+      <c r="GZ130" s="469"/>
+      <c r="HA130" s="469"/>
+      <c r="HB130" s="469"/>
+      <c r="HC130" s="469"/>
+      <c r="HD130" s="469"/>
+      <c r="HE130" s="469"/>
+      <c r="HF130" s="469"/>
+      <c r="HG130" s="469"/>
+      <c r="HH130" s="469"/>
+      <c r="HI130" s="469"/>
+      <c r="HJ130" s="469"/>
+      <c r="HK130" s="469"/>
+      <c r="HL130" s="469"/>
+      <c r="HM130" s="469"/>
+      <c r="HN130" s="469"/>
+      <c r="HO130" s="469"/>
+      <c r="HP130" s="469"/>
+      <c r="HQ130" s="469"/>
+      <c r="HR130" s="469"/>
+      <c r="HS130" s="469"/>
+      <c r="HT130" s="469"/>
+      <c r="HU130" s="469"/>
+      <c r="HV130" s="469"/>
+      <c r="HW130" s="469"/>
+      <c r="HX130" s="469"/>
+      <c r="HY130" s="469"/>
+      <c r="HZ130" s="469"/>
+      <c r="IA130" s="469"/>
+      <c r="IB130" s="469"/>
+      <c r="IC130" s="469"/>
+      <c r="ID130" s="469"/>
+      <c r="IE130" s="469"/>
+      <c r="IF130" s="469"/>
+      <c r="IG130" s="469"/>
+      <c r="IH130" s="469"/>
+      <c r="II130" s="469"/>
+      <c r="IJ130" s="469"/>
+      <c r="IK130" s="469"/>
+      <c r="IL130" s="469"/>
+      <c r="IM130" s="469"/>
+      <c r="IN130" s="469"/>
+      <c r="IO130" s="469"/>
+    </row>
+    <row r="131" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="463"/>
+      <c r="C131" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D131" s="464" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="464" t="s">
+        <v>67</v>
+      </c>
+      <c r="F131" s="465"/>
+      <c r="G131" s="464" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="464"/>
+      <c r="I131" s="465"/>
+      <c r="J131" s="465"/>
+      <c r="K131" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" s="465"/>
+      <c r="M131" s="466"/>
+      <c r="N131" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O131" s="469"/>
+      <c r="P131" s="469"/>
+      <c r="Q131" s="469"/>
+      <c r="R131" s="469"/>
+      <c r="S131" s="469"/>
+      <c r="T131" s="469"/>
+      <c r="U131" s="469"/>
+      <c r="V131" s="469"/>
+      <c r="W131" s="469"/>
+      <c r="X131" s="469"/>
+      <c r="Y131" s="469"/>
+      <c r="Z131" s="469"/>
+      <c r="AA131" s="469"/>
+      <c r="AB131" s="469"/>
+      <c r="AC131" s="469"/>
+      <c r="AD131" s="469"/>
+      <c r="AE131" s="469"/>
+      <c r="AF131" s="469"/>
+      <c r="AG131" s="469"/>
+      <c r="AH131" s="469"/>
+      <c r="AI131" s="469"/>
+      <c r="AJ131" s="469"/>
+      <c r="AK131" s="469"/>
+      <c r="AL131" s="469"/>
+      <c r="AM131" s="469"/>
+      <c r="AN131" s="469"/>
+      <c r="AO131" s="469"/>
+      <c r="AP131" s="469"/>
+      <c r="AQ131" s="469"/>
+      <c r="AR131" s="469"/>
+      <c r="AS131" s="469"/>
+      <c r="AT131" s="469"/>
+      <c r="AU131" s="469"/>
+      <c r="AV131" s="469"/>
+      <c r="AW131" s="469"/>
+      <c r="AX131" s="469"/>
+      <c r="AY131" s="469"/>
+      <c r="AZ131" s="469"/>
+      <c r="BA131" s="469"/>
+      <c r="BB131" s="469"/>
+      <c r="BC131" s="469"/>
+      <c r="BD131" s="469"/>
+      <c r="BE131" s="469"/>
+      <c r="BF131" s="469"/>
+      <c r="BG131" s="469"/>
+      <c r="BH131" s="469"/>
+      <c r="BI131" s="469"/>
+      <c r="BJ131" s="469"/>
+      <c r="BK131" s="469"/>
+      <c r="BL131" s="469"/>
+      <c r="BM131" s="469"/>
+      <c r="BN131" s="469"/>
+      <c r="BO131" s="469"/>
+      <c r="BP131" s="469"/>
+      <c r="BQ131" s="469"/>
+      <c r="BR131" s="469"/>
+      <c r="BS131" s="469"/>
+      <c r="BT131" s="469"/>
+      <c r="BU131" s="469"/>
+      <c r="BV131" s="469"/>
+      <c r="BW131" s="469"/>
+      <c r="BX131" s="469"/>
+      <c r="BY131" s="469"/>
+      <c r="BZ131" s="469"/>
+      <c r="CA131" s="469"/>
+      <c r="CB131" s="469"/>
+      <c r="CC131" s="469"/>
+      <c r="CD131" s="469"/>
+      <c r="CE131" s="469"/>
+      <c r="CF131" s="469"/>
+      <c r="CG131" s="469"/>
+      <c r="CH131" s="469"/>
+      <c r="CI131" s="469"/>
+      <c r="CJ131" s="469"/>
+      <c r="CK131" s="469"/>
+      <c r="CL131" s="469"/>
+      <c r="CM131" s="469"/>
+      <c r="CN131" s="469"/>
+      <c r="CO131" s="469"/>
+      <c r="CP131" s="469"/>
+      <c r="CQ131" s="469"/>
+      <c r="CR131" s="469"/>
+      <c r="CS131" s="469"/>
+      <c r="CT131" s="469"/>
+      <c r="CU131" s="469"/>
+      <c r="CV131" s="469"/>
+      <c r="CW131" s="469"/>
+      <c r="CX131" s="469"/>
+      <c r="CY131" s="469"/>
+      <c r="CZ131" s="469"/>
+      <c r="DA131" s="469"/>
+      <c r="DB131" s="469"/>
+      <c r="DC131" s="469"/>
+      <c r="DD131" s="469"/>
+      <c r="DE131" s="469"/>
+      <c r="DF131" s="469"/>
+      <c r="DG131" s="469"/>
+      <c r="DH131" s="469"/>
+      <c r="DI131" s="469"/>
+      <c r="DJ131" s="469"/>
+      <c r="DK131" s="469"/>
+      <c r="DL131" s="469"/>
+      <c r="DM131" s="469"/>
+      <c r="DN131" s="469"/>
+      <c r="DO131" s="469"/>
+      <c r="DP131" s="469"/>
+      <c r="DQ131" s="469"/>
+      <c r="DR131" s="469"/>
+      <c r="DS131" s="469"/>
+      <c r="DT131" s="469"/>
+      <c r="DU131" s="469"/>
+      <c r="DV131" s="469"/>
+      <c r="DW131" s="469"/>
+      <c r="DX131" s="469"/>
+      <c r="DY131" s="469"/>
+      <c r="DZ131" s="469"/>
+      <c r="EA131" s="469"/>
+      <c r="EB131" s="469"/>
+      <c r="EC131" s="469"/>
+      <c r="ED131" s="469"/>
+      <c r="EE131" s="469"/>
+      <c r="EF131" s="469"/>
+      <c r="EG131" s="469"/>
+      <c r="EH131" s="469"/>
+      <c r="EI131" s="469"/>
+      <c r="EJ131" s="469"/>
+      <c r="EK131" s="469"/>
+      <c r="EL131" s="469"/>
+      <c r="EM131" s="469"/>
+      <c r="EN131" s="469"/>
+      <c r="EO131" s="469"/>
+      <c r="EP131" s="469"/>
+      <c r="EQ131" s="469"/>
+      <c r="ER131" s="469"/>
+      <c r="ES131" s="469"/>
+      <c r="ET131" s="469"/>
+      <c r="EU131" s="469"/>
+      <c r="EV131" s="469"/>
+      <c r="EW131" s="469"/>
+      <c r="EX131" s="469"/>
+      <c r="EY131" s="469"/>
+      <c r="EZ131" s="469"/>
+      <c r="FA131" s="469"/>
+      <c r="FB131" s="469"/>
+      <c r="FC131" s="469"/>
+      <c r="FD131" s="469"/>
+      <c r="FE131" s="469"/>
+      <c r="FF131" s="469"/>
+      <c r="FG131" s="469"/>
+      <c r="FH131" s="469"/>
+      <c r="FI131" s="469"/>
+      <c r="FJ131" s="469"/>
+      <c r="FK131" s="469"/>
+      <c r="FL131" s="469"/>
+      <c r="FM131" s="469"/>
+      <c r="FN131" s="469"/>
+      <c r="FO131" s="469"/>
+      <c r="FP131" s="469"/>
+      <c r="FQ131" s="469"/>
+      <c r="FR131" s="469"/>
+      <c r="FS131" s="469"/>
+      <c r="FT131" s="469"/>
+      <c r="FU131" s="469"/>
+      <c r="FV131" s="469"/>
+      <c r="FW131" s="469"/>
+      <c r="FX131" s="469"/>
+      <c r="FY131" s="469"/>
+      <c r="FZ131" s="469"/>
+      <c r="GA131" s="469"/>
+      <c r="GB131" s="469"/>
+      <c r="GC131" s="469"/>
+      <c r="GD131" s="469"/>
+      <c r="GE131" s="469"/>
+      <c r="GF131" s="469"/>
+      <c r="GG131" s="469"/>
+      <c r="GH131" s="469"/>
+      <c r="GI131" s="469"/>
+      <c r="GJ131" s="469"/>
+      <c r="GK131" s="469"/>
+      <c r="GL131" s="469"/>
+      <c r="GM131" s="469"/>
+      <c r="GN131" s="469"/>
+      <c r="GO131" s="469"/>
+      <c r="GP131" s="469"/>
+      <c r="GQ131" s="469"/>
+      <c r="GR131" s="469"/>
+      <c r="GS131" s="469"/>
+      <c r="GT131" s="469"/>
+      <c r="GU131" s="469"/>
+      <c r="GV131" s="469"/>
+      <c r="GW131" s="469"/>
+      <c r="GX131" s="469"/>
+      <c r="GY131" s="469"/>
+      <c r="GZ131" s="469"/>
+      <c r="HA131" s="469"/>
+      <c r="HB131" s="469"/>
+      <c r="HC131" s="469"/>
+      <c r="HD131" s="469"/>
+      <c r="HE131" s="469"/>
+      <c r="HF131" s="469"/>
+      <c r="HG131" s="469"/>
+      <c r="HH131" s="469"/>
+      <c r="HI131" s="469"/>
+      <c r="HJ131" s="469"/>
+      <c r="HK131" s="469"/>
+      <c r="HL131" s="469"/>
+      <c r="HM131" s="469"/>
+      <c r="HN131" s="469"/>
+      <c r="HO131" s="469"/>
+      <c r="HP131" s="469"/>
+      <c r="HQ131" s="469"/>
+      <c r="HR131" s="469"/>
+      <c r="HS131" s="469"/>
+      <c r="HT131" s="469"/>
+      <c r="HU131" s="469"/>
+      <c r="HV131" s="469"/>
+      <c r="HW131" s="469"/>
+      <c r="HX131" s="469"/>
+      <c r="HY131" s="469"/>
+      <c r="HZ131" s="469"/>
+      <c r="IA131" s="469"/>
+      <c r="IB131" s="469"/>
+      <c r="IC131" s="469"/>
+      <c r="ID131" s="469"/>
+      <c r="IE131" s="469"/>
+      <c r="IF131" s="469"/>
+      <c r="IG131" s="469"/>
+      <c r="IH131" s="469"/>
+      <c r="II131" s="469"/>
+      <c r="IJ131" s="469"/>
+      <c r="IK131" s="469"/>
+      <c r="IL131" s="469"/>
+      <c r="IM131" s="469"/>
+      <c r="IN131" s="469"/>
+      <c r="IO131" s="469"/>
+    </row>
+    <row r="132" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="463"/>
+      <c r="C132" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D132" s="464" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="464" t="s">
+        <v>70</v>
+      </c>
+      <c r="F132" s="465"/>
+      <c r="G132" s="464" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" s="464"/>
+      <c r="I132" s="465"/>
+      <c r="J132" s="465"/>
+      <c r="K132" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L132" s="465"/>
+      <c r="M132" s="466"/>
+      <c r="N132" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O132" s="469"/>
+      <c r="P132" s="469"/>
+      <c r="Q132" s="469"/>
+      <c r="R132" s="469"/>
+      <c r="S132" s="469"/>
+      <c r="T132" s="469"/>
+      <c r="U132" s="469"/>
+      <c r="V132" s="469"/>
+      <c r="W132" s="469"/>
+      <c r="X132" s="469"/>
+      <c r="Y132" s="469"/>
+      <c r="Z132" s="469"/>
+      <c r="AA132" s="469"/>
+      <c r="AB132" s="469"/>
+      <c r="AC132" s="469"/>
+      <c r="AD132" s="469"/>
+      <c r="AE132" s="469"/>
+      <c r="AF132" s="469"/>
+      <c r="AG132" s="469"/>
+      <c r="AH132" s="469"/>
+      <c r="AI132" s="469"/>
+      <c r="AJ132" s="469"/>
+      <c r="AK132" s="469"/>
+      <c r="AL132" s="469"/>
+      <c r="AM132" s="469"/>
+      <c r="AN132" s="469"/>
+      <c r="AO132" s="469"/>
+      <c r="AP132" s="469"/>
+      <c r="AQ132" s="469"/>
+      <c r="AR132" s="469"/>
+      <c r="AS132" s="469"/>
+      <c r="AT132" s="469"/>
+      <c r="AU132" s="469"/>
+      <c r="AV132" s="469"/>
+      <c r="AW132" s="469"/>
+      <c r="AX132" s="469"/>
+      <c r="AY132" s="469"/>
+      <c r="AZ132" s="469"/>
+      <c r="BA132" s="469"/>
+      <c r="BB132" s="469"/>
+      <c r="BC132" s="469"/>
+      <c r="BD132" s="469"/>
+      <c r="BE132" s="469"/>
+      <c r="BF132" s="469"/>
+      <c r="BG132" s="469"/>
+      <c r="BH132" s="469"/>
+      <c r="BI132" s="469"/>
+      <c r="BJ132" s="469"/>
+      <c r="BK132" s="469"/>
+      <c r="BL132" s="469"/>
+      <c r="BM132" s="469"/>
+      <c r="BN132" s="469"/>
+      <c r="BO132" s="469"/>
+      <c r="BP132" s="469"/>
+      <c r="BQ132" s="469"/>
+      <c r="BR132" s="469"/>
+      <c r="BS132" s="469"/>
+      <c r="BT132" s="469"/>
+      <c r="BU132" s="469"/>
+      <c r="BV132" s="469"/>
+      <c r="BW132" s="469"/>
+      <c r="BX132" s="469"/>
+      <c r="BY132" s="469"/>
+      <c r="BZ132" s="469"/>
+      <c r="CA132" s="469"/>
+      <c r="CB132" s="469"/>
+      <c r="CC132" s="469"/>
+      <c r="CD132" s="469"/>
+      <c r="CE132" s="469"/>
+      <c r="CF132" s="469"/>
+      <c r="CG132" s="469"/>
+      <c r="CH132" s="469"/>
+      <c r="CI132" s="469"/>
+      <c r="CJ132" s="469"/>
+      <c r="CK132" s="469"/>
+      <c r="CL132" s="469"/>
+      <c r="CM132" s="469"/>
+      <c r="CN132" s="469"/>
+      <c r="CO132" s="469"/>
+      <c r="CP132" s="469"/>
+      <c r="CQ132" s="469"/>
+      <c r="CR132" s="469"/>
+      <c r="CS132" s="469"/>
+      <c r="CT132" s="469"/>
+      <c r="CU132" s="469"/>
+      <c r="CV132" s="469"/>
+      <c r="CW132" s="469"/>
+      <c r="CX132" s="469"/>
+      <c r="CY132" s="469"/>
+      <c r="CZ132" s="469"/>
+      <c r="DA132" s="469"/>
+      <c r="DB132" s="469"/>
+      <c r="DC132" s="469"/>
+      <c r="DD132" s="469"/>
+      <c r="DE132" s="469"/>
+      <c r="DF132" s="469"/>
+      <c r="DG132" s="469"/>
+      <c r="DH132" s="469"/>
+      <c r="DI132" s="469"/>
+      <c r="DJ132" s="469"/>
+      <c r="DK132" s="469"/>
+      <c r="DL132" s="469"/>
+      <c r="DM132" s="469"/>
+      <c r="DN132" s="469"/>
+      <c r="DO132" s="469"/>
+      <c r="DP132" s="469"/>
+      <c r="DQ132" s="469"/>
+      <c r="DR132" s="469"/>
+      <c r="DS132" s="469"/>
+      <c r="DT132" s="469"/>
+      <c r="DU132" s="469"/>
+      <c r="DV132" s="469"/>
+      <c r="DW132" s="469"/>
+      <c r="DX132" s="469"/>
+      <c r="DY132" s="469"/>
+      <c r="DZ132" s="469"/>
+      <c r="EA132" s="469"/>
+      <c r="EB132" s="469"/>
+      <c r="EC132" s="469"/>
+      <c r="ED132" s="469"/>
+      <c r="EE132" s="469"/>
+      <c r="EF132" s="469"/>
+      <c r="EG132" s="469"/>
+      <c r="EH132" s="469"/>
+      <c r="EI132" s="469"/>
+      <c r="EJ132" s="469"/>
+      <c r="EK132" s="469"/>
+      <c r="EL132" s="469"/>
+      <c r="EM132" s="469"/>
+      <c r="EN132" s="469"/>
+      <c r="EO132" s="469"/>
+      <c r="EP132" s="469"/>
+      <c r="EQ132" s="469"/>
+      <c r="ER132" s="469"/>
+      <c r="ES132" s="469"/>
+      <c r="ET132" s="469"/>
+      <c r="EU132" s="469"/>
+      <c r="EV132" s="469"/>
+      <c r="EW132" s="469"/>
+      <c r="EX132" s="469"/>
+      <c r="EY132" s="469"/>
+      <c r="EZ132" s="469"/>
+      <c r="FA132" s="469"/>
+      <c r="FB132" s="469"/>
+      <c r="FC132" s="469"/>
+      <c r="FD132" s="469"/>
+      <c r="FE132" s="469"/>
+      <c r="FF132" s="469"/>
+      <c r="FG132" s="469"/>
+      <c r="FH132" s="469"/>
+      <c r="FI132" s="469"/>
+      <c r="FJ132" s="469"/>
+      <c r="FK132" s="469"/>
+      <c r="FL132" s="469"/>
+      <c r="FM132" s="469"/>
+      <c r="FN132" s="469"/>
+      <c r="FO132" s="469"/>
+      <c r="FP132" s="469"/>
+      <c r="FQ132" s="469"/>
+      <c r="FR132" s="469"/>
+      <c r="FS132" s="469"/>
+      <c r="FT132" s="469"/>
+      <c r="FU132" s="469"/>
+      <c r="FV132" s="469"/>
+      <c r="FW132" s="469"/>
+      <c r="FX132" s="469"/>
+      <c r="FY132" s="469"/>
+      <c r="FZ132" s="469"/>
+      <c r="GA132" s="469"/>
+      <c r="GB132" s="469"/>
+      <c r="GC132" s="469"/>
+      <c r="GD132" s="469"/>
+      <c r="GE132" s="469"/>
+      <c r="GF132" s="469"/>
+      <c r="GG132" s="469"/>
+      <c r="GH132" s="469"/>
+      <c r="GI132" s="469"/>
+      <c r="GJ132" s="469"/>
+      <c r="GK132" s="469"/>
+      <c r="GL132" s="469"/>
+      <c r="GM132" s="469"/>
+      <c r="GN132" s="469"/>
+      <c r="GO132" s="469"/>
+      <c r="GP132" s="469"/>
+      <c r="GQ132" s="469"/>
+      <c r="GR132" s="469"/>
+      <c r="GS132" s="469"/>
+      <c r="GT132" s="469"/>
+      <c r="GU132" s="469"/>
+      <c r="GV132" s="469"/>
+      <c r="GW132" s="469"/>
+      <c r="GX132" s="469"/>
+      <c r="GY132" s="469"/>
+      <c r="GZ132" s="469"/>
+      <c r="HA132" s="469"/>
+      <c r="HB132" s="469"/>
+      <c r="HC132" s="469"/>
+      <c r="HD132" s="469"/>
+      <c r="HE132" s="469"/>
+      <c r="HF132" s="469"/>
+      <c r="HG132" s="469"/>
+      <c r="HH132" s="469"/>
+      <c r="HI132" s="469"/>
+      <c r="HJ132" s="469"/>
+      <c r="HK132" s="469"/>
+      <c r="HL132" s="469"/>
+      <c r="HM132" s="469"/>
+      <c r="HN132" s="469"/>
+      <c r="HO132" s="469"/>
+      <c r="HP132" s="469"/>
+      <c r="HQ132" s="469"/>
+      <c r="HR132" s="469"/>
+      <c r="HS132" s="469"/>
+      <c r="HT132" s="469"/>
+      <c r="HU132" s="469"/>
+      <c r="HV132" s="469"/>
+      <c r="HW132" s="469"/>
+      <c r="HX132" s="469"/>
+      <c r="HY132" s="469"/>
+      <c r="HZ132" s="469"/>
+      <c r="IA132" s="469"/>
+      <c r="IB132" s="469"/>
+      <c r="IC132" s="469"/>
+      <c r="ID132" s="469"/>
+      <c r="IE132" s="469"/>
+      <c r="IF132" s="469"/>
+      <c r="IG132" s="469"/>
+      <c r="IH132" s="469"/>
+      <c r="II132" s="469"/>
+      <c r="IJ132" s="469"/>
+      <c r="IK132" s="469"/>
+      <c r="IL132" s="469"/>
+      <c r="IM132" s="469"/>
+      <c r="IN132" s="469"/>
+      <c r="IO132" s="469"/>
+    </row>
+    <row r="133" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="463"/>
+      <c r="C133" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D133" s="385" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" s="464" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133" s="465"/>
+      <c r="G133" s="464" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" s="464"/>
+      <c r="I133" s="465"/>
+      <c r="J133" s="465"/>
+      <c r="K133" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" s="465"/>
+      <c r="M133" s="466"/>
+      <c r="N133" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O133" s="469"/>
+      <c r="P133" s="469"/>
+      <c r="Q133" s="469"/>
+      <c r="R133" s="469"/>
+      <c r="S133" s="469"/>
+      <c r="T133" s="469"/>
+      <c r="U133" s="469"/>
+      <c r="V133" s="469"/>
+      <c r="W133" s="469"/>
+      <c r="X133" s="469"/>
+      <c r="Y133" s="469"/>
+      <c r="Z133" s="469"/>
+      <c r="AA133" s="469"/>
+      <c r="AB133" s="469"/>
+      <c r="AC133" s="469"/>
+      <c r="AD133" s="469"/>
+      <c r="AE133" s="469"/>
+      <c r="AF133" s="469"/>
+      <c r="AG133" s="469"/>
+      <c r="AH133" s="469"/>
+      <c r="AI133" s="469"/>
+      <c r="AJ133" s="469"/>
+      <c r="AK133" s="469"/>
+      <c r="AL133" s="469"/>
+      <c r="AM133" s="469"/>
+      <c r="AN133" s="469"/>
+      <c r="AO133" s="469"/>
+      <c r="AP133" s="469"/>
+      <c r="AQ133" s="469"/>
+      <c r="AR133" s="469"/>
+      <c r="AS133" s="469"/>
+      <c r="AT133" s="469"/>
+      <c r="AU133" s="469"/>
+      <c r="AV133" s="469"/>
+      <c r="AW133" s="469"/>
+      <c r="AX133" s="469"/>
+      <c r="AY133" s="469"/>
+      <c r="AZ133" s="469"/>
+      <c r="BA133" s="469"/>
+      <c r="BB133" s="469"/>
+      <c r="BC133" s="469"/>
+      <c r="BD133" s="469"/>
+      <c r="BE133" s="469"/>
+      <c r="BF133" s="469"/>
+      <c r="BG133" s="469"/>
+      <c r="BH133" s="469"/>
+      <c r="BI133" s="469"/>
+      <c r="BJ133" s="469"/>
+      <c r="BK133" s="469"/>
+      <c r="BL133" s="469"/>
+      <c r="BM133" s="469"/>
+      <c r="BN133" s="469"/>
+      <c r="BO133" s="469"/>
+      <c r="BP133" s="469"/>
+      <c r="BQ133" s="469"/>
+      <c r="BR133" s="469"/>
+      <c r="BS133" s="469"/>
+      <c r="BT133" s="469"/>
+      <c r="BU133" s="469"/>
+      <c r="BV133" s="469"/>
+      <c r="BW133" s="469"/>
+      <c r="BX133" s="469"/>
+      <c r="BY133" s="469"/>
+      <c r="BZ133" s="469"/>
+      <c r="CA133" s="469"/>
+      <c r="CB133" s="469"/>
+      <c r="CC133" s="469"/>
+      <c r="CD133" s="469"/>
+      <c r="CE133" s="469"/>
+      <c r="CF133" s="469"/>
+      <c r="CG133" s="469"/>
+      <c r="CH133" s="469"/>
+      <c r="CI133" s="469"/>
+      <c r="CJ133" s="469"/>
+      <c r="CK133" s="469"/>
+      <c r="CL133" s="469"/>
+      <c r="CM133" s="469"/>
+      <c r="CN133" s="469"/>
+      <c r="CO133" s="469"/>
+      <c r="CP133" s="469"/>
+      <c r="CQ133" s="469"/>
+      <c r="CR133" s="469"/>
+      <c r="CS133" s="469"/>
+      <c r="CT133" s="469"/>
+      <c r="CU133" s="469"/>
+      <c r="CV133" s="469"/>
+      <c r="CW133" s="469"/>
+      <c r="CX133" s="469"/>
+      <c r="CY133" s="469"/>
+      <c r="CZ133" s="469"/>
+      <c r="DA133" s="469"/>
+      <c r="DB133" s="469"/>
+      <c r="DC133" s="469"/>
+      <c r="DD133" s="469"/>
+      <c r="DE133" s="469"/>
+      <c r="DF133" s="469"/>
+      <c r="DG133" s="469"/>
+      <c r="DH133" s="469"/>
+      <c r="DI133" s="469"/>
+      <c r="DJ133" s="469"/>
+      <c r="DK133" s="469"/>
+      <c r="DL133" s="469"/>
+      <c r="DM133" s="469"/>
+      <c r="DN133" s="469"/>
+      <c r="DO133" s="469"/>
+      <c r="DP133" s="469"/>
+      <c r="DQ133" s="469"/>
+      <c r="DR133" s="469"/>
+      <c r="DS133" s="469"/>
+      <c r="DT133" s="469"/>
+      <c r="DU133" s="469"/>
+      <c r="DV133" s="469"/>
+      <c r="DW133" s="469"/>
+      <c r="DX133" s="469"/>
+      <c r="DY133" s="469"/>
+      <c r="DZ133" s="469"/>
+      <c r="EA133" s="469"/>
+      <c r="EB133" s="469"/>
+      <c r="EC133" s="469"/>
+      <c r="ED133" s="469"/>
+      <c r="EE133" s="469"/>
+      <c r="EF133" s="469"/>
+      <c r="EG133" s="469"/>
+      <c r="EH133" s="469"/>
+      <c r="EI133" s="469"/>
+      <c r="EJ133" s="469"/>
+      <c r="EK133" s="469"/>
+      <c r="EL133" s="469"/>
+      <c r="EM133" s="469"/>
+      <c r="EN133" s="469"/>
+      <c r="EO133" s="469"/>
+      <c r="EP133" s="469"/>
+      <c r="EQ133" s="469"/>
+      <c r="ER133" s="469"/>
+      <c r="ES133" s="469"/>
+      <c r="ET133" s="469"/>
+      <c r="EU133" s="469"/>
+      <c r="EV133" s="469"/>
+      <c r="EW133" s="469"/>
+      <c r="EX133" s="469"/>
+      <c r="EY133" s="469"/>
+      <c r="EZ133" s="469"/>
+      <c r="FA133" s="469"/>
+      <c r="FB133" s="469"/>
+      <c r="FC133" s="469"/>
+      <c r="FD133" s="469"/>
+      <c r="FE133" s="469"/>
+      <c r="FF133" s="469"/>
+      <c r="FG133" s="469"/>
+      <c r="FH133" s="469"/>
+      <c r="FI133" s="469"/>
+      <c r="FJ133" s="469"/>
+      <c r="FK133" s="469"/>
+      <c r="FL133" s="469"/>
+      <c r="FM133" s="469"/>
+      <c r="FN133" s="469"/>
+      <c r="FO133" s="469"/>
+      <c r="FP133" s="469"/>
+      <c r="FQ133" s="469"/>
+      <c r="FR133" s="469"/>
+      <c r="FS133" s="469"/>
+      <c r="FT133" s="469"/>
+      <c r="FU133" s="469"/>
+      <c r="FV133" s="469"/>
+      <c r="FW133" s="469"/>
+      <c r="FX133" s="469"/>
+      <c r="FY133" s="469"/>
+      <c r="FZ133" s="469"/>
+      <c r="GA133" s="469"/>
+      <c r="GB133" s="469"/>
+      <c r="GC133" s="469"/>
+      <c r="GD133" s="469"/>
+      <c r="GE133" s="469"/>
+      <c r="GF133" s="469"/>
+      <c r="GG133" s="469"/>
+      <c r="GH133" s="469"/>
+      <c r="GI133" s="469"/>
+      <c r="GJ133" s="469"/>
+      <c r="GK133" s="469"/>
+      <c r="GL133" s="469"/>
+      <c r="GM133" s="469"/>
+      <c r="GN133" s="469"/>
+      <c r="GO133" s="469"/>
+      <c r="GP133" s="469"/>
+      <c r="GQ133" s="469"/>
+      <c r="GR133" s="469"/>
+      <c r="GS133" s="469"/>
+      <c r="GT133" s="469"/>
+      <c r="GU133" s="469"/>
+      <c r="GV133" s="469"/>
+      <c r="GW133" s="469"/>
+      <c r="GX133" s="469"/>
+      <c r="GY133" s="469"/>
+      <c r="GZ133" s="469"/>
+      <c r="HA133" s="469"/>
+      <c r="HB133" s="469"/>
+      <c r="HC133" s="469"/>
+      <c r="HD133" s="469"/>
+      <c r="HE133" s="469"/>
+      <c r="HF133" s="469"/>
+      <c r="HG133" s="469"/>
+      <c r="HH133" s="469"/>
+      <c r="HI133" s="469"/>
+      <c r="HJ133" s="469"/>
+      <c r="HK133" s="469"/>
+      <c r="HL133" s="469"/>
+      <c r="HM133" s="469"/>
+      <c r="HN133" s="469"/>
+      <c r="HO133" s="469"/>
+      <c r="HP133" s="469"/>
+      <c r="HQ133" s="469"/>
+      <c r="HR133" s="469"/>
+      <c r="HS133" s="469"/>
+      <c r="HT133" s="469"/>
+      <c r="HU133" s="469"/>
+      <c r="HV133" s="469"/>
+      <c r="HW133" s="469"/>
+      <c r="HX133" s="469"/>
+      <c r="HY133" s="469"/>
+      <c r="HZ133" s="469"/>
+      <c r="IA133" s="469"/>
+      <c r="IB133" s="469"/>
+      <c r="IC133" s="469"/>
+      <c r="ID133" s="469"/>
+      <c r="IE133" s="469"/>
+      <c r="IF133" s="469"/>
+      <c r="IG133" s="469"/>
+      <c r="IH133" s="469"/>
+      <c r="II133" s="469"/>
+      <c r="IJ133" s="469"/>
+      <c r="IK133" s="469"/>
+      <c r="IL133" s="469"/>
+      <c r="IM133" s="469"/>
+      <c r="IN133" s="469"/>
+      <c r="IO133" s="469"/>
+    </row>
+    <row r="134" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="463"/>
+      <c r="C134" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D134" s="464" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" s="464" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134" s="465"/>
+      <c r="G134" s="464" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" s="464"/>
+      <c r="I134" s="464" t="s">
+        <v>86</v>
+      </c>
+      <c r="J134" s="465"/>
+      <c r="K134" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L134" s="465"/>
+      <c r="M134" s="466"/>
+      <c r="N134" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O134" s="469"/>
+      <c r="P134" s="469"/>
+      <c r="Q134" s="469"/>
+      <c r="R134" s="469"/>
+      <c r="S134" s="469"/>
+      <c r="T134" s="469"/>
+      <c r="U134" s="469"/>
+      <c r="V134" s="469"/>
+      <c r="W134" s="469"/>
+      <c r="X134" s="469"/>
+      <c r="Y134" s="469"/>
+      <c r="Z134" s="469"/>
+      <c r="AA134" s="469"/>
+      <c r="AB134" s="469"/>
+      <c r="AC134" s="469"/>
+      <c r="AD134" s="469"/>
+      <c r="AE134" s="469"/>
+      <c r="AF134" s="469"/>
+      <c r="AG134" s="469"/>
+      <c r="AH134" s="469"/>
+      <c r="AI134" s="469"/>
+      <c r="AJ134" s="469"/>
+      <c r="AK134" s="469"/>
+      <c r="AL134" s="469"/>
+      <c r="AM134" s="469"/>
+      <c r="AN134" s="469"/>
+      <c r="AO134" s="469"/>
+      <c r="AP134" s="469"/>
+      <c r="AQ134" s="469"/>
+      <c r="AR134" s="469"/>
+      <c r="AS134" s="469"/>
+      <c r="AT134" s="469"/>
+      <c r="AU134" s="469"/>
+      <c r="AV134" s="469"/>
+      <c r="AW134" s="469"/>
+      <c r="AX134" s="469"/>
+      <c r="AY134" s="469"/>
+      <c r="AZ134" s="469"/>
+      <c r="BA134" s="469"/>
+      <c r="BB134" s="469"/>
+      <c r="BC134" s="469"/>
+      <c r="BD134" s="469"/>
+      <c r="BE134" s="469"/>
+      <c r="BF134" s="469"/>
+      <c r="BG134" s="469"/>
+      <c r="BH134" s="469"/>
+      <c r="BI134" s="469"/>
+      <c r="BJ134" s="469"/>
+      <c r="BK134" s="469"/>
+      <c r="BL134" s="469"/>
+      <c r="BM134" s="469"/>
+      <c r="BN134" s="469"/>
+      <c r="BO134" s="469"/>
+      <c r="BP134" s="469"/>
+      <c r="BQ134" s="469"/>
+      <c r="BR134" s="469"/>
+      <c r="BS134" s="469"/>
+      <c r="BT134" s="469"/>
+      <c r="BU134" s="469"/>
+      <c r="BV134" s="469"/>
+      <c r="BW134" s="469"/>
+      <c r="BX134" s="469"/>
+      <c r="BY134" s="469"/>
+      <c r="BZ134" s="469"/>
+      <c r="CA134" s="469"/>
+      <c r="CB134" s="469"/>
+      <c r="CC134" s="469"/>
+      <c r="CD134" s="469"/>
+      <c r="CE134" s="469"/>
+      <c r="CF134" s="469"/>
+      <c r="CG134" s="469"/>
+      <c r="CH134" s="469"/>
+      <c r="CI134" s="469"/>
+      <c r="CJ134" s="469"/>
+      <c r="CK134" s="469"/>
+      <c r="CL134" s="469"/>
+      <c r="CM134" s="469"/>
+      <c r="CN134" s="469"/>
+      <c r="CO134" s="469"/>
+      <c r="CP134" s="469"/>
+      <c r="CQ134" s="469"/>
+      <c r="CR134" s="469"/>
+      <c r="CS134" s="469"/>
+      <c r="CT134" s="469"/>
+      <c r="CU134" s="469"/>
+      <c r="CV134" s="469"/>
+      <c r="CW134" s="469"/>
+      <c r="CX134" s="469"/>
+      <c r="CY134" s="469"/>
+      <c r="CZ134" s="469"/>
+      <c r="DA134" s="469"/>
+      <c r="DB134" s="469"/>
+      <c r="DC134" s="469"/>
+      <c r="DD134" s="469"/>
+      <c r="DE134" s="469"/>
+      <c r="DF134" s="469"/>
+      <c r="DG134" s="469"/>
+      <c r="DH134" s="469"/>
+      <c r="DI134" s="469"/>
+      <c r="DJ134" s="469"/>
+      <c r="DK134" s="469"/>
+      <c r="DL134" s="469"/>
+      <c r="DM134" s="469"/>
+      <c r="DN134" s="469"/>
+      <c r="DO134" s="469"/>
+      <c r="DP134" s="469"/>
+      <c r="DQ134" s="469"/>
+      <c r="DR134" s="469"/>
+      <c r="DS134" s="469"/>
+      <c r="DT134" s="469"/>
+      <c r="DU134" s="469"/>
+      <c r="DV134" s="469"/>
+      <c r="DW134" s="469"/>
+      <c r="DX134" s="469"/>
+      <c r="DY134" s="469"/>
+      <c r="DZ134" s="469"/>
+      <c r="EA134" s="469"/>
+      <c r="EB134" s="469"/>
+      <c r="EC134" s="469"/>
+      <c r="ED134" s="469"/>
+      <c r="EE134" s="469"/>
+      <c r="EF134" s="469"/>
+      <c r="EG134" s="469"/>
+      <c r="EH134" s="469"/>
+      <c r="EI134" s="469"/>
+      <c r="EJ134" s="469"/>
+      <c r="EK134" s="469"/>
+      <c r="EL134" s="469"/>
+      <c r="EM134" s="469"/>
+      <c r="EN134" s="469"/>
+      <c r="EO134" s="469"/>
+      <c r="EP134" s="469"/>
+      <c r="EQ134" s="469"/>
+      <c r="ER134" s="469"/>
+      <c r="ES134" s="469"/>
+      <c r="ET134" s="469"/>
+      <c r="EU134" s="469"/>
+      <c r="EV134" s="469"/>
+      <c r="EW134" s="469"/>
+      <c r="EX134" s="469"/>
+      <c r="EY134" s="469"/>
+      <c r="EZ134" s="469"/>
+      <c r="FA134" s="469"/>
+      <c r="FB134" s="469"/>
+      <c r="FC134" s="469"/>
+      <c r="FD134" s="469"/>
+      <c r="FE134" s="469"/>
+      <c r="FF134" s="469"/>
+      <c r="FG134" s="469"/>
+      <c r="FH134" s="469"/>
+      <c r="FI134" s="469"/>
+      <c r="FJ134" s="469"/>
+      <c r="FK134" s="469"/>
+      <c r="FL134" s="469"/>
+      <c r="FM134" s="469"/>
+      <c r="FN134" s="469"/>
+      <c r="FO134" s="469"/>
+      <c r="FP134" s="469"/>
+      <c r="FQ134" s="469"/>
+      <c r="FR134" s="469"/>
+      <c r="FS134" s="469"/>
+      <c r="FT134" s="469"/>
+      <c r="FU134" s="469"/>
+      <c r="FV134" s="469"/>
+      <c r="FW134" s="469"/>
+      <c r="FX134" s="469"/>
+      <c r="FY134" s="469"/>
+      <c r="FZ134" s="469"/>
+      <c r="GA134" s="469"/>
+      <c r="GB134" s="469"/>
+      <c r="GC134" s="469"/>
+      <c r="GD134" s="469"/>
+      <c r="GE134" s="469"/>
+      <c r="GF134" s="469"/>
+      <c r="GG134" s="469"/>
+      <c r="GH134" s="469"/>
+      <c r="GI134" s="469"/>
+      <c r="GJ134" s="469"/>
+      <c r="GK134" s="469"/>
+      <c r="GL134" s="469"/>
+      <c r="GM134" s="469"/>
+      <c r="GN134" s="469"/>
+      <c r="GO134" s="469"/>
+      <c r="GP134" s="469"/>
+      <c r="GQ134" s="469"/>
+      <c r="GR134" s="469"/>
+      <c r="GS134" s="469"/>
+      <c r="GT134" s="469"/>
+      <c r="GU134" s="469"/>
+      <c r="GV134" s="469"/>
+      <c r="GW134" s="469"/>
+      <c r="GX134" s="469"/>
+      <c r="GY134" s="469"/>
+      <c r="GZ134" s="469"/>
+      <c r="HA134" s="469"/>
+      <c r="HB134" s="469"/>
+      <c r="HC134" s="469"/>
+      <c r="HD134" s="469"/>
+      <c r="HE134" s="469"/>
+      <c r="HF134" s="469"/>
+      <c r="HG134" s="469"/>
+      <c r="HH134" s="469"/>
+      <c r="HI134" s="469"/>
+      <c r="HJ134" s="469"/>
+      <c r="HK134" s="469"/>
+      <c r="HL134" s="469"/>
+      <c r="HM134" s="469"/>
+      <c r="HN134" s="469"/>
+      <c r="HO134" s="469"/>
+      <c r="HP134" s="469"/>
+      <c r="HQ134" s="469"/>
+      <c r="HR134" s="469"/>
+      <c r="HS134" s="469"/>
+      <c r="HT134" s="469"/>
+      <c r="HU134" s="469"/>
+      <c r="HV134" s="469"/>
+      <c r="HW134" s="469"/>
+      <c r="HX134" s="469"/>
+      <c r="HY134" s="469"/>
+      <c r="HZ134" s="469"/>
+      <c r="IA134" s="469"/>
+      <c r="IB134" s="469"/>
+      <c r="IC134" s="469"/>
+      <c r="ID134" s="469"/>
+      <c r="IE134" s="469"/>
+      <c r="IF134" s="469"/>
+      <c r="IG134" s="469"/>
+      <c r="IH134" s="469"/>
+      <c r="II134" s="469"/>
+      <c r="IJ134" s="469"/>
+      <c r="IK134" s="469"/>
+      <c r="IL134" s="469"/>
+      <c r="IM134" s="469"/>
+      <c r="IN134" s="469"/>
+      <c r="IO134" s="469"/>
+    </row>
+    <row r="135" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B135" s="463"/>
+      <c r="C135" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D135" s="464" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="464" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="465"/>
+      <c r="G135" s="464" t="s">
+        <v>89</v>
+      </c>
+      <c r="H135" s="464"/>
+      <c r="I135" s="465"/>
+      <c r="J135" s="465"/>
+      <c r="K135" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L135" s="465"/>
+      <c r="M135" s="466"/>
+      <c r="N135" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O135" s="469"/>
+      <c r="P135" s="469"/>
+      <c r="Q135" s="469"/>
+      <c r="R135" s="469"/>
+      <c r="S135" s="469"/>
+      <c r="T135" s="469"/>
+      <c r="U135" s="469"/>
+      <c r="V135" s="469"/>
+      <c r="W135" s="469"/>
+      <c r="X135" s="469"/>
+      <c r="Y135" s="469"/>
+      <c r="Z135" s="469"/>
+      <c r="AA135" s="469"/>
+      <c r="AB135" s="469"/>
+      <c r="AC135" s="469"/>
+      <c r="AD135" s="469"/>
+      <c r="AE135" s="469"/>
+      <c r="AF135" s="469"/>
+      <c r="AG135" s="469"/>
+      <c r="AH135" s="469"/>
+      <c r="AI135" s="469"/>
+      <c r="AJ135" s="469"/>
+      <c r="AK135" s="469"/>
+      <c r="AL135" s="469"/>
+      <c r="AM135" s="469"/>
+      <c r="AN135" s="469"/>
+      <c r="AO135" s="469"/>
+      <c r="AP135" s="469"/>
+      <c r="AQ135" s="469"/>
+      <c r="AR135" s="469"/>
+      <c r="AS135" s="469"/>
+      <c r="AT135" s="469"/>
+      <c r="AU135" s="469"/>
+      <c r="AV135" s="469"/>
+      <c r="AW135" s="469"/>
+      <c r="AX135" s="469"/>
+      <c r="AY135" s="469"/>
+      <c r="AZ135" s="469"/>
+      <c r="BA135" s="469"/>
+      <c r="BB135" s="469"/>
+      <c r="BC135" s="469"/>
+      <c r="BD135" s="469"/>
+      <c r="BE135" s="469"/>
+      <c r="BF135" s="469"/>
+      <c r="BG135" s="469"/>
+      <c r="BH135" s="469"/>
+      <c r="BI135" s="469"/>
+      <c r="BJ135" s="469"/>
+      <c r="BK135" s="469"/>
+      <c r="BL135" s="469"/>
+      <c r="BM135" s="469"/>
+      <c r="BN135" s="469"/>
+      <c r="BO135" s="469"/>
+      <c r="BP135" s="469"/>
+      <c r="BQ135" s="469"/>
+      <c r="BR135" s="469"/>
+      <c r="BS135" s="469"/>
+      <c r="BT135" s="469"/>
+      <c r="BU135" s="469"/>
+      <c r="BV135" s="469"/>
+      <c r="BW135" s="469"/>
+      <c r="BX135" s="469"/>
+      <c r="BY135" s="469"/>
+      <c r="BZ135" s="469"/>
+      <c r="CA135" s="469"/>
+      <c r="CB135" s="469"/>
+      <c r="CC135" s="469"/>
+      <c r="CD135" s="469"/>
+      <c r="CE135" s="469"/>
+      <c r="CF135" s="469"/>
+      <c r="CG135" s="469"/>
+      <c r="CH135" s="469"/>
+      <c r="CI135" s="469"/>
+      <c r="CJ135" s="469"/>
+      <c r="CK135" s="469"/>
+      <c r="CL135" s="469"/>
+      <c r="CM135" s="469"/>
+      <c r="CN135" s="469"/>
+      <c r="CO135" s="469"/>
+      <c r="CP135" s="469"/>
+      <c r="CQ135" s="469"/>
+      <c r="CR135" s="469"/>
+      <c r="CS135" s="469"/>
+      <c r="CT135" s="469"/>
+      <c r="CU135" s="469"/>
+      <c r="CV135" s="469"/>
+      <c r="CW135" s="469"/>
+      <c r="CX135" s="469"/>
+      <c r="CY135" s="469"/>
+      <c r="CZ135" s="469"/>
+      <c r="DA135" s="469"/>
+      <c r="DB135" s="469"/>
+      <c r="DC135" s="469"/>
+      <c r="DD135" s="469"/>
+      <c r="DE135" s="469"/>
+      <c r="DF135" s="469"/>
+      <c r="DG135" s="469"/>
+      <c r="DH135" s="469"/>
+      <c r="DI135" s="469"/>
+      <c r="DJ135" s="469"/>
+      <c r="DK135" s="469"/>
+      <c r="DL135" s="469"/>
+      <c r="DM135" s="469"/>
+      <c r="DN135" s="469"/>
+      <c r="DO135" s="469"/>
+      <c r="DP135" s="469"/>
+      <c r="DQ135" s="469"/>
+      <c r="DR135" s="469"/>
+      <c r="DS135" s="469"/>
+      <c r="DT135" s="469"/>
+      <c r="DU135" s="469"/>
+      <c r="DV135" s="469"/>
+      <c r="DW135" s="469"/>
+      <c r="DX135" s="469"/>
+      <c r="DY135" s="469"/>
+      <c r="DZ135" s="469"/>
+      <c r="EA135" s="469"/>
+      <c r="EB135" s="469"/>
+      <c r="EC135" s="469"/>
+      <c r="ED135" s="469"/>
+      <c r="EE135" s="469"/>
+      <c r="EF135" s="469"/>
+      <c r="EG135" s="469"/>
+      <c r="EH135" s="469"/>
+      <c r="EI135" s="469"/>
+      <c r="EJ135" s="469"/>
+      <c r="EK135" s="469"/>
+      <c r="EL135" s="469"/>
+      <c r="EM135" s="469"/>
+      <c r="EN135" s="469"/>
+      <c r="EO135" s="469"/>
+      <c r="EP135" s="469"/>
+      <c r="EQ135" s="469"/>
+      <c r="ER135" s="469"/>
+      <c r="ES135" s="469"/>
+      <c r="ET135" s="469"/>
+      <c r="EU135" s="469"/>
+      <c r="EV135" s="469"/>
+      <c r="EW135" s="469"/>
+      <c r="EX135" s="469"/>
+      <c r="EY135" s="469"/>
+      <c r="EZ135" s="469"/>
+      <c r="FA135" s="469"/>
+      <c r="FB135" s="469"/>
+      <c r="FC135" s="469"/>
+      <c r="FD135" s="469"/>
+      <c r="FE135" s="469"/>
+      <c r="FF135" s="469"/>
+      <c r="FG135" s="469"/>
+      <c r="FH135" s="469"/>
+      <c r="FI135" s="469"/>
+      <c r="FJ135" s="469"/>
+      <c r="FK135" s="469"/>
+      <c r="FL135" s="469"/>
+      <c r="FM135" s="469"/>
+      <c r="FN135" s="469"/>
+      <c r="FO135" s="469"/>
+      <c r="FP135" s="469"/>
+      <c r="FQ135" s="469"/>
+      <c r="FR135" s="469"/>
+      <c r="FS135" s="469"/>
+      <c r="FT135" s="469"/>
+      <c r="FU135" s="469"/>
+      <c r="FV135" s="469"/>
+      <c r="FW135" s="469"/>
+      <c r="FX135" s="469"/>
+      <c r="FY135" s="469"/>
+      <c r="FZ135" s="469"/>
+      <c r="GA135" s="469"/>
+      <c r="GB135" s="469"/>
+      <c r="GC135" s="469"/>
+      <c r="GD135" s="469"/>
+      <c r="GE135" s="469"/>
+      <c r="GF135" s="469"/>
+      <c r="GG135" s="469"/>
+      <c r="GH135" s="469"/>
+      <c r="GI135" s="469"/>
+      <c r="GJ135" s="469"/>
+      <c r="GK135" s="469"/>
+      <c r="GL135" s="469"/>
+      <c r="GM135" s="469"/>
+      <c r="GN135" s="469"/>
+      <c r="GO135" s="469"/>
+      <c r="GP135" s="469"/>
+      <c r="GQ135" s="469"/>
+      <c r="GR135" s="469"/>
+      <c r="GS135" s="469"/>
+      <c r="GT135" s="469"/>
+      <c r="GU135" s="469"/>
+      <c r="GV135" s="469"/>
+      <c r="GW135" s="469"/>
+      <c r="GX135" s="469"/>
+      <c r="GY135" s="469"/>
+      <c r="GZ135" s="469"/>
+      <c r="HA135" s="469"/>
+      <c r="HB135" s="469"/>
+      <c r="HC135" s="469"/>
+      <c r="HD135" s="469"/>
+      <c r="HE135" s="469"/>
+      <c r="HF135" s="469"/>
+      <c r="HG135" s="469"/>
+      <c r="HH135" s="469"/>
+      <c r="HI135" s="469"/>
+      <c r="HJ135" s="469"/>
+      <c r="HK135" s="469"/>
+      <c r="HL135" s="469"/>
+      <c r="HM135" s="469"/>
+      <c r="HN135" s="469"/>
+      <c r="HO135" s="469"/>
+      <c r="HP135" s="469"/>
+      <c r="HQ135" s="469"/>
+      <c r="HR135" s="469"/>
+      <c r="HS135" s="469"/>
+      <c r="HT135" s="469"/>
+      <c r="HU135" s="469"/>
+      <c r="HV135" s="469"/>
+      <c r="HW135" s="469"/>
+      <c r="HX135" s="469"/>
+      <c r="HY135" s="469"/>
+      <c r="HZ135" s="469"/>
+      <c r="IA135" s="469"/>
+      <c r="IB135" s="469"/>
+      <c r="IC135" s="469"/>
+      <c r="ID135" s="469"/>
+      <c r="IE135" s="469"/>
+      <c r="IF135" s="469"/>
+      <c r="IG135" s="469"/>
+      <c r="IH135" s="469"/>
+      <c r="II135" s="469"/>
+      <c r="IJ135" s="469"/>
+      <c r="IK135" s="469"/>
+      <c r="IL135" s="469"/>
+      <c r="IM135" s="469"/>
+      <c r="IN135" s="469"/>
+      <c r="IO135" s="469"/>
+    </row>
+    <row r="136" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B136" s="463"/>
+      <c r="C136" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D136" s="464" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" s="464" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136" s="465"/>
+      <c r="G136" s="464" t="s">
+        <v>95</v>
+      </c>
+      <c r="H136" s="464"/>
+      <c r="I136" s="465"/>
+      <c r="J136" s="465"/>
+      <c r="K136" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" s="465"/>
+      <c r="M136" s="466"/>
+      <c r="N136" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O136" s="469"/>
+      <c r="P136" s="469"/>
+      <c r="Q136" s="469"/>
+      <c r="R136" s="469"/>
+      <c r="S136" s="469"/>
+      <c r="T136" s="469"/>
+      <c r="U136" s="469"/>
+      <c r="V136" s="469"/>
+      <c r="W136" s="469"/>
+      <c r="X136" s="469"/>
+      <c r="Y136" s="469"/>
+      <c r="Z136" s="469"/>
+      <c r="AA136" s="469"/>
+      <c r="AB136" s="469"/>
+      <c r="AC136" s="469"/>
+      <c r="AD136" s="469"/>
+      <c r="AE136" s="469"/>
+      <c r="AF136" s="469"/>
+      <c r="AG136" s="469"/>
+      <c r="AH136" s="469"/>
+      <c r="AI136" s="469"/>
+      <c r="AJ136" s="469"/>
+      <c r="AK136" s="469"/>
+      <c r="AL136" s="469"/>
+      <c r="AM136" s="469"/>
+      <c r="AN136" s="469"/>
+      <c r="AO136" s="469"/>
+      <c r="AP136" s="469"/>
+      <c r="AQ136" s="469"/>
+      <c r="AR136" s="469"/>
+      <c r="AS136" s="469"/>
+      <c r="AT136" s="469"/>
+      <c r="AU136" s="469"/>
+      <c r="AV136" s="469"/>
+      <c r="AW136" s="469"/>
+      <c r="AX136" s="469"/>
+      <c r="AY136" s="469"/>
+      <c r="AZ136" s="469"/>
+      <c r="BA136" s="469"/>
+      <c r="BB136" s="469"/>
+      <c r="BC136" s="469"/>
+      <c r="BD136" s="469"/>
+      <c r="BE136" s="469"/>
+      <c r="BF136" s="469"/>
+      <c r="BG136" s="469"/>
+      <c r="BH136" s="469"/>
+      <c r="BI136" s="469"/>
+      <c r="BJ136" s="469"/>
+      <c r="BK136" s="469"/>
+      <c r="BL136" s="469"/>
+      <c r="BM136" s="469"/>
+      <c r="BN136" s="469"/>
+      <c r="BO136" s="469"/>
+      <c r="BP136" s="469"/>
+      <c r="BQ136" s="469"/>
+      <c r="BR136" s="469"/>
+      <c r="BS136" s="469"/>
+      <c r="BT136" s="469"/>
+      <c r="BU136" s="469"/>
+      <c r="BV136" s="469"/>
+      <c r="BW136" s="469"/>
+      <c r="BX136" s="469"/>
+      <c r="BY136" s="469"/>
+      <c r="BZ136" s="469"/>
+      <c r="CA136" s="469"/>
+      <c r="CB136" s="469"/>
+      <c r="CC136" s="469"/>
+      <c r="CD136" s="469"/>
+      <c r="CE136" s="469"/>
+      <c r="CF136" s="469"/>
+      <c r="CG136" s="469"/>
+      <c r="CH136" s="469"/>
+      <c r="CI136" s="469"/>
+      <c r="CJ136" s="469"/>
+      <c r="CK136" s="469"/>
+      <c r="CL136" s="469"/>
+      <c r="CM136" s="469"/>
+      <c r="CN136" s="469"/>
+      <c r="CO136" s="469"/>
+      <c r="CP136" s="469"/>
+      <c r="CQ136" s="469"/>
+      <c r="CR136" s="469"/>
+      <c r="CS136" s="469"/>
+      <c r="CT136" s="469"/>
+      <c r="CU136" s="469"/>
+      <c r="CV136" s="469"/>
+      <c r="CW136" s="469"/>
+      <c r="CX136" s="469"/>
+      <c r="CY136" s="469"/>
+      <c r="CZ136" s="469"/>
+      <c r="DA136" s="469"/>
+      <c r="DB136" s="469"/>
+      <c r="DC136" s="469"/>
+      <c r="DD136" s="469"/>
+      <c r="DE136" s="469"/>
+      <c r="DF136" s="469"/>
+      <c r="DG136" s="469"/>
+      <c r="DH136" s="469"/>
+      <c r="DI136" s="469"/>
+      <c r="DJ136" s="469"/>
+      <c r="DK136" s="469"/>
+      <c r="DL136" s="469"/>
+      <c r="DM136" s="469"/>
+      <c r="DN136" s="469"/>
+      <c r="DO136" s="469"/>
+      <c r="DP136" s="469"/>
+      <c r="DQ136" s="469"/>
+      <c r="DR136" s="469"/>
+      <c r="DS136" s="469"/>
+      <c r="DT136" s="469"/>
+      <c r="DU136" s="469"/>
+      <c r="DV136" s="469"/>
+      <c r="DW136" s="469"/>
+      <c r="DX136" s="469"/>
+      <c r="DY136" s="469"/>
+      <c r="DZ136" s="469"/>
+      <c r="EA136" s="469"/>
+      <c r="EB136" s="469"/>
+      <c r="EC136" s="469"/>
+      <c r="ED136" s="469"/>
+      <c r="EE136" s="469"/>
+      <c r="EF136" s="469"/>
+      <c r="EG136" s="469"/>
+      <c r="EH136" s="469"/>
+      <c r="EI136" s="469"/>
+      <c r="EJ136" s="469"/>
+      <c r="EK136" s="469"/>
+      <c r="EL136" s="469"/>
+      <c r="EM136" s="469"/>
+      <c r="EN136" s="469"/>
+      <c r="EO136" s="469"/>
+      <c r="EP136" s="469"/>
+      <c r="EQ136" s="469"/>
+      <c r="ER136" s="469"/>
+      <c r="ES136" s="469"/>
+      <c r="ET136" s="469"/>
+      <c r="EU136" s="469"/>
+      <c r="EV136" s="469"/>
+      <c r="EW136" s="469"/>
+      <c r="EX136" s="469"/>
+      <c r="EY136" s="469"/>
+      <c r="EZ136" s="469"/>
+      <c r="FA136" s="469"/>
+      <c r="FB136" s="469"/>
+      <c r="FC136" s="469"/>
+      <c r="FD136" s="469"/>
+      <c r="FE136" s="469"/>
+      <c r="FF136" s="469"/>
+      <c r="FG136" s="469"/>
+      <c r="FH136" s="469"/>
+      <c r="FI136" s="469"/>
+      <c r="FJ136" s="469"/>
+      <c r="FK136" s="469"/>
+      <c r="FL136" s="469"/>
+      <c r="FM136" s="469"/>
+      <c r="FN136" s="469"/>
+      <c r="FO136" s="469"/>
+      <c r="FP136" s="469"/>
+      <c r="FQ136" s="469"/>
+      <c r="FR136" s="469"/>
+      <c r="FS136" s="469"/>
+      <c r="FT136" s="469"/>
+      <c r="FU136" s="469"/>
+      <c r="FV136" s="469"/>
+      <c r="FW136" s="469"/>
+      <c r="FX136" s="469"/>
+      <c r="FY136" s="469"/>
+      <c r="FZ136" s="469"/>
+      <c r="GA136" s="469"/>
+      <c r="GB136" s="469"/>
+      <c r="GC136" s="469"/>
+      <c r="GD136" s="469"/>
+      <c r="GE136" s="469"/>
+      <c r="GF136" s="469"/>
+      <c r="GG136" s="469"/>
+      <c r="GH136" s="469"/>
+      <c r="GI136" s="469"/>
+      <c r="GJ136" s="469"/>
+      <c r="GK136" s="469"/>
+      <c r="GL136" s="469"/>
+      <c r="GM136" s="469"/>
+      <c r="GN136" s="469"/>
+      <c r="GO136" s="469"/>
+      <c r="GP136" s="469"/>
+      <c r="GQ136" s="469"/>
+      <c r="GR136" s="469"/>
+      <c r="GS136" s="469"/>
+      <c r="GT136" s="469"/>
+      <c r="GU136" s="469"/>
+      <c r="GV136" s="469"/>
+      <c r="GW136" s="469"/>
+      <c r="GX136" s="469"/>
+      <c r="GY136" s="469"/>
+      <c r="GZ136" s="469"/>
+      <c r="HA136" s="469"/>
+      <c r="HB136" s="469"/>
+      <c r="HC136" s="469"/>
+      <c r="HD136" s="469"/>
+      <c r="HE136" s="469"/>
+      <c r="HF136" s="469"/>
+      <c r="HG136" s="469"/>
+      <c r="HH136" s="469"/>
+      <c r="HI136" s="469"/>
+      <c r="HJ136" s="469"/>
+      <c r="HK136" s="469"/>
+      <c r="HL136" s="469"/>
+      <c r="HM136" s="469"/>
+      <c r="HN136" s="469"/>
+      <c r="HO136" s="469"/>
+      <c r="HP136" s="469"/>
+      <c r="HQ136" s="469"/>
+      <c r="HR136" s="469"/>
+      <c r="HS136" s="469"/>
+      <c r="HT136" s="469"/>
+      <c r="HU136" s="469"/>
+      <c r="HV136" s="469"/>
+      <c r="HW136" s="469"/>
+      <c r="HX136" s="469"/>
+      <c r="HY136" s="469"/>
+      <c r="HZ136" s="469"/>
+      <c r="IA136" s="469"/>
+      <c r="IB136" s="469"/>
+      <c r="IC136" s="469"/>
+      <c r="ID136" s="469"/>
+      <c r="IE136" s="469"/>
+      <c r="IF136" s="469"/>
+      <c r="IG136" s="469"/>
+      <c r="IH136" s="469"/>
+      <c r="II136" s="469"/>
+      <c r="IJ136" s="469"/>
+      <c r="IK136" s="469"/>
+      <c r="IL136" s="469"/>
+      <c r="IM136" s="469"/>
+      <c r="IN136" s="469"/>
+      <c r="IO136" s="469"/>
+    </row>
+    <row r="137" spans="1:249" s="432" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="462">
+        <v>42736</v>
+      </c>
+      <c r="B137" s="463"/>
+      <c r="C137" s="464" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D137" s="464" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="464" t="s">
+        <v>97</v>
+      </c>
+      <c r="F137" s="465"/>
+      <c r="G137" s="464" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" s="464"/>
+      <c r="I137" s="464" t="s">
+        <v>99</v>
+      </c>
+      <c r="J137" s="465"/>
+      <c r="K137" s="464" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" s="465"/>
+      <c r="M137" s="466"/>
+      <c r="N137" s="423" t="s">
+        <v>782</v>
+      </c>
+      <c r="O137" s="469"/>
+      <c r="P137" s="469"/>
+      <c r="Q137" s="469"/>
+      <c r="R137" s="469"/>
+      <c r="S137" s="469"/>
+      <c r="T137" s="469"/>
+      <c r="U137" s="469"/>
+      <c r="V137" s="469"/>
+      <c r="W137" s="469"/>
+      <c r="X137" s="469"/>
+      <c r="Y137" s="469"/>
+      <c r="Z137" s="469"/>
+      <c r="AA137" s="469"/>
+      <c r="AB137" s="469"/>
+      <c r="AC137" s="469"/>
+      <c r="AD137" s="469"/>
+      <c r="AE137" s="469"/>
+      <c r="AF137" s="469"/>
+      <c r="AG137" s="469"/>
+      <c r="AH137" s="469"/>
+      <c r="AI137" s="469"/>
+      <c r="AJ137" s="469"/>
+      <c r="AK137" s="469"/>
+      <c r="AL137" s="469"/>
+      <c r="AM137" s="469"/>
+      <c r="AN137" s="469"/>
+      <c r="AO137" s="469"/>
+      <c r="AP137" s="469"/>
+      <c r="AQ137" s="469"/>
+      <c r="AR137" s="469"/>
+      <c r="AS137" s="469"/>
+      <c r="AT137" s="469"/>
+      <c r="AU137" s="469"/>
+      <c r="AV137" s="469"/>
+      <c r="AW137" s="469"/>
+      <c r="AX137" s="469"/>
+      <c r="AY137" s="469"/>
+      <c r="AZ137" s="469"/>
+      <c r="BA137" s="469"/>
+      <c r="BB137" s="469"/>
+      <c r="BC137" s="469"/>
+      <c r="BD137" s="469"/>
+      <c r="BE137" s="469"/>
+      <c r="BF137" s="469"/>
+      <c r="BG137" s="469"/>
+      <c r="BH137" s="469"/>
+      <c r="BI137" s="469"/>
+      <c r="BJ137" s="469"/>
+      <c r="BK137" s="469"/>
+      <c r="BL137" s="469"/>
+      <c r="BM137" s="469"/>
+      <c r="BN137" s="469"/>
+      <c r="BO137" s="469"/>
+      <c r="BP137" s="469"/>
+      <c r="BQ137" s="469"/>
+      <c r="BR137" s="469"/>
+      <c r="BS137" s="469"/>
+      <c r="BT137" s="469"/>
+      <c r="BU137" s="469"/>
+      <c r="BV137" s="469"/>
+      <c r="BW137" s="469"/>
+      <c r="BX137" s="469"/>
+      <c r="BY137" s="469"/>
+      <c r="BZ137" s="469"/>
+      <c r="CA137" s="469"/>
+      <c r="CB137" s="469"/>
+      <c r="CC137" s="469"/>
+      <c r="CD137" s="469"/>
+      <c r="CE137" s="469"/>
+      <c r="CF137" s="469"/>
+      <c r="CG137" s="469"/>
+      <c r="CH137" s="469"/>
+      <c r="CI137" s="469"/>
+      <c r="CJ137" s="469"/>
+      <c r="CK137" s="469"/>
+      <c r="CL137" s="469"/>
+      <c r="CM137" s="469"/>
+      <c r="CN137" s="469"/>
+      <c r="CO137" s="469"/>
+      <c r="CP137" s="469"/>
+      <c r="CQ137" s="469"/>
+      <c r="CR137" s="469"/>
+      <c r="CS137" s="469"/>
+      <c r="CT137" s="469"/>
+      <c r="CU137" s="469"/>
+      <c r="CV137" s="469"/>
+      <c r="CW137" s="469"/>
+      <c r="CX137" s="469"/>
+      <c r="CY137" s="469"/>
+      <c r="CZ137" s="469"/>
+      <c r="DA137" s="469"/>
+      <c r="DB137" s="469"/>
+      <c r="DC137" s="469"/>
+      <c r="DD137" s="469"/>
+      <c r="DE137" s="469"/>
+      <c r="DF137" s="469"/>
+      <c r="DG137" s="469"/>
+      <c r="DH137" s="469"/>
+      <c r="DI137" s="469"/>
+      <c r="DJ137" s="469"/>
+      <c r="DK137" s="469"/>
+      <c r="DL137" s="469"/>
+      <c r="DM137" s="469"/>
+      <c r="DN137" s="469"/>
+      <c r="DO137" s="469"/>
+      <c r="DP137" s="469"/>
+      <c r="DQ137" s="469"/>
+      <c r="DR137" s="469"/>
+      <c r="DS137" s="469"/>
+      <c r="DT137" s="469"/>
+      <c r="DU137" s="469"/>
+      <c r="DV137" s="469"/>
+      <c r="DW137" s="469"/>
+      <c r="DX137" s="469"/>
+      <c r="DY137" s="469"/>
+      <c r="DZ137" s="469"/>
+      <c r="EA137" s="469"/>
+      <c r="EB137" s="469"/>
+      <c r="EC137" s="469"/>
+      <c r="ED137" s="469"/>
+      <c r="EE137" s="469"/>
+      <c r="EF137" s="469"/>
+      <c r="EG137" s="469"/>
+      <c r="EH137" s="469"/>
+      <c r="EI137" s="469"/>
+      <c r="EJ137" s="469"/>
+      <c r="EK137" s="469"/>
+      <c r="EL137" s="469"/>
+      <c r="EM137" s="469"/>
+      <c r="EN137" s="469"/>
+      <c r="EO137" s="469"/>
+      <c r="EP137" s="469"/>
+      <c r="EQ137" s="469"/>
+      <c r="ER137" s="469"/>
+      <c r="ES137" s="469"/>
+      <c r="ET137" s="469"/>
+      <c r="EU137" s="469"/>
+      <c r="EV137" s="469"/>
+      <c r="EW137" s="469"/>
+      <c r="EX137" s="469"/>
+      <c r="EY137" s="469"/>
+      <c r="EZ137" s="469"/>
+      <c r="FA137" s="469"/>
+      <c r="FB137" s="469"/>
+      <c r="FC137" s="469"/>
+      <c r="FD137" s="469"/>
+      <c r="FE137" s="469"/>
+      <c r="FF137" s="469"/>
+      <c r="FG137" s="469"/>
+      <c r="FH137" s="469"/>
+      <c r="FI137" s="469"/>
+      <c r="FJ137" s="469"/>
+      <c r="FK137" s="469"/>
+      <c r="FL137" s="469"/>
+      <c r="FM137" s="469"/>
+      <c r="FN137" s="469"/>
+      <c r="FO137" s="469"/>
+      <c r="FP137" s="469"/>
+      <c r="FQ137" s="469"/>
+      <c r="FR137" s="469"/>
+      <c r="FS137" s="469"/>
+      <c r="FT137" s="469"/>
+      <c r="FU137" s="469"/>
+      <c r="FV137" s="469"/>
+      <c r="FW137" s="469"/>
+      <c r="FX137" s="469"/>
+      <c r="FY137" s="469"/>
+      <c r="FZ137" s="469"/>
+      <c r="GA137" s="469"/>
+      <c r="GB137" s="469"/>
+      <c r="GC137" s="469"/>
+      <c r="GD137" s="469"/>
+      <c r="GE137" s="469"/>
+      <c r="GF137" s="469"/>
+      <c r="GG137" s="469"/>
+      <c r="GH137" s="469"/>
+      <c r="GI137" s="469"/>
+      <c r="GJ137" s="469"/>
+      <c r="GK137" s="469"/>
+      <c r="GL137" s="469"/>
+      <c r="GM137" s="469"/>
+      <c r="GN137" s="469"/>
+      <c r="GO137" s="469"/>
+      <c r="GP137" s="469"/>
+      <c r="GQ137" s="469"/>
+      <c r="GR137" s="469"/>
+      <c r="GS137" s="469"/>
+      <c r="GT137" s="469"/>
+      <c r="GU137" s="469"/>
+      <c r="GV137" s="469"/>
+      <c r="GW137" s="469"/>
+      <c r="GX137" s="469"/>
+      <c r="GY137" s="469"/>
+      <c r="GZ137" s="469"/>
+      <c r="HA137" s="469"/>
+      <c r="HB137" s="469"/>
+      <c r="HC137" s="469"/>
+      <c r="HD137" s="469"/>
+      <c r="HE137" s="469"/>
+      <c r="HF137" s="469"/>
+      <c r="HG137" s="469"/>
+      <c r="HH137" s="469"/>
+      <c r="HI137" s="469"/>
+      <c r="HJ137" s="469"/>
+      <c r="HK137" s="469"/>
+      <c r="HL137" s="469"/>
+      <c r="HM137" s="469"/>
+      <c r="HN137" s="469"/>
+      <c r="HO137" s="469"/>
+      <c r="HP137" s="469"/>
+      <c r="HQ137" s="469"/>
+      <c r="HR137" s="469"/>
+      <c r="HS137" s="469"/>
+      <c r="HT137" s="469"/>
+      <c r="HU137" s="469"/>
+      <c r="HV137" s="469"/>
+      <c r="HW137" s="469"/>
+      <c r="HX137" s="469"/>
+      <c r="HY137" s="469"/>
+      <c r="HZ137" s="469"/>
+      <c r="IA137" s="469"/>
+      <c r="IB137" s="469"/>
+      <c r="IC137" s="469"/>
+      <c r="ID137" s="469"/>
+      <c r="IE137" s="469"/>
+      <c r="IF137" s="469"/>
+      <c r="IG137" s="469"/>
+      <c r="IH137" s="469"/>
+      <c r="II137" s="469"/>
+      <c r="IJ137" s="469"/>
+      <c r="IK137" s="469"/>
+      <c r="IL137" s="469"/>
+      <c r="IM137" s="469"/>
+      <c r="IN137" s="469"/>
+      <c r="IO137" s="469"/>
+    </row>
+    <row r="138" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="71">
         <v>42737</v>
       </c>
-      <c r="B127" s="321"/>
-      <c r="C127" s="17" t="s">
+      <c r="B138" s="321"/>
+      <c r="C138" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D138" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E138" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G138" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="17" t="s">
+      <c r="K138" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N127" s="17" t="s">
+      <c r="N138" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="128" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="71">
+    <row r="139" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="71">
         <v>42737</v>
       </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="17" t="s">
+      <c r="B139" s="67"/>
+      <c r="C139" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D128" s="293" t="s">
+      <c r="D139" s="293" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="293" t="s">
+      <c r="E139" s="293" t="s">
         <v>784</v>
       </c>
-      <c r="F128" s="293" t="s">
+      <c r="F139" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="G128" s="294" t="s">
+      <c r="G139" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="H128" s="293"/>
-      <c r="K128" s="17" t="s">
+      <c r="H139" s="293"/>
+      <c r="K139" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N128" s="17" t="s">
+      <c r="N139" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="71">
+    <row r="140" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="71">
         <v>42738</v>
       </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="17" t="s">
+      <c r="B140" s="67"/>
+      <c r="C140" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D129" s="293" t="s">
+      <c r="D140" s="293" t="s">
         <v>785</v>
       </c>
-      <c r="E129" s="293" t="s">
+      <c r="E140" s="293" t="s">
         <v>786</v>
       </c>
-      <c r="F129" s="293" t="s">
+      <c r="F140" s="293" t="s">
         <v>787</v>
       </c>
-      <c r="G129" s="294" t="s">
+      <c r="G140" s="294" t="s">
         <v>788</v>
       </c>
-      <c r="H129" s="293"/>
-      <c r="K129" s="17" t="s">
+      <c r="H140" s="293"/>
+      <c r="K140" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N129" s="17" t="s">
+      <c r="N140" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="71">
+    <row r="141" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="71">
         <v>42739</v>
       </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="17" t="s">
+      <c r="B141" s="67"/>
+      <c r="C141" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D130" s="293" t="s">
+      <c r="D141" s="293" t="s">
         <v>789</v>
       </c>
-      <c r="E130" s="293" t="s">
+      <c r="E141" s="293" t="s">
         <v>790</v>
       </c>
-      <c r="F130" s="293" t="s">
+      <c r="F141" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="G130" s="294" t="s">
+      <c r="G141" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="H130" s="293"/>
-      <c r="K130" s="17" t="s">
+      <c r="H141" s="293"/>
+      <c r="K141" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N130" s="17" t="s">
+      <c r="N141" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="71">
+    <row r="142" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="71">
         <v>42740</v>
       </c>
-      <c r="B131" s="67"/>
-      <c r="C131" s="17" t="s">
+      <c r="B142" s="67"/>
+      <c r="C142" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D131" s="293" t="s">
+      <c r="D142" s="293" t="s">
         <v>791</v>
       </c>
-      <c r="E131" s="293" t="s">
+      <c r="E142" s="293" t="s">
         <v>792</v>
       </c>
-      <c r="F131" s="293" t="s">
+      <c r="F142" s="293" t="s">
         <v>787</v>
       </c>
-      <c r="G131" s="294" t="s">
+      <c r="G142" s="294" t="s">
         <v>788</v>
       </c>
-      <c r="H131" s="293"/>
-      <c r="K131" s="17" t="s">
+      <c r="H142" s="293"/>
+      <c r="K142" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N131" s="17" t="s">
+      <c r="N142" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="71">
+    <row r="143" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="71">
         <v>42741</v>
       </c>
-      <c r="B132" s="67"/>
-      <c r="C132" s="17" t="s">
+      <c r="B143" s="67"/>
+      <c r="C143" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D132" s="293" t="s">
+      <c r="D143" s="293" t="s">
         <v>793</v>
       </c>
-      <c r="E132" s="293" t="s">
+      <c r="E143" s="293" t="s">
         <v>794</v>
       </c>
-      <c r="F132" s="293" t="s">
+      <c r="F143" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="G132" s="294" t="s">
+      <c r="G143" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="H132" s="68"/>
-      <c r="I132" s="293" t="s">
+      <c r="H143" s="68"/>
+      <c r="I143" s="293" t="s">
         <v>62</v>
       </c>
-      <c r="K132" s="17" t="s">
+      <c r="K143" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N132" s="17" t="s">
+      <c r="N143" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="71">
+    <row r="144" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="71">
         <v>42742</v>
       </c>
-      <c r="B133" s="67"/>
-      <c r="C133" s="17" t="s">
+      <c r="B144" s="67"/>
+      <c r="C144" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D133" s="293" t="s">
+      <c r="D144" s="293" t="s">
         <v>795</v>
       </c>
-      <c r="E133" s="293" t="s">
+      <c r="E144" s="293" t="s">
         <v>796</v>
       </c>
-      <c r="F133" s="293" t="s">
+      <c r="F144" s="293" t="s">
         <v>787</v>
       </c>
-      <c r="G133" s="294" t="s">
+      <c r="G144" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="H133" s="68"/>
-      <c r="I133" s="293" t="s">
+      <c r="H144" s="68"/>
+      <c r="I144" s="293" t="s">
         <v>788</v>
       </c>
-      <c r="K133" s="17" t="s">
+      <c r="K144" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N133" s="17" t="s">
+      <c r="N144" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="71">
+    <row r="145" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="71">
         <v>42743</v>
       </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="17" t="s">
+      <c r="B145" s="67"/>
+      <c r="C145" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D134" s="293" t="s">
+      <c r="D145" s="293" t="s">
         <v>797</v>
       </c>
-      <c r="E134" s="293" t="s">
+      <c r="E145" s="293" t="s">
         <v>798</v>
       </c>
-      <c r="F134" s="293" t="s">
+      <c r="F145" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="G134" s="294" t="s">
+      <c r="G145" s="294" t="s">
         <v>799</v>
       </c>
-      <c r="H134" s="68"/>
-      <c r="I134" s="293"/>
-      <c r="K134" s="17" t="s">
+      <c r="H145" s="68"/>
+      <c r="I145" s="293"/>
+      <c r="K145" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N134" s="17" t="s">
+      <c r="N145" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="71">
+    <row r="146" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="71">
         <v>42744</v>
       </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="17" t="s">
+      <c r="B146" s="67"/>
+      <c r="C146" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D135" s="293" t="s">
+      <c r="D146" s="293" t="s">
         <v>800</v>
       </c>
-      <c r="E135" s="293" t="s">
+      <c r="E146" s="293" t="s">
         <v>801</v>
       </c>
-      <c r="F135" s="293" t="s">
+      <c r="F146" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="G135" s="294" t="s">
+      <c r="G146" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="H135" s="68"/>
-      <c r="I135" s="294" t="s">
+      <c r="H146" s="68"/>
+      <c r="I146" s="294" t="s">
         <v>799</v>
       </c>
-      <c r="K135" s="17" t="s">
+      <c r="K146" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N135" s="17" t="s">
+      <c r="N146" s="17" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="71">
+    <row r="147" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="71">
         <v>42745</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="17" t="s">
+      <c r="B147" s="67"/>
+      <c r="C147" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D136" s="293" t="s">
+      <c r="D147" s="293" t="s">
         <v>802</v>
       </c>
-      <c r="E136" s="293" t="s">
+      <c r="E147" s="293" t="s">
         <v>803</v>
       </c>
-      <c r="F136" s="293" t="s">
+      <c r="F147" s="293" t="s">
         <v>804</v>
       </c>
-      <c r="G136" s="294" t="s">
+      <c r="G147" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="H136" s="86"/>
-      <c r="I136" s="293"/>
-      <c r="K136" s="17" t="s">
+      <c r="H147" s="86"/>
+      <c r="I147" s="293"/>
+      <c r="K147" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N136" s="17" t="s">
+      <c r="N147" s="17" t="s">
         <v>782</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B127" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
-      <formula1>IF((DATEDIF(A127,B127,"d")&gt;0),B127)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B138" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
+      <formula1>IF((DATEDIF(A138,B138,"d")&gt;0),B138)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/hmcts/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E817009-72EE-F24F-B859-A29EE77345EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D2E2AE-F54F-814B-86B7-1371FF08310C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="21380" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7191" uniqueCount="1110">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -5772,992 +5772,6 @@
   </cellStyles>
   <dxfs count="317">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0432FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0432FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -8853,6 +7867,416 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0432FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10333,6 +9757,283 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0432FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -12004,6 +11705,54 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13202,6 +12951,257 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -13354,392 +13354,392 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="316" dataDxfId="314" headerRowBorderDxfId="315" tableBorderDxfId="313" totalsRowBorderDxfId="312">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="311"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="310"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="309"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="308"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="307"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L78" totalsRowShown="0" headerRowDxfId="202" dataDxfId="200" headerRowBorderDxfId="201" tableBorderDxfId="199" totalsRowBorderDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L78" totalsRowShown="0" headerRowDxfId="190" dataDxfId="188" headerRowBorderDxfId="189" tableBorderDxfId="187" totalsRowBorderDxfId="186">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="194"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="193"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="189"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="188"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="187"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="183"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="181"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="180"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="179"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="178"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="177"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="176"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H40" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H40" totalsRowShown="0" headerRowDxfId="173" dataDxfId="171" headerRowBorderDxfId="172" tableBorderDxfId="170" totalsRowBorderDxfId="169">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="162"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T55" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182" totalsRowBorderDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:T55" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="179"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="178"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="177"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="176"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="175"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="174"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="172"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="171" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="170"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="169"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="168"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="167"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="166"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="165"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="164"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="163"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="162"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="147"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="146" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="143"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="142"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="141"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="140"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="139"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="138"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="137"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="EndButtonLabel" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R183" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:R183" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="147"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="146"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="145"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="144"/>
-    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="142"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="141"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="140"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="139"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="121"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="120"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="119"/>
+    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="118"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="117"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="116"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="115"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="114"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H58" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134" totalsRowBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H58" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:I48" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:I48" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{4DAFD93D-577A-F041-B588-5C995BA5B65E}" name="ResultsOrdering" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{98FE8C07-877C-564D-B37F-388027F0E2FE}" name="DisplayContextParameter" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{4DAFD93D-577A-F041-B588-5C995BA5B65E}" name="ResultsOrdering" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{98FE8C07-877C-564D-B37F-388027F0E2FE}" name="DisplayContextParameter" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H57" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H57" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I62" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I62" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E28" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E28" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="316" dataDxfId="314" headerRowBorderDxfId="315" tableBorderDxfId="313" totalsRowBorderDxfId="312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="306" dataDxfId="304" headerRowBorderDxfId="305" tableBorderDxfId="303" totalsRowBorderDxfId="302">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="311"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="310"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="309"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="308" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="301"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="300"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="299"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="298" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F186" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F186" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D18" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D18" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="61" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F69" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F69" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F43" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F43" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I21" totalsRowShown="0" headerRowDxfId="307" dataDxfId="305" headerRowBorderDxfId="306" tableBorderDxfId="304" totalsRowBorderDxfId="303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I21" totalsRowShown="0" headerRowDxfId="297" dataDxfId="295" headerRowBorderDxfId="296" tableBorderDxfId="294" totalsRowBorderDxfId="293">
   <autoFilter ref="A3:I21" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="302"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="301"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="300"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="299"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="298"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="297"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="296"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="295"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="294"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="292"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="291"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="290"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="289"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="288"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="287"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="286"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="285"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="284"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F70D0623-0A9A-6C4C-9874-9A93D5DC3ACF}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290" totalsRowBorderDxfId="289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F70D0623-0A9A-6C4C-9874-9A93D5DC3ACF}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="283" dataDxfId="281" headerRowBorderDxfId="282" tableBorderDxfId="280" totalsRowBorderDxfId="279">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{24BEC596-8705-9C49-940B-FCCC2F2EB305}" name="CaseTypeId" dataDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{C8273B71-59AA-7D4D-B60F-85A96E9E15D7}" name="ReasonRequired" dataDxfId="287"/>
-    <tableColumn id="4" xr3:uid="{4A0A9C2B-6C96-574F-BCC8-ACBC4B9E5EA7}" name="NoCActionInterpretationRequired" dataDxfId="286" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{24BEC596-8705-9C49-940B-FCCC2F2EB305}" name="CaseTypeId" dataDxfId="278"/>
+    <tableColumn id="2" xr3:uid="{C8273B71-59AA-7D4D-B60F-85A96E9E15D7}" name="ReasonRequired" dataDxfId="277"/>
+    <tableColumn id="4" xr3:uid="{4A0A9C2B-6C96-574F-BCC8-ACBC4B9E5EA7}" name="NoCActionInterpretationRequired" dataDxfId="276" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O154" totalsRowShown="0" headerRowDxfId="285" dataDxfId="283" headerRowBorderDxfId="284" tableBorderDxfId="282" totalsRowBorderDxfId="281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O154" totalsRowShown="0" headerRowDxfId="275" dataDxfId="273" headerRowBorderDxfId="274" tableBorderDxfId="272" totalsRowBorderDxfId="271">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="280"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="278"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="277"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="276"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="275"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="274"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="273"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="272"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="271"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="270"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="269"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="268"/>
-    <tableColumn id="14" xr3:uid="{4541E6DA-EAB5-7443-A660-006BEE34C855}" name="DefaultHidden" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{294BBB22-F970-A34E-A077-D51352647008}" name="Searchable" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="270"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="269"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="268"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="267"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="266"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="265"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="264"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="263"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="262"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="261"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="260"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="259"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="258"/>
+    <tableColumn id="14" xr3:uid="{4541E6DA-EAB5-7443-A660-006BEE34C855}" name="DefaultHidden" dataDxfId="257"/>
+    <tableColumn id="15" xr3:uid="{294BBB22-F970-A34E-A077-D51352647008}" name="Searchable" dataDxfId="256"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:T88" totalsRowShown="0" headerRowDxfId="267" dataDxfId="265" headerRowBorderDxfId="266" tableBorderDxfId="264" totalsRowBorderDxfId="263">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:T88" totalsRowShown="0" headerRowDxfId="255" dataDxfId="253" headerRowBorderDxfId="254" tableBorderDxfId="252" totalsRowBorderDxfId="251">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="262"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="261"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="260"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="259"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="258"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="257"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="256"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="255"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="254"/>
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="246"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="245"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="244"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="243"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="242"/>
     <tableColumn id="20" xr3:uid="{3056D2D9-052A-4948-A9B6-EA6D4AEEE813}" name="RetainHiddenValue"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="253"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="252"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="251"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="250"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="249"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="248"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="247"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="246"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="245"/>
-    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="244"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="241"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="240"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="239"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="238"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="237"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="236"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="235"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="234"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="233"/>
+    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="232"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G46" totalsRowShown="0" headerRowDxfId="243" dataDxfId="241" headerRowBorderDxfId="242" tableBorderDxfId="240" totalsRowBorderDxfId="239" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G46" totalsRowShown="0" headerRowDxfId="231" dataDxfId="229" headerRowBorderDxfId="230" tableBorderDxfId="228" totalsRowBorderDxfId="227" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="238"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="237"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="236"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="235"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="234"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="233"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="232"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L153" totalsRowShown="0" headerRowDxfId="231" dataDxfId="229" headerRowBorderDxfId="230" tableBorderDxfId="228" totalsRowBorderDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:L153" totalsRowShown="0" headerRowDxfId="219" dataDxfId="217" headerRowBorderDxfId="218" tableBorderDxfId="216" totalsRowBorderDxfId="215">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="226"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="225"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="224"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="223"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="222"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="221"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="220"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="219"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="218"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="217"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="216"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="214"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="213"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="212"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="211"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="210"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="209"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="208"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="207"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="206"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="205"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="204"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G36" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211" totalsRowBorderDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G36" totalsRowShown="0" headerRowDxfId="202" dataDxfId="200" headerRowBorderDxfId="201" tableBorderDxfId="199" totalsRowBorderDxfId="198">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="209"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="208"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="207"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="206"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="205"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="204"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="203"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="193"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21559,8 +21559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A110" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178:C181"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E95" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22793,9 +22793,7 @@
       <c r="L30" s="81" t="s">
         <v>981</v>
       </c>
-      <c r="M30" s="81" t="b">
-        <v>1</v>
-      </c>
+      <c r="M30" s="81"/>
       <c r="N30" s="81"/>
       <c r="O30" s="81"/>
       <c r="P30" s="62" t="s">
@@ -41929,7 +41927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO154"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
@@ -50320,8 +50318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -51252,9 +51250,7 @@
       <c r="I26" s="62" t="s">
         <v>982</v>
       </c>
-      <c r="J26" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="J26" s="62"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="62" t="s">
@@ -51292,9 +51288,7 @@
       <c r="I27" s="62" t="s">
         <v>982</v>
       </c>
-      <c r="J27" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="J27" s="62"/>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
       <c r="M27" s="62" t="s">
@@ -51574,9 +51568,7 @@
       <c r="I35" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="J35" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="J35" s="62"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
       <c r="M35" s="62" t="s">
@@ -51614,9 +51606,7 @@
       <c r="I36" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="J36" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="J36" s="62"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
       <c r="M36" s="62" t="s">
@@ -54358,7 +54348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olawaleolanrewaju/Documents/Git_MOJ/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F9D2AB-2B9D-6B46-A2C2-608B88F731A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B2154-43D5-8942-A3D4-06B269D11151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1062">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15408,7 +15408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
@@ -20844,8 +20844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22078,9 +22078,7 @@
       <c r="L30" s="81" t="s">
         <v>981</v>
       </c>
-      <c r="M30" s="81" t="b">
-        <v>1</v>
-      </c>
+      <c r="M30" s="81"/>
       <c r="N30" s="81"/>
       <c r="O30" s="81"/>
       <c r="P30" s="62" t="s">
@@ -22122,9 +22120,7 @@
       <c r="L31" s="81" t="s">
         <v>981</v>
       </c>
-      <c r="M31" s="81" t="b">
-        <v>1</v>
-      </c>
+      <c r="M31" s="81"/>
       <c r="N31" s="81"/>
       <c r="O31" s="81"/>
       <c r="P31" s="62" t="s">
@@ -40017,7 +40013,7 @@
   <dimension ref="A1:IO147"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
@@ -50678,8 +50674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -51610,9 +51606,7 @@
       <c r="I26" s="62" t="s">
         <v>982</v>
       </c>
-      <c r="J26" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="J26" s="62"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="62" t="s">
@@ -51650,9 +51644,7 @@
       <c r="I27" s="62" t="s">
         <v>982</v>
       </c>
-      <c r="J27" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="J27" s="62"/>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
       <c r="M27" s="62" t="s">
@@ -51932,9 +51924,7 @@
       <c r="I35" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="J35" s="62" t="s">
-        <v>422</v>
-      </c>
+      <c r="J35" s="62"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
       <c r="M35" s="62" t="s">
@@ -51972,9 +51962,7 @@
       <c r="I36" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="J36" s="62" t="s">
-        <v>424</v>
-      </c>
+      <c r="J36" s="62"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
       <c r="M36" s="62" t="s">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B2154-43D5-8942-A3D4-06B269D11151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABCB4-7E6B-8242-BB58-860C154C0251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7573" uniqueCount="1127">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3329,6 +3329,201 @@
   </si>
   <si>
     <t>FT-Conditional Post State</t>
+  </si>
+  <si>
+    <t>FT_NoCCaseType</t>
+  </si>
+  <si>
+    <t>FT-NoC Case Type</t>
+  </si>
+  <si>
+    <t>CaseType for testing Notice of Change</t>
+  </si>
+  <si>
+    <t>FT_NoCAutoApprovalCaseType</t>
+  </si>
+  <si>
+    <t>FT-NoC AutoApproval Case Type</t>
+  </si>
+  <si>
+    <t>CaseType for testing Notice of Change with Auto Approval</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>Applicant</t>
+  </si>
+  <si>
+    <t>litigant</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>Respondent</t>
+  </si>
+  <si>
+    <t>otherParty</t>
+  </si>
+  <si>
+    <t>Other party</t>
+  </si>
+  <si>
+    <t>applicantOrganisationPolicy</t>
+  </si>
+  <si>
+    <t>Applicant's Organisation Policy</t>
+  </si>
+  <si>
+    <t>respondentOrganisationPolicy</t>
+  </si>
+  <si>
+    <t>Respondent's Organisation Policy</t>
+  </si>
+  <si>
+    <t>otherPartyOrganisationPolicy</t>
+  </si>
+  <si>
+    <t>Other Party's OrganisationPolicy</t>
+  </si>
+  <si>
+    <t>changeOrganisationRequestField</t>
+  </si>
+  <si>
+    <t>[ApplicantSolicitor]</t>
+  </si>
+  <si>
+    <t>ApplicantPolicy</t>
+  </si>
+  <si>
+    <t>[RespondentSolicitor]</t>
+  </si>
+  <si>
+    <t>RespondentPolicy</t>
+  </si>
+  <si>
+    <t>[OtherPartySolicitor]</t>
+  </si>
+  <si>
+    <t>OtherPartyPolicy</t>
+  </si>
+  <si>
+    <t>nocRequest</t>
+  </si>
+  <si>
+    <t>nocRequest_autoApproval</t>
+  </si>
+  <si>
+    <t>litigantType</t>
+  </si>
+  <si>
+    <t>Litigant Type</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>litigantType="INDIVIDUAL"</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>litigantType="COMPANY"</t>
+  </si>
+  <si>
+    <t>soletrader</t>
+  </si>
+  <si>
+    <t>Sole Trader</t>
+  </si>
+  <si>
+    <t>litigantType="SOLETRADER"</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>SOLETRADER</t>
+  </si>
+  <si>
+    <t>Sole trader</t>
+  </si>
+  <si>
+    <t>${applicant.individual.LastName}|${applicant.company.Name}|${applicant.soletrader.Name}:[ApplicantSolicitor],${respondent.individual.LastName}|${respondent.company.Name}|${respondent.soletrader.Name}:[RespondentSolicitor],${otherParty.individual.LastName}|${otherParty.company.Name}|${otherParty.soletrader.Name}:[OtherPartySolicitor]</t>
+  </si>
+  <si>
+    <t>NOC_Challenge_Name</t>
+  </si>
+  <si>
+    <t>NoC_AutoApproval_Challenge_Name</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Create Case</t>
+  </si>
+  <si>
+    <t>NoC Request</t>
+  </si>
+  <si>
+    <t>Notice of Change Request</t>
+  </si>
+  <si>
+    <t>http://host.docker.internal:5555/callback_returning_simulated_completed_noc_request</t>
+  </si>
+  <si>
+    <t>individual.FirstName</t>
+  </si>
+  <si>
+    <t>Applicant: Individual First Name</t>
+  </si>
+  <si>
+    <t>individual.LastName</t>
+  </si>
+  <si>
+    <t>company.Name</t>
+  </si>
+  <si>
+    <t>Applicant: Company Name</t>
+  </si>
+  <si>
+    <t>soletrader.Name</t>
+  </si>
+  <si>
+    <t>Applicant: Sole Trader Name</t>
+  </si>
+  <si>
+    <t>Other Party</t>
+  </si>
+  <si>
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>Applicant Solicitor</t>
+  </si>
+  <si>
+    <t>The applicant solicitor</t>
+  </si>
+  <si>
+    <t>Respondent Solicitor</t>
+  </si>
+  <si>
+    <t>The respondent solicitor</t>
+  </si>
+  <si>
+    <t>Other Party Solicitor</t>
+  </si>
+  <si>
+    <t>The other party solicitor</t>
   </si>
 </sst>
 </file>
@@ -3341,7 +3536,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3818,8 +4013,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3938,6 +4137,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6CFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4153,7 +4358,7 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="592">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5607,6 +5812,75 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14648,10 +14922,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15154,12 +15428,61 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F27" s="115"/>
+      <c r="G27" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="115"/>
+      <c r="G28" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F29" s="115"/>
+      <c r="G29" s="70">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -15175,10 +15498,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0C02E-59B7-9148-BB65-087866DFAC16}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15193,7 +15516,7 @@
     <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="527" t="s">
         <v>1025</v>
       </c>
@@ -15212,7 +15535,7 @@
       <c r="H1" s="531"/>
       <c r="I1" s="531"/>
     </row>
-    <row r="2" spans="1:9" ht="168" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="168" x14ac:dyDescent="0.15">
       <c r="A2" s="532" t="s">
         <v>5</v>
       </c>
@@ -15239,7 +15562,7 @@
       </c>
       <c r="I2" s="534"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="537" t="s">
         <v>10</v>
       </c>
@@ -15268,7 +15591,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.15">
       <c r="A4" s="540"/>
       <c r="B4" s="17" t="s">
         <v>922</v>
@@ -15295,7 +15618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.15">
       <c r="A5" s="540"/>
       <c r="B5" s="17" t="s">
         <v>922</v>
@@ -15322,7 +15645,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A6" s="540"/>
       <c r="B6" s="17" t="s">
         <v>922</v>
@@ -15349,7 +15672,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A7" s="540"/>
       <c r="B7" s="17" t="s">
         <v>922</v>
@@ -15374,7 +15697,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="540"/>
       <c r="B8" s="542" t="s">
         <v>881</v>
@@ -15398,6 +15721,56 @@
       <c r="I8" s="531" t="s">
         <v>1049</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="569" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C9" s="570" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D9" s="571">
+        <v>4</v>
+      </c>
+      <c r="E9" s="572" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F9" s="573" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="572"/>
+      <c r="H9" s="572" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I9" s="571" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J9" s="572"/>
+    </row>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="569" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C10" s="570" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D10" s="571">
+        <v>5</v>
+      </c>
+      <c r="E10" s="572" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F10" s="573" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="572"/>
+      <c r="H10" s="572" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I10" s="571" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J10" s="572"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15406,10 +15779,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CR69"/>
+  <dimension ref="A1:CR77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17666,6 +18039,246 @@
       <c r="K69" s="486"/>
       <c r="L69" s="492"/>
     </row>
+    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="69">
+        <v>1</v>
+      </c>
+      <c r="H70" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="69">
+        <v>1</v>
+      </c>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+    </row>
+    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D71" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G71" s="69">
+        <v>2</v>
+      </c>
+      <c r="H71" s="69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I71" s="69">
+        <v>1</v>
+      </c>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+    </row>
+    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E72" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F72" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G72" s="69">
+        <v>2</v>
+      </c>
+      <c r="H72" s="69" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I72" s="69">
+        <v>2</v>
+      </c>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+    </row>
+    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F73" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G73" s="69">
+        <v>2</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I73" s="69">
+        <v>3</v>
+      </c>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+    </row>
+    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="69">
+        <v>1</v>
+      </c>
+      <c r="H74" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="69">
+        <v>1</v>
+      </c>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B75" s="69"/>
+      <c r="C75" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F75" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G75" s="69">
+        <v>2</v>
+      </c>
+      <c r="H75" s="69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I75" s="69">
+        <v>1</v>
+      </c>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B76" s="69"/>
+      <c r="C76" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G76" s="69">
+        <v>2</v>
+      </c>
+      <c r="H76" s="69" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I76" s="69">
+        <v>2</v>
+      </c>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+    </row>
+    <row r="77" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="61">
+        <v>42744</v>
+      </c>
+      <c r="B77" s="69"/>
+      <c r="C77" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G77" s="69">
+        <v>2</v>
+      </c>
+      <c r="H77" s="69" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I77" s="69">
+        <v>3</v>
+      </c>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G58:G68 I58:I68" xr:uid="{5BF06C15-BA32-9342-A8C0-880EAE9CE63E}">
@@ -17685,10 +18298,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:FH36"/>
+  <dimension ref="A1:FH38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18627,6 +19240,46 @@
       </c>
       <c r="H36" s="469"/>
     </row>
+    <row r="37" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="80">
+        <v>1</v>
+      </c>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="80">
+        <v>1</v>
+      </c>
+      <c r="H38" s="70"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G26:G28" xr:uid="{4F2581EF-0318-6146-80A0-4232D55627A6}">
@@ -18646,10 +19299,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20819,6 +21472,176 @@
       <c r="S51" s="459"/>
       <c r="T51" s="459"/>
     </row>
+    <row r="52" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="574"/>
+      <c r="C52" s="575" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D52" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="103" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F52" s="103"/>
+      <c r="G52" s="576">
+        <v>1</v>
+      </c>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="J52" s="577"/>
+      <c r="K52" s="578"/>
+      <c r="L52" s="578"/>
+      <c r="M52" s="578"/>
+      <c r="N52" s="578"/>
+      <c r="O52" s="578"/>
+      <c r="P52" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52" s="103" t="s">
+        <v>533</v>
+      </c>
+      <c r="R52" s="579" t="s">
+        <v>533</v>
+      </c>
+      <c r="S52" s="579"/>
+      <c r="T52" s="105"/>
+    </row>
+    <row r="53" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="61"/>
+      <c r="C53" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G53" s="80">
+        <v>2</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="I53" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J53" s="117"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q53" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="R53" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="S53" s="69"/>
+      <c r="T53" s="115"/>
+    </row>
+    <row r="54" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="61"/>
+      <c r="C54" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D54" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F54" s="103"/>
+      <c r="G54" s="576">
+        <v>1</v>
+      </c>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="J54" s="577"/>
+      <c r="K54" s="578"/>
+      <c r="L54" s="578"/>
+      <c r="M54" s="578"/>
+      <c r="N54" s="578"/>
+      <c r="O54" s="578"/>
+      <c r="P54" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="103" t="s">
+        <v>533</v>
+      </c>
+      <c r="R54" s="579" t="s">
+        <v>533</v>
+      </c>
+      <c r="S54" s="579"/>
+      <c r="T54" s="105"/>
+    </row>
+    <row r="55" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="61"/>
+      <c r="C55" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D55" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G55" s="80">
+        <v>2</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J55" s="117"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="580" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="R55" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="S55" s="69"/>
+      <c r="T55" s="115"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G37:G40" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
@@ -20842,10 +21665,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" topLeftCell="A158" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:XFD192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28319,6 +29142,326 @@
       <c r="Q184" s="485"/>
       <c r="R184" s="487"/>
     </row>
+    <row r="185" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B185" s="61"/>
+      <c r="C185" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D185" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E185" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F185" s="69">
+        <v>1</v>
+      </c>
+      <c r="G185" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H185" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I185" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J185" s="80">
+        <v>1</v>
+      </c>
+      <c r="K185" s="69"/>
+      <c r="L185" s="69"/>
+      <c r="M185" s="299"/>
+      <c r="N185" s="69"/>
+      <c r="O185" s="69"/>
+      <c r="P185" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q185" s="69"/>
+      <c r="R185" s="64"/>
+    </row>
+    <row r="186" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B186" s="61"/>
+      <c r="C186" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D186" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E186" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F186" s="69">
+        <v>2</v>
+      </c>
+      <c r="G186" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H186" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I186" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J186" s="80">
+        <v>1</v>
+      </c>
+      <c r="K186" s="69"/>
+      <c r="L186" s="69"/>
+      <c r="M186" s="299"/>
+      <c r="N186" s="69"/>
+      <c r="O186" s="69"/>
+      <c r="P186" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q186" s="69"/>
+      <c r="R186" s="64"/>
+    </row>
+    <row r="187" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B187" s="61"/>
+      <c r="C187" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D187" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F187" s="69">
+        <v>3</v>
+      </c>
+      <c r="G187" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H187" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I187" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J187" s="80">
+        <v>1</v>
+      </c>
+      <c r="K187" s="69"/>
+      <c r="L187" s="69"/>
+      <c r="M187" s="299"/>
+      <c r="N187" s="69"/>
+      <c r="O187" s="69"/>
+      <c r="P187" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q187" s="69"/>
+      <c r="R187" s="64"/>
+    </row>
+    <row r="188" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B188" s="61"/>
+      <c r="C188" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D188" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E188" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F188" s="69">
+        <v>1</v>
+      </c>
+      <c r="G188" s="65" t="s">
+        <v>609</v>
+      </c>
+      <c r="H188" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="I188" s="65" t="s">
+        <v>961</v>
+      </c>
+      <c r="J188" s="80">
+        <v>1</v>
+      </c>
+      <c r="K188" s="69"/>
+      <c r="L188" s="69"/>
+      <c r="M188" s="299"/>
+      <c r="N188" s="69"/>
+      <c r="O188" s="69"/>
+      <c r="P188" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q188" s="69"/>
+      <c r="R188" s="64"/>
+    </row>
+    <row r="189" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B189" s="61"/>
+      <c r="C189" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D189" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E189" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F189" s="69">
+        <v>1</v>
+      </c>
+      <c r="G189" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H189" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I189" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J189" s="80">
+        <v>1</v>
+      </c>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="299"/>
+      <c r="N189" s="69"/>
+      <c r="O189" s="69"/>
+      <c r="P189" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q189" s="69"/>
+      <c r="R189" s="64"/>
+    </row>
+    <row r="190" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B190" s="61"/>
+      <c r="C190" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D190" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F190" s="69">
+        <v>2</v>
+      </c>
+      <c r="G190" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H190" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I190" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J190" s="80">
+        <v>1</v>
+      </c>
+      <c r="K190" s="69"/>
+      <c r="L190" s="69"/>
+      <c r="M190" s="299"/>
+      <c r="N190" s="69"/>
+      <c r="O190" s="69"/>
+      <c r="P190" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q190" s="69"/>
+      <c r="R190" s="64"/>
+    </row>
+    <row r="191" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B191" s="61"/>
+      <c r="C191" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D191" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E191" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F191" s="69">
+        <v>3</v>
+      </c>
+      <c r="G191" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H191" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="I191" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J191" s="80">
+        <v>1</v>
+      </c>
+      <c r="K191" s="69"/>
+      <c r="L191" s="69"/>
+      <c r="M191" s="299"/>
+      <c r="N191" s="69"/>
+      <c r="O191" s="69"/>
+      <c r="P191" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q191" s="69"/>
+      <c r="R191" s="64"/>
+    </row>
+    <row r="192" spans="1:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="71">
+        <v>42756</v>
+      </c>
+      <c r="B192" s="61"/>
+      <c r="C192" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D192" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E192" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F192" s="69">
+        <v>1</v>
+      </c>
+      <c r="G192" s="65" t="s">
+        <v>609</v>
+      </c>
+      <c r="H192" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="I192" s="65" t="s">
+        <v>961</v>
+      </c>
+      <c r="J192" s="80">
+        <v>1</v>
+      </c>
+      <c r="K192" s="69"/>
+      <c r="L192" s="69"/>
+      <c r="M192" s="299"/>
+      <c r="N192" s="69"/>
+      <c r="O192" s="69"/>
+      <c r="P192" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q192" s="69"/>
+      <c r="R192" s="64"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R25" r:id="rId1" xr:uid="{AB0A03AB-2F01-3F4D-AD0F-1694A8F186DE}"/>
@@ -28336,10 +29479,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A50" sqref="A50:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29354,7 +30497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="557">
         <v>42746</v>
       </c>
@@ -29372,6 +30515,182 @@
       <c r="G49" s="393">
         <v>1</v>
       </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="151"/>
+      <c r="C50" s="78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G50" s="153">
+        <v>1</v>
+      </c>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="151"/>
+      <c r="C51" s="78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G51" s="153">
+        <v>2</v>
+      </c>
+      <c r="H51" s="78"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="151"/>
+      <c r="C52" s="78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G52" s="153">
+        <v>3</v>
+      </c>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="151"/>
+      <c r="C53" s="78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E53" s="78" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G53" s="153">
+        <v>4</v>
+      </c>
+      <c r="H53" s="78"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="158"/>
+      <c r="C54" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G54" s="153">
+        <v>1</v>
+      </c>
+      <c r="H54" s="87"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="151"/>
+      <c r="C55" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E55" s="78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G55" s="153">
+        <v>2</v>
+      </c>
+      <c r="H55" s="78"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="158"/>
+      <c r="C56" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G56" s="153">
+        <v>3</v>
+      </c>
+      <c r="H56" s="87"/>
+    </row>
+    <row r="57" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="152">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="151"/>
+      <c r="C57" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G57" s="153">
+        <v>4</v>
+      </c>
+      <c r="H57" s="78"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -29570,10 +30889,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:DS37"/>
+  <dimension ref="A1:DS47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30576,6 +31895,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="170"/>
+      <c r="C38" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D38" s="141" t="s">
+        <v>667</v>
+      </c>
+      <c r="E38" s="171" t="s">
+        <v>668</v>
+      </c>
+      <c r="F38" s="172"/>
+      <c r="G38" s="173">
+        <v>1</v>
+      </c>
+      <c r="H38" s="581"/>
+      <c r="I38" s="581"/>
+    </row>
+    <row r="39" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="170"/>
+      <c r="C39" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D39" s="141" t="s">
+        <v>725</v>
+      </c>
+      <c r="E39" s="171" t="s">
+        <v>482</v>
+      </c>
+      <c r="F39" s="171"/>
+      <c r="G39" s="174">
+        <v>2</v>
+      </c>
+      <c r="H39" s="581"/>
+      <c r="I39" s="581"/>
+    </row>
+    <row r="40" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="170"/>
+      <c r="C40" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D40" s="141" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E40" s="171" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F40" s="171"/>
+      <c r="G40" s="174">
+        <v>3</v>
+      </c>
+      <c r="H40" s="581"/>
+      <c r="I40" s="581"/>
+    </row>
+    <row r="41" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="169">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="170"/>
+      <c r="C41" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D41" s="141" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E41" s="171" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F41" s="171"/>
+      <c r="G41" s="174">
+        <v>4</v>
+      </c>
+      <c r="H41" s="581"/>
+      <c r="I41" s="581"/>
+    </row>
+    <row r="42" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B42" s="170"/>
+      <c r="C42" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D42" s="141" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E42" s="171" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F42" s="171"/>
+      <c r="G42" s="174">
+        <v>5</v>
+      </c>
+      <c r="H42" s="581"/>
+      <c r="I42" s="581"/>
+    </row>
+    <row r="43" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B43" s="176"/>
+      <c r="C43" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D43" s="141" t="s">
+        <v>667</v>
+      </c>
+      <c r="E43" s="171" t="s">
+        <v>668</v>
+      </c>
+      <c r="F43" s="172"/>
+      <c r="G43" s="173">
+        <v>1</v>
+      </c>
+      <c r="H43" s="581"/>
+      <c r="I43" s="581"/>
+    </row>
+    <row r="44" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B44" s="170"/>
+      <c r="C44" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D44" s="141" t="s">
+        <v>725</v>
+      </c>
+      <c r="E44" s="171" t="s">
+        <v>482</v>
+      </c>
+      <c r="F44" s="171"/>
+      <c r="G44" s="174">
+        <v>2</v>
+      </c>
+      <c r="H44" s="581"/>
+      <c r="I44" s="581"/>
+    </row>
+    <row r="45" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B45" s="170"/>
+      <c r="C45" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D45" s="141" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E45" s="171" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F45" s="171"/>
+      <c r="G45" s="174">
+        <v>3</v>
+      </c>
+      <c r="H45" s="581"/>
+      <c r="I45" s="581"/>
+    </row>
+    <row r="46" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B46" s="170"/>
+      <c r="C46" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D46" s="141" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E46" s="171" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F46" s="171"/>
+      <c r="G46" s="174">
+        <v>4</v>
+      </c>
+      <c r="H46" s="581"/>
+      <c r="I46" s="581"/>
+    </row>
+    <row r="47" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="169">
+        <v>42737</v>
+      </c>
+      <c r="B47" s="170"/>
+      <c r="C47" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D47" s="141" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E47" s="171" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F47" s="171"/>
+      <c r="G47" s="174">
+        <v>5</v>
+      </c>
+      <c r="H47" s="581"/>
+      <c r="I47" s="581"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G23:G24" xr:uid="{9850B61E-9DFD-1342-A596-EA5F0D31DB06}">
@@ -30595,10 +32124,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="A51" sqref="A51:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31614,7 +33143,7 @@
       </c>
       <c r="H48" s="369"/>
     </row>
-    <row r="49" spans="1:7" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="512">
         <v>42746</v>
       </c>
@@ -31633,7 +33162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" s="389" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="557">
         <v>42746</v>
       </c>
@@ -31651,6 +33180,126 @@
       <c r="G50" s="393">
         <v>1</v>
       </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="186"/>
+      <c r="C51" s="171" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D51" s="141" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G51" s="172">
+        <v>1</v>
+      </c>
+      <c r="H51" s="81"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="186"/>
+      <c r="C52" s="171" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D52" s="141" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G52" s="172">
+        <v>2</v>
+      </c>
+      <c r="H52" s="81"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="186"/>
+      <c r="C53" s="171" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D53" s="141" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E53" s="141"/>
+      <c r="F53" s="141" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G53" s="172">
+        <v>3</v>
+      </c>
+      <c r="H53" s="81"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="186"/>
+      <c r="C54" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D54" s="141" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G54" s="172">
+        <v>1</v>
+      </c>
+      <c r="H54" s="81"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="186"/>
+      <c r="C55" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D55" s="141" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E55" s="141"/>
+      <c r="F55" s="141" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G55" s="172">
+        <v>2</v>
+      </c>
+      <c r="H55" s="81"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="186">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="186"/>
+      <c r="C56" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D56" s="141" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G56" s="172">
+        <v>3</v>
+      </c>
+      <c r="H56" s="81"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -31791,10 +33440,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:BL55"/>
+  <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33103,6 +34752,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="221"/>
+      <c r="C56" s="215" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D56" s="215" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G56" s="216">
+        <v>1</v>
+      </c>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+    </row>
+    <row r="57" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="221"/>
+      <c r="C57" s="215" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D57" s="215" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G57" s="216">
+        <v>2</v>
+      </c>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+    </row>
+    <row r="58" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="221"/>
+      <c r="C58" s="215" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D58" s="215" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G58" s="216">
+        <v>3</v>
+      </c>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+    </row>
+    <row r="59" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="221"/>
+      <c r="C59" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D59" s="215" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G59" s="216">
+        <v>1</v>
+      </c>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+    </row>
+    <row r="60" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="227"/>
+      <c r="C60" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D60" s="215" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E60" s="215"/>
+      <c r="F60" s="215" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G60" s="216">
+        <v>2</v>
+      </c>
+      <c r="H60" s="218"/>
+      <c r="I60" s="218"/>
+    </row>
+    <row r="61" spans="1:64" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="220">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="221"/>
+      <c r="C61" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D61" s="215" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G61" s="216">
+        <v>3</v>
+      </c>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -33255,10 +35030,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33620,6 +35395,96 @@
         <v>339</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="582">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="583"/>
+      <c r="C24" s="568" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D24" s="584" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E24" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D25" s="586" t="s">
+        <v>936</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D26" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="E26" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="582">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="583"/>
+      <c r="C27" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D27" s="584" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E27" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D28" s="586" t="s">
+        <v>936</v>
+      </c>
+      <c r="E28" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D29" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -33634,10 +35499,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView showGridLines="0" topLeftCell="A178" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36695,6 +38560,834 @@
         <v>339</v>
       </c>
     </row>
+    <row r="170" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B170" s="589"/>
+      <c r="C170" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D170" s="587" t="s">
+        <v>100</v>
+      </c>
+      <c r="E170" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F170" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B171" s="589"/>
+      <c r="C171" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D171" s="587" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E171" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F171" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B172" s="589"/>
+      <c r="C172" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D172" s="587" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E172" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F172" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B173" s="589"/>
+      <c r="C173" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D173" s="587" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E173" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F173" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B174" s="589"/>
+      <c r="C174" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D174" s="587" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E174" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F174" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B175" s="589"/>
+      <c r="C175" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D175" s="587" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E175" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F175" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B176" s="589"/>
+      <c r="C176" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D176" s="587" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E176" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F176" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B177" s="61"/>
+      <c r="C177" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D177" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E177" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F177" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B178" s="61"/>
+      <c r="C178" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D178" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E178" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F178" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B179" s="61"/>
+      <c r="C179" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D179" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E179" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F179" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B180" s="61"/>
+      <c r="C180" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D180" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E180" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F180" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B181" s="61"/>
+      <c r="C181" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D181" s="65" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E181" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F181" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B182" s="61"/>
+      <c r="C182" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D182" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E182" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F182" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B183" s="61"/>
+      <c r="C183" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D183" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E183" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F183" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B184" s="61"/>
+      <c r="C184" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E184" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F184" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B185" s="61"/>
+      <c r="C185" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E185" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F185" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B186" s="61"/>
+      <c r="C186" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D186" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E186" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F186" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B187" s="61"/>
+      <c r="C187" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D187" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E187" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F187" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B188" s="61"/>
+      <c r="C188" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D188" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E188" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F188" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B189" s="589"/>
+      <c r="C189" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D189" s="587" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E189" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F189" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B190" s="589"/>
+      <c r="C190" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D190" s="587" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E190" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F190" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B191" s="589"/>
+      <c r="C191" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D191" s="587" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E191" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F191" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B192" s="61"/>
+      <c r="C192" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D192" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E192" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F192" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B193" s="589"/>
+      <c r="C193" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D193" s="587" t="s">
+        <v>100</v>
+      </c>
+      <c r="E193" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F193" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B194" s="589"/>
+      <c r="C194" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D194" s="587" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E194" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F194" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B195" s="589"/>
+      <c r="C195" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D195" s="587" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E195" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F195" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B196" s="589"/>
+      <c r="C196" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D196" s="587" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E196" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F196" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B197" s="590"/>
+      <c r="C197" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D197" s="587" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E197" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F197" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B198" s="589"/>
+      <c r="C198" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D198" s="587" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E198" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F198" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B199" s="589"/>
+      <c r="C199" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D199" s="587" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E199" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F199" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B200" s="61"/>
+      <c r="C200" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D200" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E200" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F200" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B201" s="61"/>
+      <c r="C201" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D201" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E201" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F201" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B202" s="61"/>
+      <c r="C202" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D202" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E202" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F202" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B203" s="61"/>
+      <c r="C203" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E203" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F203" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B204" s="320"/>
+      <c r="C204" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D204" s="65" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E204" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F204" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B205" s="61"/>
+      <c r="C205" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D205" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E205" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F205" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B206" s="61"/>
+      <c r="C206" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D206" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E206" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F206" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B207" s="61"/>
+      <c r="C207" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D207" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E207" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F207" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B208" s="61"/>
+      <c r="C208" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D208" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F208" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B209" s="61"/>
+      <c r="C209" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D209" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E209" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F209" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B210" s="61"/>
+      <c r="C210" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D210" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E210" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F210" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B211" s="61"/>
+      <c r="C211" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D211" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E211" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F211" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B212" s="589"/>
+      <c r="C212" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D212" s="587" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E212" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F212" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B213" s="589"/>
+      <c r="C213" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D213" s="587" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E213" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F213" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B214" s="589"/>
+      <c r="C214" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D214" s="587" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E214" s="583" t="s">
+        <v>776</v>
+      </c>
+      <c r="F214" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="60">
+        <v>42736</v>
+      </c>
+      <c r="B215" s="61"/>
+      <c r="C215" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D215" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E215" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F215" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -36710,10 +39403,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -36861,6 +39554,90 @@
         <v>695</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="206" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B11" s="205" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="206" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B12" s="205" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="206" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B13" s="205" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B14" s="205" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D14" s="173" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B15" s="205" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B16" s="205" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D16" s="173" t="s">
+        <v>1126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -36871,10 +39648,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK59"/>
+  <dimension ref="A1:EK67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38221,6 +40998,150 @@
         <v>339</v>
       </c>
     </row>
+    <row r="60" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="582">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="583"/>
+      <c r="C60" s="587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D60" s="568" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="584" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F60" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="69"/>
+      <c r="C61" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E61" s="586" t="s">
+        <v>936</v>
+      </c>
+      <c r="F61" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="69"/>
+      <c r="C62" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="F62" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="69"/>
+      <c r="C63" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E63" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="F63" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="582">
+        <v>42737</v>
+      </c>
+      <c r="B64" s="583"/>
+      <c r="C64" s="587" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D64" s="568" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" s="584" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F64" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="66">
+        <v>42737</v>
+      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D65" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E65" s="586" t="s">
+        <v>936</v>
+      </c>
+      <c r="F65" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="66">
+        <v>42738</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="F66" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="66">
+        <v>42739</v>
+      </c>
+      <c r="B67" s="69"/>
+      <c r="C67" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D67" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E67" s="586" t="s">
+        <v>776</v>
+      </c>
+      <c r="F67" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -38235,10 +41156,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:CF41"/>
+  <dimension ref="A1:CF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39147,6 +42068,114 @@
         <v>339</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="582">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="583"/>
+      <c r="C42" s="568" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D42" s="568" t="s">
+        <v>489</v>
+      </c>
+      <c r="E42" s="583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F42" s="585" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F43" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D45" s="265" t="s">
+        <v>489</v>
+      </c>
+      <c r="E45" s="591" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F45" s="266" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="F46" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="F47" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -39164,7 +42193,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39631,26 +42660,50 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="411">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="409"/>
+      <c r="C20" s="409" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D20" s="409" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E20" s="409" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F20" s="409" t="s">
+        <v>773</v>
+      </c>
+      <c r="G20" s="409"/>
+      <c r="H20" s="409"/>
+      <c r="I20" s="565" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="411">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="409"/>
+      <c r="C21" s="409" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D21" s="409" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E21" s="409" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F21" s="409" t="s">
+        <v>773</v>
+      </c>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="565" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
@@ -40010,11 +43063,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO147"/>
+  <dimension ref="A1:IO163"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50564,7 +53617,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="71">
         <v>42743</v>
       </c>
@@ -50593,7 +53646,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="71">
         <v>42744</v>
       </c>
@@ -50624,7 +53677,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="71">
         <v>42745</v>
       </c>
@@ -50652,6 +53705,502 @@
       <c r="N147" s="17" t="s">
         <v>782</v>
       </c>
+    </row>
+    <row r="148" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B148" s="61"/>
+      <c r="C148" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="120"/>
+      <c r="G148" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H148" s="62"/>
+      <c r="I148" s="69"/>
+      <c r="J148" s="69"/>
+      <c r="K148" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L148" s="69"/>
+      <c r="M148" s="70"/>
+      <c r="N148" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O148" s="62"/>
+    </row>
+    <row r="149" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B149" s="320"/>
+      <c r="C149" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D149" s="73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E149" s="73" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F149" s="566"/>
+      <c r="G149" s="265" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H149" s="265"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="72"/>
+      <c r="K149" s="265" t="s">
+        <v>26</v>
+      </c>
+      <c r="L149" s="72"/>
+      <c r="M149" s="74"/>
+      <c r="N149" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O149" s="62"/>
+    </row>
+    <row r="150" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B150" s="61"/>
+      <c r="C150" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D150" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E150" s="65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F150" s="120"/>
+      <c r="G150" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H150" s="62"/>
+      <c r="I150" s="69"/>
+      <c r="J150" s="69"/>
+      <c r="K150" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L150" s="69"/>
+      <c r="M150" s="70"/>
+      <c r="N150" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O150" s="62"/>
+    </row>
+    <row r="151" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B151" s="61"/>
+      <c r="C151" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E151" s="65" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F151" s="120"/>
+      <c r="G151" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H151" s="62"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L151" s="69"/>
+      <c r="M151" s="70"/>
+      <c r="N151" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O151" s="62"/>
+    </row>
+    <row r="152" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B152" s="61"/>
+      <c r="C152" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D152" s="65" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E152" s="65" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F152" s="120"/>
+      <c r="G152" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H152" s="62"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L152" s="69"/>
+      <c r="M152" s="70"/>
+      <c r="N152" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O152" s="62"/>
+    </row>
+    <row r="153" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B153" s="61"/>
+      <c r="C153" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E153" s="65" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F153" s="120"/>
+      <c r="G153" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H153" s="62"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L153" s="69"/>
+      <c r="M153" s="70"/>
+      <c r="N153" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O153" s="62"/>
+    </row>
+    <row r="154" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B154" s="61"/>
+      <c r="C154" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E154" s="65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F154" s="120"/>
+      <c r="G154" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H154" s="62"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L154" s="69"/>
+      <c r="M154" s="70"/>
+      <c r="N154" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O154" s="62"/>
+    </row>
+    <row r="155" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B155" s="61"/>
+      <c r="C155" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E155" s="65" t="s">
+        <v>961</v>
+      </c>
+      <c r="F155" s="120"/>
+      <c r="G155" s="62" t="s">
+        <v>962</v>
+      </c>
+      <c r="H155" s="62"/>
+      <c r="I155" s="69"/>
+      <c r="J155" s="69"/>
+      <c r="K155" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L155" s="69"/>
+      <c r="M155" s="70"/>
+      <c r="N155" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O155" s="62"/>
+    </row>
+    <row r="156" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B156" s="61"/>
+      <c r="C156" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D156" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E156" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F156" s="120"/>
+      <c r="G156" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H156" s="62"/>
+      <c r="I156" s="69"/>
+      <c r="J156" s="69"/>
+      <c r="K156" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L156" s="69"/>
+      <c r="M156" s="70"/>
+      <c r="N156" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O156" s="62"/>
+    </row>
+    <row r="157" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B157" s="61"/>
+      <c r="C157" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D157" s="73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E157" s="73" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F157" s="566"/>
+      <c r="G157" s="265" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H157" s="265"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
+      <c r="K157" s="265" t="s">
+        <v>26</v>
+      </c>
+      <c r="L157" s="72"/>
+      <c r="M157" s="74"/>
+      <c r="N157" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O157" s="62"/>
+    </row>
+    <row r="158" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="61"/>
+      <c r="C158" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D158" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E158" s="65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F158" s="120"/>
+      <c r="G158" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H158" s="62"/>
+      <c r="I158" s="69"/>
+      <c r="J158" s="69"/>
+      <c r="K158" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" s="69"/>
+      <c r="M158" s="70"/>
+      <c r="N158" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O158" s="62"/>
+    </row>
+    <row r="159" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B159" s="61"/>
+      <c r="C159" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D159" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E159" s="65" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F159" s="120"/>
+      <c r="G159" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H159" s="62"/>
+      <c r="I159" s="69"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L159" s="69"/>
+      <c r="M159" s="70"/>
+      <c r="N159" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O159" s="62"/>
+    </row>
+    <row r="160" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B160" s="320"/>
+      <c r="C160" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E160" s="65" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F160" s="120"/>
+      <c r="G160" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H160" s="62"/>
+      <c r="I160" s="69"/>
+      <c r="J160" s="69"/>
+      <c r="K160" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L160" s="69"/>
+      <c r="M160" s="70"/>
+      <c r="N160" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O160" s="265"/>
+    </row>
+    <row r="161" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B161" s="61"/>
+      <c r="C161" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E161" s="65" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F161" s="120"/>
+      <c r="G161" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H161" s="62"/>
+      <c r="I161" s="69"/>
+      <c r="J161" s="69"/>
+      <c r="K161" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L161" s="69"/>
+      <c r="M161" s="70"/>
+      <c r="N161" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O161" s="62"/>
+    </row>
+    <row r="162" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="61"/>
+      <c r="C162" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E162" s="65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F162" s="120"/>
+      <c r="G162" s="62" t="s">
+        <v>912</v>
+      </c>
+      <c r="H162" s="62"/>
+      <c r="I162" s="69"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" s="69"/>
+      <c r="M162" s="70"/>
+      <c r="N162" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O162" s="62"/>
+    </row>
+    <row r="163" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="61"/>
+      <c r="C163" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E163" s="65" t="s">
+        <v>961</v>
+      </c>
+      <c r="F163" s="120"/>
+      <c r="G163" s="62" t="s">
+        <v>962</v>
+      </c>
+      <c r="H163" s="62"/>
+      <c r="I163" s="69"/>
+      <c r="J163" s="69"/>
+      <c r="K163" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L163" s="69"/>
+      <c r="M163" s="70"/>
+      <c r="N163" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O163" s="62"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -50672,10 +54221,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView showGridLines="0" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="C82" sqref="A82:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -53492,7 +57041,7 @@
       </c>
       <c r="N80" s="469"/>
     </row>
-    <row r="81" spans="1:14" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="432" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="425">
         <v>42745</v>
       </c>
@@ -53519,6 +57068,150 @@
         <v>783</v>
       </c>
       <c r="N81" s="469"/>
+    </row>
+    <row r="82" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B82" s="61"/>
+      <c r="C82" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D82" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E82" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="62"/>
+      <c r="G82" s="69" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H82" s="62" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I82" s="62"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="69"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
+    </row>
+    <row r="83" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B83" s="61"/>
+      <c r="C83" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D83" s="62" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E83" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="62"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="62" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I83" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J83" s="68"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="69"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+    </row>
+    <row r="84" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B84" s="61"/>
+      <c r="C84" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E84" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="I84" s="62" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="69"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+    </row>
+    <row r="85" spans="1:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="66">
+        <v>42736</v>
+      </c>
+      <c r="B85" s="61"/>
+      <c r="C85" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D85" s="62" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E85" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="62" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I85" s="62" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J85" s="68"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="69"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
@@ -53537,7 +57230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -54416,10 +58109,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -57455,6 +61148,1266 @@
       </c>
       <c r="L107" s="466"/>
     </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B108" s="81"/>
+      <c r="C108" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D108" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E108" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F108" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G108" s="118" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="81">
+        <v>1</v>
+      </c>
+      <c r="K108" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L108" s="64"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B109" s="81"/>
+      <c r="C109" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D109" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E109" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F109" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G109" s="118" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81">
+        <v>2</v>
+      </c>
+      <c r="K109" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L109" s="64"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B110" s="81"/>
+      <c r="C110" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D110" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E110" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F110" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G110" s="118"/>
+      <c r="H110" s="81"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="81">
+        <v>3</v>
+      </c>
+      <c r="K110" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L110" s="64"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B111" s="81"/>
+      <c r="C111" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D111" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E111" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F111" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G111" s="118"/>
+      <c r="H111" s="81"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81">
+        <v>4</v>
+      </c>
+      <c r="K111" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L111" s="64"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B112" s="419"/>
+      <c r="C112" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D112" s="265" t="s">
+        <v>392</v>
+      </c>
+      <c r="E112" s="88" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F112" s="239" t="s">
+        <v>916</v>
+      </c>
+      <c r="G112" s="239"/>
+      <c r="H112" s="419"/>
+      <c r="I112" s="419"/>
+      <c r="J112" s="419">
+        <v>5</v>
+      </c>
+      <c r="K112" s="239" t="s">
+        <v>375</v>
+      </c>
+      <c r="L112" s="567"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B113" s="81"/>
+      <c r="C113" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D113" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F113" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G113" s="118" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H113" s="81"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="81">
+        <v>6</v>
+      </c>
+      <c r="K113" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L113" s="64"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B114" s="81"/>
+      <c r="C114" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D114" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E114" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F114" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G114" s="118" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H114" s="81"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="419">
+        <v>7</v>
+      </c>
+      <c r="K114" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L114" s="64"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B115" s="81"/>
+      <c r="C115" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D115" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E115" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F115" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G115" s="118"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81">
+        <v>8</v>
+      </c>
+      <c r="K115" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L115" s="64"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B116" s="81"/>
+      <c r="C116" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D116" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F116" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G116" s="118"/>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="419">
+        <v>9</v>
+      </c>
+      <c r="K116" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L116" s="64"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B117" s="81"/>
+      <c r="C117" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D117" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E117" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F117" s="118" t="s">
+        <v>916</v>
+      </c>
+      <c r="G117" s="118"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81">
+        <v>10</v>
+      </c>
+      <c r="K117" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L117" s="64"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B118" s="81"/>
+      <c r="C118" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D118" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E118" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F118" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G118" s="118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="419">
+        <v>11</v>
+      </c>
+      <c r="K118" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L118" s="64"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B119" s="81"/>
+      <c r="C119" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D119" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E119" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F119" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G119" s="118" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H119" s="81"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="81">
+        <v>12</v>
+      </c>
+      <c r="K119" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L119" s="64"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B120" s="81"/>
+      <c r="C120" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D120" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E120" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F120" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G120" s="118"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="419">
+        <v>13</v>
+      </c>
+      <c r="K120" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L120" s="64"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B121" s="81"/>
+      <c r="C121" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F121" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G121" s="118"/>
+      <c r="H121" s="81"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="81">
+        <v>14</v>
+      </c>
+      <c r="K121" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L121" s="64"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B122" s="81"/>
+      <c r="C122" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D122" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E122" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F122" s="118" t="s">
+        <v>916</v>
+      </c>
+      <c r="G122" s="118"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="419">
+        <v>15</v>
+      </c>
+      <c r="K122" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L122" s="64"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B123" s="81"/>
+      <c r="C123" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D123" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E123" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F123" s="118" t="s">
+        <v>963</v>
+      </c>
+      <c r="G123" s="118"/>
+      <c r="H123" s="81"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="81">
+        <v>1</v>
+      </c>
+      <c r="K123" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L123" s="64"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B124" s="81"/>
+      <c r="C124" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D124" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E124" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F124" s="118" t="s">
+        <v>964</v>
+      </c>
+      <c r="G124" s="118"/>
+      <c r="H124" s="81"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="81">
+        <v>2</v>
+      </c>
+      <c r="K124" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L124" s="64"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B125" s="81"/>
+      <c r="C125" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D125" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E125" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F125" s="118" t="s">
+        <v>965</v>
+      </c>
+      <c r="G125" s="118"/>
+      <c r="H125" s="81"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="81">
+        <v>3</v>
+      </c>
+      <c r="K125" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L125" s="64"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B126" s="81"/>
+      <c r="C126" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D126" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E126" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F126" s="118" t="s">
+        <v>966</v>
+      </c>
+      <c r="G126" s="118"/>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="81">
+        <v>4</v>
+      </c>
+      <c r="K126" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L126" s="64"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B127" s="419"/>
+      <c r="C127" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D127" s="265" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F127" s="239" t="s">
+        <v>967</v>
+      </c>
+      <c r="G127" s="239"/>
+      <c r="H127" s="419"/>
+      <c r="I127" s="419"/>
+      <c r="J127" s="419">
+        <v>5</v>
+      </c>
+      <c r="K127" s="239" t="s">
+        <v>375</v>
+      </c>
+      <c r="L127" s="567"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B128" s="81"/>
+      <c r="C128" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D128" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E128" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F128" s="118" t="s">
+        <v>969</v>
+      </c>
+      <c r="G128" s="118"/>
+      <c r="H128" s="81"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="81">
+        <v>7</v>
+      </c>
+      <c r="K128" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L128" s="64"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B129" s="81"/>
+      <c r="C129" s="65" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D129" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E129" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F129" s="118" t="s">
+        <v>970</v>
+      </c>
+      <c r="G129" s="118">
+        <v>0</v>
+      </c>
+      <c r="H129" s="81"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81">
+        <v>8</v>
+      </c>
+      <c r="K129" s="118" t="s">
+        <v>389</v>
+      </c>
+      <c r="L129" s="64"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B130" s="81"/>
+      <c r="C130" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D130" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E130" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F130" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G130" s="118" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H130" s="81"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81">
+        <v>1</v>
+      </c>
+      <c r="K130" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L130" s="64"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B131" s="81"/>
+      <c r="C131" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D131" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E131" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F131" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G131" s="118" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H131" s="81"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="81">
+        <v>2</v>
+      </c>
+      <c r="K131" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L131" s="64"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B132" s="81"/>
+      <c r="C132" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D132" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E132" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F132" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G132" s="118"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81">
+        <v>3</v>
+      </c>
+      <c r="K132" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L132" s="64"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A133" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B133" s="81"/>
+      <c r="C133" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D133" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E133" s="82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F133" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G133" s="118"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81">
+        <v>4</v>
+      </c>
+      <c r="K133" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L133" s="64"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A134" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B134" s="419"/>
+      <c r="C134" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D134" s="265" t="s">
+        <v>392</v>
+      </c>
+      <c r="E134" s="88" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F134" s="239" t="s">
+        <v>916</v>
+      </c>
+      <c r="G134" s="239"/>
+      <c r="H134" s="419"/>
+      <c r="I134" s="419"/>
+      <c r="J134" s="419">
+        <v>5</v>
+      </c>
+      <c r="K134" s="239" t="s">
+        <v>375</v>
+      </c>
+      <c r="L134" s="567"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A135" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B135" s="81"/>
+      <c r="C135" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D135" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E135" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F135" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G135" s="118" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81">
+        <v>6</v>
+      </c>
+      <c r="K135" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L135" s="64"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A136" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B136" s="81"/>
+      <c r="C136" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D136" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E136" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F136" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G136" s="118" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="419">
+        <v>7</v>
+      </c>
+      <c r="K136" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L136" s="64"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A137" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B137" s="81"/>
+      <c r="C137" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D137" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E137" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F137" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G137" s="118"/>
+      <c r="H137" s="81"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="81">
+        <v>8</v>
+      </c>
+      <c r="K137" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L137" s="64"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A138" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B138" s="81"/>
+      <c r="C138" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D138" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E138" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F138" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G138" s="118"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="419">
+        <v>9</v>
+      </c>
+      <c r="K138" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L138" s="64"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A139" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B139" s="81"/>
+      <c r="C139" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D139" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E139" s="82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F139" s="118" t="s">
+        <v>916</v>
+      </c>
+      <c r="G139" s="118"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="81">
+        <v>10</v>
+      </c>
+      <c r="K139" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L139" s="64"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A140" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B140" s="81"/>
+      <c r="C140" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D140" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E140" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F140" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="G140" s="118" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="419">
+        <v>11</v>
+      </c>
+      <c r="K140" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L140" s="64"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A141" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B141" s="81"/>
+      <c r="C141" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D141" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F141" s="118" t="s">
+        <v>914</v>
+      </c>
+      <c r="G141" s="118" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H141" s="81"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81">
+        <v>12</v>
+      </c>
+      <c r="K141" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="L141" s="64"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A142" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B142" s="81"/>
+      <c r="C142" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D142" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E142" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F142" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="G142" s="118"/>
+      <c r="H142" s="81"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="419">
+        <v>13</v>
+      </c>
+      <c r="K142" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L142" s="64"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A143" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B143" s="81"/>
+      <c r="C143" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D143" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E143" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F143" s="118" t="s">
+        <v>915</v>
+      </c>
+      <c r="G143" s="118"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81">
+        <v>14</v>
+      </c>
+      <c r="K143" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L143" s="64"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A144" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B144" s="81"/>
+      <c r="C144" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D144" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="E144" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F144" s="118" t="s">
+        <v>916</v>
+      </c>
+      <c r="G144" s="118"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="419">
+        <v>15</v>
+      </c>
+      <c r="K144" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L144" s="64"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A145" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B145" s="81"/>
+      <c r="C145" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D145" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E145" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F145" s="118" t="s">
+        <v>963</v>
+      </c>
+      <c r="G145" s="118"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81">
+        <v>1</v>
+      </c>
+      <c r="K145" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L145" s="64"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A146" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B146" s="81"/>
+      <c r="C146" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D146" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E146" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F146" s="118" t="s">
+        <v>964</v>
+      </c>
+      <c r="G146" s="118"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81">
+        <v>2</v>
+      </c>
+      <c r="K146" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L146" s="64"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A147" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B147" s="81"/>
+      <c r="C147" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D147" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E147" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F147" s="118" t="s">
+        <v>965</v>
+      </c>
+      <c r="G147" s="118"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81">
+        <v>3</v>
+      </c>
+      <c r="K147" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L147" s="64"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A148" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B148" s="81"/>
+      <c r="C148" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D148" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E148" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F148" s="118" t="s">
+        <v>966</v>
+      </c>
+      <c r="G148" s="118"/>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81">
+        <v>4</v>
+      </c>
+      <c r="K148" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L148" s="64"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A149" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B149" s="81"/>
+      <c r="C149" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D149" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E149" s="88" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F149" s="239" t="s">
+        <v>967</v>
+      </c>
+      <c r="G149" s="239"/>
+      <c r="H149" s="419"/>
+      <c r="I149" s="419"/>
+      <c r="J149" s="419">
+        <v>5</v>
+      </c>
+      <c r="K149" s="239" t="s">
+        <v>375</v>
+      </c>
+      <c r="L149" s="64"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B150" s="81"/>
+      <c r="C150" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D150" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E150" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F150" s="118" t="s">
+        <v>969</v>
+      </c>
+      <c r="G150" s="118"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="81">
+        <v>7</v>
+      </c>
+      <c r="K150" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="L150" s="64"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A151" s="237">
+        <v>43101</v>
+      </c>
+      <c r="B151" s="81"/>
+      <c r="C151" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D151" s="568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E151" s="82" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F151" s="118" t="s">
+        <v>970</v>
+      </c>
+      <c r="G151" s="118">
+        <v>1</v>
+      </c>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81">
+        <v>8</v>
+      </c>
+      <c r="K151" s="118" t="s">
+        <v>389</v>
+      </c>
+      <c r="L151" s="64"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABCB4-7E6B-8242-BB58-860C154C0251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD6678-5101-5741-B4E3-4003600BA8D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">CaseEvent!$A$22:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CaseField!$A$3:$IO$123</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3478,9 +3472,6 @@
     <t>Notice of Change Request</t>
   </si>
   <si>
-    <t>http://host.docker.internal:5555/callback_returning_simulated_completed_noc_request</t>
-  </si>
-  <si>
     <t>individual.FirstName</t>
   </si>
   <si>
@@ -3524,6 +3515,9 @@
   </si>
   <si>
     <t>The other party solicitor</t>
+  </si>
+  <si>
+    <t>http://ccd-test-stubs-service-aat.service.core-compute-aat.internal/callback_returning_simulated_completed_noc_request</t>
   </si>
 </sst>
 </file>
@@ -5849,9 +5843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5882,6 +5873,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="21" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -19301,8 +19295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J24" zoomScale="109" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21624,8 +21618,8 @@
       </c>
       <c r="J55" s="117"/>
       <c r="K55" s="114"/>
-      <c r="L55" s="580" t="s">
-        <v>1111</v>
+      <c r="L55" s="591" t="s">
+        <v>1126</v>
       </c>
       <c r="M55" s="114"/>
       <c r="N55" s="114"/>
@@ -21651,6 +21645,7 @@
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{D8CF8637-CA9E-D640-B8A5-0839120ED0E2}"/>
     <hyperlink ref="J36" r:id="rId2" xr:uid="{965A59DF-24BC-0646-830A-59FEE12B238C}"/>
+    <hyperlink ref="L55" r:id="rId3" xr:uid="{CDE2BD3A-FA56-BB44-9DE4-19C11ADAD442}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -21658,7 +21653,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -30528,10 +30523,10 @@
         <v>1068</v>
       </c>
       <c r="E50" s="78" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F50" s="78" t="s">
         <v>1112</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>1113</v>
       </c>
       <c r="G50" s="153">
         <v>1</v>
@@ -30550,10 +30545,10 @@
         <v>1068</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F51" s="78" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G51" s="153">
         <v>2</v>
@@ -30572,10 +30567,10 @@
         <v>1068</v>
       </c>
       <c r="E52" s="78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F52" s="78" t="s">
         <v>1115</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>1116</v>
       </c>
       <c r="G52" s="153">
         <v>3</v>
@@ -30594,10 +30589,10 @@
         <v>1068</v>
       </c>
       <c r="E53" s="78" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F53" s="78" t="s">
         <v>1117</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>1118</v>
       </c>
       <c r="G53" s="153">
         <v>4</v>
@@ -30616,10 +30611,10 @@
         <v>1068</v>
       </c>
       <c r="E54" s="78" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F54" s="78" t="s">
         <v>1112</v>
-      </c>
-      <c r="F54" s="78" t="s">
-        <v>1113</v>
       </c>
       <c r="G54" s="153">
         <v>1</v>
@@ -30638,10 +30633,10 @@
         <v>1068</v>
       </c>
       <c r="E55" s="78" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F55" s="78" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G55" s="153">
         <v>2</v>
@@ -30660,10 +30655,10 @@
         <v>1068</v>
       </c>
       <c r="E56" s="78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F56" s="78" t="s">
         <v>1115</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>1116</v>
       </c>
       <c r="G56" s="153">
         <v>3</v>
@@ -30682,10 +30677,10 @@
         <v>1068</v>
       </c>
       <c r="E57" s="78" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F57" s="78" t="s">
         <v>1117</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>1118</v>
       </c>
       <c r="G57" s="153">
         <v>4</v>
@@ -31913,8 +31908,8 @@
       <c r="G38" s="173">
         <v>1</v>
       </c>
-      <c r="H38" s="581"/>
-      <c r="I38" s="581"/>
+      <c r="H38" s="580"/>
+      <c r="I38" s="580"/>
     </row>
     <row r="39" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="169">
@@ -31934,8 +31929,8 @@
       <c r="G39" s="174">
         <v>2</v>
       </c>
-      <c r="H39" s="581"/>
-      <c r="I39" s="581"/>
+      <c r="H39" s="580"/>
+      <c r="I39" s="580"/>
     </row>
     <row r="40" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="169">
@@ -31955,8 +31950,8 @@
       <c r="G40" s="174">
         <v>3</v>
       </c>
-      <c r="H40" s="581"/>
-      <c r="I40" s="581"/>
+      <c r="H40" s="580"/>
+      <c r="I40" s="580"/>
     </row>
     <row r="41" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="169">
@@ -31976,8 +31971,8 @@
       <c r="G41" s="174">
         <v>4</v>
       </c>
-      <c r="H41" s="581"/>
-      <c r="I41" s="581"/>
+      <c r="H41" s="580"/>
+      <c r="I41" s="580"/>
     </row>
     <row r="42" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="169">
@@ -31991,14 +31986,14 @@
         <v>1073</v>
       </c>
       <c r="E42" s="171" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F42" s="171"/>
       <c r="G42" s="174">
         <v>5</v>
       </c>
-      <c r="H42" s="581"/>
-      <c r="I42" s="581"/>
+      <c r="H42" s="580"/>
+      <c r="I42" s="580"/>
     </row>
     <row r="43" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="169">
@@ -32018,8 +32013,8 @@
       <c r="G43" s="173">
         <v>1</v>
       </c>
-      <c r="H43" s="581"/>
-      <c r="I43" s="581"/>
+      <c r="H43" s="580"/>
+      <c r="I43" s="580"/>
     </row>
     <row r="44" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="169">
@@ -32039,8 +32034,8 @@
       <c r="G44" s="174">
         <v>2</v>
       </c>
-      <c r="H44" s="581"/>
-      <c r="I44" s="581"/>
+      <c r="H44" s="580"/>
+      <c r="I44" s="580"/>
     </row>
     <row r="45" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="169">
@@ -32060,8 +32055,8 @@
       <c r="G45" s="174">
         <v>3</v>
       </c>
-      <c r="H45" s="581"/>
-      <c r="I45" s="581"/>
+      <c r="H45" s="580"/>
+      <c r="I45" s="580"/>
     </row>
     <row r="46" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="169">
@@ -32081,8 +32076,8 @@
       <c r="G46" s="174">
         <v>4</v>
       </c>
-      <c r="H46" s="581"/>
-      <c r="I46" s="581"/>
+      <c r="H46" s="580"/>
+      <c r="I46" s="580"/>
     </row>
     <row r="47" spans="1:123" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169">
@@ -32096,14 +32091,14 @@
         <v>1073</v>
       </c>
       <c r="E47" s="171" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F47" s="171"/>
       <c r="G47" s="174">
         <v>5</v>
       </c>
-      <c r="H47" s="581"/>
-      <c r="I47" s="581"/>
+      <c r="H47" s="580"/>
+      <c r="I47" s="580"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -33234,7 +33229,7 @@
       </c>
       <c r="E53" s="141"/>
       <c r="F53" s="141" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G53" s="172">
         <v>3</v>
@@ -33294,7 +33289,7 @@
       </c>
       <c r="E56" s="141"/>
       <c r="F56" s="141" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G56" s="172">
         <v>3</v>
@@ -35396,17 +35391,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="582">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="583"/>
+      <c r="A24" s="581">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="582"/>
       <c r="C24" s="568" t="s">
         <v>1062</v>
       </c>
-      <c r="D24" s="584" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E24" s="585" t="s">
+      <c r="D24" s="583" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E24" s="584" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35418,7 +35413,7 @@
       <c r="C25" s="62" t="s">
         <v>1062</v>
       </c>
-      <c r="D25" s="586" t="s">
+      <c r="D25" s="585" t="s">
         <v>936</v>
       </c>
       <c r="E25" s="115" t="s">
@@ -35433,7 +35428,7 @@
       <c r="C26" s="62" t="s">
         <v>1062</v>
       </c>
-      <c r="D26" s="586" t="s">
+      <c r="D26" s="585" t="s">
         <v>776</v>
       </c>
       <c r="E26" s="115" t="s">
@@ -35441,17 +35436,17 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="582">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="583"/>
-      <c r="C27" s="587" t="s">
+      <c r="A27" s="581">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="582"/>
+      <c r="C27" s="586" t="s">
         <v>1065</v>
       </c>
-      <c r="D27" s="584" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E27" s="585" t="s">
+      <c r="D27" s="583" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E27" s="584" t="s">
         <v>339</v>
       </c>
     </row>
@@ -35463,7 +35458,7 @@
       <c r="C28" s="65" t="s">
         <v>1065</v>
       </c>
-      <c r="D28" s="586" t="s">
+      <c r="D28" s="585" t="s">
         <v>936</v>
       </c>
       <c r="E28" s="115" t="s">
@@ -35478,7 +35473,7 @@
       <c r="C29" s="65" t="s">
         <v>1065</v>
       </c>
-      <c r="D29" s="586" t="s">
+      <c r="D29" s="585" t="s">
         <v>776</v>
       </c>
       <c r="E29" s="115" t="s">
@@ -38561,128 +38556,128 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B170" s="589"/>
-      <c r="C170" s="587" t="s">
+      <c r="A170" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B170" s="588"/>
+      <c r="C170" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D170" s="587" t="s">
+      <c r="D170" s="586" t="s">
         <v>100</v>
       </c>
-      <c r="E170" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F170" s="585" t="s">
+      <c r="E170" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F170" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B171" s="589"/>
-      <c r="C171" s="587" t="s">
+      <c r="A171" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B171" s="588"/>
+      <c r="C171" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D171" s="587" t="s">
+      <c r="D171" s="586" t="s">
         <v>1068</v>
       </c>
-      <c r="E171" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F171" s="585" t="s">
+      <c r="E171" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F171" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B172" s="589"/>
-      <c r="C172" s="587" t="s">
+      <c r="A172" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B172" s="588"/>
+      <c r="C172" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D172" s="587" t="s">
+      <c r="D172" s="586" t="s">
         <v>1071</v>
       </c>
-      <c r="E172" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F172" s="585" t="s">
+      <c r="E172" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F172" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B173" s="589"/>
-      <c r="C173" s="587" t="s">
+      <c r="A173" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B173" s="588"/>
+      <c r="C173" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D173" s="587" t="s">
+      <c r="D173" s="586" t="s">
         <v>1073</v>
       </c>
-      <c r="E173" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F173" s="585" t="s">
+      <c r="E173" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F173" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B174" s="589"/>
-      <c r="C174" s="587" t="s">
+      <c r="A174" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B174" s="588"/>
+      <c r="C174" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D174" s="587" t="s">
+      <c r="D174" s="586" t="s">
         <v>1075</v>
       </c>
-      <c r="E174" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F174" s="585" t="s">
+      <c r="E174" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F174" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B175" s="589"/>
-      <c r="C175" s="587" t="s">
+      <c r="A175" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B175" s="588"/>
+      <c r="C175" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D175" s="587" t="s">
+      <c r="D175" s="586" t="s">
         <v>1077</v>
       </c>
-      <c r="E175" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F175" s="585" t="s">
+      <c r="E175" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F175" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B176" s="589"/>
-      <c r="C176" s="587" t="s">
+      <c r="A176" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B176" s="588"/>
+      <c r="C176" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D176" s="587" t="s">
+      <c r="D176" s="586" t="s">
         <v>1079</v>
       </c>
-      <c r="E176" s="583" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F176" s="585" t="s">
+      <c r="E176" s="582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F176" s="584" t="s">
         <v>339</v>
       </c>
     </row>
@@ -38903,56 +38898,56 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B189" s="589"/>
-      <c r="C189" s="587" t="s">
+      <c r="A189" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B189" s="588"/>
+      <c r="C189" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D189" s="587" t="s">
+      <c r="D189" s="586" t="s">
         <v>1075</v>
       </c>
-      <c r="E189" s="583" t="s">
+      <c r="E189" s="582" t="s">
         <v>776</v>
       </c>
-      <c r="F189" s="585" t="s">
+      <c r="F189" s="584" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B190" s="589"/>
-      <c r="C190" s="587" t="s">
+      <c r="A190" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B190" s="588"/>
+      <c r="C190" s="586" t="s">
         <v>1062</v>
       </c>
-      <c r="D190" s="587" t="s">
+      <c r="D190" s="586" t="s">
         <v>1077</v>
       </c>
-      <c r="E190" s="583" t="s">
+      <c r="E190" s="582" t="s">
         <v>776</v>
       </c>
-      <c r="F190" s="585" t="s">
+      <c r="F190" s="584" t="s">
         <